--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Week</t>
   </si>
@@ -254,19 +254,16 @@
 -Update template</t>
   </si>
   <si>
-    <r>
-      <t>Khau Thanh Dao - T10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>[…]</t>
-    </r>
+    <t>Khau Thanh Dao - T105026</t>
+  </si>
+  <si>
+    <t>Do Change management plan</t>
+  </si>
+  <si>
+    <t>AS_PM_ChangemanagementPlan</t>
+  </si>
+  <si>
+    <t>Reseach technical</t>
   </si>
 </sst>
 </file>
@@ -276,11 +273,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,14 +285,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -308,7 +305,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,20 +318,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -347,14 +344,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -566,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,6 +687,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,15 +706,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,125 +715,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,13 +1165,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1277,109 +1274,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="16"/>
       <c r="H5" s="46" t="s">
         <v>64</v>
@@ -1393,7 +1390,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
@@ -1424,13 +1421,13 @@
       <c r="J6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1457,21 +1454,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="65"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="35">
-        <f>SUM(M8:M39)</f>
-        <v>11.07</v>
+        <f>SUM(M8:M40)</f>
+        <v>15.07</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="92">
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="93">
         <v>41586</v>
       </c>
       <c r="C8" s="48">
@@ -1483,7 +1480,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="95">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1508,8 +1505,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1519,7 +1516,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="32" t="s">
         <v>25</v>
       </c>
@@ -1530,10 +1527,10 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="65">
         <v>41589</v>
       </c>
       <c r="C10" s="24">
@@ -1563,7 +1560,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="4">
         <f>SUM(E10:E16)</f>
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>9</v>
@@ -1571,8 +1568,8 @@
       <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="24">
         <v>0.91666666666666663</v>
       </c>
@@ -1603,7 +1600,7 @@
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="23">
         <v>41590</v>
       </c>
@@ -1637,8 +1634,8 @@
       <c r="O12" s="37"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="63">
+      <c r="A13" s="92"/>
+      <c r="B13" s="65">
         <v>41591</v>
       </c>
       <c r="C13" s="27">
@@ -1650,7 +1647,7 @@
       <c r="E13" s="30">
         <v>2</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="97">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1668,8 +1665,8 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="27">
         <v>0.91666666666666663</v>
       </c>
@@ -1679,7 +1676,7 @@
       <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="97"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="50" t="s">
         <v>24</v>
       </c>
@@ -1693,15 +1690,15 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E17:E21)</f>
-        <v>0</v>
+        <f>SUM(E18:E22)</f>
+        <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="23">
         <v>41592</v>
       </c>
@@ -1714,14 +1711,14 @@
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="41"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="40"/>
       <c r="K15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E22:E26)</f>
+        <f>SUM(E23:E27)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1729,27 +1726,39 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="47">
         <v>41593</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="27">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
       <c r="F16" s="30">
         <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E27:E31)</f>
+        <f>SUM(E28:E32)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1757,29 +1766,41 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="103">
         <v>3</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="63">
         <v>41596</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17:F48" si="0">E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="52">
+        <v>0.625</v>
+      </c>
+      <c r="D17" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="53">
+        <f>SUM(E17:E18)</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="J17" s="42"/>
       <c r="K17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E42:E46)</f>
+        <f>SUM(E43:E47)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1787,55 +1808,59 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="28">
-        <v>41597</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>73</v>
+      </c>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="10">
-        <f>SUM(E47:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="28">
-        <v>41598</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+        <v>41597</v>
+      </c>
+      <c r="C19" s="52">
+        <v>0.5625</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
       <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F19:F49" si="0">E19</f>
+        <v>1</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E48:E52)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1843,9 +1868,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="28">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1859,11 +1884,11 @@
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -1871,9 +1896,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="28">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1887,11 +1912,11 @@
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -1899,29 +1924,27 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
-        <v>4</v>
-      </c>
-      <c r="B22" s="29">
-        <v>41603</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
+      <c r="A22" s="103"/>
+      <c r="B22" s="28">
+        <v>41600</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -1929,9 +1952,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56">
+        <v>4</v>
+      </c>
       <c r="B23" s="29">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1945,11 +1970,11 @@
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
       <c r="K23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -1957,9 +1982,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="29">
-        <v>41605</v>
+        <v>41604</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1973,11 +1998,11 @@
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
       <c r="K24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -1985,9 +2010,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="29">
-        <v>41606</v>
+        <v>41605</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2001,11 +2026,11 @@
       <c r="I25" s="43"/>
       <c r="J25" s="43"/>
       <c r="K25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2013,9 +2038,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="29">
-        <v>41607</v>
+        <v>41606</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2029,11 +2054,11 @@
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
       <c r="K26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2041,29 +2066,27 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
-        <v>5</v>
-      </c>
-      <c r="B27" s="28">
-        <v>41610</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
+      <c r="A27" s="58"/>
+      <c r="B27" s="29">
+        <v>41607</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2071,9 +2094,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53">
+        <v>5</v>
+      </c>
       <c r="B28" s="28">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2087,11 +2112,11 @@
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
       <c r="K28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2099,9 +2124,9 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="28">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2115,11 +2140,11 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2127,9 +2152,9 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="28">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2143,11 +2168,11 @@
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
       <c r="K30" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2155,9 +2180,9 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="28">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2171,11 +2196,11 @@
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2183,29 +2208,27 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
-        <v>6</v>
-      </c>
-      <c r="B32" s="29">
-        <v>41617</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="A32" s="55"/>
+      <c r="B32" s="28">
+        <v>41614</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2213,9 +2236,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="56">
+        <v>6</v>
+      </c>
       <c r="B33" s="29">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2229,11 +2254,11 @@
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
       <c r="K33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2241,9 +2266,9 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="29">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2257,11 +2282,11 @@
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
       <c r="K34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2269,9 +2294,9 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="29">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2285,11 +2310,11 @@
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2297,9 +2322,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="29">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2313,11 +2338,11 @@
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2325,29 +2350,27 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
-        <v>7</v>
-      </c>
-      <c r="B37" s="28">
-        <v>41624</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="29">
+        <v>41621</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <f>E37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2355,9 +2378,11 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="53">
+        <v>7</v>
+      </c>
       <c r="B38" s="28">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2371,11 +2396,11 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2383,9 +2408,9 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="28">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2399,11 +2424,11 @@
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E148:E152)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2411,9 +2436,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="28">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2426,11 +2451,22 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
+      <c r="K40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="10">
+        <f>SUM(E153:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="28">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2445,28 +2481,28 @@
       <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
+      <c r="A42" s="55"/>
+      <c r="B42" s="28">
+        <v>41628</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
         <v>8</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B43" s="29">
         <v>41631</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="29">
-        <v>41632</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2481,9 +2517,9 @@
       <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="29">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2498,9 +2534,9 @@
       <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="29">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2515,9 +2551,9 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="29">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2532,28 +2568,28 @@
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="55">
+      <c r="A47" s="58"/>
+      <c r="B47" s="29">
+        <v>41635</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
         <v>9</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B48" s="28">
         <v>41638</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="28">
-        <v>41639</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2568,15 +2604,15 @@
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="28">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <f t="shared" ref="F49:F80" si="1">E49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="42"/>
@@ -2585,15 +2621,15 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="28">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F50:F81" si="1">E50</f>
         <v>0</v>
       </c>
       <c r="G50" s="42"/>
@@ -2602,9 +2638,9 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="28">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2619,28 +2655,28 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="52">
+      <c r="A52" s="55"/>
+      <c r="B52" s="28">
+        <v>41642</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="56">
         <v>10</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B53" s="29">
         <v>41645</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="29">
-        <v>41646</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2655,9 +2691,9 @@
       <c r="J53" s="43"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="29">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2672,9 +2708,9 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="29">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2689,9 +2725,9 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="29">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2706,28 +2742,28 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55">
+      <c r="A57" s="58"/>
+      <c r="B57" s="29">
+        <v>41649</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
         <v>11</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B58" s="28">
         <v>41652</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="28">
-        <v>41653</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2742,9 +2778,9 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="28">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2759,9 +2795,9 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="28">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2776,9 +2812,9 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="28">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2793,28 +2829,28 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="52">
+      <c r="A62" s="55"/>
+      <c r="B62" s="28">
+        <v>41656</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="56">
         <v>12</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B63" s="29">
         <v>41659</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="29">
-        <v>41660</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2829,9 +2865,9 @@
       <c r="J63" s="43"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="29">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2846,9 +2882,9 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="29">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2863,9 +2899,9 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="29">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2880,30 +2916,28 @@
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55">
+      <c r="A67" s="58"/>
+      <c r="B67" s="29">
+        <v>41663</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
         <v>13</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B68" s="28">
         <v>41666</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="28">
-        <v>41667</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2920,9 +2954,9 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="28">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2939,9 +2973,9 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="28">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2958,9 +2992,9 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="28">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2977,30 +3011,30 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="52">
+      <c r="A72" s="55"/>
+      <c r="B72" s="28">
+        <v>41670</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="56">
         <v>14</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B73" s="29">
         <v>41673</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="29">
-        <v>41674</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3017,9 +3051,9 @@
       <c r="J73" s="43"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="29">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3036,9 +3070,9 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="29">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3055,9 +3089,9 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="29">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3074,28 +3108,30 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="55">
+      <c r="A77" s="58"/>
+      <c r="B77" s="29">
+        <v>41677</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="53">
         <v>15</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B78" s="28">
         <v>41680</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="28">
-        <v>41681</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3110,9 +3146,9 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="28">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3127,9 +3163,9 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="28">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3144,15 +3180,15 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="28">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
-        <f t="shared" ref="F81:F112" si="2">E81</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="42"/>
@@ -3161,28 +3197,28 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="52">
+      <c r="A82" s="55"/>
+      <c r="B82" s="28">
+        <v>41684</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
+        <f t="shared" ref="F82:F113" si="2">E82</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="56">
         <v>16</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B83" s="29">
         <v>41687</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="29">
-        <v>41688</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3197,9 +3233,9 @@
       <c r="J83" s="43"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="29">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3214,9 +3250,9 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="29">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3231,9 +3267,9 @@
       <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="29">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3248,28 +3284,28 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="58"/>
+      <c r="B87" s="29">
+        <v>41691</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="53">
         <v>17</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B88" s="28">
         <v>41694</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="28">
-        <v>41695</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -3284,9 +3320,9 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="28">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3301,9 +3337,9 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="28">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3318,9 +3354,9 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="28">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3335,28 +3371,28 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="52">
+      <c r="A92" s="55"/>
+      <c r="B92" s="28">
+        <v>41698</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="56">
         <v>18</v>
       </c>
-      <c r="B92" s="29">
+      <c r="B93" s="29">
         <v>41701</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="29">
-        <v>41702</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3371,9 +3407,9 @@
       <c r="J93" s="43"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="29">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3388,9 +3424,9 @@
       <c r="J94" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="29">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3405,9 +3441,9 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="29">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3422,28 +3458,28 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55">
+      <c r="A97" s="58"/>
+      <c r="B97" s="29">
+        <v>41705</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="53">
         <v>19</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B98" s="28">
         <v>41708</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="28">
-        <v>41709</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3458,9 +3494,9 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="28">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3475,9 +3511,9 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="28">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3492,9 +3528,9 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="28">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3509,28 +3545,28 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="52">
+      <c r="A102" s="55"/>
+      <c r="B102" s="28">
+        <v>41712</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="56">
         <v>20</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B103" s="29">
         <v>41715</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="29">
-        <v>41716</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3545,9 +3581,9 @@
       <c r="J103" s="43"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="29">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3562,9 +3598,9 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="29">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3579,9 +3615,9 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="29">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3596,28 +3632,28 @@
       <c r="J106" s="43"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55">
+      <c r="A107" s="58"/>
+      <c r="B107" s="29">
+        <v>41719</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
         <v>21</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B108" s="28">
         <v>41722</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
-      <c r="B108" s="28">
-        <v>41723</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3632,9 +3668,9 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="28">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3649,9 +3685,9 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="28">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3666,9 +3702,9 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="28">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3683,34 +3719,34 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="52">
+      <c r="A112" s="55"/>
+      <c r="B112" s="28">
+        <v>41726</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="56">
         <v>22</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B113" s="29">
         <v>41729</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="29">
-        <v>41730</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6">
-        <f t="shared" ref="F113:F144" si="3">E113</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G113" s="43"/>
@@ -3719,15 +3755,15 @@
       <c r="J113" s="43"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="29">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F114:F145" si="3">E114</f>
         <v>0</v>
       </c>
       <c r="G114" s="43"/>
@@ -3736,9 +3772,9 @@
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="29">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3753,9 +3789,9 @@
       <c r="J115" s="43"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="29">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3770,28 +3806,28 @@
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="55">
+      <c r="A117" s="58"/>
+      <c r="B117" s="29">
+        <v>41733</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="53">
         <v>23</v>
       </c>
-      <c r="B117" s="28">
+      <c r="B118" s="28">
         <v>41736</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="B118" s="28">
-        <v>41737</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3806,9 +3842,9 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="28">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3823,9 +3859,9 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="28">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3840,9 +3876,9 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="28">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3857,28 +3893,28 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="52">
+      <c r="A122" s="55"/>
+      <c r="B122" s="28">
+        <v>41740</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="56">
         <v>24</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B123" s="29">
         <v>41743</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="29">
-        <v>41744</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3893,9 +3929,9 @@
       <c r="J123" s="43"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="29">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3910,9 +3946,9 @@
       <c r="J124" s="43"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="29">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3927,9 +3963,9 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="29">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3944,28 +3980,28 @@
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="55">
+      <c r="A127" s="58"/>
+      <c r="B127" s="29">
+        <v>41747</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="53">
         <v>25</v>
       </c>
-      <c r="B127" s="28">
+      <c r="B128" s="28">
         <v>41750</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
-      <c r="B128" s="28">
-        <v>41751</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3980,9 +4016,9 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="28">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3997,9 +4033,9 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="28">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -4014,9 +4050,9 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="57"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="28">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4031,28 +4067,28 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="52">
+      <c r="A132" s="55"/>
+      <c r="B132" s="28">
+        <v>41754</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="56">
         <v>26</v>
       </c>
-      <c r="B132" s="29">
+      <c r="B133" s="29">
         <v>41757</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="29">
-        <v>41758</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4067,9 +4103,9 @@
       <c r="J133" s="43"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="29">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4084,9 +4120,9 @@
       <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="29">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4101,9 +4137,9 @@
       <c r="J135" s="43"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="29">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4118,28 +4154,28 @@
       <c r="J136" s="43"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="55">
+      <c r="A137" s="58"/>
+      <c r="B137" s="29">
+        <v>41761</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="43"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="53">
         <v>27</v>
       </c>
-      <c r="B137" s="28">
+      <c r="B138" s="28">
         <v>41764</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="56"/>
-      <c r="B138" s="28">
-        <v>41765</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -4154,9 +4190,9 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="56"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="28">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -4171,9 +4207,9 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="28">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -4188,9 +4224,9 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="57"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="28">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4205,28 +4241,28 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="52">
+      <c r="A142" s="55"/>
+      <c r="B142" s="28">
+        <v>41768</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="56">
         <v>28</v>
       </c>
-      <c r="B142" s="29">
+      <c r="B143" s="29">
         <v>41771</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="29">
-        <v>41772</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4241,9 +4277,9 @@
       <c r="J143" s="43"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="29">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4258,15 +4294,15 @@
       <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
+      <c r="A145" s="57"/>
       <c r="B145" s="29">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6">
-        <f t="shared" ref="F145:F156" si="4">E145</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G145" s="43"/>
@@ -4275,15 +4311,15 @@
       <c r="J145" s="43"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="54"/>
+      <c r="A146" s="57"/>
       <c r="B146" s="29">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F146:F157" si="4">E146</f>
         <v>0</v>
       </c>
       <c r="G146" s="43"/>
@@ -4292,28 +4328,28 @@
       <c r="J146" s="43"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="55">
+      <c r="A147" s="58"/>
+      <c r="B147" s="29">
+        <v>41775</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="43"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="53">
         <v>29</v>
       </c>
-      <c r="B147" s="28">
+      <c r="B148" s="28">
         <v>41778</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="56"/>
-      <c r="B148" s="28">
-        <v>41779</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -4328,9 +4364,9 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="56"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="28">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4345,9 +4381,9 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="56"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="28">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4362,9 +4398,9 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="57"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="28">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -4379,28 +4415,28 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="58">
+      <c r="A152" s="55"/>
+      <c r="B152" s="28">
+        <v>41782</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="59">
         <v>30</v>
       </c>
-      <c r="B152" s="29">
+      <c r="B153" s="29">
         <v>41785</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="59"/>
-      <c r="B153" s="29">
-        <v>41786</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -4415,9 +4451,9 @@
       <c r="J153" s="44"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="59"/>
+      <c r="A154" s="60"/>
       <c r="B154" s="29">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4432,9 +4468,9 @@
       <c r="J154" s="44"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="59"/>
+      <c r="A155" s="60"/>
       <c r="B155" s="29">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -4451,7 +4487,7 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="60"/>
       <c r="B156" s="29">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4465,12 +4501,29 @@
       <c r="I156" s="44"/>
       <c r="J156" s="44"/>
     </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="61"/>
+      <c r="B157" s="29">
+        <v>41789</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A53:A57"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A10:A16"/>
@@ -4479,36 +4532,38 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A63:A67"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -4528,7 +4583,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M13:M14 F8 F13 M8 M10" formulaRange="1"/>
+    <ignoredError sqref="M13:M14 F13 M8 M10" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4626,29 +4681,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M17</xm:sqref>
+          <xm:sqref>M17:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="33" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4667,7 +4703,7 @@
           <xm:sqref>M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="32" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4686,7 +4722,7 @@
           <xm:sqref>M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="31" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4705,7 +4741,7 @@
           <xm:sqref>M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4724,7 +4760,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4743,7 +4779,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4762,7 +4798,7 @@
           <xm:sqref>M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4781,7 +4817,7 @@
           <xm:sqref>M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4800,7 +4836,7 @@
           <xm:sqref>M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4819,7 +4855,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4838,7 +4874,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4857,7 +4893,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4876,7 +4912,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4895,7 +4931,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4914,7 +4950,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4933,7 +4969,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4952,7 +4988,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4971,7 +5007,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4990,7 +5026,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5009,7 +5045,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5028,7 +5064,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5045,6 +5081,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5082,7 +5137,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F15:F156 F13 F10:F11</xm:sqref>
+          <xm:sqref>F7:F8 F15:F17 F13 F10:F11 F19:F157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -302,7 +302,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -310,21 +310,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,14 +337,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -357,13 +357,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -592,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -655,6 +655,91 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +770,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +830,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,6 +866,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,133 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,13 +1217,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1329,103 +1332,103 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="43" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="16"/>
       <c r="H5" s="28" t="s">
         <v>64</v>
@@ -1439,7 +1442,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
@@ -1470,76 +1473,76 @@
       <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="89">
         <v>1</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="37">
         <v>41585</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="38">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="38">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="39">
         <f>E7</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="78"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="68"/>
       <c r="M7" s="21">
         <f>SUM(M8:M43)</f>
-        <v>20.82</v>
+        <v>20.9</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80">
+      <c r="A8" s="90"/>
+      <c r="B8" s="103">
         <v>41586</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="42">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="42">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="71">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="83"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="19"/>
       <c r="K8" s="8" t="s">
         <v>11</v>
@@ -1554,54 +1557,54 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="75">
+      <c r="A9" s="91"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="38">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="38">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="39">
         <v>0.5</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="87">
+      <c r="A10" s="101">
         <v>2</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="73">
         <v>41589</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="44">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="44">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="45">
         <v>1.5</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="45">
         <f>E10</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="92"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="24"/>
       <c r="K10" s="8" t="s">
         <v>12</v>
@@ -1609,7 +1612,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="4">
         <f>SUM(E10:E18)</f>
-        <v>12.5</v>
+        <v>12.58</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>9</v>
@@ -1617,28 +1620,28 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="89">
+      <c r="A11" s="102"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="44">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="44">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="45">
         <v>1.5</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="45">
         <f>E11</f>
         <v>1.5</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="47" t="s">
         <v>62</v>
       </c>
       <c r="J11" s="24"/>
@@ -1649,30 +1652,30 @@
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="96">
+      <c r="A12" s="102"/>
+      <c r="B12" s="49">
         <v>41590</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="44">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="44">
         <v>0.625</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="45">
         <v>2.25</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="45">
         <f>E12</f>
         <v>2.25</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I12" s="47" t="s">
         <v>61</v>
       </c>
       <c r="J12" s="24"/>
@@ -1683,30 +1686,30 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="88">
+      <c r="A13" s="102"/>
+      <c r="B13" s="73">
         <v>41591</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="51">
         <v>0.5625</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="52">
         <v>2</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="75">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="47" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="24"/>
@@ -1716,25 +1719,25 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="98">
+      <c r="A14" s="102"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="51">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="67" t="s">
+      <c r="F14" s="76"/>
+      <c r="G14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="48" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="24"/>
@@ -1751,30 +1754,30 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="88">
+      <c r="A15" s="102"/>
+      <c r="B15" s="73">
         <v>41592</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="51">
         <v>0.375</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="75">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="H15" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="95" t="s">
+      <c r="I15" s="48" t="s">
         <v>71</v>
       </c>
       <c r="J15" s="24"/>
@@ -1791,25 +1794,25 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="98">
+      <c r="A16" s="102"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="51">
         <v>0.375</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="51">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="52">
         <v>1.25</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="72" t="s">
+      <c r="F16" s="76"/>
+      <c r="G16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="54" t="s">
         <v>78</v>
       </c>
       <c r="J16" s="24"/>
@@ -1819,28 +1822,28 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="88">
+      <c r="A17" s="102"/>
+      <c r="B17" s="73">
         <v>41593</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D17" s="98">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E17" s="99">
-        <v>1</v>
-      </c>
-      <c r="F17" s="100">
+      <c r="D17" s="51">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E17" s="52">
+        <v>1.08</v>
+      </c>
+      <c r="F17" s="75">
         <f>SUM(E17:E18)</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="67" t="s">
+        <v>2.08</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="24"/>
       <c r="K17" s="8"/>
       <c r="L17" s="6"/>
@@ -1848,25 +1851,25 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="98">
+      <c r="A18" s="102"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="51">
         <v>0.875</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="70" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="48" t="s">
         <v>74</v>
       </c>
       <c r="J18" s="24"/>
@@ -1883,10 +1886,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
+      <c r="A19" s="109">
         <v>3</v>
       </c>
-      <c r="B19" s="104">
+      <c r="B19" s="69">
         <v>41596</v>
       </c>
       <c r="C19" s="29">
@@ -1895,10 +1898,10 @@
       <c r="D19" s="29">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="58">
         <v>1</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="71">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -1908,7 +1911,7 @@
       <c r="H19" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="35" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="25"/>
@@ -1925,18 +1928,18 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="29">
         <v>0.83333333333333337</v>
       </c>
       <c r="D20" s="29">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="58">
         <v>2</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
@@ -1951,8 +1954,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="104">
+      <c r="A21" s="109"/>
+      <c r="B21" s="69">
         <v>41597</v>
       </c>
       <c r="C21" s="29">
@@ -1961,10 +1964,10 @@
       <c r="D21" s="29">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="58">
         <v>1</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="71">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -1987,25 +1990,25 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="105"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="29">
         <v>0.875</v>
       </c>
       <c r="D22" s="29">
         <v>0.9375</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="58">
         <v>1.5</v>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="35" t="s">
         <v>81</v>
       </c>
       <c r="J22" s="25"/>
@@ -2015,15 +2018,15 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="106">
+      <c r="A23" s="109"/>
+      <c r="B23" s="55">
         <v>41598</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="108">
-        <f t="shared" ref="F21:F52" si="0">E23</f>
+      <c r="F23" s="57">
+        <f t="shared" ref="F23:F52" si="0">E23</f>
         <v>0</v>
       </c>
       <c r="G23" s="25"/>
@@ -2043,14 +2046,14 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="106">
+      <c r="A24" s="109"/>
+      <c r="B24" s="55">
         <v>41599</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="82">
+      <c r="F24" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2071,14 +2074,14 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="106">
+      <c r="A25" s="109"/>
+      <c r="B25" s="55">
         <v>41600</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="86">
+      <c r="F25" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2099,10 +2102,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="62">
         <v>4</v>
       </c>
-      <c r="B26" s="107">
+      <c r="B26" s="56">
         <v>41603</v>
       </c>
       <c r="C26" s="6"/>
@@ -2129,8 +2132,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="107">
+      <c r="A27" s="63"/>
+      <c r="B27" s="56">
         <v>41604</v>
       </c>
       <c r="C27" s="6"/>
@@ -2157,8 +2160,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="107">
+      <c r="A28" s="63"/>
+      <c r="B28" s="56">
         <v>41605</v>
       </c>
       <c r="C28" s="6"/>
@@ -2185,8 +2188,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="107">
+      <c r="A29" s="63"/>
+      <c r="B29" s="56">
         <v>41606</v>
       </c>
       <c r="C29" s="6"/>
@@ -2213,8 +2216,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="107">
+      <c r="A30" s="64"/>
+      <c r="B30" s="56">
         <v>41607</v>
       </c>
       <c r="C30" s="6"/>
@@ -2241,10 +2244,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="59">
         <v>5</v>
       </c>
-      <c r="B31" s="106">
+      <c r="B31" s="55">
         <v>41610</v>
       </c>
       <c r="C31" s="5"/>
@@ -2271,8 +2274,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="106">
+      <c r="A32" s="60"/>
+      <c r="B32" s="55">
         <v>41611</v>
       </c>
       <c r="C32" s="5"/>
@@ -2299,8 +2302,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="106">
+      <c r="A33" s="60"/>
+      <c r="B33" s="55">
         <v>41612</v>
       </c>
       <c r="C33" s="5"/>
@@ -2327,8 +2330,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="106">
+      <c r="A34" s="60"/>
+      <c r="B34" s="55">
         <v>41613</v>
       </c>
       <c r="C34" s="5"/>
@@ -2355,8 +2358,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="106">
+      <c r="A35" s="61"/>
+      <c r="B35" s="55">
         <v>41614</v>
       </c>
       <c r="C35" s="5"/>
@@ -2383,10 +2386,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="62">
         <v>6</v>
       </c>
-      <c r="B36" s="107">
+      <c r="B36" s="56">
         <v>41617</v>
       </c>
       <c r="C36" s="6"/>
@@ -2413,8 +2416,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="107">
+      <c r="A37" s="63"/>
+      <c r="B37" s="56">
         <v>41618</v>
       </c>
       <c r="C37" s="6"/>
@@ -2441,8 +2444,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="107">
+      <c r="A38" s="63"/>
+      <c r="B38" s="56">
         <v>41619</v>
       </c>
       <c r="C38" s="6"/>
@@ -2469,8 +2472,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="107">
+      <c r="A39" s="63"/>
+      <c r="B39" s="56">
         <v>41620</v>
       </c>
       <c r="C39" s="6"/>
@@ -2497,8 +2500,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="107">
+      <c r="A40" s="64"/>
+      <c r="B40" s="56">
         <v>41621</v>
       </c>
       <c r="C40" s="6"/>
@@ -2525,7 +2528,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="59">
         <v>7</v>
       </c>
       <c r="B41" s="17">
@@ -2555,7 +2558,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="17">
         <v>41625</v>
       </c>
@@ -2583,7 +2586,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="17">
         <v>41626</v>
       </c>
@@ -2611,7 +2614,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="17">
         <v>41627</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="17">
         <v>41628</v>
       </c>
@@ -2645,7 +2648,7 @@
       <c r="J45" s="25"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
+      <c r="A46" s="62">
         <v>8</v>
       </c>
       <c r="B46" s="18">
@@ -2664,7 +2667,7 @@
       <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="18">
         <v>41632</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="18">
         <v>41633</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="18">
         <v>41634</v>
       </c>
@@ -2715,7 +2718,7 @@
       <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="18">
         <v>41635</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="A51" s="59">
         <v>9</v>
       </c>
       <c r="B51" s="17">
@@ -2751,7 +2754,7 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="17">
         <v>41639</v>
       </c>
@@ -2768,7 +2771,7 @@
       <c r="J52" s="25"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="17">
         <v>41640</v>
       </c>
@@ -2785,7 +2788,7 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="17">
         <v>41641</v>
       </c>
@@ -2802,7 +2805,7 @@
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="17">
         <v>41642</v>
       </c>
@@ -2819,7 +2822,7 @@
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
+      <c r="A56" s="62">
         <v>10</v>
       </c>
       <c r="B56" s="18">
@@ -2838,7 +2841,7 @@
       <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="18">
         <v>41646</v>
       </c>
@@ -2855,7 +2858,7 @@
       <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="18">
         <v>41647</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="18">
         <v>41648</v>
       </c>
@@ -2889,7 +2892,7 @@
       <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="18">
         <v>41649</v>
       </c>
@@ -2906,7 +2909,7 @@
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
+      <c r="A61" s="59">
         <v>11</v>
       </c>
       <c r="B61" s="17">
@@ -2925,7 +2928,7 @@
       <c r="J61" s="25"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="17">
         <v>41653</v>
       </c>
@@ -2942,7 +2945,7 @@
       <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="17">
         <v>41654</v>
       </c>
@@ -2959,7 +2962,7 @@
       <c r="J63" s="25"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="17">
         <v>41655</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="J64" s="25"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="17">
         <v>41656</v>
       </c>
@@ -2993,7 +2996,7 @@
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
+      <c r="A66" s="62">
         <v>12</v>
       </c>
       <c r="B66" s="18">
@@ -3012,7 +3015,7 @@
       <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="18">
         <v>41660</v>
       </c>
@@ -3029,7 +3032,7 @@
       <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="18">
         <v>41661</v>
       </c>
@@ -3046,7 +3049,7 @@
       <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="18">
         <v>41662</v>
       </c>
@@ -3063,7 +3066,7 @@
       <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="18">
         <v>41663</v>
       </c>
@@ -3080,7 +3083,7 @@
       <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="30">
+      <c r="A71" s="59">
         <v>13</v>
       </c>
       <c r="B71" s="17">
@@ -3101,7 +3104,7 @@
       <c r="J71" s="25"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="17">
         <v>41667</v>
       </c>
@@ -3120,7 +3123,7 @@
       <c r="J72" s="25"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="17">
         <v>41668</v>
       </c>
@@ -3139,7 +3142,7 @@
       <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="17">
         <v>41669</v>
       </c>
@@ -3158,7 +3161,7 @@
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="17">
         <v>41670</v>
       </c>
@@ -3177,7 +3180,7 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="33">
+      <c r="A76" s="62">
         <v>14</v>
       </c>
       <c r="B76" s="18">
@@ -3198,7 +3201,7 @@
       <c r="J76" s="26"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="18">
         <v>41674</v>
       </c>
@@ -3217,7 +3220,7 @@
       <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="18">
         <v>41675</v>
       </c>
@@ -3236,7 +3239,7 @@
       <c r="J78" s="26"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="18">
         <v>41676</v>
       </c>
@@ -3255,7 +3258,7 @@
       <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="18">
         <v>41677</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="30">
+      <c r="A81" s="59">
         <v>15</v>
       </c>
       <c r="B81" s="17">
@@ -3293,7 +3296,7 @@
       <c r="J81" s="25"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="17">
         <v>41681</v>
       </c>
@@ -3310,7 +3313,7 @@
       <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="17">
         <v>41682</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="17">
         <v>41683</v>
       </c>
@@ -3344,7 +3347,7 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="17">
         <v>41684</v>
       </c>
@@ -3361,7 +3364,7 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="33">
+      <c r="A86" s="62">
         <v>16</v>
       </c>
       <c r="B86" s="18">
@@ -3380,7 +3383,7 @@
       <c r="J86" s="26"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="18">
         <v>41688</v>
       </c>
@@ -3397,7 +3400,7 @@
       <c r="J87" s="26"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="18">
         <v>41689</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="J88" s="26"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="18">
         <v>41690</v>
       </c>
@@ -3431,7 +3434,7 @@
       <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="64"/>
       <c r="B90" s="18">
         <v>41691</v>
       </c>
@@ -3448,7 +3451,7 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
+      <c r="A91" s="59">
         <v>17</v>
       </c>
       <c r="B91" s="17">
@@ -3467,7 +3470,7 @@
       <c r="J91" s="25"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="17">
         <v>41695</v>
       </c>
@@ -3484,7 +3487,7 @@
       <c r="J92" s="25"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="17">
         <v>41696</v>
       </c>
@@ -3501,7 +3504,7 @@
       <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="17">
         <v>41697</v>
       </c>
@@ -3518,7 +3521,7 @@
       <c r="J94" s="25"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="17">
         <v>41698</v>
       </c>
@@ -3535,7 +3538,7 @@
       <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="33">
+      <c r="A96" s="62">
         <v>18</v>
       </c>
       <c r="B96" s="18">
@@ -3554,7 +3557,7 @@
       <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="18">
         <v>41702</v>
       </c>
@@ -3571,7 +3574,7 @@
       <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="18">
         <v>41703</v>
       </c>
@@ -3588,7 +3591,7 @@
       <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="18">
         <v>41704</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
+      <c r="A100" s="64"/>
       <c r="B100" s="18">
         <v>41705</v>
       </c>
@@ -3622,7 +3625,7 @@
       <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="30">
+      <c r="A101" s="59">
         <v>19</v>
       </c>
       <c r="B101" s="17">
@@ -3641,7 +3644,7 @@
       <c r="J101" s="25"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="17">
         <v>41709</v>
       </c>
@@ -3658,7 +3661,7 @@
       <c r="J102" s="25"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="17">
         <v>41710</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="J103" s="25"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="17">
         <v>41711</v>
       </c>
@@ -3692,7 +3695,7 @@
       <c r="J104" s="25"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="17">
         <v>41712</v>
       </c>
@@ -3709,7 +3712,7 @@
       <c r="J105" s="25"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="33">
+      <c r="A106" s="62">
         <v>20</v>
       </c>
       <c r="B106" s="18">
@@ -3728,7 +3731,7 @@
       <c r="J106" s="26"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="18">
         <v>41716</v>
       </c>
@@ -3745,7 +3748,7 @@
       <c r="J107" s="26"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="18">
         <v>41717</v>
       </c>
@@ -3762,7 +3765,7 @@
       <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="18">
         <v>41718</v>
       </c>
@@ -3779,7 +3782,7 @@
       <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="18">
         <v>41719</v>
       </c>
@@ -3796,7 +3799,7 @@
       <c r="J110" s="26"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="30">
+      <c r="A111" s="59">
         <v>21</v>
       </c>
       <c r="B111" s="17">
@@ -3815,7 +3818,7 @@
       <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="17">
         <v>41723</v>
       </c>
@@ -3832,7 +3835,7 @@
       <c r="J112" s="25"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="17">
         <v>41724</v>
       </c>
@@ -3849,7 +3852,7 @@
       <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
+      <c r="A114" s="60"/>
       <c r="B114" s="17">
         <v>41725</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="17">
         <v>41726</v>
       </c>
@@ -3883,7 +3886,7 @@
       <c r="J115" s="25"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="33">
+      <c r="A116" s="62">
         <v>22</v>
       </c>
       <c r="B116" s="18">
@@ -3902,7 +3905,7 @@
       <c r="J116" s="26"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="18">
         <v>41730</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="J117" s="26"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="18">
         <v>41731</v>
       </c>
@@ -3936,7 +3939,7 @@
       <c r="J118" s="26"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="18">
         <v>41732</v>
       </c>
@@ -3953,7 +3956,7 @@
       <c r="J119" s="26"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="64"/>
       <c r="B120" s="18">
         <v>41733</v>
       </c>
@@ -3970,7 +3973,7 @@
       <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="30">
+      <c r="A121" s="59">
         <v>23</v>
       </c>
       <c r="B121" s="17">
@@ -3989,7 +3992,7 @@
       <c r="J121" s="25"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="17">
         <v>41737</v>
       </c>
@@ -4006,7 +4009,7 @@
       <c r="J122" s="25"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
+      <c r="A123" s="60"/>
       <c r="B123" s="17">
         <v>41738</v>
       </c>
@@ -4023,7 +4026,7 @@
       <c r="J123" s="25"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="17">
         <v>41739</v>
       </c>
@@ -4040,7 +4043,7 @@
       <c r="J124" s="25"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
+      <c r="A125" s="61"/>
       <c r="B125" s="17">
         <v>41740</v>
       </c>
@@ -4057,7 +4060,7 @@
       <c r="J125" s="25"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="33">
+      <c r="A126" s="62">
         <v>24</v>
       </c>
       <c r="B126" s="18">
@@ -4076,7 +4079,7 @@
       <c r="J126" s="26"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="18">
         <v>41744</v>
       </c>
@@ -4093,7 +4096,7 @@
       <c r="J127" s="26"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="18">
         <v>41745</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="J128" s="26"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
+      <c r="A129" s="63"/>
       <c r="B129" s="18">
         <v>41746</v>
       </c>
@@ -4127,7 +4130,7 @@
       <c r="J129" s="26"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
+      <c r="A130" s="64"/>
       <c r="B130" s="18">
         <v>41747</v>
       </c>
@@ -4144,7 +4147,7 @@
       <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="30">
+      <c r="A131" s="59">
         <v>25</v>
       </c>
       <c r="B131" s="17">
@@ -4163,7 +4166,7 @@
       <c r="J131" s="25"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="17">
         <v>41751</v>
       </c>
@@ -4180,7 +4183,7 @@
       <c r="J132" s="25"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
+      <c r="A133" s="60"/>
       <c r="B133" s="17">
         <v>41752</v>
       </c>
@@ -4197,7 +4200,7 @@
       <c r="J133" s="25"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
+      <c r="A134" s="60"/>
       <c r="B134" s="17">
         <v>41753</v>
       </c>
@@ -4214,7 +4217,7 @@
       <c r="J134" s="25"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
+      <c r="A135" s="61"/>
       <c r="B135" s="17">
         <v>41754</v>
       </c>
@@ -4231,7 +4234,7 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="33">
+      <c r="A136" s="62">
         <v>26</v>
       </c>
       <c r="B136" s="18">
@@ -4250,7 +4253,7 @@
       <c r="J136" s="26"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="34"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="18">
         <v>41758</v>
       </c>
@@ -4267,7 +4270,7 @@
       <c r="J137" s="26"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="34"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="18">
         <v>41759</v>
       </c>
@@ -4284,7 +4287,7 @@
       <c r="J138" s="26"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="18">
         <v>41760</v>
       </c>
@@ -4301,7 +4304,7 @@
       <c r="J139" s="26"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
+      <c r="A140" s="64"/>
       <c r="B140" s="18">
         <v>41761</v>
       </c>
@@ -4318,7 +4321,7 @@
       <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="30">
+      <c r="A141" s="59">
         <v>27</v>
       </c>
       <c r="B141" s="17">
@@ -4337,7 +4340,7 @@
       <c r="J141" s="25"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="17">
         <v>41765</v>
       </c>
@@ -4354,7 +4357,7 @@
       <c r="J142" s="25"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
+      <c r="A143" s="60"/>
       <c r="B143" s="17">
         <v>41766</v>
       </c>
@@ -4371,7 +4374,7 @@
       <c r="J143" s="25"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
+      <c r="A144" s="60"/>
       <c r="B144" s="17">
         <v>41767</v>
       </c>
@@ -4388,7 +4391,7 @@
       <c r="J144" s="25"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="32"/>
+      <c r="A145" s="61"/>
       <c r="B145" s="17">
         <v>41768</v>
       </c>
@@ -4405,7 +4408,7 @@
       <c r="J145" s="25"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="33">
+      <c r="A146" s="62">
         <v>28</v>
       </c>
       <c r="B146" s="18">
@@ -4424,7 +4427,7 @@
       <c r="J146" s="26"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="34"/>
+      <c r="A147" s="63"/>
       <c r="B147" s="18">
         <v>41772</v>
       </c>
@@ -4441,7 +4444,7 @@
       <c r="J147" s="26"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="34"/>
+      <c r="A148" s="63"/>
       <c r="B148" s="18">
         <v>41773</v>
       </c>
@@ -4458,7 +4461,7 @@
       <c r="J148" s="26"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
+      <c r="A149" s="63"/>
       <c r="B149" s="18">
         <v>41774</v>
       </c>
@@ -4475,7 +4478,7 @@
       <c r="J149" s="26"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
+      <c r="A150" s="64"/>
       <c r="B150" s="18">
         <v>41775</v>
       </c>
@@ -4492,7 +4495,7 @@
       <c r="J150" s="26"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="30">
+      <c r="A151" s="59">
         <v>29</v>
       </c>
       <c r="B151" s="17">
@@ -4511,7 +4514,7 @@
       <c r="J151" s="25"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
+      <c r="A152" s="60"/>
       <c r="B152" s="17">
         <v>41779</v>
       </c>
@@ -4528,7 +4531,7 @@
       <c r="J152" s="25"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
+      <c r="A153" s="60"/>
       <c r="B153" s="17">
         <v>41780</v>
       </c>
@@ -4545,7 +4548,7 @@
       <c r="J153" s="25"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
+      <c r="A154" s="60"/>
       <c r="B154" s="17">
         <v>41781</v>
       </c>
@@ -4562,7 +4565,7 @@
       <c r="J154" s="25"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="32"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="17">
         <v>41782</v>
       </c>
@@ -4579,7 +4582,7 @@
       <c r="J155" s="25"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="36">
+      <c r="A156" s="65">
         <v>30</v>
       </c>
       <c r="B156" s="18">
@@ -4598,7 +4601,7 @@
       <c r="J156" s="27"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
+      <c r="A157" s="66"/>
       <c r="B157" s="18">
         <v>41786</v>
       </c>
@@ -4615,7 +4618,7 @@
       <c r="J157" s="27"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
+      <c r="A158" s="66"/>
       <c r="B158" s="18">
         <v>41787</v>
       </c>
@@ -4632,7 +4635,7 @@
       <c r="J158" s="27"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
+      <c r="A159" s="66"/>
       <c r="B159" s="18">
         <v>41788</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="J159" s="27"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="67"/>
       <c r="B160" s="18">
         <v>41789</v>
       </c>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Week</t>
   </si>
@@ -289,6 +289,39 @@
   <si>
     <t>AS_PM_MasterPlan
 AS_PM_ChangeManagementPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review Scrum model
+ - Review Scrum role and responsibility
+ - Review how to map ACDM into Scrum
+ - Devide team work for team member</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Integrate the work of member about ACDM
+ - Devide team work for team member</t>
+  </si>
+  <si>
+    <t>- Research tool for control Scrum and Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Research about Stage 5 and role CS in ACDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Do Change management plan
+ - Review Change log template
+ - Do Master plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Present about Change management plan</t>
+  </si>
+  <si>
+    <t>- Update change menagement Plan
+- Update Change Request Form &amp; Log</t>
+  </si>
+  <si>
+    <t>- Update change Form &amp; Log
+- Research High level and low level design
+- Define defect process</t>
   </si>
 </sst>
 </file>
@@ -592,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -734,8 +767,143 @@
     <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,14 +914,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,137 +929,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,13 +1374,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1357,81 +1402,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="16"/>
       <c r="H5" s="28" t="s">
         <v>64</v>
@@ -1476,13 +1521,13 @@
       <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+      <c r="A7" s="81">
         <v>1</v>
       </c>
       <c r="B7" s="37">
@@ -1509,21 +1554,21 @@
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="67"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="21">
-        <f>SUM(M8:M46)</f>
-        <v>29.72</v>
+        <f>SUM(M8:M49)</f>
+        <v>32.97</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="102">
+      <c r="A8" s="82"/>
+      <c r="B8" s="98">
         <v>41586</v>
       </c>
       <c r="C8" s="42">
@@ -1535,7 +1580,7 @@
       <c r="E8" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="63">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1560,8 +1605,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="38">
         <v>0.63194444444444442</v>
       </c>
@@ -1571,7 +1616,7 @@
       <c r="E9" s="39">
         <v>0.5</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1582,10 +1627,10 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="100">
+      <c r="A10" s="96">
         <v>2</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="61">
         <v>41589</v>
       </c>
       <c r="C10" s="44">
@@ -1623,8 +1668,8 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="44">
         <v>0.91666666666666663</v>
       </c>
@@ -1655,7 +1700,7 @@
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="49">
         <v>41590</v>
       </c>
@@ -1689,8 +1734,8 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
-      <c r="B13" s="72">
+      <c r="A13" s="97"/>
+      <c r="B13" s="61">
         <v>41591</v>
       </c>
       <c r="C13" s="51">
@@ -1702,7 +1747,7 @@
       <c r="E13" s="52">
         <v>2</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="59">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1722,8 +1767,8 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="51">
         <v>0.91666666666666663</v>
       </c>
@@ -1733,7 +1778,7 @@
       <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="31" t="s">
         <v>24</v>
       </c>
@@ -1749,16 +1794,16 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E19:E28)</f>
-        <v>14.4</v>
+        <f>SUM(E19:E29)</f>
+        <v>17.649999999999999</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
-      <c r="B15" s="72">
+      <c r="A15" s="97"/>
+      <c r="B15" s="61">
         <v>41592</v>
       </c>
       <c r="C15" s="51">
@@ -1770,7 +1815,7 @@
       <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="59">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -1789,16 +1834,16 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E29:E33)</f>
+        <f>SUM(E32:E36)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="73"/>
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="51">
         <v>0.375</v>
       </c>
@@ -1808,11 +1853,11 @@
       <c r="E16" s="52">
         <v>1.25</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="46" t="s">
         <v>77</v>
       </c>
       <c r="I16" s="54" t="s">
@@ -1825,8 +1870,8 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="72">
+      <c r="A17" s="97"/>
+      <c r="B17" s="61">
         <v>41593</v>
       </c>
       <c r="C17" s="51">
@@ -1838,7 +1883,7 @@
       <c r="E17" s="52">
         <v>1</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="59">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -1854,8 +1899,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="51">
         <v>0.83333333333333337</v>
       </c>
@@ -1865,7 +1910,7 @@
       <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="34" t="s">
         <v>24</v>
       </c>
@@ -1881,7 +1926,7 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <f>SUM(E34:E38)</f>
+        <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -1889,10 +1934,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="103">
         <v>3</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="66">
         <v>41596</v>
       </c>
       <c r="C19" s="29">
@@ -1904,7 +1949,7 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="63">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -1923,7 +1968,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E49:E53)</f>
+        <f>SUM(E52:E56)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1931,8 +1976,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -1942,7 +1987,7 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="71"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
@@ -1957,8 +2002,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="68">
+      <c r="A21" s="104"/>
+      <c r="B21" s="66">
         <v>41597</v>
       </c>
       <c r="C21" s="29">
@@ -1970,7 +2015,7 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="63">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -1985,7 +2030,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E54:E58)</f>
+        <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -1993,8 +2038,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="29">
         <v>0.875</v>
       </c>
@@ -2004,7 +2049,7 @@
       <c r="E22" s="5">
         <v>1.5</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
@@ -2020,28 +2065,30 @@
       <c r="M22" s="10"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
       <c r="B23" s="55">
         <v>41598</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="114">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="114">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="57">
         <v>3.5</v>
       </c>
-      <c r="F23" s="57">
-        <f t="shared" ref="F23:F55" si="0">E23</f>
+      <c r="F23" s="39">
+        <f>E23</f>
         <v>3.5</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="H23" s="113" t="s">
+        <v>86</v>
+      </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="8" t="s">
@@ -2049,7 +2096,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E59:E63)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2057,8 +2104,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="68">
+      <c r="A24" s="104"/>
+      <c r="B24" s="66">
         <v>41599</v>
       </c>
       <c r="C24" s="29">
@@ -2070,14 +2117,16 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="70">
-        <f>SUM(E24:E27)</f>
-        <v>5.4</v>
+      <c r="F24" s="63">
+        <f>SUM(E24:E28)</f>
+        <v>7.4</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="111" t="s">
+        <v>87</v>
+      </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="8" t="s">
@@ -2085,7 +2134,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E64:E68)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2093,8 +2142,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="29">
         <v>0.4236111111111111</v>
       </c>
@@ -2104,7 +2153,7 @@
       <c r="E25" s="5">
         <v>1.3</v>
       </c>
-      <c r="F25" s="109"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2117,8 +2166,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="29">
         <v>0.5625</v>
       </c>
@@ -2128,11 +2177,13 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="109"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="35" t="s">
+        <v>85</v>
+      </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="8"/>
@@ -2140,9 +2191,9 @@
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="69"/>
+    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="29">
         <v>0.625</v>
       </c>
@@ -2152,11 +2203,13 @@
       <c r="E27" s="5">
         <v>2.1</v>
       </c>
-      <c r="F27" s="109"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="8"/>
@@ -2165,129 +2218,133 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="55">
-        <v>41600</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="64"/>
+      <c r="G28" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="112" t="s">
+        <v>84</v>
+      </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="8"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="66">
+        <v>41600</v>
+      </c>
+      <c r="C29" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F29" s="63">
+        <f>SUM(E29:E31)</f>
+        <v>5.25</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10">
-        <f>SUM(E69:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="61">
-        <v>4</v>
-      </c>
-      <c r="B29" s="56">
-        <v>41603</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E74:E78)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="56">
-        <v>41604</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="8" t="s">
-        <v>39</v>
-      </c>
+    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="29">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.6875</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="10">
-        <f>SUM(E79:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="56">
-        <v>41605</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="105"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="10">
-        <f>SUM(E84:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="84">
+        <v>4</v>
+      </c>
       <c r="B32" s="56">
-        <v>41606</v>
+        <v>41603</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F23:F58" si="0">E32</f>
         <v>0</v>
       </c>
       <c r="G32" s="26"/>
@@ -2295,11 +2352,11 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E89:E93)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2307,9 +2364,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="56">
-        <v>41607</v>
+        <v>41604</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2323,11 +2380,11 @@
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E94:E98)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2335,29 +2392,27 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
-        <v>5</v>
-      </c>
-      <c r="B34" s="55">
-        <v>41610</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
+      <c r="A34" s="85"/>
+      <c r="B34" s="56">
+        <v>41605</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E99:E103)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2365,27 +2420,27 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="55">
-        <v>41611</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5">
+      <c r="A35" s="85"/>
+      <c r="B35" s="56">
+        <v>41606</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2393,27 +2448,27 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="55">
-        <v>41612</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
+      <c r="A36" s="86"/>
+      <c r="B36" s="56">
+        <v>41607</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
       <c r="K36" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E109:E113)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2421,9 +2476,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="103">
+        <v>5</v>
+      </c>
       <c r="B37" s="55">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2437,11 +2494,11 @@
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E114:E118)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2449,9 +2506,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="55">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2465,11 +2522,11 @@
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E119:E123)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2477,29 +2534,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="61">
-        <v>6</v>
-      </c>
-      <c r="B39" s="56">
-        <v>41617</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6">
+      <c r="A39" s="104"/>
+      <c r="B39" s="55">
+        <v>41612</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
       <c r="K39" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E124:E128)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2507,27 +2562,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="56">
-        <v>41618</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6">
+      <c r="A40" s="104"/>
+      <c r="B40" s="55">
+        <v>41613</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
       <c r="K40" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2535,27 +2590,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="56">
-        <v>41619</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6">
+      <c r="A41" s="105"/>
+      <c r="B41" s="55">
+        <v>41614</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2563,9 +2618,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
+      <c r="A42" s="84">
+        <v>6</v>
+      </c>
       <c r="B42" s="56">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2579,11 +2636,11 @@
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2591,15 +2648,15 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="56">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6">
-        <f>E43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="26"/>
@@ -2607,11 +2664,11 @@
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2619,29 +2676,27 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
-        <v>7</v>
-      </c>
-      <c r="B44" s="17">
-        <v>41624</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
+      <c r="A44" s="85"/>
+      <c r="B44" s="56">
+        <v>41619</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
       <c r="K44" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2649,27 +2704,27 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="17">
-        <v>41625</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
+      <c r="A45" s="85"/>
+      <c r="B45" s="56">
+        <v>41620</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E154:E158)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2677,27 +2732,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="17">
-        <v>41626</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="56">
+        <v>41621</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
       <c r="K46" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E159:E163)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2705,9 +2760,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="103">
+        <v>7</v>
+      </c>
       <c r="B47" s="17">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2720,11 +2777,22 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
+      <c r="K47" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10">
+        <f>SUM(E152:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="17">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2737,64 +2805,86 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="61">
+      <c r="K48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10">
+        <f>SUM(E157:E161)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="17">
+        <v>41626</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="10">
+        <f>SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="104"/>
+      <c r="B50" s="17">
+        <v>41627</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="105"/>
+      <c r="B51" s="17">
+        <v>41628</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="84">
         <v>8</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B52" s="18">
         <v>41631</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="18">
-        <v>41632</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="18">
-        <v>41633</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="18">
-        <v>41634</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2808,10 +2898,10 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="85"/>
       <c r="B53" s="18">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2825,69 +2915,69 @@
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="85"/>
+      <c r="B54" s="18">
+        <v>41633</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="85"/>
+      <c r="B55" s="18">
+        <v>41634</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="86"/>
+      <c r="B56" s="18">
+        <v>41635</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="103">
         <v>9</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B57" s="17">
         <v>41638</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="17">
-        <v>41639</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="17">
-        <v>41640</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5">
-        <f t="shared" ref="F56:F87" si="1">E56</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="17">
-        <v>41641</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="25"/>
@@ -2895,16 +2985,16 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="104"/>
       <c r="B58" s="17">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="25"/>
@@ -2912,63 +3002,63 @@
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="61">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="104"/>
+      <c r="B59" s="17">
+        <v>41640</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <f t="shared" ref="F59:F90" si="1">E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="104"/>
+      <c r="B60" s="17">
+        <v>41641</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="105"/>
+      <c r="B61" s="17">
+        <v>41642</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="84">
         <v>10</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B62" s="18">
         <v>41645</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="18">
-        <v>41646</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="18">
-        <v>41647</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="18">
-        <v>41648</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2982,10 +3072,10 @@
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="85"/>
       <c r="B63" s="18">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2999,63 +3089,63 @@
       <c r="I63" s="26"/>
       <c r="J63" s="26"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="58">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="85"/>
+      <c r="B64" s="18">
+        <v>41647</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="85"/>
+      <c r="B65" s="18">
+        <v>41648</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="86"/>
+      <c r="B66" s="18">
+        <v>41649</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="103">
         <v>11</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B67" s="17">
         <v>41652</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="17">
-        <v>41653</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="17">
-        <v>41654</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="17">
-        <v>41655</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3070,9 +3160,9 @@
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="17">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3087,62 +3177,62 @@
       <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="61">
+      <c r="A69" s="104"/>
+      <c r="B69" s="17">
+        <v>41654</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="104"/>
+      <c r="B70" s="17">
+        <v>41655</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="105"/>
+      <c r="B71" s="17">
+        <v>41656</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="84">
         <v>12</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B72" s="18">
         <v>41659</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="18">
-        <v>41660</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="18">
-        <v>41661</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="18">
-        <v>41662</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -3157,9 +3247,9 @@
       <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="18">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3174,68 +3264,62 @@
       <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="58">
+      <c r="A74" s="85"/>
+      <c r="B74" s="18">
+        <v>41661</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="85"/>
+      <c r="B75" s="18">
+        <v>41662</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="86"/>
+      <c r="B76" s="18">
+        <v>41663</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="103">
         <v>13</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B77" s="17">
         <v>41666</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="17">
-        <v>41667</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="17">
-        <v>41668</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="17">
-        <v>41669</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3252,9 +3336,9 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
+      <c r="A78" s="104"/>
       <c r="B78" s="17">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3271,68 +3355,68 @@
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="61">
+      <c r="A79" s="104"/>
+      <c r="B79" s="17">
+        <v>41668</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="104"/>
+      <c r="B80" s="17">
+        <v>41669</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="105"/>
+      <c r="B81" s="17">
+        <v>41670</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="84">
         <v>14</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B82" s="18">
         <v>41673</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
-      <c r="B80" s="18">
-        <v>41674</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="18">
-        <v>41675</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="18">
-        <v>41676</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3349,9 +3433,9 @@
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="18">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3368,62 +3452,68 @@
       <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="58">
+      <c r="A84" s="85"/>
+      <c r="B84" s="18">
+        <v>41675</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="85"/>
+      <c r="B85" s="18">
+        <v>41676</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="86"/>
+      <c r="B86" s="18">
+        <v>41677</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="103">
         <v>15</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B87" s="17">
         <v>41680</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="17">
-        <v>41681</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="17">
-        <v>41682</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="17">
-        <v>41683</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3438,15 +3528,15 @@
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="60"/>
+      <c r="A88" s="104"/>
       <c r="B88" s="17">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5">
-        <f t="shared" ref="F88:F119" si="2">E88</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G88" s="25"/>
@@ -3455,62 +3545,62 @@
       <c r="J88" s="25"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="61">
+      <c r="A89" s="104"/>
+      <c r="B89" s="17">
+        <v>41682</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="104"/>
+      <c r="B90" s="17">
+        <v>41683</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="105"/>
+      <c r="B91" s="17">
+        <v>41684</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5">
+        <f t="shared" ref="F91:F122" si="2">E91</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="84">
         <v>16</v>
       </c>
-      <c r="B89" s="18">
+      <c r="B92" s="18">
         <v>41687</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
-      <c r="B90" s="18">
-        <v>41688</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
-      <c r="B91" s="18">
-        <v>41689</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
-      <c r="B92" s="18">
-        <v>41690</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3525,9 +3615,9 @@
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="18">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3542,62 +3632,62 @@
       <c r="J93" s="26"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="58">
+      <c r="A94" s="85"/>
+      <c r="B94" s="18">
+        <v>41689</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="85"/>
+      <c r="B95" s="18">
+        <v>41690</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="86"/>
+      <c r="B96" s="18">
+        <v>41691</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="103">
         <v>17</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B97" s="17">
         <v>41694</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="17">
-        <v>41695</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="17">
-        <v>41696</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="17">
-        <v>41697</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3612,9 +3702,9 @@
       <c r="J97" s="25"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
+      <c r="A98" s="104"/>
       <c r="B98" s="17">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3629,62 +3719,62 @@
       <c r="J98" s="25"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="61">
+      <c r="A99" s="104"/>
+      <c r="B99" s="17">
+        <v>41696</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="104"/>
+      <c r="B100" s="17">
+        <v>41697</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="105"/>
+      <c r="B101" s="17">
+        <v>41698</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="84">
         <v>18</v>
       </c>
-      <c r="B99" s="18">
+      <c r="B102" s="18">
         <v>41701</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
-      <c r="B100" s="18">
-        <v>41702</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-      <c r="B101" s="18">
-        <v>41703</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
-      <c r="B102" s="18">
-        <v>41704</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3699,9 +3789,9 @@
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
+      <c r="A103" s="85"/>
       <c r="B103" s="18">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3716,62 +3806,62 @@
       <c r="J103" s="26"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="58">
+      <c r="A104" s="85"/>
+      <c r="B104" s="18">
+        <v>41703</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="85"/>
+      <c r="B105" s="18">
+        <v>41704</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="86"/>
+      <c r="B106" s="18">
+        <v>41705</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="103">
         <v>19</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B107" s="17">
         <v>41708</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
-      <c r="B105" s="17">
-        <v>41709</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
-      <c r="B106" s="17">
-        <v>41710</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
-      <c r="B107" s="17">
-        <v>41711</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3786,9 +3876,9 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="60"/>
+      <c r="A108" s="104"/>
       <c r="B108" s="17">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3803,62 +3893,62 @@
       <c r="J108" s="25"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="61">
+      <c r="A109" s="104"/>
+      <c r="B109" s="17">
+        <v>41710</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="104"/>
+      <c r="B110" s="17">
+        <v>41711</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="105"/>
+      <c r="B111" s="17">
+        <v>41712</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="84">
         <v>20</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B112" s="18">
         <v>41715</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
-      <c r="B110" s="18">
-        <v>41716</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
-      <c r="B111" s="18">
-        <v>41717</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
-      <c r="B112" s="18">
-        <v>41718</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3873,9 +3963,9 @@
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
+      <c r="A113" s="85"/>
       <c r="B113" s="18">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3890,62 +3980,62 @@
       <c r="J113" s="26"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="58">
+      <c r="A114" s="85"/>
+      <c r="B114" s="18">
+        <v>41717</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="85"/>
+      <c r="B115" s="18">
+        <v>41718</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="86"/>
+      <c r="B116" s="18">
+        <v>41719</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="103">
         <v>21</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B117" s="17">
         <v>41722</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
-      <c r="B115" s="17">
-        <v>41723</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
-      <c r="B116" s="17">
-        <v>41724</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
-      <c r="B117" s="17">
-        <v>41725</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3960,9 +4050,9 @@
       <c r="J117" s="25"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
+      <c r="A118" s="104"/>
       <c r="B118" s="17">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3977,68 +4067,68 @@
       <c r="J118" s="25"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="61">
+      <c r="A119" s="104"/>
+      <c r="B119" s="17">
+        <v>41724</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="104"/>
+      <c r="B120" s="17">
+        <v>41725</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="105"/>
+      <c r="B121" s="17">
+        <v>41726</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="84">
         <v>22</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B122" s="18">
         <v>41729</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="62"/>
-      <c r="B120" s="18">
-        <v>41730</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6">
-        <f t="shared" ref="F120:F151" si="3">E120</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="62"/>
-      <c r="B121" s="18">
-        <v>41731</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="26"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="62"/>
-      <c r="B122" s="18">
-        <v>41732</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G122" s="26"/>
@@ -4047,15 +4137,15 @@
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
+      <c r="A123" s="85"/>
       <c r="B123" s="18">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F123:F154" si="3">E123</f>
         <v>0</v>
       </c>
       <c r="G123" s="26"/>
@@ -4064,62 +4154,62 @@
       <c r="J123" s="26"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="58">
+      <c r="A124" s="85"/>
+      <c r="B124" s="18">
+        <v>41731</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="85"/>
+      <c r="B125" s="18">
+        <v>41732</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="86"/>
+      <c r="B126" s="18">
+        <v>41733</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="103">
         <v>23</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B127" s="17">
         <v>41736</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
-      <c r="B125" s="17">
-        <v>41737</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="59"/>
-      <c r="B126" s="17">
-        <v>41738</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
-      <c r="B127" s="17">
-        <v>41739</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -4134,9 +4224,9 @@
       <c r="J127" s="25"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="60"/>
+      <c r="A128" s="104"/>
       <c r="B128" s="17">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -4151,62 +4241,62 @@
       <c r="J128" s="25"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="61">
+      <c r="A129" s="104"/>
+      <c r="B129" s="17">
+        <v>41738</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="104"/>
+      <c r="B130" s="17">
+        <v>41739</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="105"/>
+      <c r="B131" s="17">
+        <v>41740</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="84">
         <v>24</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B132" s="18">
         <v>41743</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="62"/>
-      <c r="B130" s="18">
-        <v>41744</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="26"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="62"/>
-      <c r="B131" s="18">
-        <v>41745</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="62"/>
-      <c r="B132" s="18">
-        <v>41746</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4221,9 +4311,9 @@
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
+      <c r="A133" s="85"/>
       <c r="B133" s="18">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4238,62 +4328,62 @@
       <c r="J133" s="26"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="58">
+      <c r="A134" s="85"/>
+      <c r="B134" s="18">
+        <v>41745</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="85"/>
+      <c r="B135" s="18">
+        <v>41746</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="86"/>
+      <c r="B136" s="18">
+        <v>41747</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="103">
         <v>25</v>
       </c>
-      <c r="B134" s="17">
+      <c r="B137" s="17">
         <v>41750</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="59"/>
-      <c r="B135" s="17">
-        <v>41751</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="59"/>
-      <c r="B136" s="17">
-        <v>41752</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="59"/>
-      <c r="B137" s="17">
-        <v>41753</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -4308,9 +4398,9 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="60"/>
+      <c r="A138" s="104"/>
       <c r="B138" s="17">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -4325,62 +4415,62 @@
       <c r="J138" s="25"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="61">
+      <c r="A139" s="104"/>
+      <c r="B139" s="17">
+        <v>41752</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="104"/>
+      <c r="B140" s="17">
+        <v>41753</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="105"/>
+      <c r="B141" s="17">
+        <v>41754</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="84">
         <v>26</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B142" s="18">
         <v>41757</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="62"/>
-      <c r="B140" s="18">
-        <v>41758</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="62"/>
-      <c r="B141" s="18">
-        <v>41759</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="62"/>
-      <c r="B142" s="18">
-        <v>41760</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4395,9 +4485,9 @@
       <c r="J142" s="26"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
+      <c r="A143" s="85"/>
       <c r="B143" s="18">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4412,62 +4502,62 @@
       <c r="J143" s="26"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="58">
+      <c r="A144" s="85"/>
+      <c r="B144" s="18">
+        <v>41759</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="85"/>
+      <c r="B145" s="18">
+        <v>41760</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="86"/>
+      <c r="B146" s="18">
+        <v>41761</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="103">
         <v>27</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B147" s="17">
         <v>41764</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="59"/>
-      <c r="B145" s="17">
-        <v>41765</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="59"/>
-      <c r="B146" s="17">
-        <v>41766</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="25"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="59"/>
-      <c r="B147" s="17">
-        <v>41767</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4482,9 +4572,9 @@
       <c r="J147" s="25"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="60"/>
+      <c r="A148" s="104"/>
       <c r="B148" s="17">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -4499,68 +4589,68 @@
       <c r="J148" s="25"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="61">
+      <c r="A149" s="104"/>
+      <c r="B149" s="17">
+        <v>41766</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="104"/>
+      <c r="B150" s="17">
+        <v>41767</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="105"/>
+      <c r="B151" s="17">
+        <v>41768</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="84">
         <v>28</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B152" s="18">
         <v>41771</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="26"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="62"/>
-      <c r="B150" s="18">
-        <v>41772</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="62"/>
-      <c r="B151" s="18">
-        <v>41773</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="26"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="62"/>
-      <c r="B152" s="18">
-        <v>41774</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6">
-        <f t="shared" ref="F152:F163" si="4">E152</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G152" s="26"/>
@@ -4569,15 +4659,15 @@
       <c r="J152" s="26"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
+      <c r="A153" s="85"/>
       <c r="B153" s="18">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G153" s="26"/>
@@ -4586,62 +4676,62 @@
       <c r="J153" s="26"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="58">
+      <c r="A154" s="85"/>
+      <c r="B154" s="18">
+        <v>41773</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="85"/>
+      <c r="B155" s="18">
+        <v>41774</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6">
+        <f t="shared" ref="F155:F166" si="4">E155</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="86"/>
+      <c r="B156" s="18">
+        <v>41775</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="103">
         <v>29</v>
       </c>
-      <c r="B154" s="17">
+      <c r="B157" s="17">
         <v>41778</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="59"/>
-      <c r="B155" s="17">
-        <v>41779</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="25"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="59"/>
-      <c r="B156" s="17">
-        <v>41780</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="59"/>
-      <c r="B157" s="17">
-        <v>41781</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -4656,9 +4746,9 @@
       <c r="J157" s="25"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="60"/>
+      <c r="A158" s="104"/>
       <c r="B158" s="17">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -4673,62 +4763,62 @@
       <c r="J158" s="25"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="64">
+      <c r="A159" s="104"/>
+      <c r="B159" s="17">
+        <v>41780</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="104"/>
+      <c r="B160" s="17">
+        <v>41781</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="105"/>
+      <c r="B161" s="17">
+        <v>41782</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="108">
         <v>30</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B162" s="18">
         <v>41785</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="65"/>
-      <c r="B160" s="18">
-        <v>41786</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="65"/>
-      <c r="B161" s="18">
-        <v>41787</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="65"/>
-      <c r="B162" s="18">
-        <v>41788</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -4743,9 +4833,9 @@
       <c r="J162" s="27"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="66"/>
+      <c r="A163" s="109"/>
       <c r="B163" s="18">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -4759,18 +4849,96 @@
       <c r="I163" s="27"/>
       <c r="J163" s="27"/>
     </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="109"/>
+      <c r="B164" s="18">
+        <v>41787</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="109"/>
+      <c r="B165" s="18">
+        <v>41788</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="110"/>
+      <c r="B166" s="18">
+        <v>41789</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B27"/>
+  <mergeCells count="54">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A62:A66"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A10:A18"/>
@@ -4779,52 +4947,27 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -4838,7 +4981,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="45" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4857,7 +5000,7 @@
           <xm:sqref>M10:M12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="44" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4876,7 +5019,7 @@
           <xm:sqref>M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="43" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4895,7 +5038,7 @@
           <xm:sqref>M15:M17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="42" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4914,7 +5057,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="39" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4933,7 +5076,7 @@
           <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="38" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4952,7 +5095,7 @@
           <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="37" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4971,7 +5114,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="36" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4987,10 +5130,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M24:M27</xm:sqref>
+          <xm:sqref>M24:M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="35" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5006,67 +5149,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M28</xm:sqref>
+          <xm:sqref>M29:M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="34" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5085,7 +5171,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="33" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5104,7 +5190,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="32" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5123,7 +5209,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="31" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5142,7 +5228,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="30" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5161,7 +5247,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="29" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5180,7 +5266,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5199,7 +5285,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5218,7 +5304,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5237,7 +5323,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5256,7 +5342,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5275,7 +5361,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5294,7 +5380,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5313,7 +5399,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5332,7 +5418,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5351,7 +5437,64 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5370,7 +5513,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
+          <x14:cfRule type="iconSet" priority="8" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5389,7 +5532,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="46" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5405,10 +5548,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F15 F13 F10:F11 F29:F163 F17</xm:sqref>
+          <xm:sqref>F7:F8 F15 F13 F10:F11 F32:F166 F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{207F404F-5724-411F-826F-330204927AC3}">
+          <x14:cfRule type="iconSet" priority="3" id="{207F404F-5724-411F-826F-330204927AC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5424,7 +5567,45 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F21 F24:F27</xm:sqref>
+          <xm:sqref>F19 F21 F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
   <si>
     <t>Week</t>
   </si>
@@ -322,6 +322,76 @@
     <t>- Update change Form &amp; Log
 - Research High level and low level design
 - Define defect process</t>
+  </si>
+  <si>
+    <t>11:30PM</t>
+  </si>
+  <si>
+    <t>8.00AM</t>
+  </si>
+  <si>
+    <t>9:00AM</t>
+  </si>
+  <si>
+    <t>10:30PM</t>
+  </si>
+  <si>
+    <t>1.30PM</t>
+  </si>
+  <si>
+    <t>2:45PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devide work task about Stage 1 elicite </t>
+  </si>
+  <si>
+    <t>4:45PM</t>
+  </si>
+  <si>
+    <t>1:30PM</t>
+  </si>
+  <si>
+    <t>3:50PM</t>
+  </si>
+  <si>
+    <t>8:00AM</t>
+  </si>
+  <si>
+    <t>9:15AM</t>
+  </si>
+  <si>
+    <t>Review question have prepared for system</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>Collect architect drivers raw and develop user stories</t>
+  </si>
+  <si>
+    <t>4:15PM</t>
+  </si>
+  <si>
+    <t>Analyse architect drivers raw "Bảng tin" and "Danh mục"
+Draw activity diagrams business process</t>
+  </si>
+  <si>
+    <t>- Update change Form &amp; Log
+- Research High level and low level design
+- Define defect process
+- Update chang management plan</t>
+  </si>
+  <si>
+    <t>Teamsefl Review</t>
+  </si>
+  <si>
+    <t>Review task works</t>
+  </si>
+  <si>
+    <t>brainstorm question for system</t>
+  </si>
+  <si>
+    <t>brainstorm some question for future system</t>
   </si>
 </sst>
 </file>
@@ -625,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -776,170 +846,188 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,13 +1462,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1402,81 +1490,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="72" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="16"/>
       <c r="H5" s="28" t="s">
         <v>64</v>
@@ -1521,13 +1609,13 @@
       <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="95">
         <v>1</v>
       </c>
       <c r="B7" s="37">
@@ -1554,21 +1642,21 @@
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="107" t="s">
+      <c r="K7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="107"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="21">
-        <f>SUM(M8:M49)</f>
-        <v>32.97</v>
+        <f>SUM(M8:M55)</f>
+        <v>48.879999999999995</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="98">
+      <c r="A8" s="96"/>
+      <c r="B8" s="109">
         <v>41586</v>
       </c>
       <c r="C8" s="42">
@@ -1580,7 +1668,7 @@
       <c r="E8" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="77">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1605,8 +1693,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="38">
         <v>0.63194444444444442</v>
       </c>
@@ -1616,7 +1704,7 @@
       <c r="E9" s="39">
         <v>0.5</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1627,10 +1715,10 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="96">
+      <c r="A10" s="107">
         <v>2</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="79">
         <v>41589</v>
       </c>
       <c r="C10" s="44">
@@ -1668,8 +1756,8 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="44">
         <v>0.91666666666666663</v>
       </c>
@@ -1700,7 +1788,7 @@
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="49">
         <v>41590</v>
       </c>
@@ -1734,8 +1822,8 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="61">
+      <c r="A13" s="108"/>
+      <c r="B13" s="79">
         <v>41591</v>
       </c>
       <c r="C13" s="51">
@@ -1747,7 +1835,7 @@
       <c r="E13" s="52">
         <v>2</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="81">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1767,8 +1855,8 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="51">
         <v>0.91666666666666663</v>
       </c>
@@ -1778,7 +1866,7 @@
       <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="31" t="s">
         <v>24</v>
       </c>
@@ -1802,8 +1890,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="61">
+      <c r="A15" s="108"/>
+      <c r="B15" s="79">
         <v>41592</v>
       </c>
       <c r="C15" s="51">
@@ -1815,7 +1903,7 @@
       <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="81">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -1834,16 +1922,16 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E32:E36)</f>
-        <v>0</v>
+        <f>SUM(E32:E42)</f>
+        <v>15.91</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="51">
         <v>0.375</v>
       </c>
@@ -1853,7 +1941,7 @@
       <c r="E16" s="52">
         <v>1.25</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="36" t="s">
         <v>25</v>
       </c>
@@ -1870,8 +1958,8 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="61">
+      <c r="A17" s="108"/>
+      <c r="B17" s="79">
         <v>41593</v>
       </c>
       <c r="C17" s="51">
@@ -1883,7 +1971,7 @@
       <c r="E17" s="52">
         <v>1</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="81">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -1899,8 +1987,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="51">
         <v>0.83333333333333337</v>
       </c>
@@ -1910,7 +1998,7 @@
       <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="34" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +2014,7 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <f>SUM(E37:E41)</f>
+        <f>SUM(E43:E47)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -1934,10 +2022,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="103">
+      <c r="A19" s="67">
         <v>3</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="64">
         <v>41596</v>
       </c>
       <c r="C19" s="29">
@@ -1949,7 +2037,7 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="77">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -1968,7 +2056,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1976,8 +2064,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -1987,7 +2075,7 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
@@ -2002,8 +2090,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="66">
+      <c r="A21" s="68"/>
+      <c r="B21" s="64">
         <v>41597</v>
       </c>
       <c r="C21" s="29">
@@ -2015,7 +2103,7 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="77">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2030,7 +2118,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2038,8 +2126,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="29">
         <v>0.875</v>
       </c>
@@ -2049,7 +2137,7 @@
       <c r="E22" s="5">
         <v>1.5</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
@@ -2066,14 +2154,14 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="55">
         <v>41598</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="63">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="63">
         <v>0.70833333333333337</v>
       </c>
       <c r="E23" s="57">
@@ -2086,7 +2174,7 @@
       <c r="G23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="113" t="s">
+      <c r="H23" s="62" t="s">
         <v>86</v>
       </c>
       <c r="I23" s="25"/>
@@ -2096,7 +2184,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2104,8 +2192,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="66">
+      <c r="A24" s="68"/>
+      <c r="B24" s="64">
         <v>41599</v>
       </c>
       <c r="C24" s="29">
@@ -2117,14 +2205,14 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="77">
         <f>SUM(E24:E28)</f>
         <v>7.4</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="60" t="s">
         <v>87</v>
       </c>
       <c r="I24" s="25"/>
@@ -2134,7 +2222,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2142,8 +2230,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="29">
         <v>0.4236111111111111</v>
       </c>
@@ -2153,7 +2241,7 @@
       <c r="E25" s="5">
         <v>1.3</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2166,8 +2254,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="29">
         <v>0.5625</v>
       </c>
@@ -2177,7 +2265,7 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2280,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="68"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="29">
         <v>0.625</v>
       </c>
@@ -2203,7 +2291,7 @@
       <c r="E27" s="5">
         <v>2.1</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
@@ -2218,8 +2306,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="29">
         <v>0.875</v>
       </c>
@@ -2229,11 +2317,11 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="112" t="s">
+      <c r="H28" s="61" t="s">
         <v>84</v>
       </c>
       <c r="I28" s="25"/>
@@ -2244,8 +2332,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="66">
+      <c r="A29" s="68"/>
+      <c r="B29" s="64">
         <v>41600</v>
       </c>
       <c r="C29" s="29">
@@ -2257,7 +2345,7 @@
       <c r="E29" s="5">
         <v>1.25</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="77">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
@@ -2274,7 +2362,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2282,8 +2370,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="29">
         <v>0.64583333333333337</v>
       </c>
@@ -2293,7 +2381,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="115"/>
       <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
@@ -2308,8 +2396,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="105"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -2323,7 +2411,7 @@
       <c r="G31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="113" t="s">
+      <c r="H31" s="62" t="s">
         <v>89</v>
       </c>
       <c r="I31" s="25"/>
@@ -2333,22 +2421,32 @@
       <c r="M31" s="10"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="84">
+    <row r="32" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70">
         <v>4</v>
       </c>
       <c r="B32" s="56">
         <v>41603</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
-        <f t="shared" ref="F23:F58" si="0">E32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="C32" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="52">
+        <v>1</v>
+      </c>
+      <c r="F32" s="59">
+        <f>E32</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="120" t="s">
+        <v>107</v>
+      </c>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="8" t="s">
@@ -2356,7 +2454,7 @@
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2364,141 +2462,152 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="56">
         <v>41604</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="C33" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="52">
+        <v>1</v>
+      </c>
+      <c r="F33" s="118">
+        <f>SUM(E33:E36)</f>
+        <v>5.75</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="117" t="s">
+        <v>108</v>
+      </c>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
-      <c r="K33" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="K33" s="8"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="10">
-        <f>SUM(E82:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="56">
-        <v>41605</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+        <v>41604</v>
+      </c>
+      <c r="C34" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="71"/>
+      <c r="G34" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="117" t="s">
+        <v>109</v>
+      </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="K34" s="8"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="10">
-        <f>SUM(E87:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="56">
-        <v>41606</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+        <v>41604</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="117" t="s">
+        <v>96</v>
+      </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
-      <c r="K35" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="K35" s="8"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="10">
-        <f>SUM(E92:E96)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="56">
-        <v>41607</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+        <v>41604</v>
+      </c>
+      <c r="C36" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="116">
+        <v>2</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="117" t="s">
+        <v>110</v>
+      </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
-      <c r="K36" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="10">
-        <f>SUM(E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="103">
-        <v>5</v>
-      </c>
-      <c r="B37" s="55">
-        <v>41610</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="56">
+        <v>41605</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="116">
+        <v>2.33</v>
+      </c>
+      <c r="F37" s="70">
+        <f>SUM(E37:E38)</f>
+        <v>3.33</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2506,27 +2615,34 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="55">
-        <v>41611</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="56">
+        <v>41605</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="116">
+        <v>1</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2534,83 +2650,93 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="104"/>
-      <c r="B39" s="55">
-        <v>41612</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A39" s="71"/>
+      <c r="B39" s="56">
+        <v>41606</v>
+      </c>
+      <c r="C39" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="116">
+        <v>1.33</v>
+      </c>
+      <c r="F39" s="70">
+        <f>SUM(E39:E41)</f>
+        <v>5.83</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="10">
-        <f>SUM(E112:E116)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="104"/>
-      <c r="B40" s="55">
-        <v>41613</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
+      <c r="B40" s="56">
+        <v>41606</v>
+      </c>
+      <c r="C40" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="116">
+        <v>1.75</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="10">
-        <f>SUM(E117:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
-      <c r="B41" s="55">
-        <v>41614</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="71"/>
+      <c r="B41" s="56">
+        <v>41606</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="116">
+        <v>2.75</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2618,17 +2744,15 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="84">
-        <v>6</v>
-      </c>
+      <c r="A42" s="72"/>
       <c r="B42" s="56">
-        <v>41617</v>
+        <v>41607</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F41:F64" si="0">E42</f>
         <v>0</v>
       </c>
       <c r="G42" s="26"/>
@@ -2636,11 +2760,11 @@
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2648,27 +2772,29 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="56">
-        <v>41618</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6">
+      <c r="A43" s="67">
+        <v>5</v>
+      </c>
+      <c r="B43" s="55">
+        <v>41610</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
       <c r="K43" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2676,27 +2802,27 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="56">
-        <v>41619</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6">
+      <c r="A44" s="68"/>
+      <c r="B44" s="55">
+        <v>41611</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2704,27 +2830,27 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="56">
-        <v>41620</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6">
+      <c r="A45" s="68"/>
+      <c r="B45" s="55">
+        <v>41612</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2732,27 +2858,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
-      <c r="B46" s="56">
-        <v>41621</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <f>E46</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="55">
+        <v>41613</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
       <c r="K46" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2760,11 +2886,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="103">
-        <v>7</v>
-      </c>
-      <c r="B47" s="17">
-        <v>41624</v>
+      <c r="A47" s="69"/>
+      <c r="B47" s="55">
+        <v>41614</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2778,11 +2902,11 @@
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2790,27 +2914,29 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
-      <c r="B48" s="17">
-        <v>41625</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5">
+      <c r="A48" s="70">
+        <v>6</v>
+      </c>
+      <c r="B48" s="56">
+        <v>41617</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
       <c r="K48" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2818,27 +2944,27 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
-      <c r="B49" s="17">
-        <v>41626</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5">
+      <c r="A49" s="71"/>
+      <c r="B49" s="56">
+        <v>41618</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
       <c r="K49" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2846,132 +2972,196 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
-      <c r="B50" s="17">
-        <v>41627</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
+      <c r="A50" s="71"/>
+      <c r="B50" s="56">
+        <v>41619</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10">
+        <f>SUM(E143:E147)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="105"/>
-      <c r="B51" s="17">
-        <v>41628</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5">
+      <c r="A51" s="71"/>
+      <c r="B51" s="56">
+        <v>41620</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="10">
+        <f>SUM(E148:E152)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="84">
-        <v>8</v>
-      </c>
-      <c r="B52" s="18">
-        <v>41631</v>
+      <c r="A52" s="72"/>
+      <c r="B52" s="56">
+        <v>41621</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
-        <f t="shared" si="0"/>
+        <f>E52</f>
         <v>0</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
+      <c r="K52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10">
+        <f>SUM(E153:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="18">
-        <v>41632</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
+      <c r="A53" s="67">
+        <v>7</v>
+      </c>
+      <c r="B53" s="17">
+        <v>41624</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10">
+        <f>SUM(E158:E162)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="18">
-        <v>41633</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6">
+      <c r="A54" s="68"/>
+      <c r="B54" s="17">
+        <v>41625</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10">
+        <f>SUM(E163:E167)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="18">
-        <v>41634</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
+      <c r="A55" s="68"/>
+      <c r="B55" s="17">
+        <v>41626</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10">
+        <f>SUM(E168:E172)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
-      <c r="B56" s="18">
-        <v>41635</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6">
+      <c r="A56" s="68"/>
+      <c r="B56" s="17">
+        <v>41627</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="103">
-        <v>9</v>
-      </c>
+      <c r="A57" s="69"/>
       <c r="B57" s="17">
-        <v>41638</v>
+        <v>41628</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2986,85 +3176,85 @@
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="104"/>
-      <c r="B58" s="17">
-        <v>41639</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
+      <c r="A58" s="70">
+        <v>8</v>
+      </c>
+      <c r="B58" s="18">
+        <v>41631</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
-      <c r="B59" s="17">
-        <v>41640</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
-        <f t="shared" ref="F59:F90" si="1">E59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="18">
+        <v>41632</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="104"/>
-      <c r="B60" s="17">
-        <v>41641</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="18">
+        <v>41633</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
-      <c r="B61" s="17">
-        <v>41642</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="18">
+        <v>41634</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="84">
-        <v>10</v>
-      </c>
+      <c r="A62" s="72"/>
       <c r="B62" s="18">
-        <v>41645</v>
+        <v>41635</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="26"/>
@@ -3073,79 +3263,79 @@
       <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
-      <c r="B63" s="18">
-        <v>41646</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
+      <c r="A63" s="67">
+        <v>9</v>
+      </c>
+      <c r="B63" s="17">
+        <v>41638</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="68"/>
+      <c r="B64" s="17">
+        <v>41639</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="68"/>
+      <c r="B65" s="17">
+        <v>41640</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <f t="shared" ref="F65:F96" si="1">E65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="68"/>
+      <c r="B66" s="17">
+        <v>41641</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
-      <c r="B64" s="18">
-        <v>41647</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
-      <c r="B65" s="18">
-        <v>41648</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="18">
-        <v>41649</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="103">
-        <v>11</v>
-      </c>
+      <c r="A67" s="69"/>
       <c r="B67" s="17">
-        <v>41652</v>
+        <v>41642</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3160,79 +3350,79 @@
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="104"/>
-      <c r="B68" s="17">
-        <v>41653</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
+      <c r="A68" s="70">
+        <v>10</v>
+      </c>
+      <c r="B68" s="18">
+        <v>41645</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="104"/>
-      <c r="B69" s="17">
-        <v>41654</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
+      <c r="A69" s="71"/>
+      <c r="B69" s="18">
+        <v>41646</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="104"/>
-      <c r="B70" s="17">
-        <v>41655</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
+      <c r="A70" s="71"/>
+      <c r="B70" s="18">
+        <v>41647</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
-      <c r="B71" s="17">
-        <v>41656</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
+      <c r="A71" s="71"/>
+      <c r="B71" s="18">
+        <v>41648</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="84">
-        <v>12</v>
-      </c>
+      <c r="A72" s="72"/>
       <c r="B72" s="18">
-        <v>41659</v>
+        <v>41649</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -3247,79 +3437,79 @@
       <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
-      <c r="B73" s="18">
-        <v>41660</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
+      <c r="A73" s="67">
+        <v>11</v>
+      </c>
+      <c r="B73" s="17">
+        <v>41652</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
-      <c r="B74" s="18">
-        <v>41661</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
+      <c r="A74" s="68"/>
+      <c r="B74" s="17">
+        <v>41653</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
-      <c r="B75" s="18">
-        <v>41662</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
+      <c r="A75" s="68"/>
+      <c r="B75" s="17">
+        <v>41654</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
-      <c r="B76" s="18">
-        <v>41663</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
+      <c r="A76" s="68"/>
+      <c r="B76" s="17">
+        <v>41655</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="103">
-        <v>13</v>
-      </c>
+      <c r="A77" s="69"/>
       <c r="B77" s="17">
-        <v>41666</v>
+        <v>41656</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3328,95 +3518,85 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="104"/>
-      <c r="B78" s="17">
-        <v>41667</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
+      <c r="A78" s="70">
+        <v>12</v>
+      </c>
+      <c r="B78" s="18">
+        <v>41659</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="104"/>
-      <c r="B79" s="17">
-        <v>41668</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
+      <c r="A79" s="71"/>
+      <c r="B79" s="18">
+        <v>41660</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="104"/>
-      <c r="B80" s="17">
-        <v>41669</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
+      <c r="A80" s="71"/>
+      <c r="B80" s="18">
+        <v>41661</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="105"/>
-      <c r="B81" s="17">
-        <v>41670</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
+      <c r="A81" s="71"/>
+      <c r="B81" s="18">
+        <v>41662</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="84">
-        <v>14</v>
-      </c>
+      <c r="A82" s="72"/>
       <c r="B82" s="18">
-        <v>41673</v>
+        <v>41663</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3425,95 +3605,93 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="G82" s="26"/>
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="18">
-        <v>41674</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
+      <c r="A83" s="67">
+        <v>13</v>
+      </c>
+      <c r="B83" s="17">
+        <v>41666</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="G83" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="18">
-        <v>41675</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
+      <c r="A84" s="68"/>
+      <c r="B84" s="17">
+        <v>41667</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="G84" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="18">
-        <v>41676</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6">
+      <c r="A85" s="68"/>
+      <c r="B85" s="17">
+        <v>41668</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="G85" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
-      <c r="B86" s="18">
-        <v>41677</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6">
+      <c r="A86" s="68"/>
+      <c r="B86" s="17">
+        <v>41669</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="103">
-        <v>15</v>
-      </c>
+      <c r="A87" s="69"/>
       <c r="B87" s="17">
-        <v>41680</v>
+        <v>41670</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3522,178 +3700,190 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="25"/>
+      <c r="G87" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="104"/>
-      <c r="B88" s="17">
-        <v>41681</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
+      <c r="A88" s="70">
+        <v>14</v>
+      </c>
+      <c r="B88" s="18">
+        <v>41673</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
+      <c r="G88" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="104"/>
-      <c r="B89" s="17">
-        <v>41682</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5">
+      <c r="A89" s="71"/>
+      <c r="B89" s="18">
+        <v>41674</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
+      <c r="G89" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="104"/>
-      <c r="B90" s="17">
-        <v>41683</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5">
+      <c r="A90" s="71"/>
+      <c r="B90" s="18">
+        <v>41675</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
+      <c r="G90" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="105"/>
-      <c r="B91" s="17">
-        <v>41684</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <f t="shared" ref="F91:F122" si="2">E91</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
+      <c r="A91" s="71"/>
+      <c r="B91" s="18">
+        <v>41676</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="84">
-        <v>16</v>
-      </c>
+      <c r="A92" s="72"/>
       <c r="B92" s="18">
-        <v>41687</v>
+        <v>41677</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="26"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="18">
-        <v>41688</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
+      <c r="A93" s="67">
+        <v>15</v>
+      </c>
+      <c r="B93" s="17">
+        <v>41680</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
-      <c r="B94" s="18">
-        <v>41689</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="17">
+        <v>41681</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
-      <c r="B95" s="18">
-        <v>41690</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="17">
+        <v>41682</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
-      <c r="B96" s="18">
-        <v>41691</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="17">
+        <v>41683</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="103">
-        <v>17</v>
-      </c>
+      <c r="A97" s="69"/>
       <c r="B97" s="17">
-        <v>41694</v>
+        <v>41684</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F97:F128" si="2">E97</f>
         <v>0</v>
       </c>
       <c r="G97" s="25"/>
@@ -3702,79 +3892,79 @@
       <c r="J97" s="25"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="104"/>
-      <c r="B98" s="17">
-        <v>41695</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
+      <c r="A98" s="70">
+        <v>16</v>
+      </c>
+      <c r="B98" s="18">
+        <v>41687</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="104"/>
-      <c r="B99" s="17">
-        <v>41696</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
+      <c r="A99" s="71"/>
+      <c r="B99" s="18">
+        <v>41688</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="104"/>
-      <c r="B100" s="17">
-        <v>41697</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
+      <c r="A100" s="71"/>
+      <c r="B100" s="18">
+        <v>41689</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="105"/>
-      <c r="B101" s="17">
-        <v>41698</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5">
+      <c r="A101" s="71"/>
+      <c r="B101" s="18">
+        <v>41690</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="84">
-        <v>18</v>
-      </c>
+      <c r="A102" s="72"/>
       <c r="B102" s="18">
-        <v>41701</v>
+        <v>41691</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3789,79 +3979,79 @@
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
-      <c r="B103" s="18">
-        <v>41702</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
+      <c r="A103" s="67">
+        <v>17</v>
+      </c>
+      <c r="B103" s="17">
+        <v>41694</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="85"/>
-      <c r="B104" s="18">
-        <v>41703</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6">
+      <c r="A104" s="68"/>
+      <c r="B104" s="17">
+        <v>41695</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
-      <c r="B105" s="18">
-        <v>41704</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
+      <c r="A105" s="68"/>
+      <c r="B105" s="17">
+        <v>41696</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
-      <c r="B106" s="18">
-        <v>41705</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
+      <c r="A106" s="68"/>
+      <c r="B106" s="17">
+        <v>41697</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="103">
-        <v>19</v>
-      </c>
+      <c r="A107" s="69"/>
       <c r="B107" s="17">
-        <v>41708</v>
+        <v>41698</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3876,79 +4066,79 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="104"/>
-      <c r="B108" s="17">
-        <v>41709</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
+      <c r="A108" s="70">
+        <v>18</v>
+      </c>
+      <c r="B108" s="18">
+        <v>41701</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="104"/>
-      <c r="B109" s="17">
-        <v>41710</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
+      <c r="A109" s="71"/>
+      <c r="B109" s="18">
+        <v>41702</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="104"/>
-      <c r="B110" s="17">
-        <v>41711</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
+      <c r="A110" s="71"/>
+      <c r="B110" s="18">
+        <v>41703</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="105"/>
-      <c r="B111" s="17">
-        <v>41712</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
+      <c r="A111" s="71"/>
+      <c r="B111" s="18">
+        <v>41704</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="84">
-        <v>20</v>
-      </c>
+      <c r="A112" s="72"/>
       <c r="B112" s="18">
-        <v>41715</v>
+        <v>41705</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3963,79 +4153,79 @@
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
-      <c r="B113" s="18">
-        <v>41716</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
+      <c r="A113" s="67">
+        <v>19</v>
+      </c>
+      <c r="B113" s="17">
+        <v>41708</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="85"/>
-      <c r="B114" s="18">
-        <v>41717</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
+      <c r="A114" s="68"/>
+      <c r="B114" s="17">
+        <v>41709</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="85"/>
-      <c r="B115" s="18">
-        <v>41718</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
+      <c r="A115" s="68"/>
+      <c r="B115" s="17">
+        <v>41710</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
-      <c r="B116" s="18">
-        <v>41719</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
+      <c r="A116" s="68"/>
+      <c r="B116" s="17">
+        <v>41711</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="26"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="103">
-        <v>21</v>
-      </c>
+      <c r="A117" s="69"/>
       <c r="B117" s="17">
-        <v>41722</v>
+        <v>41712</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -4050,79 +4240,79 @@
       <c r="J117" s="25"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="104"/>
-      <c r="B118" s="17">
-        <v>41723</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
+      <c r="A118" s="70">
+        <v>20</v>
+      </c>
+      <c r="B118" s="18">
+        <v>41715</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="104"/>
-      <c r="B119" s="17">
-        <v>41724</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5">
+      <c r="A119" s="71"/>
+      <c r="B119" s="18">
+        <v>41716</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="104"/>
-      <c r="B120" s="17">
-        <v>41725</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
+      <c r="A120" s="71"/>
+      <c r="B120" s="18">
+        <v>41717</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="105"/>
-      <c r="B121" s="17">
-        <v>41726</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5">
+      <c r="A121" s="71"/>
+      <c r="B121" s="18">
+        <v>41718</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="84">
-        <v>22</v>
-      </c>
+      <c r="A122" s="72"/>
       <c r="B122" s="18">
-        <v>41729</v>
+        <v>41719</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -4137,85 +4327,85 @@
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="85"/>
-      <c r="B123" s="18">
-        <v>41730</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
-        <f t="shared" ref="F123:F154" si="3">E123</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
+      <c r="A123" s="67">
+        <v>21</v>
+      </c>
+      <c r="B123" s="17">
+        <v>41722</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="85"/>
-      <c r="B124" s="18">
-        <v>41731</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
+      <c r="A124" s="68"/>
+      <c r="B124" s="17">
+        <v>41723</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="85"/>
-      <c r="B125" s="18">
-        <v>41732</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
+      <c r="A125" s="68"/>
+      <c r="B125" s="17">
+        <v>41724</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
-      <c r="B126" s="18">
-        <v>41733</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
+      <c r="A126" s="68"/>
+      <c r="B126" s="17">
+        <v>41725</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="103">
-        <v>23</v>
-      </c>
+      <c r="A127" s="69"/>
       <c r="B127" s="17">
-        <v>41736</v>
+        <v>41726</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G127" s="25"/>
@@ -4224,79 +4414,79 @@
       <c r="J127" s="25"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="104"/>
-      <c r="B128" s="17">
-        <v>41737</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
+      <c r="A128" s="70">
+        <v>22</v>
+      </c>
+      <c r="B128" s="18">
+        <v>41729</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="71"/>
+      <c r="B129" s="18">
+        <v>41730</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6">
+        <f t="shared" ref="F129:F160" si="3">E129</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="71"/>
+      <c r="B130" s="18">
+        <v>41731</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="104"/>
-      <c r="B129" s="17">
-        <v>41738</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5">
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="71"/>
+      <c r="B131" s="18">
+        <v>41732</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="104"/>
-      <c r="B130" s="17">
-        <v>41739</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="105"/>
-      <c r="B131" s="17">
-        <v>41740</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="84">
-        <v>24</v>
-      </c>
+      <c r="A132" s="72"/>
       <c r="B132" s="18">
-        <v>41743</v>
+        <v>41733</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4311,79 +4501,79 @@
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="85"/>
-      <c r="B133" s="18">
-        <v>41744</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
+      <c r="A133" s="67">
+        <v>23</v>
+      </c>
+      <c r="B133" s="17">
+        <v>41736</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="85"/>
-      <c r="B134" s="18">
-        <v>41745</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6">
+      <c r="A134" s="68"/>
+      <c r="B134" s="17">
+        <v>41737</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="85"/>
-      <c r="B135" s="18">
-        <v>41746</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
+      <c r="A135" s="68"/>
+      <c r="B135" s="17">
+        <v>41738</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="86"/>
-      <c r="B136" s="18">
-        <v>41747</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6">
+      <c r="A136" s="68"/>
+      <c r="B136" s="17">
+        <v>41739</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="103">
-        <v>25</v>
-      </c>
+      <c r="A137" s="69"/>
       <c r="B137" s="17">
-        <v>41750</v>
+        <v>41740</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -4398,79 +4588,79 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="104"/>
-      <c r="B138" s="17">
-        <v>41751</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
+      <c r="A138" s="70">
+        <v>24</v>
+      </c>
+      <c r="B138" s="18">
+        <v>41743</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="104"/>
-      <c r="B139" s="17">
-        <v>41752</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
+      <c r="A139" s="71"/>
+      <c r="B139" s="18">
+        <v>41744</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="104"/>
-      <c r="B140" s="17">
-        <v>41753</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
+      <c r="A140" s="71"/>
+      <c r="B140" s="18">
+        <v>41745</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="105"/>
-      <c r="B141" s="17">
-        <v>41754</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
+      <c r="A141" s="71"/>
+      <c r="B141" s="18">
+        <v>41746</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="84">
-        <v>26</v>
-      </c>
+      <c r="A142" s="72"/>
       <c r="B142" s="18">
-        <v>41757</v>
+        <v>41747</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4485,79 +4675,79 @@
       <c r="J142" s="26"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="85"/>
-      <c r="B143" s="18">
-        <v>41758</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
+      <c r="A143" s="67">
+        <v>25</v>
+      </c>
+      <c r="B143" s="17">
+        <v>41750</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="85"/>
-      <c r="B144" s="18">
-        <v>41759</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6">
+      <c r="A144" s="68"/>
+      <c r="B144" s="17">
+        <v>41751</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="85"/>
-      <c r="B145" s="18">
-        <v>41760</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
+      <c r="A145" s="68"/>
+      <c r="B145" s="17">
+        <v>41752</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="86"/>
-      <c r="B146" s="18">
-        <v>41761</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
+      <c r="A146" s="68"/>
+      <c r="B146" s="17">
+        <v>41753</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="26"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="103">
-        <v>27</v>
-      </c>
+      <c r="A147" s="69"/>
       <c r="B147" s="17">
-        <v>41764</v>
+        <v>41754</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4572,79 +4762,79 @@
       <c r="J147" s="25"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="104"/>
-      <c r="B148" s="17">
-        <v>41765</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
+      <c r="A148" s="70">
+        <v>26</v>
+      </c>
+      <c r="B148" s="18">
+        <v>41757</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="25"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="104"/>
-      <c r="B149" s="17">
-        <v>41766</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5">
+      <c r="A149" s="71"/>
+      <c r="B149" s="18">
+        <v>41758</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="104"/>
-      <c r="B150" s="17">
-        <v>41767</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
+      <c r="A150" s="71"/>
+      <c r="B150" s="18">
+        <v>41759</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="105"/>
-      <c r="B151" s="17">
-        <v>41768</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
+      <c r="A151" s="71"/>
+      <c r="B151" s="18">
+        <v>41760</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="25"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="84">
-        <v>28</v>
-      </c>
+      <c r="A152" s="72"/>
       <c r="B152" s="18">
-        <v>41771</v>
+        <v>41761</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -4659,85 +4849,85 @@
       <c r="J152" s="26"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="85"/>
-      <c r="B153" s="18">
-        <v>41772</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6">
+      <c r="A153" s="67">
+        <v>27</v>
+      </c>
+      <c r="B153" s="17">
+        <v>41764</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="26"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="85"/>
-      <c r="B154" s="18">
-        <v>41773</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6">
+      <c r="A154" s="68"/>
+      <c r="B154" s="17">
+        <v>41765</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="26"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="85"/>
-      <c r="B155" s="18">
-        <v>41774</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6">
-        <f t="shared" ref="F155:F166" si="4">E155</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="26"/>
+      <c r="A155" s="68"/>
+      <c r="B155" s="17">
+        <v>41766</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="86"/>
-      <c r="B156" s="18">
-        <v>41775</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="26"/>
+      <c r="A156" s="68"/>
+      <c r="B156" s="17">
+        <v>41767</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="103">
-        <v>29</v>
-      </c>
+      <c r="A157" s="69"/>
       <c r="B157" s="17">
-        <v>41778</v>
+        <v>41768</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G157" s="25"/>
@@ -4746,199 +4936,280 @@
       <c r="J157" s="25"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="104"/>
-      <c r="B158" s="17">
+      <c r="A158" s="70">
+        <v>28</v>
+      </c>
+      <c r="B158" s="18">
+        <v>41771</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="71"/>
+      <c r="B159" s="18">
+        <v>41772</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="71"/>
+      <c r="B160" s="18">
+        <v>41773</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="71"/>
+      <c r="B161" s="18">
+        <v>41774</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6">
+        <f t="shared" ref="F161:F172" si="4">E161</f>
+        <v>0</v>
+      </c>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="72"/>
+      <c r="B162" s="18">
+        <v>41775</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="67">
+        <v>29</v>
+      </c>
+      <c r="B163" s="17">
+        <v>41778</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="68"/>
+      <c r="B164" s="17">
         <v>41779</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5">
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="104"/>
-      <c r="B159" s="17">
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="68"/>
+      <c r="B165" s="17">
         <v>41780</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5">
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
-      <c r="I159" s="25"/>
-      <c r="J159" s="25"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="104"/>
-      <c r="B160" s="17">
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="25"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="68"/>
+      <c r="B166" s="17">
         <v>41781</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5">
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="105"/>
-      <c r="B161" s="17">
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="25"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="69"/>
+      <c r="B167" s="17">
         <v>41782</v>
       </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5">
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="25"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="108">
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="25"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="73">
         <v>30</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B168" s="18">
         <v>41785</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="109"/>
-      <c r="B163" s="18">
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="74"/>
+      <c r="B169" s="18">
         <v>41786</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2">
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="109"/>
-      <c r="B164" s="18">
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="74"/>
+      <c r="B170" s="18">
         <v>41787</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2">
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="109"/>
-      <c r="B165" s="18">
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="74"/>
+      <c r="B171" s="18">
         <v>41788</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="27"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="110"/>
-      <c r="B166" s="18">
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="75"/>
+      <c r="B172" s="18">
         <v>41789</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="57">
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A68:A72"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A10:A18"/>
@@ -4947,27 +5218,55 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -4981,7 +5280,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="49" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5000,7 +5299,7 @@
           <xm:sqref>M10:M12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="48" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5019,7 +5318,7 @@
           <xm:sqref>M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="47" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5038,7 +5337,7 @@
           <xm:sqref>M15:M17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="46" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5057,7 +5356,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="43" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5076,7 +5375,7 @@
           <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="42" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5095,7 +5394,7 @@
           <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="41" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5114,7 +5413,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="40" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5133,7 +5432,7 @@
           <xm:sqref>M24:M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="39" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5152,7 +5451,7 @@
           <xm:sqref>M29:M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="38" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5168,86 +5467,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M32</xm:sqref>
+          <xm:sqref>M32:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="37" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5266,7 +5489,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="36" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5282,48 +5505,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M38</xm:sqref>
+          <xm:sqref>M38:M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="35" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5342,7 +5527,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="34" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5361,7 +5546,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="33" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5380,7 +5565,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="32" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5399,7 +5584,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="31" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5418,7 +5603,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="30" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5437,7 +5622,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="29" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5456,7 +5641,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="28" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5475,7 +5660,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="27" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5494,7 +5679,121 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="26" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5513,7 +5812,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
+          <x14:cfRule type="iconSet" priority="12" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5532,7 +5831,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="50" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5548,10 +5847,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F15 F13 F10:F11 F32:F166 F17</xm:sqref>
+          <xm:sqref>F7:F8 F15 F13 F10:F11 F42:F172 F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{207F404F-5724-411F-826F-330204927AC3}">
+          <x14:cfRule type="iconSet" priority="7" id="{207F404F-5724-411F-826F-330204927AC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5570,7 +5869,7 @@
           <xm:sqref>F19 F21 F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
+          <x14:cfRule type="iconSet" priority="6" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5589,7 +5888,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
+          <x14:cfRule type="iconSet" priority="5" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5607,6 +5906,82 @@
           </x14:cfRule>
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>Week</t>
   </si>
@@ -695,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -858,177 +858,178 @@
     <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,7 +1469,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1490,81 +1491,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="16"/>
       <c r="H5" s="28" t="s">
         <v>64</v>
@@ -1609,13 +1610,13 @@
       <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="95">
+      <c r="A7" s="91">
         <v>1</v>
       </c>
       <c r="B7" s="37">
@@ -1642,21 +1643,21 @@
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="76"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="21">
         <f>SUM(M8:M55)</f>
-        <v>48.879999999999995</v>
+        <v>51.879999999999995</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="109">
+      <c r="A8" s="92"/>
+      <c r="B8" s="105">
         <v>41586</v>
       </c>
       <c r="C8" s="42">
@@ -1668,7 +1669,7 @@
       <c r="E8" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="74">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1693,8 +1694,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="38">
         <v>0.63194444444444442</v>
       </c>
@@ -1704,7 +1705,7 @@
       <c r="E9" s="39">
         <v>0.5</v>
       </c>
-      <c r="F9" s="78"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1715,10 +1716,10 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="72">
         <v>41589</v>
       </c>
       <c r="C10" s="44">
@@ -1756,8 +1757,8 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="44">
         <v>0.91666666666666663</v>
       </c>
@@ -1788,7 +1789,7 @@
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="49">
         <v>41590</v>
       </c>
@@ -1822,8 +1823,8 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="79">
+      <c r="A13" s="104"/>
+      <c r="B13" s="72">
         <v>41591</v>
       </c>
       <c r="C13" s="51">
@@ -1835,7 +1836,7 @@
       <c r="E13" s="52">
         <v>2</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="107">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1855,8 +1856,8 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="51">
         <v>0.91666666666666663</v>
       </c>
@@ -1866,7 +1867,7 @@
       <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="82"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="31" t="s">
         <v>24</v>
       </c>
@@ -1890,8 +1891,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="79">
+      <c r="A15" s="104"/>
+      <c r="B15" s="72">
         <v>41592</v>
       </c>
       <c r="C15" s="51">
@@ -1903,7 +1904,7 @@
       <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="107">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -1923,15 +1924,15 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10">
         <f>SUM(E32:E42)</f>
-        <v>15.91</v>
+        <v>18.91</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="51">
         <v>0.375</v>
       </c>
@@ -1941,7 +1942,7 @@
       <c r="E16" s="52">
         <v>1.25</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="36" t="s">
         <v>25</v>
       </c>
@@ -1958,8 +1959,8 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="79">
+      <c r="A17" s="104"/>
+      <c r="B17" s="72">
         <v>41593</v>
       </c>
       <c r="C17" s="51">
@@ -1971,7 +1972,7 @@
       <c r="E17" s="52">
         <v>1</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="107">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -1987,8 +1988,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="51">
         <v>0.83333333333333337</v>
       </c>
@@ -1998,7 +1999,7 @@
       <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="108"/>
       <c r="G18" s="34" t="s">
         <v>24</v>
       </c>
@@ -2022,10 +2023,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="112">
         <v>3</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="77">
         <v>41596</v>
       </c>
       <c r="C19" s="29">
@@ -2037,7 +2038,7 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="74">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -2064,8 +2065,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
@@ -2090,8 +2091,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="64">
+      <c r="A21" s="113"/>
+      <c r="B21" s="77">
         <v>41597</v>
       </c>
       <c r="C21" s="29">
@@ -2103,7 +2104,7 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="74">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2126,8 +2127,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="29">
         <v>0.875</v>
       </c>
@@ -2137,7 +2138,7 @@
       <c r="E22" s="5">
         <v>1.5</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2155,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="55">
         <v>41598</v>
       </c>
@@ -2192,8 +2193,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="64">
+      <c r="A24" s="113"/>
+      <c r="B24" s="77">
         <v>41599</v>
       </c>
       <c r="C24" s="29">
@@ -2205,7 +2206,7 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="74">
         <f>SUM(E24:E28)</f>
         <v>7.4</v>
       </c>
@@ -2230,8 +2231,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="29">
         <v>0.4236111111111111</v>
       </c>
@@ -2241,7 +2242,7 @@
       <c r="E25" s="5">
         <v>1.3</v>
       </c>
-      <c r="F25" s="115"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2254,8 +2255,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="29">
         <v>0.5625</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="115"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2281,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="29">
         <v>0.625</v>
       </c>
@@ -2291,7 +2292,7 @@
       <c r="E27" s="5">
         <v>2.1</v>
       </c>
-      <c r="F27" s="115"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
@@ -2306,8 +2307,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="29">
         <v>0.875</v>
       </c>
@@ -2317,7 +2318,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="78"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
@@ -2332,8 +2333,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="64">
+      <c r="A29" s="113"/>
+      <c r="B29" s="77">
         <v>41600</v>
       </c>
       <c r="C29" s="29">
@@ -2345,7 +2346,7 @@
       <c r="E29" s="5">
         <v>1.25</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="74">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
@@ -2370,8 +2371,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="29">
         <v>0.64583333333333337</v>
       </c>
@@ -2381,7 +2382,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="76"/>
       <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
@@ -2396,8 +2397,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -2422,16 +2423,16 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="71">
         <v>4</v>
       </c>
       <c r="B32" s="56">
         <v>41603</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="64" t="s">
         <v>90</v>
       </c>
       <c r="E32" s="52">
@@ -2444,7 +2445,7 @@
       <c r="G32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="120" t="s">
+      <c r="H32" s="67" t="s">
         <v>107</v>
       </c>
       <c r="I32" s="26"/>
@@ -2462,27 +2463,27 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="56">
         <v>41604</v>
       </c>
-      <c r="C33" s="116" t="s">
+      <c r="C33" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="64" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="52">
         <v>1</v>
       </c>
-      <c r="F33" s="118">
+      <c r="F33" s="68">
         <f>SUM(E33:E36)</f>
         <v>5.75</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="65" t="s">
         <v>108</v>
       </c>
       <c r="I33" s="26"/>
@@ -2493,24 +2494,24 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="56">
         <v>41604</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="C34" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="66" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="52">
         <v>1.5</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="65" t="s">
         <v>109</v>
       </c>
       <c r="I34" s="26"/>
@@ -2521,24 +2522,24 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="56">
         <v>41604</v>
       </c>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="52">
         <v>1.25</v>
       </c>
-      <c r="F35" s="71"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="117" t="s">
+      <c r="H35" s="65" t="s">
         <v>96</v>
       </c>
       <c r="I35" s="26"/>
@@ -2549,24 +2550,24 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="56">
         <v>41604</v>
       </c>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="116">
+      <c r="E36" s="64">
         <v>2</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="117" t="s">
+      <c r="H36" s="65" t="s">
         <v>110</v>
       </c>
       <c r="I36" s="26"/>
@@ -2577,20 +2578,20 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="56">
         <v>41605</v>
       </c>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="116">
+      <c r="E37" s="64">
         <v>2.33</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="71">
         <f>SUM(E37:E38)</f>
         <v>3.33</v>
       </c>
@@ -2615,20 +2616,20 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="56">
         <v>41605</v>
       </c>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="116">
+      <c r="E38" s="64">
         <v>1</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="26" t="s">
         <v>24</v>
       </c>
@@ -2650,27 +2651,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="56">
         <v>41606</v>
       </c>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="116">
+      <c r="E39" s="64">
         <v>1.33</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="71">
         <f>SUM(E39:E41)</f>
         <v>5.83</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="65" t="s">
         <v>102</v>
       </c>
       <c r="I39" s="26"/>
@@ -2681,24 +2682,24 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="56">
         <v>41606</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="116">
+      <c r="E40" s="64">
         <v>1.75</v>
       </c>
-      <c r="F40" s="71"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="117" t="s">
+      <c r="H40" s="65" t="s">
         <v>104</v>
       </c>
       <c r="I40" s="26"/>
@@ -2709,24 +2710,24 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="56">
         <v>41606</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="116" t="s">
+      <c r="D41" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="116">
+      <c r="E41" s="64">
         <v>2.75</v>
       </c>
-      <c r="F41" s="72"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="117" t="s">
+      <c r="H41" s="65" t="s">
         <v>106</v>
       </c>
       <c r="I41" s="26"/>
@@ -2744,18 +2745,26 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="56">
         <v>41607</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="121">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
       <c r="F42" s="6">
-        <f t="shared" ref="F41:F64" si="0">E42</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="26"/>
+        <f t="shared" ref="F42:F64" si="0">E42</f>
+        <v>3</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
@@ -2772,7 +2781,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="67">
+      <c r="A43" s="112">
         <v>5</v>
       </c>
       <c r="B43" s="55">
@@ -2802,7 +2811,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="55">
         <v>41611</v>
       </c>
@@ -2830,7 +2839,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="55">
         <v>41612</v>
       </c>
@@ -2858,7 +2867,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="55">
         <v>41613</v>
       </c>
@@ -2886,7 +2895,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="55">
         <v>41614</v>
       </c>
@@ -2914,7 +2923,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+      <c r="A48" s="71">
         <v>6</v>
       </c>
       <c r="B48" s="56">
@@ -2944,7 +2953,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="56">
         <v>41618</v>
       </c>
@@ -2972,7 +2981,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="56">
         <v>41619</v>
       </c>
@@ -3000,7 +3009,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="56">
         <v>41620</v>
       </c>
@@ -3028,7 +3037,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="56">
         <v>41621</v>
       </c>
@@ -3056,7 +3065,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="67">
+      <c r="A53" s="112">
         <v>7</v>
       </c>
       <c r="B53" s="17">
@@ -3086,7 +3095,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="17">
         <v>41625</v>
       </c>
@@ -3114,7 +3123,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="17">
         <v>41626</v>
       </c>
@@ -3142,7 +3151,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="17">
         <v>41627</v>
       </c>
@@ -3159,7 +3168,7 @@
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
+      <c r="A57" s="114"/>
       <c r="B57" s="17">
         <v>41628</v>
       </c>
@@ -3176,7 +3185,7 @@
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+      <c r="A58" s="71">
         <v>8</v>
       </c>
       <c r="B58" s="18">
@@ -3195,7 +3204,7 @@
       <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="18">
         <v>41632</v>
       </c>
@@ -3212,7 +3221,7 @@
       <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="18">
         <v>41633</v>
       </c>
@@ -3229,7 +3238,7 @@
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="18">
         <v>41634</v>
       </c>
@@ -3246,7 +3255,7 @@
       <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
+      <c r="A62" s="70"/>
       <c r="B62" s="18">
         <v>41635</v>
       </c>
@@ -3263,7 +3272,7 @@
       <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="67">
+      <c r="A63" s="112">
         <v>9</v>
       </c>
       <c r="B63" s="17">
@@ -3282,7 +3291,7 @@
       <c r="J63" s="25"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="113"/>
       <c r="B64" s="17">
         <v>41639</v>
       </c>
@@ -3299,7 +3308,7 @@
       <c r="J64" s="25"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+      <c r="A65" s="113"/>
       <c r="B65" s="17">
         <v>41640</v>
       </c>
@@ -3316,7 +3325,7 @@
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="17">
         <v>41641</v>
       </c>
@@ -3333,7 +3342,7 @@
       <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
+      <c r="A67" s="114"/>
       <c r="B67" s="17">
         <v>41642</v>
       </c>
@@ -3350,7 +3359,7 @@
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="70">
+      <c r="A68" s="71">
         <v>10</v>
       </c>
       <c r="B68" s="18">
@@ -3369,7 +3378,7 @@
       <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="18">
         <v>41646</v>
       </c>
@@ -3386,7 +3395,7 @@
       <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="18">
         <v>41647</v>
       </c>
@@ -3403,7 +3412,7 @@
       <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="18">
         <v>41648</v>
       </c>
@@ -3420,7 +3429,7 @@
       <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="18">
         <v>41649</v>
       </c>
@@ -3437,7 +3446,7 @@
       <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="67">
+      <c r="A73" s="112">
         <v>11</v>
       </c>
       <c r="B73" s="17">
@@ -3456,7 +3465,7 @@
       <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
+      <c r="A74" s="113"/>
       <c r="B74" s="17">
         <v>41653</v>
       </c>
@@ -3473,7 +3482,7 @@
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
+      <c r="A75" s="113"/>
       <c r="B75" s="17">
         <v>41654</v>
       </c>
@@ -3490,7 +3499,7 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
+      <c r="A76" s="113"/>
       <c r="B76" s="17">
         <v>41655</v>
       </c>
@@ -3507,7 +3516,7 @@
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
+      <c r="A77" s="114"/>
       <c r="B77" s="17">
         <v>41656</v>
       </c>
@@ -3524,7 +3533,7 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="70">
+      <c r="A78" s="71">
         <v>12</v>
       </c>
       <c r="B78" s="18">
@@ -3543,7 +3552,7 @@
       <c r="J78" s="26"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="18">
         <v>41660</v>
       </c>
@@ -3560,7 +3569,7 @@
       <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="18">
         <v>41661</v>
       </c>
@@ -3577,7 +3586,7 @@
       <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="18">
         <v>41662</v>
       </c>
@@ -3594,7 +3603,7 @@
       <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="18">
         <v>41663</v>
       </c>
@@ -3611,7 +3620,7 @@
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="67">
+      <c r="A83" s="112">
         <v>13</v>
       </c>
       <c r="B83" s="17">
@@ -3632,7 +3641,7 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+      <c r="A84" s="113"/>
       <c r="B84" s="17">
         <v>41667</v>
       </c>
@@ -3651,7 +3660,7 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="113"/>
       <c r="B85" s="17">
         <v>41668</v>
       </c>
@@ -3670,7 +3679,7 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
+      <c r="A86" s="113"/>
       <c r="B86" s="17">
         <v>41669</v>
       </c>
@@ -3689,7 +3698,7 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
+      <c r="A87" s="114"/>
       <c r="B87" s="17">
         <v>41670</v>
       </c>
@@ -3708,7 +3717,7 @@
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="70">
+      <c r="A88" s="71">
         <v>14</v>
       </c>
       <c r="B88" s="18">
@@ -3729,7 +3738,7 @@
       <c r="J88" s="26"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="18">
         <v>41674</v>
       </c>
@@ -3748,7 +3757,7 @@
       <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="18">
         <v>41675</v>
       </c>
@@ -3767,7 +3776,7 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="18">
         <v>41676</v>
       </c>
@@ -3786,7 +3795,7 @@
       <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="72"/>
+      <c r="A92" s="70"/>
       <c r="B92" s="18">
         <v>41677</v>
       </c>
@@ -3805,7 +3814,7 @@
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="67">
+      <c r="A93" s="112">
         <v>15</v>
       </c>
       <c r="B93" s="17">
@@ -3824,7 +3833,7 @@
       <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
+      <c r="A94" s="113"/>
       <c r="B94" s="17">
         <v>41681</v>
       </c>
@@ -3841,7 +3850,7 @@
       <c r="J94" s="25"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+      <c r="A95" s="113"/>
       <c r="B95" s="17">
         <v>41682</v>
       </c>
@@ -3858,7 +3867,7 @@
       <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="68"/>
+      <c r="A96" s="113"/>
       <c r="B96" s="17">
         <v>41683</v>
       </c>
@@ -3875,7 +3884,7 @@
       <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
+      <c r="A97" s="114"/>
       <c r="B97" s="17">
         <v>41684</v>
       </c>
@@ -3892,7 +3901,7 @@
       <c r="J97" s="25"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="70">
+      <c r="A98" s="71">
         <v>16</v>
       </c>
       <c r="B98" s="18">
@@ -3911,7 +3920,7 @@
       <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="18">
         <v>41688</v>
       </c>
@@ -3928,7 +3937,7 @@
       <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="18">
         <v>41689</v>
       </c>
@@ -3945,7 +3954,7 @@
       <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="18">
         <v>41690</v>
       </c>
@@ -3962,7 +3971,7 @@
       <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="72"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="18">
         <v>41691</v>
       </c>
@@ -3979,7 +3988,7 @@
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="67">
+      <c r="A103" s="112">
         <v>17</v>
       </c>
       <c r="B103" s="17">
@@ -3998,7 +4007,7 @@
       <c r="J103" s="25"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
+      <c r="A104" s="113"/>
       <c r="B104" s="17">
         <v>41695</v>
       </c>
@@ -4015,7 +4024,7 @@
       <c r="J104" s="25"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="113"/>
       <c r="B105" s="17">
         <v>41696</v>
       </c>
@@ -4032,7 +4041,7 @@
       <c r="J105" s="25"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
+      <c r="A106" s="113"/>
       <c r="B106" s="17">
         <v>41697</v>
       </c>
@@ -4049,7 +4058,7 @@
       <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="69"/>
+      <c r="A107" s="114"/>
       <c r="B107" s="17">
         <v>41698</v>
       </c>
@@ -4066,7 +4075,7 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="70">
+      <c r="A108" s="71">
         <v>18</v>
       </c>
       <c r="B108" s="18">
@@ -4085,7 +4094,7 @@
       <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
+      <c r="A109" s="69"/>
       <c r="B109" s="18">
         <v>41702</v>
       </c>
@@ -4102,7 +4111,7 @@
       <c r="J109" s="26"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
+      <c r="A110" s="69"/>
       <c r="B110" s="18">
         <v>41703</v>
       </c>
@@ -4119,7 +4128,7 @@
       <c r="J110" s="26"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="18">
         <v>41704</v>
       </c>
@@ -4136,7 +4145,7 @@
       <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="72"/>
+      <c r="A112" s="70"/>
       <c r="B112" s="18">
         <v>41705</v>
       </c>
@@ -4153,7 +4162,7 @@
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="67">
+      <c r="A113" s="112">
         <v>19</v>
       </c>
       <c r="B113" s="17">
@@ -4172,7 +4181,7 @@
       <c r="J113" s="25"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
+      <c r="A114" s="113"/>
       <c r="B114" s="17">
         <v>41709</v>
       </c>
@@ -4189,7 +4198,7 @@
       <c r="J114" s="25"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+      <c r="A115" s="113"/>
       <c r="B115" s="17">
         <v>41710</v>
       </c>
@@ -4206,7 +4215,7 @@
       <c r="J115" s="25"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="68"/>
+      <c r="A116" s="113"/>
       <c r="B116" s="17">
         <v>41711</v>
       </c>
@@ -4223,7 +4232,7 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="69"/>
+      <c r="A117" s="114"/>
       <c r="B117" s="17">
         <v>41712</v>
       </c>
@@ -4240,7 +4249,7 @@
       <c r="J117" s="25"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="70">
+      <c r="A118" s="71">
         <v>20</v>
       </c>
       <c r="B118" s="18">
@@ -4259,7 +4268,7 @@
       <c r="J118" s="26"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="18">
         <v>41716</v>
       </c>
@@ -4276,7 +4285,7 @@
       <c r="J119" s="26"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="18">
         <v>41717</v>
       </c>
@@ -4293,7 +4302,7 @@
       <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="71"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="18">
         <v>41718</v>
       </c>
@@ -4310,7 +4319,7 @@
       <c r="J121" s="26"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="72"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="18">
         <v>41719</v>
       </c>
@@ -4327,7 +4336,7 @@
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="67">
+      <c r="A123" s="112">
         <v>21</v>
       </c>
       <c r="B123" s="17">
@@ -4346,7 +4355,7 @@
       <c r="J123" s="25"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
+      <c r="A124" s="113"/>
       <c r="B124" s="17">
         <v>41723</v>
       </c>
@@ -4363,7 +4372,7 @@
       <c r="J124" s="25"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
+      <c r="A125" s="113"/>
       <c r="B125" s="17">
         <v>41724</v>
       </c>
@@ -4380,7 +4389,7 @@
       <c r="J125" s="25"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="68"/>
+      <c r="A126" s="113"/>
       <c r="B126" s="17">
         <v>41725</v>
       </c>
@@ -4397,7 +4406,7 @@
       <c r="J126" s="25"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="69"/>
+      <c r="A127" s="114"/>
       <c r="B127" s="17">
         <v>41726</v>
       </c>
@@ -4414,7 +4423,7 @@
       <c r="J127" s="25"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="70">
+      <c r="A128" s="71">
         <v>22</v>
       </c>
       <c r="B128" s="18">
@@ -4433,7 +4442,7 @@
       <c r="J128" s="26"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="71"/>
+      <c r="A129" s="69"/>
       <c r="B129" s="18">
         <v>41730</v>
       </c>
@@ -4450,7 +4459,7 @@
       <c r="J129" s="26"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="71"/>
+      <c r="A130" s="69"/>
       <c r="B130" s="18">
         <v>41731</v>
       </c>
@@ -4467,7 +4476,7 @@
       <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="71"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="18">
         <v>41732</v>
       </c>
@@ -4484,7 +4493,7 @@
       <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="72"/>
+      <c r="A132" s="70"/>
       <c r="B132" s="18">
         <v>41733</v>
       </c>
@@ -4501,7 +4510,7 @@
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="67">
+      <c r="A133" s="112">
         <v>23</v>
       </c>
       <c r="B133" s="17">
@@ -4520,7 +4529,7 @@
       <c r="J133" s="25"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
+      <c r="A134" s="113"/>
       <c r="B134" s="17">
         <v>41737</v>
       </c>
@@ -4537,7 +4546,7 @@
       <c r="J134" s="25"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
+      <c r="A135" s="113"/>
       <c r="B135" s="17">
         <v>41738</v>
       </c>
@@ -4554,7 +4563,7 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="68"/>
+      <c r="A136" s="113"/>
       <c r="B136" s="17">
         <v>41739</v>
       </c>
@@ -4571,7 +4580,7 @@
       <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="69"/>
+      <c r="A137" s="114"/>
       <c r="B137" s="17">
         <v>41740</v>
       </c>
@@ -4588,7 +4597,7 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="70">
+      <c r="A138" s="71">
         <v>24</v>
       </c>
       <c r="B138" s="18">
@@ -4607,7 +4616,7 @@
       <c r="J138" s="26"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="71"/>
+      <c r="A139" s="69"/>
       <c r="B139" s="18">
         <v>41744</v>
       </c>
@@ -4624,7 +4633,7 @@
       <c r="J139" s="26"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="71"/>
+      <c r="A140" s="69"/>
       <c r="B140" s="18">
         <v>41745</v>
       </c>
@@ -4641,7 +4650,7 @@
       <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="71"/>
+      <c r="A141" s="69"/>
       <c r="B141" s="18">
         <v>41746</v>
       </c>
@@ -4658,7 +4667,7 @@
       <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="72"/>
+      <c r="A142" s="70"/>
       <c r="B142" s="18">
         <v>41747</v>
       </c>
@@ -4675,7 +4684,7 @@
       <c r="J142" s="26"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="67">
+      <c r="A143" s="112">
         <v>25</v>
       </c>
       <c r="B143" s="17">
@@ -4694,7 +4703,7 @@
       <c r="J143" s="25"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
+      <c r="A144" s="113"/>
       <c r="B144" s="17">
         <v>41751</v>
       </c>
@@ -4711,7 +4720,7 @@
       <c r="J144" s="25"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
+      <c r="A145" s="113"/>
       <c r="B145" s="17">
         <v>41752</v>
       </c>
@@ -4728,7 +4737,7 @@
       <c r="J145" s="25"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="68"/>
+      <c r="A146" s="113"/>
       <c r="B146" s="17">
         <v>41753</v>
       </c>
@@ -4745,7 +4754,7 @@
       <c r="J146" s="25"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="69"/>
+      <c r="A147" s="114"/>
       <c r="B147" s="17">
         <v>41754</v>
       </c>
@@ -4762,7 +4771,7 @@
       <c r="J147" s="25"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="70">
+      <c r="A148" s="71">
         <v>26</v>
       </c>
       <c r="B148" s="18">
@@ -4781,7 +4790,7 @@
       <c r="J148" s="26"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="71"/>
+      <c r="A149" s="69"/>
       <c r="B149" s="18">
         <v>41758</v>
       </c>
@@ -4798,7 +4807,7 @@
       <c r="J149" s="26"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
+      <c r="A150" s="69"/>
       <c r="B150" s="18">
         <v>41759</v>
       </c>
@@ -4815,7 +4824,7 @@
       <c r="J150" s="26"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="71"/>
+      <c r="A151" s="69"/>
       <c r="B151" s="18">
         <v>41760</v>
       </c>
@@ -4832,7 +4841,7 @@
       <c r="J151" s="26"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="72"/>
+      <c r="A152" s="70"/>
       <c r="B152" s="18">
         <v>41761</v>
       </c>
@@ -4849,7 +4858,7 @@
       <c r="J152" s="26"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="67">
+      <c r="A153" s="112">
         <v>27</v>
       </c>
       <c r="B153" s="17">
@@ -4868,7 +4877,7 @@
       <c r="J153" s="25"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
+      <c r="A154" s="113"/>
       <c r="B154" s="17">
         <v>41765</v>
       </c>
@@ -4885,7 +4894,7 @@
       <c r="J154" s="25"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
+      <c r="A155" s="113"/>
       <c r="B155" s="17">
         <v>41766</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="J155" s="25"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="68"/>
+      <c r="A156" s="113"/>
       <c r="B156" s="17">
         <v>41767</v>
       </c>
@@ -4919,7 +4928,7 @@
       <c r="J156" s="25"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="69"/>
+      <c r="A157" s="114"/>
       <c r="B157" s="17">
         <v>41768</v>
       </c>
@@ -4936,7 +4945,7 @@
       <c r="J157" s="25"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="70">
+      <c r="A158" s="71">
         <v>28</v>
       </c>
       <c r="B158" s="18">
@@ -4955,7 +4964,7 @@
       <c r="J158" s="26"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="71"/>
+      <c r="A159" s="69"/>
       <c r="B159" s="18">
         <v>41772</v>
       </c>
@@ -4972,7 +4981,7 @@
       <c r="J159" s="26"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="71"/>
+      <c r="A160" s="69"/>
       <c r="B160" s="18">
         <v>41773</v>
       </c>
@@ -4989,7 +4998,7 @@
       <c r="J160" s="26"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="71"/>
+      <c r="A161" s="69"/>
       <c r="B161" s="18">
         <v>41774</v>
       </c>
@@ -5006,7 +5015,7 @@
       <c r="J161" s="26"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="72"/>
+      <c r="A162" s="70"/>
       <c r="B162" s="18">
         <v>41775</v>
       </c>
@@ -5023,7 +5032,7 @@
       <c r="J162" s="26"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="67">
+      <c r="A163" s="112">
         <v>29</v>
       </c>
       <c r="B163" s="17">
@@ -5042,7 +5051,7 @@
       <c r="J163" s="25"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
+      <c r="A164" s="113"/>
       <c r="B164" s="17">
         <v>41779</v>
       </c>
@@ -5059,7 +5068,7 @@
       <c r="J164" s="25"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
+      <c r="A165" s="113"/>
       <c r="B165" s="17">
         <v>41780</v>
       </c>
@@ -5076,7 +5085,7 @@
       <c r="J165" s="25"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="68"/>
+      <c r="A166" s="113"/>
       <c r="B166" s="17">
         <v>41781</v>
       </c>
@@ -5093,7 +5102,7 @@
       <c r="J166" s="25"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="69"/>
+      <c r="A167" s="114"/>
       <c r="B167" s="17">
         <v>41782</v>
       </c>
@@ -5110,7 +5119,7 @@
       <c r="J167" s="25"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="73">
+      <c r="A168" s="117">
         <v>30</v>
       </c>
       <c r="B168" s="18">
@@ -5129,7 +5138,7 @@
       <c r="J168" s="27"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="74"/>
+      <c r="A169" s="118"/>
       <c r="B169" s="18">
         <v>41786</v>
       </c>
@@ -5146,7 +5155,7 @@
       <c r="J169" s="27"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="74"/>
+      <c r="A170" s="118"/>
       <c r="B170" s="18">
         <v>41787</v>
       </c>
@@ -5163,7 +5172,7 @@
       <c r="J170" s="27"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="74"/>
+      <c r="A171" s="118"/>
       <c r="B171" s="18">
         <v>41788</v>
       </c>
@@ -5180,7 +5189,7 @@
       <c r="J171" s="27"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="75"/>
+      <c r="A172" s="119"/>
       <c r="B172" s="18">
         <v>41789</v>
       </c>
@@ -5198,14 +5207,37 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5222,39 +5254,16 @@
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -392,6 +392,41 @@
   </si>
   <si>
     <t>brainstorm some question for future system</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>Team Mettings</t>
+  </si>
+  <si>
+    <t>10.30AM</t>
+  </si>
+  <si>
+    <t>9.00AM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>10:00PM</t>
+  </si>
+  <si>
+    <t>Discuss entities and collection document
++ Rework entities
++ Implement analysis document &lt;Archi Driver specification&gt;</t>
+  </si>
+  <si>
+    <t>First Training Java + Spring with Mr. Thanh
++ Setup nessecsary tools
++ Understand DI and AOP in Spring framework
++ Demo Hello world with Spring</t>
+  </si>
+  <si>
+    <t>Update  entities, func,QA for team members</t>
+  </si>
+  <si>
+    <t>11:00PM</t>
   </si>
 </sst>
 </file>
@@ -695,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -870,166 +905,172 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,13 +1504,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1521,7 @@
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
@@ -1491,81 +1532,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="16"/>
       <c r="H5" s="28" t="s">
         <v>64</v>
@@ -1610,13 +1651,13 @@
       <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="99">
         <v>1</v>
       </c>
       <c r="B7" s="37">
@@ -1643,21 +1684,21 @@
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="116" t="s">
+      <c r="K7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="116"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="21">
-        <f>SUM(M8:M55)</f>
-        <v>51.879999999999995</v>
+        <f>SUM(M8:M57)</f>
+        <v>62.379999999999995</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="105">
+      <c r="A8" s="100"/>
+      <c r="B8" s="113">
         <v>41586</v>
       </c>
       <c r="C8" s="42">
@@ -1669,7 +1710,7 @@
       <c r="E8" s="39">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="81">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1694,8 +1735,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="106"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="38">
         <v>0.63194444444444442</v>
       </c>
@@ -1705,7 +1746,7 @@
       <c r="E9" s="39">
         <v>0.5</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1716,10 +1757,10 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="103">
+      <c r="A10" s="111">
         <v>2</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="83">
         <v>41589</v>
       </c>
       <c r="C10" s="44">
@@ -1757,8 +1798,8 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="44">
         <v>0.91666666666666663</v>
       </c>
@@ -1789,7 +1830,7 @@
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="49">
         <v>41590</v>
       </c>
@@ -1823,8 +1864,8 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="72">
+      <c r="A13" s="112"/>
+      <c r="B13" s="83">
         <v>41591</v>
       </c>
       <c r="C13" s="51">
@@ -1836,7 +1877,7 @@
       <c r="E13" s="52">
         <v>2</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="85">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1856,8 +1897,8 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="51">
         <v>0.91666666666666663</v>
       </c>
@@ -1867,7 +1908,7 @@
       <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="31" t="s">
         <v>24</v>
       </c>
@@ -1891,8 +1932,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="72">
+      <c r="A15" s="112"/>
+      <c r="B15" s="83">
         <v>41592</v>
       </c>
       <c r="C15" s="51">
@@ -1904,7 +1945,7 @@
       <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="85">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -1931,8 +1972,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="51">
         <v>0.375</v>
       </c>
@@ -1942,7 +1983,7 @@
       <c r="E16" s="52">
         <v>1.25</v>
       </c>
-      <c r="F16" s="108"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="36" t="s">
         <v>25</v>
       </c>
@@ -1959,8 +2000,8 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="72">
+      <c r="A17" s="112"/>
+      <c r="B17" s="83">
         <v>41593</v>
       </c>
       <c r="C17" s="51">
@@ -1972,7 +2013,7 @@
       <c r="E17" s="52">
         <v>1</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="85">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -1988,8 +2029,8 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="51">
         <v>0.83333333333333337</v>
       </c>
@@ -1999,7 +2040,7 @@
       <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="F18" s="108"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="34" t="s">
         <v>24</v>
       </c>
@@ -2015,18 +2056,18 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <f>SUM(E43:E47)</f>
-        <v>0</v>
+        <f>SUM(E43:E49)</f>
+        <v>10.5</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="112">
+      <c r="A19" s="69">
         <v>3</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="79">
         <v>41596</v>
       </c>
       <c r="C19" s="29">
@@ -2038,7 +2079,7 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="81">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -2057,7 +2098,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E60:E64)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2065,8 +2106,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -2076,7 +2117,7 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
@@ -2091,8 +2132,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
-      <c r="B21" s="77">
+      <c r="A21" s="70"/>
+      <c r="B21" s="79">
         <v>41597</v>
       </c>
       <c r="C21" s="29">
@@ -2104,7 +2145,7 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="81">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2119,7 +2160,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E65:E69)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2127,8 +2168,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="29">
         <v>0.875</v>
       </c>
@@ -2138,7 +2179,7 @@
       <c r="E22" s="5">
         <v>1.5</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2196,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="55">
         <v>41598</v>
       </c>
@@ -2185,7 +2226,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E70:E74)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2193,8 +2234,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
-      <c r="B24" s="77">
+      <c r="A24" s="70"/>
+      <c r="B24" s="79">
         <v>41599</v>
       </c>
       <c r="C24" s="29">
@@ -2206,7 +2247,7 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="81">
         <f>SUM(E24:E28)</f>
         <v>7.4</v>
       </c>
@@ -2223,7 +2264,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E75:E79)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2231,8 +2272,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
-      <c r="B25" s="120"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="29">
         <v>0.4236111111111111</v>
       </c>
@@ -2242,7 +2283,7 @@
       <c r="E25" s="5">
         <v>1.3</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2255,8 +2296,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
-      <c r="B26" s="120"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="29">
         <v>0.5625</v>
       </c>
@@ -2266,7 +2307,7 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2281,8 +2322,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="113"/>
-      <c r="B27" s="120"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="29">
         <v>0.625</v>
       </c>
@@ -2292,7 +2333,7 @@
       <c r="E27" s="5">
         <v>2.1</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
@@ -2307,8 +2348,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="29">
         <v>0.875</v>
       </c>
@@ -2318,7 +2359,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
@@ -2333,8 +2374,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
-      <c r="B29" s="77">
+      <c r="A29" s="70"/>
+      <c r="B29" s="79">
         <v>41600</v>
       </c>
       <c r="C29" s="29">
@@ -2346,7 +2387,7 @@
       <c r="E29" s="5">
         <v>1.25</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="81">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
@@ -2363,7 +2404,7 @@
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E80:E84)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2371,8 +2412,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
-      <c r="B30" s="120"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="29">
         <v>0.64583333333333337</v>
       </c>
@@ -2382,7 +2423,7 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
@@ -2397,8 +2438,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="29">
         <v>0.83333333333333337</v>
       </c>
@@ -2423,7 +2464,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71">
+      <c r="A32" s="72">
         <v>4</v>
       </c>
       <c r="B32" s="56">
@@ -2455,7 +2496,7 @@
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E85:E89)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2463,7 +2504,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="56">
         <v>41604</v>
       </c>
@@ -2476,7 +2517,7 @@
       <c r="E33" s="52">
         <v>1</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="119">
         <f>SUM(E33:E36)</f>
         <v>5.75</v>
       </c>
@@ -2494,7 +2535,7 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="56">
         <v>41604</v>
       </c>
@@ -2507,7 +2548,7 @@
       <c r="E34" s="52">
         <v>1.5</v>
       </c>
-      <c r="F34" s="69"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="26" t="s">
         <v>25</v>
       </c>
@@ -2522,7 +2563,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="56">
         <v>41604</v>
       </c>
@@ -2535,7 +2576,7 @@
       <c r="E35" s="52">
         <v>1.25</v>
       </c>
-      <c r="F35" s="69"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="26" t="s">
         <v>21</v>
       </c>
@@ -2550,7 +2591,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="56">
         <v>41604</v>
       </c>
@@ -2563,7 +2604,7 @@
       <c r="E36" s="64">
         <v>2</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="26" t="s">
         <v>24</v>
       </c>
@@ -2578,7 +2619,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="56">
         <v>41605</v>
       </c>
@@ -2591,7 +2632,7 @@
       <c r="E37" s="64">
         <v>2.33</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="72">
         <f>SUM(E37:E38)</f>
         <v>3.33</v>
       </c>
@@ -2608,7 +2649,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E90:E94)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2616,7 +2657,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="56">
         <v>41605</v>
       </c>
@@ -2629,7 +2670,7 @@
       <c r="E38" s="64">
         <v>1</v>
       </c>
-      <c r="F38" s="70"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="26" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2684,7 @@
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E95:E99)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2651,7 +2692,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="56">
         <v>41606</v>
       </c>
@@ -2664,7 +2705,7 @@
       <c r="E39" s="64">
         <v>1.33</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="72">
         <f>SUM(E39:E41)</f>
         <v>5.83</v>
       </c>
@@ -2682,7 +2723,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="56">
         <v>41606</v>
       </c>
@@ -2695,7 +2736,7 @@
       <c r="E40" s="64">
         <v>1.75</v>
       </c>
-      <c r="F40" s="69"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="26" t="s">
         <v>27</v>
       </c>
@@ -2710,7 +2751,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="56">
         <v>41606</v>
       </c>
@@ -2723,7 +2764,7 @@
       <c r="E41" s="64">
         <v>2.75</v>
       </c>
-      <c r="F41" s="70"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="26" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2778,7 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E100:E104)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2745,21 +2786,21 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="56">
         <v>41607</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="121">
+      <c r="D42" s="68">
         <v>0.75</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" ref="F42:F64" si="0">E42</f>
+        <f t="shared" ref="F42:F66" si="0">E42</f>
         <v>3</v>
       </c>
       <c r="G42" s="26" t="s">
@@ -2773,7 +2814,7 @@
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E105:E109)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2781,7 +2822,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="112">
+      <c r="A43" s="69">
         <v>5</v>
       </c>
       <c r="B43" s="55">
@@ -2803,27 +2844,37 @@
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="113"/>
-      <c r="B44" s="55">
+    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
+      <c r="B44" s="79">
         <v>41611</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="122">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="69">
+        <f>SUM(E44:E46)</f>
+        <v>6</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="123" t="s">
+        <v>118</v>
+      </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="8" t="s">
@@ -2831,91 +2882,95 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E115:E119)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="113"/>
-      <c r="B45" s="55">
-        <v>41612</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+    <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="122">
+        <v>3.5</v>
+      </c>
+      <c r="F45" s="70"/>
+      <c r="G45" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="123" t="s">
+        <v>119</v>
+      </c>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="K45" s="8"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="10">
-        <f>SUM(E118:E122)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
-      <c r="B46" s="55">
-        <v>41613</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="122">
+        <v>1</v>
+      </c>
+      <c r="F46" s="71"/>
+      <c r="G46" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="123" t="s">
+        <v>120</v>
+      </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="K46" s="8"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="10">
-        <f>SUM(E123:E127)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="55">
-        <v>41614</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+        <v>41612</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="5">
+        <v>4.5</v>
+      </c>
       <c r="F47" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="19"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E120:E124)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2923,29 +2978,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
-        <v>6</v>
-      </c>
-      <c r="B48" s="56">
-        <v>41617</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
+      <c r="A48" s="70"/>
+      <c r="B48" s="55">
+        <v>41613</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E125:E129)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2953,27 +3006,27 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="56">
-        <v>41618</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
+      <c r="A49" s="71"/>
+      <c r="B49" s="55">
+        <v>41614</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E130:E134)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2981,9 +3034,11 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
+      <c r="A50" s="72">
+        <v>6</v>
+      </c>
       <c r="B50" s="56">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2997,11 +3052,11 @@
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E135:E139)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3009,9 +3064,9 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="56">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -3025,11 +3080,11 @@
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E140:E144)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3037,15 +3092,15 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="56">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6">
-        <f>E52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="26"/>
@@ -3053,11 +3108,11 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E145:E149)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3065,29 +3120,27 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="112">
-        <v>7</v>
-      </c>
-      <c r="B53" s="17">
-        <v>41624</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5">
+      <c r="A53" s="73"/>
+      <c r="B53" s="56">
+        <v>41620</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
       <c r="K53" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="10">
-        <f>SUM(E158:E162)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3095,27 +3148,27 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
-      <c r="B54" s="17">
-        <v>41625</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="56">
+        <v>41621</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <f>E54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
       <c r="K54" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="10">
-        <f>SUM(E163:E167)</f>
+        <f>SUM(E155:E159)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3123,9 +3176,11 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
+      <c r="A55" s="69">
+        <v>7</v>
+      </c>
       <c r="B55" s="17">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3139,11 +3194,11 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
       <c r="K55" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="10">
-        <f>SUM(E168:E172)</f>
+        <f>SUM(E160:E164)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -3151,9 +3206,9 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="17">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3166,11 +3221,22 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
+      <c r="K56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="10">
+        <f>SUM(E165:E169)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="17">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3183,47 +3249,58 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
+      <c r="K57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10">
+        <f>SUM(E170:E174)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="71">
+      <c r="A58" s="70"/>
+      <c r="B58" s="17">
+        <v>41627</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="71"/>
+      <c r="B59" s="17">
+        <v>41628</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="72">
         <v>8</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B60" s="18">
         <v>41631</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="18">
-        <v>41632</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="18">
-        <v>41633</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3238,9 +3315,9 @@
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="18">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -3255,9 +3332,9 @@
       <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="18">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3272,51 +3349,51 @@
       <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="112">
+      <c r="A63" s="73"/>
+      <c r="B63" s="18">
+        <v>41634</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="74"/>
+      <c r="B64" s="18">
+        <v>41635</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="69">
         <v>9</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B65" s="17">
         <v>41638</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="113"/>
-      <c r="B64" s="17">
-        <v>41639</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="113"/>
-      <c r="B65" s="17">
-        <v>41640</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5">
-        <f t="shared" ref="F65:F96" si="1">E65</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="25"/>
@@ -3325,15 +3402,15 @@
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="113"/>
+      <c r="A66" s="70"/>
       <c r="B66" s="17">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="25"/>
@@ -3342,15 +3419,15 @@
       <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="114"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="17">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F67:F98" si="1">E67</f>
         <v>0</v>
       </c>
       <c r="G67" s="25"/>
@@ -3359,45 +3436,45 @@
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="71">
+      <c r="A68" s="70"/>
+      <c r="B68" s="17">
+        <v>41641</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="71"/>
+      <c r="B69" s="17">
+        <v>41642</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="72">
         <v>10</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B70" s="18">
         <v>41645</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
-      <c r="B69" s="18">
-        <v>41646</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
-      <c r="B70" s="18">
-        <v>41647</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3412,9 +3489,9 @@
       <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="18">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3429,9 +3506,9 @@
       <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="18">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -3446,45 +3523,45 @@
       <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="112">
+      <c r="A73" s="73"/>
+      <c r="B73" s="18">
+        <v>41648</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="74"/>
+      <c r="B74" s="18">
+        <v>41649</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="69">
         <v>11</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B75" s="17">
         <v>41652</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="113"/>
-      <c r="B74" s="17">
-        <v>41653</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="113"/>
-      <c r="B75" s="17">
-        <v>41654</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3499,9 +3576,9 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
+      <c r="A76" s="70"/>
       <c r="B76" s="17">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3516,9 +3593,9 @@
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="114"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="17">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3533,45 +3610,45 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="71">
+      <c r="A78" s="70"/>
+      <c r="B78" s="17">
+        <v>41655</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="71"/>
+      <c r="B79" s="17">
+        <v>41656</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="72">
         <v>12</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B80" s="18">
         <v>41659</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
-      <c r="B79" s="18">
-        <v>41660</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="18">
-        <v>41661</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3586,9 +3663,9 @@
       <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="18">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3603,9 +3680,9 @@
       <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="18">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3620,49 +3697,45 @@
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="112">
+      <c r="A83" s="73"/>
+      <c r="B83" s="18">
+        <v>41662</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="74"/>
+      <c r="B84" s="18">
+        <v>41663</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="69">
         <v>13</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B85" s="17">
         <v>41666</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="113"/>
-      <c r="B84" s="17">
-        <v>41667</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="113"/>
-      <c r="B85" s="17">
-        <v>41668</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3679,9 +3752,9 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="113"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="17">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3698,9 +3771,9 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="114"/>
+      <c r="A87" s="70"/>
       <c r="B87" s="17">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3717,49 +3790,49 @@
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="71">
+      <c r="A88" s="70"/>
+      <c r="B88" s="17">
+        <v>41669</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="71"/>
+      <c r="B89" s="17">
+        <v>41670</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="72">
         <v>14</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B90" s="18">
         <v>41673</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="18">
-        <v>41674</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="18">
-        <v>41675</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3776,9 +3849,9 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="18">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3795,9 +3868,9 @@
       <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="18">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3814,45 +3887,49 @@
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="112">
+      <c r="A93" s="73"/>
+      <c r="B93" s="18">
+        <v>41676</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="74"/>
+      <c r="B94" s="18">
+        <v>41677</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="69">
         <v>15</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B95" s="17">
         <v>41680</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="113"/>
-      <c r="B94" s="17">
-        <v>41681</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="113"/>
-      <c r="B95" s="17">
-        <v>41682</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3867,9 +3944,9 @@
       <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="113"/>
+      <c r="A96" s="70"/>
       <c r="B96" s="17">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3884,15 +3961,15 @@
       <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="114"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="17">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5">
-        <f t="shared" ref="F97:F128" si="2">E97</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G97" s="25"/>
@@ -3901,45 +3978,45 @@
       <c r="J97" s="25"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="71">
+      <c r="A98" s="70"/>
+      <c r="B98" s="17">
+        <v>41683</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="71"/>
+      <c r="B99" s="17">
+        <v>41684</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5">
+        <f t="shared" ref="F99:F130" si="2">E99</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="72">
         <v>16</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B100" s="18">
         <v>41687</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="18">
-        <v>41688</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="69"/>
-      <c r="B100" s="18">
-        <v>41689</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3954,9 +4031,9 @@
       <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
+      <c r="A101" s="73"/>
       <c r="B101" s="18">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3971,9 +4048,9 @@
       <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
+      <c r="A102" s="73"/>
       <c r="B102" s="18">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3988,45 +4065,45 @@
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="112">
+      <c r="A103" s="73"/>
+      <c r="B103" s="18">
+        <v>41690</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="74"/>
+      <c r="B104" s="18">
+        <v>41691</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="69">
         <v>17</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B105" s="17">
         <v>41694</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="113"/>
-      <c r="B104" s="17">
-        <v>41695</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="113"/>
-      <c r="B105" s="17">
-        <v>41696</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4041,9 +4118,9 @@
       <c r="J105" s="25"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="113"/>
+      <c r="A106" s="70"/>
       <c r="B106" s="17">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4058,9 +4135,9 @@
       <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="114"/>
+      <c r="A107" s="70"/>
       <c r="B107" s="17">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -4075,45 +4152,45 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="71">
+      <c r="A108" s="70"/>
+      <c r="B108" s="17">
+        <v>41697</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="71"/>
+      <c r="B109" s="17">
+        <v>41698</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="72">
         <v>18</v>
       </c>
-      <c r="B108" s="18">
+      <c r="B110" s="18">
         <v>41701</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="18">
-        <v>41702</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
-      <c r="B110" s="18">
-        <v>41703</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -4128,9 +4205,9 @@
       <c r="J110" s="26"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="69"/>
+      <c r="A111" s="73"/>
       <c r="B111" s="18">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4145,9 +4222,9 @@
       <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
+      <c r="A112" s="73"/>
       <c r="B112" s="18">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -4162,45 +4239,45 @@
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="112">
+      <c r="A113" s="73"/>
+      <c r="B113" s="18">
+        <v>41704</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="74"/>
+      <c r="B114" s="18">
+        <v>41705</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="69">
         <v>19</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B115" s="17">
         <v>41708</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="113"/>
-      <c r="B114" s="17">
-        <v>41709</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="113"/>
-      <c r="B115" s="17">
-        <v>41710</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4215,9 +4292,9 @@
       <c r="J115" s="25"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="113"/>
+      <c r="A116" s="70"/>
       <c r="B116" s="17">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4232,9 +4309,9 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="114"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="17">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -4249,45 +4326,45 @@
       <c r="J117" s="25"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="71">
+      <c r="A118" s="70"/>
+      <c r="B118" s="17">
+        <v>41711</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="71"/>
+      <c r="B119" s="17">
+        <v>41712</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="72">
         <v>20</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B120" s="18">
         <v>41715</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="69"/>
-      <c r="B119" s="18">
-        <v>41716</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="69"/>
-      <c r="B120" s="18">
-        <v>41717</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4302,9 +4379,9 @@
       <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="69"/>
+      <c r="A121" s="73"/>
       <c r="B121" s="18">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4319,9 +4396,9 @@
       <c r="J121" s="26"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="70"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="18">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -4336,45 +4413,45 @@
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="112">
+      <c r="A123" s="73"/>
+      <c r="B123" s="18">
+        <v>41718</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="74"/>
+      <c r="B124" s="18">
+        <v>41719</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="69">
         <v>21</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B125" s="17">
         <v>41722</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="113"/>
-      <c r="B124" s="17">
-        <v>41723</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="113"/>
-      <c r="B125" s="17">
-        <v>41724</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -4389,9 +4466,9 @@
       <c r="J125" s="25"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="113"/>
+      <c r="A126" s="70"/>
       <c r="B126" s="17">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -4406,9 +4483,9 @@
       <c r="J126" s="25"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="114"/>
+      <c r="A127" s="70"/>
       <c r="B127" s="17">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -4423,51 +4500,51 @@
       <c r="J127" s="25"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="71">
+      <c r="A128" s="70"/>
+      <c r="B128" s="17">
+        <v>41725</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="71"/>
+      <c r="B129" s="17">
+        <v>41726</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="72">
         <v>22</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B130" s="18">
         <v>41729</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="69"/>
-      <c r="B129" s="18">
-        <v>41730</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6">
-        <f t="shared" ref="F129:F160" si="3">E129</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="69"/>
-      <c r="B130" s="18">
-        <v>41731</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G130" s="26"/>
@@ -4476,15 +4553,15 @@
       <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="69"/>
+      <c r="A131" s="73"/>
       <c r="B131" s="18">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F131:F162" si="3">E131</f>
         <v>0</v>
       </c>
       <c r="G131" s="26"/>
@@ -4493,9 +4570,9 @@
       <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="70"/>
+      <c r="A132" s="73"/>
       <c r="B132" s="18">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4510,45 +4587,45 @@
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="112">
+      <c r="A133" s="73"/>
+      <c r="B133" s="18">
+        <v>41732</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="74"/>
+      <c r="B134" s="18">
+        <v>41733</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="69">
         <v>23</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B135" s="17">
         <v>41736</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="113"/>
-      <c r="B134" s="17">
-        <v>41737</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="113"/>
-      <c r="B135" s="17">
-        <v>41738</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4563,9 +4640,9 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="113"/>
+      <c r="A136" s="70"/>
       <c r="B136" s="17">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4580,9 +4657,9 @@
       <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="114"/>
+      <c r="A137" s="70"/>
       <c r="B137" s="17">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -4597,45 +4674,45 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="71">
+      <c r="A138" s="70"/>
+      <c r="B138" s="17">
+        <v>41739</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="71"/>
+      <c r="B139" s="17">
+        <v>41740</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="72">
         <v>24</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B140" s="18">
         <v>41743</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="69"/>
-      <c r="B139" s="18">
-        <v>41744</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="69"/>
-      <c r="B140" s="18">
-        <v>41745</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4650,9 +4727,9 @@
       <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="69"/>
+      <c r="A141" s="73"/>
       <c r="B141" s="18">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4667,9 +4744,9 @@
       <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
+      <c r="A142" s="73"/>
       <c r="B142" s="18">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4684,45 +4761,45 @@
       <c r="J142" s="26"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="112">
+      <c r="A143" s="73"/>
+      <c r="B143" s="18">
+        <v>41746</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="74"/>
+      <c r="B144" s="18">
+        <v>41747</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="69">
         <v>25</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B145" s="17">
         <v>41750</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="113"/>
-      <c r="B144" s="17">
-        <v>41751</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="113"/>
-      <c r="B145" s="17">
-        <v>41752</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4737,9 +4814,9 @@
       <c r="J145" s="25"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="113"/>
+      <c r="A146" s="70"/>
       <c r="B146" s="17">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4754,9 +4831,9 @@
       <c r="J146" s="25"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="114"/>
+      <c r="A147" s="70"/>
       <c r="B147" s="17">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4771,45 +4848,45 @@
       <c r="J147" s="25"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="71">
+      <c r="A148" s="70"/>
+      <c r="B148" s="17">
+        <v>41753</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="71"/>
+      <c r="B149" s="17">
+        <v>41754</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="72">
         <v>26</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B150" s="18">
         <v>41757</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="26"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="26"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="69"/>
-      <c r="B149" s="18">
-        <v>41758</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="26"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="69"/>
-      <c r="B150" s="18">
-        <v>41759</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4824,9 +4901,9 @@
       <c r="J150" s="26"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="69"/>
+      <c r="A151" s="73"/>
       <c r="B151" s="18">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4841,9 +4918,9 @@
       <c r="J151" s="26"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="70"/>
+      <c r="A152" s="73"/>
       <c r="B152" s="18">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -4858,45 +4935,45 @@
       <c r="J152" s="26"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="112">
+      <c r="A153" s="73"/>
+      <c r="B153" s="18">
+        <v>41760</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="74"/>
+      <c r="B154" s="18">
+        <v>41761</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="69">
         <v>27</v>
       </c>
-      <c r="B153" s="17">
+      <c r="B155" s="17">
         <v>41764</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="25"/>
-      <c r="J153" s="25"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="113"/>
-      <c r="B154" s="17">
-        <v>41765</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="113"/>
-      <c r="B155" s="17">
-        <v>41766</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -4911,9 +4988,9 @@
       <c r="J155" s="25"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="113"/>
+      <c r="A156" s="70"/>
       <c r="B156" s="17">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4928,9 +5005,9 @@
       <c r="J156" s="25"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="114"/>
+      <c r="A157" s="70"/>
       <c r="B157" s="17">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -4945,45 +5022,45 @@
       <c r="J157" s="25"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="71">
+      <c r="A158" s="70"/>
+      <c r="B158" s="17">
+        <v>41767</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="71"/>
+      <c r="B159" s="17">
+        <v>41768</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="72">
         <v>28</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B160" s="18">
         <v>41771</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="69"/>
-      <c r="B159" s="18">
-        <v>41772</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="26"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="26"/>
-      <c r="J159" s="26"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="69"/>
-      <c r="B160" s="18">
-        <v>41773</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -4998,15 +5075,15 @@
       <c r="J160" s="26"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="69"/>
+      <c r="A161" s="73"/>
       <c r="B161" s="18">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6">
-        <f t="shared" ref="F161:F172" si="4">E161</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G161" s="26"/>
@@ -5015,15 +5092,15 @@
       <c r="J161" s="26"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="70"/>
+      <c r="A162" s="73"/>
       <c r="B162" s="18">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G162" s="26"/>
@@ -5032,45 +5109,45 @@
       <c r="J162" s="26"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="112">
+      <c r="A163" s="73"/>
+      <c r="B163" s="18">
+        <v>41774</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6">
+        <f t="shared" ref="F163:F174" si="4">E163</f>
+        <v>0</v>
+      </c>
+      <c r="G163" s="26"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="74"/>
+      <c r="B164" s="18">
+        <v>41775</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="26"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="69">
         <v>29</v>
       </c>
-      <c r="B163" s="17">
+      <c r="B165" s="17">
         <v>41778</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="25"/>
-      <c r="H163" s="25"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="25"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="113"/>
-      <c r="B164" s="17">
-        <v>41779</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="25"/>
-      <c r="H164" s="25"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="113"/>
-      <c r="B165" s="17">
-        <v>41780</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5085,9 +5162,9 @@
       <c r="J165" s="25"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="113"/>
+      <c r="A166" s="70"/>
       <c r="B166" s="17">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5102,9 +5179,9 @@
       <c r="J166" s="25"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="114"/>
+      <c r="A167" s="70"/>
       <c r="B167" s="17">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -5119,45 +5196,45 @@
       <c r="J167" s="25"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="117">
+      <c r="A168" s="70"/>
+      <c r="B168" s="17">
+        <v>41781</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="25"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="71"/>
+      <c r="B169" s="17">
+        <v>41782</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="75">
         <v>30</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B170" s="18">
         <v>41785</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="118"/>
-      <c r="B169" s="18">
-        <v>41786</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="118"/>
-      <c r="B170" s="18">
-        <v>41787</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -5172,9 +5249,9 @@
       <c r="J170" s="27"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="118"/>
+      <c r="A171" s="76"/>
       <c r="B171" s="18">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -5189,9 +5266,9 @@
       <c r="J171" s="27"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="119"/>
+      <c r="A172" s="76"/>
       <c r="B172" s="18">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -5205,55 +5282,44 @@
       <c r="I172" s="27"/>
       <c r="J172" s="27"/>
     </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="76"/>
+      <c r="B173" s="18">
+        <v>41788</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="77"/>
+      <c r="B174" s="18">
+        <v>41789</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F17:F18"/>
+  <mergeCells count="59">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F41"/>
@@ -5264,6 +5330,53 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A129"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">
@@ -5574,64 +5687,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5650,7 +5706,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="30" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5669,7 +5725,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="29" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5688,7 +5744,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="28" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5707,7 +5763,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="27" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5726,7 +5782,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="26" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5745,7 +5801,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="25" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5764,7 +5820,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="24" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5783,7 +5839,7 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="23" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5800,6 +5856,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5840,25 +5934,6 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F7:F8 F15 F13 F10:F11 F42:F172 F17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="7" id="{207F404F-5724-411F-826F-330204927AC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -5991,6 +6066,44 @@
           </x14:cfRule>
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="51" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M44:M46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="52" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F7:F8 F15 F13 F10:F11 F42:F44 F17 F47:F174</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Time for doing week 17</t>
-  </si>
-  <si>
-    <t>Time for doing week 18</t>
   </si>
   <si>
     <t>Time for doing week 19</t>
@@ -427,6 +424,15 @@
   </si>
   <si>
     <t>11:00PM</t>
+  </si>
+  <si>
+    <t>10:30AM</t>
+  </si>
+  <si>
+    <t>Team Meatings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Discuss about document</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -448,21 +454,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -475,14 +481,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -495,13 +501,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -730,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -792,7 +798,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -875,54 +880,191 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,143 +1075,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,13 +1411,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1417,7 +1433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1425,7 +1441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1433,7 +1449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1441,7 +1457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1457,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1465,7 +1481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1473,7 +1489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1481,7 +1497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1489,7 +1505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1506,113 +1522,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44:B46"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="90" t="s">
+      <c r="A2" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="A3" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="95"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="16"/>
       <c r="H5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>65</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1620,7 +1636,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>5</v>
@@ -1651,76 +1667,76 @@
       <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="96">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>41585</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <f>E7</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="41"/>
+      <c r="H7" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="40"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="78"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="21">
         <f>SUM(M8:M57)</f>
-        <v>62.379999999999995</v>
+        <v>66.88</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="113">
+      <c r="A8" s="97"/>
+      <c r="B8" s="110">
         <v>41586</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>1.1599999999999999</v>
       </c>
       <c r="F8" s="81">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="43"/>
+      <c r="H8" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="42"/>
       <c r="J8" s="19"/>
       <c r="K8" s="8" t="s">
         <v>11</v>
@@ -1735,54 +1751,54 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="38">
+      <c r="A9" s="98"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="37">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>0.5</v>
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="43"/>
+      <c r="H9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="42"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="111">
+      <c r="A10" s="108">
         <v>2</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="79">
         <v>41589</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>1.5</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>E10</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="47"/>
+      <c r="H10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="46"/>
       <c r="J10" s="24"/>
       <c r="K10" s="8" t="s">
         <v>12</v>
@@ -1798,29 +1814,29 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="44">
+      <c r="A11" s="109"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="43">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="43">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>1.5</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <f>E11</f>
         <v>1.5</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>62</v>
+      <c r="H11" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="8"/>
@@ -1830,31 +1846,31 @@
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="49">
+      <c r="A12" s="109"/>
+      <c r="B12" s="48">
         <v>41590</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <v>0.625</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>2.25</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <f>E12</f>
         <v>2.25</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>60</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>61</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="8"/>
@@ -1864,31 +1880,31 @@
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="83">
+      <c r="A13" s="109"/>
+      <c r="B13" s="79">
         <v>41591</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="50">
         <v>0.5625</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>2</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="112">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>76</v>
+      <c r="H13" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="8"/>
@@ -1897,26 +1913,26 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="51">
+      <c r="A14" s="109"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="50">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="50">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <v>1</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="113"/>
+      <c r="G14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>71</v>
+      <c r="H14" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="8" t="s">
@@ -1924,39 +1940,39 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E19:E29)</f>
-        <v>17.649999999999999</v>
+        <f>SUM(E19:E31)</f>
+        <v>21.65</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="83">
+      <c r="A15" s="109"/>
+      <c r="B15" s="79">
         <v>41592</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="50">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="50">
         <v>0.375</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>1</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="112">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>71</v>
+      <c r="H15" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="8" t="s">
@@ -1971,27 +1987,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="51">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="50">
         <v>0.375</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>1.25</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="113"/>
+      <c r="G16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="53" t="s">
         <v>77</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>78</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="8"/>
@@ -2000,28 +2016,28 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="83">
+      <c r="A17" s="109"/>
+      <c r="B17" s="79">
         <v>41593</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="50">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>1</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="112">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="24"/>
       <c r="K17" s="8"/>
       <c r="L17" s="6"/>
@@ -2029,26 +2045,26 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="51">
+      <c r="A18" s="109"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="50">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <v>0.875</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>1</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="113"/>
+      <c r="G18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>74</v>
       </c>
       <c r="J18" s="24"/>
       <c r="K18" s="8" t="s">
@@ -2056,27 +2072,27 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <f>SUM(E43:E49)</f>
-        <v>10.5</v>
+        <f>SUM(E43:E47)</f>
+        <v>11</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="72">
         <v>3</v>
       </c>
-      <c r="B19" s="79">
+      <c r="B19" s="69">
         <v>41596</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="60">
         <v>0.625</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="60">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="56">
         <v>1</v>
       </c>
       <c r="F19" s="81">
@@ -2087,10 +2103,10 @@
         <v>24</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="8" t="s">
@@ -2106,15 +2122,15 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="29">
+      <c r="A20" s="73"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="60">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="56">
         <v>2</v>
       </c>
       <c r="F20" s="82"/>
@@ -2122,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -2132,17 +2148,17 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="79">
+      <c r="A21" s="73"/>
+      <c r="B21" s="69">
         <v>41597</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="60">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="60">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="56">
         <v>1</v>
       </c>
       <c r="F21" s="81">
@@ -2168,15 +2184,15 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="29">
+      <c r="A22" s="73"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="60">
         <v>0.875</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="60">
         <v>0.9375</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="56">
         <v>1.5</v>
       </c>
       <c r="F22" s="82"/>
@@ -2184,10 +2200,10 @@
         <v>24</v>
       </c>
       <c r="H22" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>80</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>81</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="8"/>
@@ -2196,28 +2212,28 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
-      <c r="B23" s="55">
+      <c r="A23" s="73"/>
+      <c r="B23" s="54">
         <v>41598</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="60">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="60">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="56">
         <v>3.5</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="38">
         <f>E23</f>
         <v>3.5</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="62" t="s">
-        <v>86</v>
+      <c r="H23" s="59" t="s">
+        <v>85</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -2234,17 +2250,17 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="79">
+      <c r="A24" s="73"/>
+      <c r="B24" s="69">
         <v>41599</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="60">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="60">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="56">
         <v>1</v>
       </c>
       <c r="F24" s="81">
@@ -2254,8 +2270,8 @@
       <c r="G24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="60" t="s">
-        <v>87</v>
+      <c r="H24" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -2272,18 +2288,18 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="29">
+      <c r="A25" s="73"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="60">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="60">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="56">
         <v>1.3</v>
       </c>
-      <c r="F25" s="120"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2296,23 +2312,23 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="29">
+      <c r="A26" s="73"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="60">
         <v>0.5625</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="60">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="56">
         <v>1</v>
       </c>
-      <c r="F26" s="120"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>85</v>
+      <c r="H26" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -2322,23 +2338,23 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="29">
+      <c r="A27" s="73"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="60">
         <v>0.625</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="60">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="56">
         <v>2.1</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="35" t="s">
-        <v>83</v>
+      <c r="H27" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -2348,23 +2364,23 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="29">
+      <c r="A28" s="73"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="60">
         <v>0.875</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="60">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="56">
         <v>2</v>
       </c>
       <c r="F28" s="82"/>
       <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="61" t="s">
-        <v>84</v>
+      <c r="H28" s="58" t="s">
+        <v>83</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -2374,17 +2390,17 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="79">
+      <c r="A29" s="73"/>
+      <c r="B29" s="69">
         <v>41600</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="60">
         <v>0.5625</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="60">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="56">
         <v>1.25</v>
       </c>
       <c r="F29" s="81">
@@ -2394,8 +2410,8 @@
       <c r="G29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="35" t="s">
-        <v>82</v>
+      <c r="H29" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -2412,23 +2428,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="29">
+      <c r="A30" s="73"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="60">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="60">
         <v>0.6875</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="56">
         <v>1</v>
       </c>
-      <c r="F30" s="120"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="35" t="s">
-        <v>88</v>
+      <c r="H30" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -2438,23 +2454,23 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="29">
+      <c r="A31" s="74"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="60">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="56">
         <v>3</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="62" t="s">
-        <v>89</v>
+      <c r="H31" s="59" t="s">
+        <v>88</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
@@ -2464,30 +2480,30 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
+      <c r="A32" s="78">
         <v>4</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="55">
         <v>41603</v>
       </c>
-      <c r="C32" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="52">
+      <c r="C32" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="51">
         <v>1</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="65">
         <f>E32</f>
         <v>1</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="67" t="s">
-        <v>107</v>
+      <c r="H32" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
@@ -2504,28 +2520,28 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="56">
+      <c r="A33" s="76"/>
+      <c r="B33" s="122">
         <v>41604</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="52">
+      <c r="E33" s="51">
         <v>1</v>
       </c>
-      <c r="F33" s="119">
+      <c r="F33" s="75">
         <f>SUM(E33:E36)</f>
         <v>5.75</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="65" t="s">
-        <v>108</v>
+      <c r="H33" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
@@ -2535,25 +2551,23 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="56">
-        <v>41604</v>
-      </c>
-      <c r="C34" s="64" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="52">
+      <c r="E34" s="51">
         <v>1.5</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="65" t="s">
-        <v>109</v>
+      <c r="H34" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
@@ -2563,25 +2577,23 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="56">
-        <v>41604</v>
-      </c>
-      <c r="C35" s="64" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="52">
+      <c r="E35" s="51">
         <v>1.25</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="65" t="s">
-        <v>96</v>
+      <c r="H35" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -2591,25 +2603,23 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="56">
-        <v>41604</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="64">
+      <c r="A36" s="76"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="61">
         <v>2</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="77"/>
       <c r="G36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="65" t="s">
-        <v>110</v>
+      <c r="H36" s="62" t="s">
+        <v>109</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
@@ -2619,20 +2629,20 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="56">
+      <c r="A37" s="76"/>
+      <c r="B37" s="122">
         <v>41605</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="64">
+      <c r="E37" s="61">
         <v>2.33</v>
       </c>
-      <c r="F37" s="72">
+      <c r="F37" s="78">
         <f>SUM(E37:E38)</f>
         <v>3.33</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>21</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
@@ -2657,25 +2667,23 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="56">
-        <v>41605</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="64">
+      <c r="A38" s="76"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="61">
         <v>1</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
@@ -2692,28 +2700,28 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="56">
+      <c r="A39" s="76"/>
+      <c r="B39" s="122">
         <v>41606</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="64">
+      <c r="E39" s="61">
         <v>1.33</v>
       </c>
-      <c r="F39" s="72">
+      <c r="F39" s="78">
         <f>SUM(E39:E41)</f>
         <v>5.83</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="65" t="s">
-        <v>102</v>
+      <c r="H39" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
@@ -2722,26 +2730,24 @@
       <c r="M39" s="10"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="56">
-        <v>41606</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="64">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="76"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="61">
         <v>1.75</v>
       </c>
-      <c r="F40" s="73"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="65" t="s">
-        <v>104</v>
+      <c r="H40" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -2750,26 +2756,24 @@
       <c r="M40" s="10"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="56">
-        <v>41606</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="64">
+    <row r="41" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="76"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="61">
         <v>2.75</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="77"/>
       <c r="G41" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="65" t="s">
-        <v>106</v>
+      <c r="H41" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
@@ -2786,20 +2790,20 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="56">
+      <c r="A42" s="77"/>
+      <c r="B42" s="55">
         <v>41607</v>
       </c>
-      <c r="C42" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="68">
+      <c r="C42" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="125">
         <v>0.75</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="61">
         <v>3</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="61">
         <f t="shared" ref="F42:F66" si="0">E42</f>
         <v>3</v>
       </c>
@@ -2821,22 +2825,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
-        <v>5</v>
-      </c>
-      <c r="B43" s="55">
-        <v>41610</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+    <row r="43" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="69">
+        <v>41611</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="72">
+        <f>SUM(E43:E46)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="68" t="s">
+        <v>117</v>
+      </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="8" t="s">
@@ -2844,69 +2856,57 @@
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E110:E114)</f>
+        <f>SUM(E115:E119)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="79">
-        <v>41611</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="122">
-        <v>1.5</v>
-      </c>
-      <c r="F44" s="69">
-        <f>SUM(E44:E46)</f>
-        <v>6</v>
-      </c>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="73"/>
       <c r="G44" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="123" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>123</v>
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="K44" s="8"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="10">
-        <f>SUM(E115:E119)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="122">
+      <c r="A45" s="73"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="67">
         <v>3.5</v>
       </c>
-      <c r="F45" s="70"/>
+      <c r="F45" s="73"/>
       <c r="G45" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="123" t="s">
-        <v>119</v>
+      <c r="H45" s="68" t="s">
+        <v>118</v>
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
@@ -2916,23 +2916,23 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="122">
+      <c r="A46" s="73"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="67">
         <v>1</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="123" t="s">
-        <v>120</v>
+      <c r="H46" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -2942,31 +2942,31 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="55">
+      <c r="A47" s="73"/>
+      <c r="B47" s="54">
         <v>41612</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="C47" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="56">
         <v>4.5</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="56">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
@@ -2978,8 +2978,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="55">
+      <c r="A48" s="73"/>
+      <c r="B48" s="54">
         <v>41613</v>
       </c>
       <c r="C48" s="5"/>
@@ -2994,7 +2994,7 @@
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
@@ -3006,8 +3006,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="55">
+      <c r="A49" s="74"/>
+      <c r="B49" s="54">
         <v>41614</v>
       </c>
       <c r="C49" s="5"/>
@@ -3022,7 +3022,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
@@ -3034,10 +3034,10 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="72">
+      <c r="A50" s="78">
         <v>6</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="55">
         <v>41617</v>
       </c>
       <c r="C50" s="6"/>
@@ -3052,7 +3052,7 @@
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10">
@@ -3064,8 +3064,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="56">
+      <c r="A51" s="76"/>
+      <c r="B51" s="55">
         <v>41618</v>
       </c>
       <c r="C51" s="6"/>
@@ -3080,7 +3080,7 @@
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10">
@@ -3092,8 +3092,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="56">
+      <c r="A52" s="76"/>
+      <c r="B52" s="55">
         <v>41619</v>
       </c>
       <c r="C52" s="6"/>
@@ -3108,7 +3108,7 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
@@ -3120,8 +3120,8 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="56">
+      <c r="A53" s="76"/>
+      <c r="B53" s="55">
         <v>41620</v>
       </c>
       <c r="C53" s="6"/>
@@ -3136,7 +3136,7 @@
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="10">
@@ -3148,8 +3148,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="56">
+      <c r="A54" s="77"/>
+      <c r="B54" s="55">
         <v>41621</v>
       </c>
       <c r="C54" s="6"/>
@@ -3164,7 +3164,7 @@
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="10">
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+      <c r="A55" s="72">
         <v>7</v>
       </c>
       <c r="B55" s="17">
@@ -3194,7 +3194,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
       <c r="K55" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="10">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="17">
         <v>41625</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="10">
@@ -3234,7 +3234,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="17">
         <v>41626</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="10">
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="17">
         <v>41627</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="17">
         <v>41628</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
+      <c r="A60" s="78">
         <v>8</v>
       </c>
       <c r="B60" s="18">
@@ -3315,7 +3315,7 @@
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="18">
         <v>41632</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="18">
         <v>41633</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="18">
         <v>41634</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="74"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="18">
         <v>41635</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="69">
+      <c r="A65" s="72">
         <v>9</v>
       </c>
       <c r="B65" s="17">
@@ -3402,7 +3402,7 @@
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="17">
         <v>41639</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="17">
         <v>41640</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="17">
         <v>41641</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="17">
         <v>41642</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="J69" s="25"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="72">
+      <c r="A70" s="78">
         <v>10</v>
       </c>
       <c r="B70" s="18">
@@ -3489,7 +3489,7 @@
       <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
+      <c r="A71" s="76"/>
       <c r="B71" s="18">
         <v>41646</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="18">
         <v>41647</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="18">
         <v>41648</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="74"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="18">
         <v>41649</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="J74" s="26"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="69">
+      <c r="A75" s="72">
         <v>11</v>
       </c>
       <c r="B75" s="17">
@@ -3576,7 +3576,7 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="17">
         <v>41653</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="17">
         <v>41654</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="17">
         <v>41655</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="17">
         <v>41656</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="72">
+      <c r="A80" s="78">
         <v>12</v>
       </c>
       <c r="B80" s="18">
@@ -3663,7 +3663,7 @@
       <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
+      <c r="A81" s="76"/>
       <c r="B81" s="18">
         <v>41660</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="73"/>
+      <c r="A82" s="76"/>
       <c r="B82" s="18">
         <v>41661</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
+      <c r="A83" s="76"/>
       <c r="B83" s="18">
         <v>41662</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="18">
         <v>41663</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="J84" s="26"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="69">
+      <c r="A85" s="72">
         <v>13</v>
       </c>
       <c r="B85" s="17">
@@ -3752,7 +3752,7 @@
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="17">
         <v>41667</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="J86" s="25"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="17">
         <v>41668</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="J87" s="25"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="17">
         <v>41669</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="J88" s="25"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="17">
         <v>41670</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="J89" s="25"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="72">
+      <c r="A90" s="78">
         <v>14</v>
       </c>
       <c r="B90" s="18">
@@ -3849,7 +3849,7 @@
       <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
+      <c r="A91" s="76"/>
       <c r="B91" s="18">
         <v>41674</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="18">
         <v>41675</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
+      <c r="A93" s="76"/>
       <c r="B93" s="18">
         <v>41676</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="J93" s="26"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="18">
         <v>41677</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="J94" s="26"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="69">
+      <c r="A95" s="72">
         <v>15</v>
       </c>
       <c r="B95" s="17">
@@ -3944,7 +3944,7 @@
       <c r="J95" s="25"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="70"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="17">
         <v>41681</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="17">
         <v>41682</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="J97" s="25"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="70"/>
+      <c r="A98" s="73"/>
       <c r="B98" s="17">
         <v>41683</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="J98" s="25"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
+      <c r="A99" s="74"/>
       <c r="B99" s="17">
         <v>41684</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="J99" s="25"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="72">
+      <c r="A100" s="78">
         <v>16</v>
       </c>
       <c r="B100" s="18">
@@ -4031,7 +4031,7 @@
       <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
+      <c r="A101" s="76"/>
       <c r="B101" s="18">
         <v>41688</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="73"/>
+      <c r="A102" s="76"/>
       <c r="B102" s="18">
         <v>41689</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="73"/>
+      <c r="A103" s="76"/>
       <c r="B103" s="18">
         <v>41690</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="J103" s="26"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="74"/>
+      <c r="A104" s="77"/>
       <c r="B104" s="18">
         <v>41691</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="J104" s="26"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="69">
+      <c r="A105" s="72">
         <v>17</v>
       </c>
       <c r="B105" s="17">
@@ -4118,7 +4118,7 @@
       <c r="J105" s="25"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="17">
         <v>41695</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
+      <c r="A107" s="73"/>
       <c r="B107" s="17">
         <v>41696</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="J107" s="25"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
+      <c r="A108" s="73"/>
       <c r="B108" s="17">
         <v>41697</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="J108" s="25"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
+      <c r="A109" s="74"/>
       <c r="B109" s="17">
         <v>41698</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="J109" s="25"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="72">
+      <c r="A110" s="78">
         <v>18</v>
       </c>
       <c r="B110" s="18">
@@ -4205,7 +4205,7 @@
       <c r="J110" s="26"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
+      <c r="A111" s="76"/>
       <c r="B111" s="18">
         <v>41702</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
+      <c r="A112" s="76"/>
       <c r="B112" s="18">
         <v>41703</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
+      <c r="A113" s="76"/>
       <c r="B113" s="18">
         <v>41704</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="J113" s="26"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="77"/>
       <c r="B114" s="18">
         <v>41705</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="J114" s="26"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="69">
+      <c r="A115" s="72">
         <v>19</v>
       </c>
       <c r="B115" s="17">
@@ -4292,7 +4292,7 @@
       <c r="J115" s="25"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="70"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="17">
         <v>41709</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="J116" s="25"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="70"/>
+      <c r="A117" s="73"/>
       <c r="B117" s="17">
         <v>41710</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="J117" s="25"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="70"/>
+      <c r="A118" s="73"/>
       <c r="B118" s="17">
         <v>41711</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="J118" s="25"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
+      <c r="A119" s="74"/>
       <c r="B119" s="17">
         <v>41712</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="J119" s="25"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="72">
+      <c r="A120" s="78">
         <v>20</v>
       </c>
       <c r="B120" s="18">
@@ -4379,7 +4379,7 @@
       <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="73"/>
+      <c r="A121" s="76"/>
       <c r="B121" s="18">
         <v>41716</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="J121" s="26"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="73"/>
+      <c r="A122" s="76"/>
       <c r="B122" s="18">
         <v>41717</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="J122" s="26"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="73"/>
+      <c r="A123" s="76"/>
       <c r="B123" s="18">
         <v>41718</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="J123" s="26"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="18">
         <v>41719</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="J124" s="26"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="69">
+      <c r="A125" s="72">
         <v>21</v>
       </c>
       <c r="B125" s="17">
@@ -4466,7 +4466,7 @@
       <c r="J125" s="25"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="70"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="17">
         <v>41723</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="J126" s="25"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="17">
         <v>41724</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J127" s="25"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="70"/>
+      <c r="A128" s="73"/>
       <c r="B128" s="17">
         <v>41725</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="J128" s="25"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="71"/>
+      <c r="A129" s="74"/>
       <c r="B129" s="17">
         <v>41726</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="J129" s="25"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="72">
+      <c r="A130" s="78">
         <v>22</v>
       </c>
       <c r="B130" s="18">
@@ -4553,7 +4553,7 @@
       <c r="J130" s="26"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="73"/>
+      <c r="A131" s="76"/>
       <c r="B131" s="18">
         <v>41730</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="J131" s="26"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="73"/>
+      <c r="A132" s="76"/>
       <c r="B132" s="18">
         <v>41731</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="J132" s="26"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="73"/>
+      <c r="A133" s="76"/>
       <c r="B133" s="18">
         <v>41732</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="J133" s="26"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="74"/>
+      <c r="A134" s="77"/>
       <c r="B134" s="18">
         <v>41733</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="J134" s="26"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="69">
+      <c r="A135" s="72">
         <v>23</v>
       </c>
       <c r="B135" s="17">
@@ -4640,7 +4640,7 @@
       <c r="J135" s="25"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="17">
         <v>41737</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="J136" s="25"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="70"/>
+      <c r="A137" s="73"/>
       <c r="B137" s="17">
         <v>41738</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="J137" s="25"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="70"/>
+      <c r="A138" s="73"/>
       <c r="B138" s="17">
         <v>41739</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="J138" s="25"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="71"/>
+      <c r="A139" s="74"/>
       <c r="B139" s="17">
         <v>41740</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="J139" s="25"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="72">
+      <c r="A140" s="78">
         <v>24</v>
       </c>
       <c r="B140" s="18">
@@ -4727,7 +4727,7 @@
       <c r="J140" s="26"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="73"/>
+      <c r="A141" s="76"/>
       <c r="B141" s="18">
         <v>41744</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="73"/>
+      <c r="A142" s="76"/>
       <c r="B142" s="18">
         <v>41745</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="J142" s="26"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="73"/>
+      <c r="A143" s="76"/>
       <c r="B143" s="18">
         <v>41746</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="J143" s="26"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="74"/>
+      <c r="A144" s="77"/>
       <c r="B144" s="18">
         <v>41747</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="J144" s="26"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="69">
+      <c r="A145" s="72">
         <v>25</v>
       </c>
       <c r="B145" s="17">
@@ -4814,7 +4814,7 @@
       <c r="J145" s="25"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="70"/>
+      <c r="A146" s="73"/>
       <c r="B146" s="17">
         <v>41751</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="J146" s="25"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="70"/>
+      <c r="A147" s="73"/>
       <c r="B147" s="17">
         <v>41752</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="J147" s="25"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="70"/>
+      <c r="A148" s="73"/>
       <c r="B148" s="17">
         <v>41753</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="J148" s="25"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="71"/>
+      <c r="A149" s="74"/>
       <c r="B149" s="17">
         <v>41754</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="J149" s="25"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="72">
+      <c r="A150" s="78">
         <v>26</v>
       </c>
       <c r="B150" s="18">
@@ -4901,7 +4901,7 @@
       <c r="J150" s="26"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="73"/>
+      <c r="A151" s="76"/>
       <c r="B151" s="18">
         <v>41758</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="J151" s="26"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="73"/>
+      <c r="A152" s="76"/>
       <c r="B152" s="18">
         <v>41759</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="J152" s="26"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="73"/>
+      <c r="A153" s="76"/>
       <c r="B153" s="18">
         <v>41760</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="J153" s="26"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="74"/>
+      <c r="A154" s="77"/>
       <c r="B154" s="18">
         <v>41761</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="J154" s="26"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="69">
+      <c r="A155" s="72">
         <v>27</v>
       </c>
       <c r="B155" s="17">
@@ -4988,7 +4988,7 @@
       <c r="J155" s="25"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="70"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="17">
         <v>41765</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="J156" s="25"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="70"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="17">
         <v>41766</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="J157" s="25"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="70"/>
+      <c r="A158" s="73"/>
       <c r="B158" s="17">
         <v>41767</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="J158" s="25"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="71"/>
+      <c r="A159" s="74"/>
       <c r="B159" s="17">
         <v>41768</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="J159" s="25"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="72">
+      <c r="A160" s="78">
         <v>28</v>
       </c>
       <c r="B160" s="18">
@@ -5075,7 +5075,7 @@
       <c r="J160" s="26"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="73"/>
+      <c r="A161" s="76"/>
       <c r="B161" s="18">
         <v>41772</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="J161" s="26"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="73"/>
+      <c r="A162" s="76"/>
       <c r="B162" s="18">
         <v>41773</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="J162" s="26"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="73"/>
+      <c r="A163" s="76"/>
       <c r="B163" s="18">
         <v>41774</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="J163" s="26"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="74"/>
+      <c r="A164" s="77"/>
       <c r="B164" s="18">
         <v>41775</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="J164" s="26"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="69">
+      <c r="A165" s="72">
         <v>29</v>
       </c>
       <c r="B165" s="17">
@@ -5162,7 +5162,7 @@
       <c r="J165" s="25"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="70"/>
+      <c r="A166" s="73"/>
       <c r="B166" s="17">
         <v>41779</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="J166" s="25"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="70"/>
+      <c r="A167" s="73"/>
       <c r="B167" s="17">
         <v>41780</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="J167" s="25"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="70"/>
+      <c r="A168" s="73"/>
       <c r="B168" s="17">
         <v>41781</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="J168" s="25"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="71"/>
+      <c r="A169" s="74"/>
       <c r="B169" s="17">
         <v>41782</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="J169" s="25"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="75">
+      <c r="A170" s="119">
         <v>30</v>
       </c>
       <c r="B170" s="18">
@@ -5249,7 +5249,7 @@
       <c r="J170" s="27"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="76"/>
+      <c r="A171" s="120"/>
       <c r="B171" s="18">
         <v>41786</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="J171" s="27"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="76"/>
+      <c r="A172" s="120"/>
       <c r="B172" s="18">
         <v>41787</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="J172" s="27"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="76"/>
+      <c r="A173" s="120"/>
       <c r="B173" s="18">
         <v>41788</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="J173" s="27"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="77"/>
+      <c r="A174" s="121"/>
       <c r="B174" s="18">
         <v>41789</v>
       </c>
@@ -5317,19 +5317,38 @@
       <c r="J174" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B31"/>
+  <mergeCells count="62">
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5346,37 +5365,21 @@
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">
@@ -5396,7 +5399,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M13 F13" formulaRange="1"/>
+    <ignoredError sqref="M13:M15 F13 F8 F15 F17 F19 F21 F24 F29 F33 F37 F39 F43 M8 M10" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5668,25 +5671,6 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -6083,7 +6067,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M44:M46</xm:sqref>
+          <xm:sqref>M43:M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="52" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
@@ -6102,7 +6086,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F15 F13 F10:F11 F42:F44 F17 F47:F174</xm:sqref>
+          <xm:sqref>F47:F174 F7:F8 F15 F13 F10:F11 F42:F44 F17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t>Week</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - Stage5.docx</t>
+  </si>
+  <si>
+    <t>2:30PM</t>
   </si>
 </sst>
 </file>
@@ -455,21 +458,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -482,7 +485,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -732,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -755,111 +758,6 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,9 +769,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,30 +781,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -949,12 +835,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -963,9 +843,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,24 +852,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,19 +870,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,6 +883,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,11 +923,134 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,13 +1376,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1388,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1452,7 +1462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1460,7 +1470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1478,158 +1488,158 @@
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="111" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="109">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1641,36 +1651,36 @@
       <c r="D7" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="17">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="17">
         <f>E7</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="57" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58">
+      <c r="L7" s="113"/>
+      <c r="M7" s="21">
         <f>SUM(M8:M59)</f>
-        <v>66.77</v>
-      </c>
-      <c r="N7" s="59" t="s">
+        <v>68.38</v>
+      </c>
+      <c r="N7" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12">
+      <c r="A8" s="110"/>
+      <c r="B8" s="73">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1679,4133 +1689,4132 @@
       <c r="D8" s="8">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="17">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="86">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="62" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64">
+      <c r="L8" s="25"/>
+      <c r="M8" s="26">
         <f>SUM(E7:E9)</f>
         <v>2.82</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
       <c r="D9" s="8">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="17">
         <v>0.5</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="84">
         <v>2</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="88">
         <v>41589</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="28">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="29">
         <v>1.5</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="29">
         <f>E10</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="62" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73">
+      <c r="L10" s="33"/>
+      <c r="M10" s="34">
         <f>SUM(E10:E18)</f>
         <v>12.5</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="N10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="67">
+      <c r="A11" s="85"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="28">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="28">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="29">
         <v>1.5</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="29">
         <f>E11</f>
         <v>1.5</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="59"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="28">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="28">
         <v>0.625</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="29">
         <v>2.25</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="29">
         <f>E12</f>
         <v>2.25</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="59"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88">
         <v>41591</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="39">
         <v>0.5625</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="39">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="40">
         <v>2</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="90">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="59"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="78">
+      <c r="A14" s="85"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="39">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="39">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="40">
         <v>1</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="69" t="s">
+      <c r="F14" s="91"/>
+      <c r="G14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="62" t="s">
+      <c r="J14" s="58"/>
+      <c r="K14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="82">
+      <c r="L14" s="14"/>
+      <c r="M14" s="41">
         <f>SUM(E19:E31)</f>
-        <v>21.54</v>
-      </c>
-      <c r="N14" s="59" t="s">
+        <v>21.9</v>
+      </c>
+      <c r="N14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23">
+      <c r="A15" s="85"/>
+      <c r="B15" s="88">
         <v>41592</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="39">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="39">
         <v>0.375</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="40">
         <v>1</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="90">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="62" t="s">
+      <c r="J15" s="58"/>
+      <c r="K15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="82">
+      <c r="L15" s="14"/>
+      <c r="M15" s="41">
         <f>SUM(E34:E44)</f>
-        <v>18.91</v>
-      </c>
-      <c r="N15" s="59" t="s">
+        <v>20.16</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="78">
+      <c r="A16" s="85"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="39">
         <v>0.375</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="39">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="40">
         <v>1.25</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="84" t="s">
+      <c r="F16" s="91"/>
+      <c r="G16" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="85" t="s">
+      <c r="I16" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="59"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23">
+      <c r="A17" s="85"/>
+      <c r="B17" s="88">
         <v>41593</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="39">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="39">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="40">
         <v>1</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="90">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="59"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="78">
+      <c r="A18" s="85"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="39">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="39">
         <v>0.875</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="40">
         <v>1</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="83" t="s">
+      <c r="F18" s="91"/>
+      <c r="G18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="62" t="s">
+      <c r="J18" s="58"/>
+      <c r="K18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="82">
+      <c r="L18" s="14"/>
+      <c r="M18" s="41">
         <f>SUM(E45:E49)</f>
         <v>11</v>
       </c>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
+      <c r="A19" s="64">
         <v>3</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="73">
         <v>41596</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="45">
         <v>0.625</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="86">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="62" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="82">
+      <c r="L19" s="14"/>
+      <c r="M19" s="41">
         <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="59" t="s">
+      <c r="N19" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="87">
+      <c r="A20" s="65"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="45">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="60">
         <v>2</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="59"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="12">
+      <c r="A21" s="65"/>
+      <c r="B21" s="73">
         <v>41597</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="45">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="45">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="60">
         <v>1</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="86">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="62" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="82">
+      <c r="L21" s="14"/>
+      <c r="M21" s="41">
         <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="87">
+      <c r="A22" s="65"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="45">
         <v>0.875</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="45">
         <v>0.9375</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="60">
         <v>1.5</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="59"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="10">
         <v>41598</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="45">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="45">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="60">
         <v>3.5</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="17">
         <f>E23</f>
         <v>3.5</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="62" t="s">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="82">
+      <c r="L23" s="14"/>
+      <c r="M23" s="41">
         <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="59" t="s">
+      <c r="N23" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="12">
+      <c r="A24" s="65"/>
+      <c r="B24" s="73">
         <v>41599</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="45">
         <v>0.375</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="45">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="60">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="86">
         <f>SUM(E24:E28)</f>
-        <v>7.29</v>
-      </c>
-      <c r="G24" s="66" t="s">
+        <v>7.65</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="62" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="82">
+      <c r="L24" s="14"/>
+      <c r="M24" s="41">
         <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N24" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="87">
+      <c r="A25" s="65"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="45">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="45">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E25" s="88">
-        <v>1.03</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="60">
+        <v>1.33</v>
+      </c>
+      <c r="F25" s="96"/>
+      <c r="G25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="59"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="87">
+      <c r="A26" s="65"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="45">
         <v>0.5625</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="45">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="66" t="s">
+      <c r="F26" s="96"/>
+      <c r="G26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="59"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="87">
+      <c r="A27" s="65"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="45">
         <v>0.625</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="45">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E27" s="88">
-        <v>2.1</v>
-      </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="60">
+        <v>2.16</v>
+      </c>
+      <c r="F27" s="96"/>
+      <c r="G27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="59"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="87">
+      <c r="A28" s="65"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="45">
         <v>0.875</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="45">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="60">
         <v>2</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66" t="s">
+      <c r="F28" s="87"/>
+      <c r="G28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="59"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="12">
+      <c r="A29" s="65"/>
+      <c r="B29" s="73">
         <v>41600</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="45">
         <v>0.5625</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="45">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="60">
         <v>1.25</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="86">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="62" t="s">
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="82">
+      <c r="L29" s="14"/>
+      <c r="M29" s="41">
         <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="87">
+      <c r="A30" s="65"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="45">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="45">
         <v>0.6875</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="60">
         <v>1</v>
       </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="66" t="s">
+      <c r="F30" s="96"/>
+      <c r="G30" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="89" t="s">
+      <c r="H30" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="59"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="87">
+      <c r="A31" s="65"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="45">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="60">
         <v>3</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66" t="s">
+      <c r="F31" s="87"/>
+      <c r="G31" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="91" t="s">
+      <c r="H31" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="59"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="12">
+      <c r="A32" s="65"/>
+      <c r="B32" s="73">
         <v>41601</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C32" s="45">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="45">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="112">
+      <c r="E32" s="60">
         <v>0.25</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="86">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="91" t="s">
+      <c r="H32" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="59"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="87">
+      <c r="A33" s="66"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="45">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="45">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E33" s="112">
+      <c r="E33" s="60">
         <v>1</v>
       </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="66" t="s">
+      <c r="F33" s="96"/>
+      <c r="G33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="59"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95">
+      <c r="A34" s="67">
         <v>4</v>
       </c>
       <c r="B34" s="11">
         <v>41603</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="96" t="s">
+      <c r="D34" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="40">
         <v>1</v>
       </c>
-      <c r="F34" s="97">
+      <c r="F34" s="51">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="99" t="s">
+      <c r="H34" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="62" t="s">
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="82">
+      <c r="L34" s="14"/>
+      <c r="M34" s="41">
         <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="59" t="s">
+      <c r="N34" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="23">
+      <c r="A35" s="68"/>
+      <c r="B35" s="88">
         <v>41604</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="40">
         <v>1</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="114">
         <f>SUM(E35:E38)</f>
-        <v>5.75</v>
-      </c>
-      <c r="G35" s="98" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="G35" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="102" t="s">
+      <c r="H35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="59"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="96" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="98" t="s">
+      <c r="D36" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="G36" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="102" t="s">
+      <c r="H36" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="59"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="96" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="40">
+        <v>1</v>
+      </c>
+      <c r="F37" s="68"/>
+      <c r="G37" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="79">
-        <v>1.25</v>
-      </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="59"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="96">
+      <c r="E38" s="62">
         <v>2</v>
       </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="98" t="s">
+      <c r="F38" s="69"/>
+      <c r="G38" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="102" t="s">
+      <c r="H38" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="59"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="23">
+      <c r="A39" s="68"/>
+      <c r="B39" s="88">
         <v>41605</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="96">
+      <c r="E39" s="62">
         <v>2.33</v>
       </c>
-      <c r="F39" s="95">
+      <c r="F39" s="67">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
-      <c r="G39" s="98" t="s">
+      <c r="G39" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="H39" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="62" t="s">
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="82">
+      <c r="L39" s="14"/>
+      <c r="M39" s="41">
         <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="59" t="s">
+      <c r="N39" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="96" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="103" t="s">
+      <c r="D40" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="96">
+      <c r="E40" s="62">
         <v>1</v>
       </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="98" t="s">
+      <c r="F40" s="69"/>
+      <c r="G40" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="98" t="s">
+      <c r="H40" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="62" t="s">
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="49"/>
-      <c r="M40" s="82">
+      <c r="L40" s="14"/>
+      <c r="M40" s="41">
         <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="59" t="s">
+      <c r="N40" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="23">
+      <c r="A41" s="68"/>
+      <c r="B41" s="88">
         <v>41606</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="96">
+      <c r="E41" s="62">
         <v>1.33</v>
       </c>
-      <c r="F41" s="95">
+      <c r="F41" s="67">
         <f>SUM(E41:E43)</f>
         <v>5.83</v>
       </c>
-      <c r="G41" s="98" t="s">
+      <c r="G41" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="102" t="s">
+      <c r="H41" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="59"/>
-    </row>
-    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="96" t="s">
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="68"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="96">
+      <c r="E42" s="62">
         <v>1.75</v>
       </c>
-      <c r="F42" s="100"/>
-      <c r="G42" s="98" t="s">
+      <c r="F42" s="68"/>
+      <c r="G42" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="102" t="s">
+      <c r="H42" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="59"/>
-    </row>
-    <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="96" t="s">
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="22"/>
+    </row>
+    <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="96">
+      <c r="E43" s="62">
         <v>2.75</v>
       </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="98" t="s">
+      <c r="F43" s="69"/>
+      <c r="G43" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="102" t="s">
+      <c r="H43" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="62" t="s">
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="82">
+      <c r="L43" s="14"/>
+      <c r="M43" s="41">
         <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="59" t="s">
+      <c r="N43" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="104"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="11">
         <v>41607</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="105">
-        <v>0.75</v>
-      </c>
-      <c r="E44" s="96">
-        <v>3</v>
-      </c>
-      <c r="F44" s="96">
+      <c r="D44" s="56">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E44" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="F44" s="50">
         <f t="shared" ref="F44:F68" si="0">E44</f>
-        <v>3</v>
-      </c>
-      <c r="G44" s="98" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="G44" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="62" t="s">
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="49"/>
-      <c r="M44" s="82">
+      <c r="L44" s="14"/>
+      <c r="M44" s="41">
         <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="59" t="s">
+      <c r="N44" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="12">
+      <c r="A45" s="65"/>
+      <c r="B45" s="73">
         <v>41611</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="60">
         <v>1.5</v>
       </c>
-      <c r="F45" s="86">
+      <c r="F45" s="64">
         <f>SUM(E45:E48)</f>
         <v>6.5</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="89" t="s">
+      <c r="H45" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="62" t="s">
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L45" s="49"/>
-      <c r="M45" s="82">
+      <c r="L45" s="14"/>
+      <c r="M45" s="41">
         <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
-      <c r="N45" s="59" t="s">
+      <c r="N45" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="88" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="88" t="s">
+      <c r="D46" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="60">
         <v>0.5</v>
       </c>
-      <c r="F46" s="90"/>
-      <c r="G46" s="66" t="s">
+      <c r="F46" s="65"/>
+      <c r="G46" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="91" t="s">
+      <c r="H46" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="59"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="22"/>
     </row>
     <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="88" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="88" t="s">
+      <c r="D47" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="60">
         <v>3.5</v>
       </c>
-      <c r="F47" s="90"/>
-      <c r="G47" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="89" t="s">
+      <c r="F47" s="65"/>
+      <c r="G47" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="59"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="22"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="88" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="88">
+      <c r="E48" s="60">
         <v>1</v>
       </c>
-      <c r="F48" s="94"/>
-      <c r="G48" s="66" t="s">
+      <c r="F48" s="66"/>
+      <c r="G48" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="89" t="s">
+      <c r="H48" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="59"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="22"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="10">
         <v>41612</v>
       </c>
-      <c r="C49" s="88" t="s">
+      <c r="C49" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="88" t="s">
+      <c r="D49" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="60">
         <v>4.5</v>
       </c>
-      <c r="F49" s="88">
+      <c r="F49" s="46">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G49" s="66" t="s">
+      <c r="G49" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="62" t="s">
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="49"/>
-      <c r="M49" s="82">
+      <c r="L49" s="14"/>
+      <c r="M49" s="41">
         <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="59" t="s">
+      <c r="N49" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="10">
         <v>41613</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="62" t="s">
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="82">
+      <c r="L50" s="14"/>
+      <c r="M50" s="41">
         <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="59" t="s">
+      <c r="N50" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="10">
         <v>41614</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="62" t="s">
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="82">
+      <c r="L51" s="14"/>
+      <c r="M51" s="41">
         <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
-      <c r="N51" s="59" t="s">
+      <c r="N51" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="95">
+      <c r="A52" s="67">
         <v>6</v>
       </c>
       <c r="B52" s="11">
         <v>41617</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="62" t="s">
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L52" s="49"/>
-      <c r="M52" s="82">
+      <c r="L52" s="14"/>
+      <c r="M52" s="41">
         <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="59" t="s">
+      <c r="N52" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="11">
         <v>41618</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="62" t="s">
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L53" s="49"/>
-      <c r="M53" s="82">
+      <c r="L53" s="14"/>
+      <c r="M53" s="41">
         <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
-      <c r="N53" s="59" t="s">
+      <c r="N53" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="11">
         <v>41619</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="62" t="s">
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="82">
+      <c r="L54" s="14"/>
+      <c r="M54" s="41">
         <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="59" t="s">
+      <c r="N54" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="11">
         <v>41620</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="62" t="s">
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L55" s="49"/>
-      <c r="M55" s="82">
+      <c r="L55" s="14"/>
+      <c r="M55" s="41">
         <f>SUM(E152:E156)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="59" t="s">
+      <c r="N55" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="104"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="11">
         <v>41621</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="14">
         <f>E56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="62" t="s">
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L56" s="49"/>
-      <c r="M56" s="82">
+      <c r="L56" s="14"/>
+      <c r="M56" s="41">
         <f>SUM(E157:E161)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="59" t="s">
+      <c r="N56" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
+      <c r="A57" s="64">
         <v>7</v>
       </c>
       <c r="B57" s="10">
         <v>41624</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106">
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="62" t="s">
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L57" s="49"/>
-      <c r="M57" s="82">
+      <c r="L57" s="14"/>
+      <c r="M57" s="41">
         <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="59" t="s">
+      <c r="N57" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="10">
         <v>41625</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106">
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="62" t="s">
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L58" s="49"/>
-      <c r="M58" s="82">
+      <c r="L58" s="14"/>
+      <c r="M58" s="41">
         <f>SUM(E167:E171)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="59" t="s">
+      <c r="N58" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="10">
         <v>41626</v>
       </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="62" t="s">
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L59" s="49"/>
-      <c r="M59" s="82">
+      <c r="L59" s="14"/>
+      <c r="M59" s="41">
         <f>SUM(E172:E176)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="59" t="s">
+      <c r="N59" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="10">
         <v>41627</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106">
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="10">
         <v>41628</v>
       </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106">
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="95">
+      <c r="A62" s="67">
         <v>8</v>
       </c>
       <c r="B62" s="11">
         <v>41631</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="11">
         <v>41632</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="11">
         <v>41633</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="11">
         <v>41634</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="104"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="11">
         <v>41635</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="86">
+      <c r="A67" s="64">
         <v>9</v>
       </c>
       <c r="B67" s="10">
         <v>41638</v>
       </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106">
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="10">
         <v>41639</v>
       </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106">
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="10">
         <v>41640</v>
       </c>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106">
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="57">
         <f t="shared" ref="F69:F100" si="1">E69</f>
         <v>0</v>
       </c>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="10">
         <v>41641</v>
       </c>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106">
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="10">
         <v>41642</v>
       </c>
-      <c r="C71" s="106"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="106">
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="95">
+      <c r="A72" s="67">
         <v>10</v>
       </c>
       <c r="B72" s="11">
         <v>41645</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="98"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="98"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="100"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="11">
         <v>41646</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="98"/>
-      <c r="J73" s="98"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="11">
         <v>41647</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
+      <c r="A75" s="68"/>
       <c r="B75" s="11">
         <v>41648</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="98"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="104"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="11">
         <v>41649</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="48"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="86">
+      <c r="A77" s="64">
         <v>11</v>
       </c>
       <c r="B77" s="10">
         <v>41652</v>
       </c>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106">
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="48"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="10">
         <v>41653</v>
       </c>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106">
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="48"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="10">
         <v>41654</v>
       </c>
-      <c r="C79" s="106"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106">
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="48"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="10">
         <v>41655</v>
       </c>
-      <c r="C80" s="106"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="106">
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="48"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="94"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="10">
         <v>41656</v>
       </c>
-      <c r="C81" s="106"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="106">
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="48"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="95">
+      <c r="A82" s="67">
         <v>12</v>
       </c>
       <c r="B82" s="11">
         <v>41659</v>
       </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49">
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="98"/>
-      <c r="J82" s="98"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="100"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="11">
         <v>41660</v>
       </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
-      <c r="I83" s="98"/>
-      <c r="J83" s="98"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="100"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="11">
         <v>41661</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="98"/>
-      <c r="H84" s="98"/>
-      <c r="I84" s="98"/>
-      <c r="J84" s="98"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="48"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="100"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="11">
         <v>41662</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="48"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="104"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="11">
         <v>41663</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
-      <c r="I86" s="98"/>
-      <c r="J86" s="98"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="86">
+      <c r="A87" s="64">
         <v>13</v>
       </c>
       <c r="B87" s="10">
         <v>41666</v>
       </c>
-      <c r="C87" s="106"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="106">
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="66" t="s">
+      <c r="G87" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="10">
         <v>41667</v>
       </c>
-      <c r="C88" s="106"/>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
-      <c r="F88" s="106">
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="66" t="s">
+      <c r="G88" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="10">
         <v>41668</v>
       </c>
-      <c r="C89" s="106"/>
-      <c r="D89" s="106"/>
-      <c r="E89" s="106"/>
-      <c r="F89" s="106">
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="66" t="s">
+      <c r="G89" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="10">
         <v>41669</v>
       </c>
-      <c r="C90" s="106"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
-      <c r="F90" s="106">
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="66" t="s">
+      <c r="G90" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="94"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="10">
         <v>41670</v>
       </c>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106">
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G91" s="66" t="s">
+      <c r="G91" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="95">
+      <c r="A92" s="67">
         <v>14</v>
       </c>
       <c r="B92" s="11">
         <v>41673</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G92" s="107" t="s">
+      <c r="G92" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="98"/>
-      <c r="I92" s="98"/>
-      <c r="J92" s="98"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="100"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="11">
         <v>41674</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G93" s="107" t="s">
+      <c r="G93" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="98"/>
-      <c r="I93" s="98"/>
-      <c r="J93" s="98"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="100"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="11">
         <v>41675</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49">
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G94" s="107" t="s">
+      <c r="G94" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="98"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="98"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="100"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="11">
         <v>41676</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49">
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G95" s="107" t="s">
+      <c r="G95" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="98"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="98"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="52"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="104"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="11">
         <v>41677</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49">
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G96" s="107" t="s">
+      <c r="G96" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H96" s="98"/>
-      <c r="I96" s="98"/>
-      <c r="J96" s="98"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="86">
+      <c r="A97" s="64">
         <v>15</v>
       </c>
       <c r="B97" s="10">
         <v>41680</v>
       </c>
-      <c r="C97" s="106"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="106">
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="48"/>
-      <c r="N97" s="48"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="10">
         <v>41681</v>
       </c>
-      <c r="C98" s="106"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="106">
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="10">
         <v>41682</v>
       </c>
-      <c r="C99" s="106"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="106">
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="48"/>
-      <c r="N99" s="48"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="90"/>
+      <c r="A100" s="65"/>
       <c r="B100" s="10">
         <v>41683</v>
       </c>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106">
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="48"/>
-      <c r="M100" s="48"/>
-      <c r="N100" s="48"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="94"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="10">
         <v>41684</v>
       </c>
-      <c r="C101" s="106"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="106">
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="57">
         <f t="shared" ref="F101:F132" si="2">E101</f>
         <v>0</v>
       </c>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="48"/>
-      <c r="M101" s="48"/>
-      <c r="N101" s="48"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="95">
+      <c r="A102" s="67">
         <v>16</v>
       </c>
       <c r="B102" s="11">
         <v>41687</v>
       </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49">
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="98"/>
-      <c r="H102" s="98"/>
-      <c r="I102" s="98"/>
-      <c r="J102" s="98"/>
-      <c r="K102" s="48"/>
-      <c r="L102" s="48"/>
-      <c r="M102" s="48"/>
-      <c r="N102" s="48"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="100"/>
+      <c r="A103" s="68"/>
       <c r="B103" s="11">
         <v>41688</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49">
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="98"/>
-      <c r="H103" s="98"/>
-      <c r="I103" s="98"/>
-      <c r="J103" s="98"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="48"/>
-      <c r="M103" s="48"/>
-      <c r="N103" s="48"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="100"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="11">
         <v>41689</v>
       </c>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49">
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="98"/>
-      <c r="H104" s="98"/>
-      <c r="I104" s="98"/>
-      <c r="J104" s="98"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="48"/>
-      <c r="M104" s="48"/>
-      <c r="N104" s="48"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="11">
         <v>41690</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49">
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="98"/>
-      <c r="H105" s="98"/>
-      <c r="I105" s="98"/>
-      <c r="J105" s="98"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="48"/>
-      <c r="M105" s="48"/>
-      <c r="N105" s="48"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="104"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="11">
         <v>41691</v>
       </c>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49">
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="98"/>
-      <c r="H106" s="98"/>
-      <c r="I106" s="98"/>
-      <c r="J106" s="98"/>
-      <c r="K106" s="48"/>
-      <c r="L106" s="48"/>
-      <c r="M106" s="48"/>
-      <c r="N106" s="48"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="86">
+      <c r="A107" s="64">
         <v>17</v>
       </c>
       <c r="B107" s="10">
         <v>41694</v>
       </c>
-      <c r="C107" s="106"/>
-      <c r="D107" s="106"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="106">
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="48"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="48"/>
-      <c r="N107" s="48"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="90"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="10">
         <v>41695</v>
       </c>
-      <c r="C108" s="106"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="106">
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="48"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="48"/>
-      <c r="N108" s="48"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="90"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="10">
         <v>41696</v>
       </c>
-      <c r="C109" s="106"/>
-      <c r="D109" s="106"/>
-      <c r="E109" s="106"/>
-      <c r="F109" s="106">
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="48"/>
-      <c r="N109" s="48"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="90"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="10">
         <v>41697</v>
       </c>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="106">
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="48"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="48"/>
-      <c r="N110" s="48"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="94"/>
+      <c r="A111" s="66"/>
       <c r="B111" s="10">
         <v>41698</v>
       </c>
-      <c r="C111" s="106"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="106">
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="48"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="48"/>
-      <c r="N111" s="48"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="95">
+      <c r="A112" s="67">
         <v>18</v>
       </c>
       <c r="B112" s="11">
         <v>41701</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49">
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="98"/>
-      <c r="H112" s="98"/>
-      <c r="I112" s="98"/>
-      <c r="J112" s="98"/>
-      <c r="K112" s="48"/>
-      <c r="L112" s="48"/>
-      <c r="M112" s="48"/>
-      <c r="N112" s="48"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="100"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="11">
         <v>41702</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49">
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="98"/>
-      <c r="H113" s="98"/>
-      <c r="I113" s="98"/>
-      <c r="J113" s="98"/>
-      <c r="K113" s="48"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="48"/>
-      <c r="N113" s="48"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="100"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="11">
         <v>41703</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49">
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="98"/>
-      <c r="H114" s="98"/>
-      <c r="I114" s="98"/>
-      <c r="J114" s="98"/>
-      <c r="K114" s="48"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="48"/>
-      <c r="N114" s="48"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="100"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="11">
         <v>41704</v>
       </c>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49">
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="98"/>
-      <c r="H115" s="98"/>
-      <c r="I115" s="98"/>
-      <c r="J115" s="98"/>
-      <c r="K115" s="48"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="48"/>
-      <c r="N115" s="48"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="104"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="11">
         <v>41705</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49">
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="98"/>
-      <c r="H116" s="98"/>
-      <c r="I116" s="98"/>
-      <c r="J116" s="98"/>
-      <c r="K116" s="48"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="48"/>
-      <c r="N116" s="48"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
+      <c r="I116" s="52"/>
+      <c r="J116" s="52"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="86">
+      <c r="A117" s="64">
         <v>19</v>
       </c>
       <c r="B117" s="10">
         <v>41708</v>
       </c>
-      <c r="C117" s="106"/>
-      <c r="D117" s="106"/>
-      <c r="E117" s="106"/>
-      <c r="F117" s="106">
+      <c r="C117" s="57"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="48"/>
-      <c r="L117" s="48"/>
-      <c r="M117" s="48"/>
-      <c r="N117" s="48"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
+      <c r="A118" s="65"/>
       <c r="B118" s="10">
         <v>41709</v>
       </c>
-      <c r="C118" s="106"/>
-      <c r="D118" s="106"/>
-      <c r="E118" s="106"/>
-      <c r="F118" s="106">
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="48"/>
-      <c r="L118" s="48"/>
-      <c r="M118" s="48"/>
-      <c r="N118" s="48"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="90"/>
+      <c r="A119" s="65"/>
       <c r="B119" s="10">
         <v>41710</v>
       </c>
-      <c r="C119" s="106"/>
-      <c r="D119" s="106"/>
-      <c r="E119" s="106"/>
-      <c r="F119" s="106">
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="48"/>
-      <c r="L119" s="48"/>
-      <c r="M119" s="48"/>
-      <c r="N119" s="48"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="90"/>
+      <c r="A120" s="65"/>
       <c r="B120" s="10">
         <v>41711</v>
       </c>
-      <c r="C120" s="106"/>
-      <c r="D120" s="106"/>
-      <c r="E120" s="106"/>
-      <c r="F120" s="106">
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="63"/>
+      <c r="F120" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
-      <c r="J120" s="66"/>
-      <c r="K120" s="48"/>
-      <c r="L120" s="48"/>
-      <c r="M120" s="48"/>
-      <c r="N120" s="48"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="94"/>
+      <c r="A121" s="66"/>
       <c r="B121" s="10">
         <v>41712</v>
       </c>
-      <c r="C121" s="106"/>
-      <c r="D121" s="106"/>
-      <c r="E121" s="106"/>
-      <c r="F121" s="106">
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="48"/>
-      <c r="L121" s="48"/>
-      <c r="M121" s="48"/>
-      <c r="N121" s="48"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="95">
+      <c r="A122" s="67">
         <v>20</v>
       </c>
       <c r="B122" s="11">
         <v>41715</v>
       </c>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="98"/>
-      <c r="H122" s="98"/>
-      <c r="I122" s="98"/>
-      <c r="J122" s="98"/>
-      <c r="K122" s="48"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="48"/>
-      <c r="N122" s="48"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="52"/>
+      <c r="J122" s="52"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="100"/>
+      <c r="A123" s="68"/>
       <c r="B123" s="11">
         <v>41716</v>
       </c>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49">
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="98"/>
-      <c r="H123" s="98"/>
-      <c r="I123" s="98"/>
-      <c r="J123" s="98"/>
-      <c r="K123" s="48"/>
-      <c r="L123" s="48"/>
-      <c r="M123" s="48"/>
-      <c r="N123" s="48"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="100"/>
+      <c r="A124" s="68"/>
       <c r="B124" s="11">
         <v>41717</v>
       </c>
-      <c r="C124" s="49"/>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49">
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124" s="98"/>
-      <c r="H124" s="98"/>
-      <c r="I124" s="98"/>
-      <c r="J124" s="98"/>
-      <c r="K124" s="48"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="48"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="100"/>
+      <c r="A125" s="68"/>
       <c r="B125" s="11">
         <v>41718</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49">
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G125" s="98"/>
-      <c r="H125" s="98"/>
-      <c r="I125" s="98"/>
-      <c r="J125" s="98"/>
-      <c r="K125" s="48"/>
-      <c r="L125" s="48"/>
-      <c r="M125" s="48"/>
-      <c r="N125" s="48"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
+      <c r="I125" s="52"/>
+      <c r="J125" s="52"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="104"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="11">
         <v>41719</v>
       </c>
-      <c r="C126" s="49"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49">
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126" s="98"/>
-      <c r="H126" s="98"/>
-      <c r="I126" s="98"/>
-      <c r="J126" s="98"/>
-      <c r="K126" s="48"/>
-      <c r="L126" s="48"/>
-      <c r="M126" s="48"/>
-      <c r="N126" s="48"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="52"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="86">
+      <c r="A127" s="64">
         <v>21</v>
       </c>
       <c r="B127" s="10">
         <v>41722</v>
       </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="106"/>
-      <c r="E127" s="106"/>
-      <c r="F127" s="106">
+      <c r="C127" s="57"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="48"/>
-      <c r="L127" s="48"/>
-      <c r="M127" s="48"/>
-      <c r="N127" s="48"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="90"/>
+      <c r="A128" s="65"/>
       <c r="B128" s="10">
         <v>41723</v>
       </c>
-      <c r="C128" s="106"/>
-      <c r="D128" s="106"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="106">
+      <c r="C128" s="57"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="48"/>
-      <c r="L128" s="48"/>
-      <c r="M128" s="48"/>
-      <c r="N128" s="48"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="90"/>
+      <c r="A129" s="65"/>
       <c r="B129" s="10">
         <v>41724</v>
       </c>
-      <c r="C129" s="106"/>
-      <c r="D129" s="106"/>
-      <c r="E129" s="106"/>
-      <c r="F129" s="106">
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="66"/>
-      <c r="K129" s="48"/>
-      <c r="L129" s="48"/>
-      <c r="M129" s="48"/>
-      <c r="N129" s="48"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="90"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="10">
         <v>41725</v>
       </c>
-      <c r="C130" s="106"/>
-      <c r="D130" s="106"/>
-      <c r="E130" s="106"/>
-      <c r="F130" s="106">
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="48"/>
-      <c r="L130" s="48"/>
-      <c r="M130" s="48"/>
-      <c r="N130" s="48"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="94"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="10">
         <v>41726</v>
       </c>
-      <c r="C131" s="106"/>
-      <c r="D131" s="106"/>
-      <c r="E131" s="106"/>
-      <c r="F131" s="106">
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="66"/>
-      <c r="J131" s="66"/>
-      <c r="K131" s="48"/>
-      <c r="L131" s="48"/>
-      <c r="M131" s="48"/>
-      <c r="N131" s="48"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="95">
+      <c r="A132" s="67">
         <v>22</v>
       </c>
       <c r="B132" s="11">
         <v>41729</v>
       </c>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="49">
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="98"/>
-      <c r="H132" s="98"/>
-      <c r="I132" s="98"/>
-      <c r="J132" s="98"/>
-      <c r="K132" s="48"/>
-      <c r="L132" s="48"/>
-      <c r="M132" s="48"/>
-      <c r="N132" s="48"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="100"/>
+      <c r="A133" s="68"/>
       <c r="B133" s="11">
         <v>41730</v>
       </c>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="49">
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="14">
         <f t="shared" ref="F133:F164" si="3">E133</f>
         <v>0</v>
       </c>
-      <c r="G133" s="98"/>
-      <c r="H133" s="98"/>
-      <c r="I133" s="98"/>
-      <c r="J133" s="98"/>
-      <c r="K133" s="48"/>
-      <c r="L133" s="48"/>
-      <c r="M133" s="48"/>
-      <c r="N133" s="48"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
+      <c r="I133" s="52"/>
+      <c r="J133" s="52"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="100"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="11">
         <v>41731</v>
       </c>
-      <c r="C134" s="49"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49">
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="98"/>
-      <c r="H134" s="98"/>
-      <c r="I134" s="98"/>
-      <c r="J134" s="98"/>
-      <c r="K134" s="48"/>
-      <c r="L134" s="48"/>
-      <c r="M134" s="48"/>
-      <c r="N134" s="48"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="100"/>
+      <c r="A135" s="68"/>
       <c r="B135" s="11">
         <v>41732</v>
       </c>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49">
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="98"/>
-      <c r="H135" s="98"/>
-      <c r="I135" s="98"/>
-      <c r="J135" s="98"/>
-      <c r="K135" s="48"/>
-      <c r="L135" s="48"/>
-      <c r="M135" s="48"/>
-      <c r="N135" s="48"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="104"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="11">
         <v>41733</v>
       </c>
-      <c r="C136" s="49"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49">
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="98"/>
-      <c r="H136" s="98"/>
-      <c r="I136" s="98"/>
-      <c r="J136" s="98"/>
-      <c r="K136" s="48"/>
-      <c r="L136" s="48"/>
-      <c r="M136" s="48"/>
-      <c r="N136" s="48"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="52"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="86">
+      <c r="A137" s="64">
         <v>23</v>
       </c>
       <c r="B137" s="10">
         <v>41736</v>
       </c>
-      <c r="C137" s="106"/>
-      <c r="D137" s="106"/>
-      <c r="E137" s="106"/>
-      <c r="F137" s="106">
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="66"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="48"/>
-      <c r="L137" s="48"/>
-      <c r="M137" s="48"/>
-      <c r="N137" s="48"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
+      <c r="A138" s="65"/>
       <c r="B138" s="10">
         <v>41737</v>
       </c>
-      <c r="C138" s="106"/>
-      <c r="D138" s="106"/>
-      <c r="E138" s="106"/>
-      <c r="F138" s="106">
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="48"/>
-      <c r="L138" s="48"/>
-      <c r="M138" s="48"/>
-      <c r="N138" s="48"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="90"/>
+      <c r="A139" s="65"/>
       <c r="B139" s="10">
         <v>41738</v>
       </c>
-      <c r="C139" s="106"/>
-      <c r="D139" s="106"/>
-      <c r="E139" s="106"/>
-      <c r="F139" s="106">
+      <c r="C139" s="57"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="63"/>
+      <c r="F139" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="66"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="48"/>
-      <c r="L139" s="48"/>
-      <c r="M139" s="48"/>
-      <c r="N139" s="48"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="13"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="90"/>
+      <c r="A140" s="65"/>
       <c r="B140" s="10">
         <v>41739</v>
       </c>
-      <c r="C140" s="106"/>
-      <c r="D140" s="106"/>
-      <c r="E140" s="106"/>
-      <c r="F140" s="106">
+      <c r="C140" s="57"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="66"/>
-      <c r="H140" s="66"/>
-      <c r="I140" s="66"/>
-      <c r="J140" s="66"/>
-      <c r="K140" s="48"/>
-      <c r="L140" s="48"/>
-      <c r="M140" s="48"/>
-      <c r="N140" s="48"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="94"/>
+      <c r="A141" s="66"/>
       <c r="B141" s="10">
         <v>41740</v>
       </c>
-      <c r="C141" s="106"/>
-      <c r="D141" s="106"/>
-      <c r="E141" s="106"/>
-      <c r="F141" s="106">
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="63"/>
+      <c r="F141" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="48"/>
-      <c r="L141" s="48"/>
-      <c r="M141" s="48"/>
-      <c r="N141" s="48"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="95">
+      <c r="A142" s="67">
         <v>24</v>
       </c>
       <c r="B142" s="11">
         <v>41743</v>
       </c>
-      <c r="C142" s="49"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49">
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="98"/>
-      <c r="H142" s="98"/>
-      <c r="I142" s="98"/>
-      <c r="J142" s="98"/>
-      <c r="K142" s="48"/>
-      <c r="L142" s="48"/>
-      <c r="M142" s="48"/>
-      <c r="N142" s="48"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="52"/>
+      <c r="J142" s="52"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="100"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="11">
         <v>41744</v>
       </c>
-      <c r="C143" s="49"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49">
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="98"/>
-      <c r="H143" s="98"/>
-      <c r="I143" s="98"/>
-      <c r="J143" s="98"/>
-      <c r="K143" s="48"/>
-      <c r="L143" s="48"/>
-      <c r="M143" s="48"/>
-      <c r="N143" s="48"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="52"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="100"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="11">
         <v>41745</v>
       </c>
-      <c r="C144" s="49"/>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="49">
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="98"/>
-      <c r="H144" s="98"/>
-      <c r="I144" s="98"/>
-      <c r="J144" s="98"/>
-      <c r="K144" s="48"/>
-      <c r="L144" s="48"/>
-      <c r="M144" s="48"/>
-      <c r="N144" s="48"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
+      <c r="I144" s="52"/>
+      <c r="J144" s="52"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="100"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="11">
         <v>41746</v>
       </c>
-      <c r="C145" s="49"/>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49">
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="98"/>
-      <c r="H145" s="98"/>
-      <c r="I145" s="98"/>
-      <c r="J145" s="98"/>
-      <c r="K145" s="48"/>
-      <c r="L145" s="48"/>
-      <c r="M145" s="48"/>
-      <c r="N145" s="48"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="52"/>
+      <c r="J145" s="52"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="104"/>
+      <c r="A146" s="69"/>
       <c r="B146" s="11">
         <v>41747</v>
       </c>
-      <c r="C146" s="49"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49">
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="98"/>
-      <c r="H146" s="98"/>
-      <c r="I146" s="98"/>
-      <c r="J146" s="98"/>
-      <c r="K146" s="48"/>
-      <c r="L146" s="48"/>
-      <c r="M146" s="48"/>
-      <c r="N146" s="48"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52"/>
+      <c r="J146" s="52"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="86">
+      <c r="A147" s="64">
         <v>25</v>
       </c>
       <c r="B147" s="10">
         <v>41750</v>
       </c>
-      <c r="C147" s="106"/>
-      <c r="D147" s="106"/>
-      <c r="E147" s="106"/>
-      <c r="F147" s="106">
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="66"/>
-      <c r="J147" s="66"/>
-      <c r="K147" s="48"/>
-      <c r="L147" s="48"/>
-      <c r="M147" s="48"/>
-      <c r="N147" s="48"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="13"/>
+      <c r="N147" s="13"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="90"/>
+      <c r="A148" s="65"/>
       <c r="B148" s="10">
         <v>41751</v>
       </c>
-      <c r="C148" s="106"/>
-      <c r="D148" s="106"/>
-      <c r="E148" s="106"/>
-      <c r="F148" s="106">
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="66"/>
-      <c r="H148" s="66"/>
-      <c r="I148" s="66"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="48"/>
-      <c r="L148" s="48"/>
-      <c r="M148" s="48"/>
-      <c r="N148" s="48"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="90"/>
+      <c r="A149" s="65"/>
       <c r="B149" s="10">
         <v>41752</v>
       </c>
-      <c r="C149" s="106"/>
-      <c r="D149" s="106"/>
-      <c r="E149" s="106"/>
-      <c r="F149" s="106">
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="48"/>
-      <c r="L149" s="48"/>
-      <c r="M149" s="48"/>
-      <c r="N149" s="48"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="90"/>
+      <c r="A150" s="65"/>
       <c r="B150" s="10">
         <v>41753</v>
       </c>
-      <c r="C150" s="106"/>
-      <c r="D150" s="106"/>
-      <c r="E150" s="106"/>
-      <c r="F150" s="106">
+      <c r="C150" s="57"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="48"/>
-      <c r="L150" s="48"/>
-      <c r="M150" s="48"/>
-      <c r="N150" s="48"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="94"/>
+      <c r="A151" s="66"/>
       <c r="B151" s="10">
         <v>41754</v>
       </c>
-      <c r="C151" s="106"/>
-      <c r="D151" s="106"/>
-      <c r="E151" s="106"/>
-      <c r="F151" s="106">
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="63"/>
+      <c r="F151" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="66"/>
-      <c r="J151" s="66"/>
-      <c r="K151" s="48"/>
-      <c r="L151" s="48"/>
-      <c r="M151" s="48"/>
-      <c r="N151" s="48"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="13"/>
+      <c r="M151" s="13"/>
+      <c r="N151" s="13"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="95">
+      <c r="A152" s="67">
         <v>26</v>
       </c>
       <c r="B152" s="11">
         <v>41757</v>
       </c>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="98"/>
-      <c r="H152" s="98"/>
-      <c r="I152" s="98"/>
-      <c r="J152" s="98"/>
-      <c r="K152" s="48"/>
-      <c r="L152" s="48"/>
-      <c r="M152" s="48"/>
-      <c r="N152" s="48"/>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52"/>
+      <c r="I152" s="52"/>
+      <c r="J152" s="52"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="100"/>
+      <c r="A153" s="68"/>
       <c r="B153" s="11">
         <v>41758</v>
       </c>
-      <c r="C153" s="49"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49">
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="98"/>
-      <c r="H153" s="98"/>
-      <c r="I153" s="98"/>
-      <c r="J153" s="98"/>
-      <c r="K153" s="48"/>
-      <c r="L153" s="48"/>
-      <c r="M153" s="48"/>
-      <c r="N153" s="48"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
+      <c r="J153" s="52"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="100"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="11">
         <v>41759</v>
       </c>
-      <c r="C154" s="49"/>
-      <c r="D154" s="49"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49">
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="98"/>
-      <c r="H154" s="98"/>
-      <c r="I154" s="98"/>
-      <c r="J154" s="98"/>
-      <c r="K154" s="48"/>
-      <c r="L154" s="48"/>
-      <c r="M154" s="48"/>
-      <c r="N154" s="48"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
+      <c r="I154" s="52"/>
+      <c r="J154" s="52"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="13"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
+      <c r="A155" s="68"/>
       <c r="B155" s="11">
         <v>41760</v>
       </c>
-      <c r="C155" s="49"/>
-      <c r="D155" s="49"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="49">
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G155" s="98"/>
-      <c r="H155" s="98"/>
-      <c r="I155" s="98"/>
-      <c r="J155" s="98"/>
-      <c r="K155" s="48"/>
-      <c r="L155" s="48"/>
-      <c r="M155" s="48"/>
-      <c r="N155" s="48"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
+      <c r="I155" s="52"/>
+      <c r="J155" s="52"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="104"/>
+      <c r="A156" s="69"/>
       <c r="B156" s="11">
         <v>41761</v>
       </c>
-      <c r="C156" s="49"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49">
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G156" s="98"/>
-      <c r="H156" s="98"/>
-      <c r="I156" s="98"/>
-      <c r="J156" s="98"/>
-      <c r="K156" s="48"/>
-      <c r="L156" s="48"/>
-      <c r="M156" s="48"/>
-      <c r="N156" s="48"/>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="52"/>
+      <c r="J156" s="52"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="86">
+      <c r="A157" s="64">
         <v>27</v>
       </c>
       <c r="B157" s="10">
         <v>41764</v>
       </c>
-      <c r="C157" s="106"/>
-      <c r="D157" s="106"/>
-      <c r="E157" s="106"/>
-      <c r="F157" s="106">
+      <c r="C157" s="57"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G157" s="66"/>
-      <c r="H157" s="66"/>
-      <c r="I157" s="66"/>
-      <c r="J157" s="66"/>
-      <c r="K157" s="48"/>
-      <c r="L157" s="48"/>
-      <c r="M157" s="48"/>
-      <c r="N157" s="48"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
+      <c r="A158" s="65"/>
       <c r="B158" s="10">
         <v>41765</v>
       </c>
-      <c r="C158" s="106"/>
-      <c r="D158" s="106"/>
-      <c r="E158" s="106"/>
-      <c r="F158" s="106">
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G158" s="66"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="66"/>
-      <c r="K158" s="48"/>
-      <c r="L158" s="48"/>
-      <c r="M158" s="48"/>
-      <c r="N158" s="48"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="13"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="90"/>
+      <c r="A159" s="65"/>
       <c r="B159" s="10">
         <v>41766</v>
       </c>
-      <c r="C159" s="106"/>
-      <c r="D159" s="106"/>
-      <c r="E159" s="106"/>
-      <c r="F159" s="106">
+      <c r="C159" s="57"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="66"/>
-      <c r="J159" s="66"/>
-      <c r="K159" s="48"/>
-      <c r="L159" s="48"/>
-      <c r="M159" s="48"/>
-      <c r="N159" s="48"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="13"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="90"/>
+      <c r="A160" s="65"/>
       <c r="B160" s="10">
         <v>41767</v>
       </c>
-      <c r="C160" s="106"/>
-      <c r="D160" s="106"/>
-      <c r="E160" s="106"/>
-      <c r="F160" s="106">
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G160" s="66"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="66"/>
-      <c r="J160" s="66"/>
-      <c r="K160" s="48"/>
-      <c r="L160" s="48"/>
-      <c r="M160" s="48"/>
-      <c r="N160" s="48"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="27"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="94"/>
+      <c r="A161" s="66"/>
       <c r="B161" s="10">
         <v>41768</v>
       </c>
-      <c r="C161" s="106"/>
-      <c r="D161" s="106"/>
-      <c r="E161" s="106"/>
-      <c r="F161" s="106">
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="66"/>
-      <c r="K161" s="48"/>
-      <c r="L161" s="48"/>
-      <c r="M161" s="48"/>
-      <c r="N161" s="48"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
+      <c r="M161" s="13"/>
+      <c r="N161" s="13"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="95">
+      <c r="A162" s="67">
         <v>28</v>
       </c>
       <c r="B162" s="11">
         <v>41771</v>
       </c>
-      <c r="C162" s="49"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="49">
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="41"/>
+      <c r="F162" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G162" s="98"/>
-      <c r="H162" s="98"/>
-      <c r="I162" s="98"/>
-      <c r="J162" s="98"/>
-      <c r="K162" s="48"/>
-      <c r="L162" s="48"/>
-      <c r="M162" s="48"/>
-      <c r="N162" s="48"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="52"/>
+      <c r="I162" s="52"/>
+      <c r="J162" s="52"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="13"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="100"/>
+      <c r="A163" s="68"/>
       <c r="B163" s="11">
         <v>41772</v>
       </c>
-      <c r="C163" s="49"/>
-      <c r="D163" s="49"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="49">
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="41"/>
+      <c r="F163" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G163" s="98"/>
-      <c r="H163" s="98"/>
-      <c r="I163" s="98"/>
-      <c r="J163" s="98"/>
-      <c r="K163" s="48"/>
-      <c r="L163" s="48"/>
-      <c r="M163" s="48"/>
-      <c r="N163" s="48"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
+      <c r="I163" s="52"/>
+      <c r="J163" s="52"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
+      <c r="M163" s="13"/>
+      <c r="N163" s="13"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="100"/>
+      <c r="A164" s="68"/>
       <c r="B164" s="11">
         <v>41773</v>
       </c>
-      <c r="C164" s="49"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="49">
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="41"/>
+      <c r="F164" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G164" s="98"/>
-      <c r="H164" s="98"/>
-      <c r="I164" s="98"/>
-      <c r="J164" s="98"/>
-      <c r="K164" s="48"/>
-      <c r="L164" s="48"/>
-      <c r="M164" s="48"/>
-      <c r="N164" s="48"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
+      <c r="J164" s="52"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
+      <c r="M164" s="13"/>
+      <c r="N164" s="13"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="100"/>
+      <c r="A165" s="68"/>
       <c r="B165" s="11">
         <v>41774</v>
       </c>
-      <c r="C165" s="49"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49">
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="41"/>
+      <c r="F165" s="14">
         <f t="shared" ref="F165:F176" si="4">E165</f>
         <v>0</v>
       </c>
-      <c r="G165" s="98"/>
-      <c r="H165" s="98"/>
-      <c r="I165" s="98"/>
-      <c r="J165" s="98"/>
-      <c r="K165" s="48"/>
-      <c r="L165" s="48"/>
-      <c r="M165" s="48"/>
-      <c r="N165" s="48"/>
+      <c r="G165" s="52"/>
+      <c r="H165" s="52"/>
+      <c r="I165" s="52"/>
+      <c r="J165" s="52"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="13"/>
+      <c r="M165" s="13"/>
+      <c r="N165" s="13"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="104"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="11">
         <v>41775</v>
       </c>
-      <c r="C166" s="49"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49">
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G166" s="98"/>
-      <c r="H166" s="98"/>
-      <c r="I166" s="98"/>
-      <c r="J166" s="98"/>
-      <c r="K166" s="48"/>
-      <c r="L166" s="48"/>
-      <c r="M166" s="48"/>
-      <c r="N166" s="48"/>
+      <c r="G166" s="52"/>
+      <c r="H166" s="52"/>
+      <c r="I166" s="52"/>
+      <c r="J166" s="52"/>
+      <c r="K166" s="13"/>
+      <c r="L166" s="13"/>
+      <c r="M166" s="13"/>
+      <c r="N166" s="13"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="86">
+      <c r="A167" s="64">
         <v>29</v>
       </c>
       <c r="B167" s="10">
         <v>41778</v>
       </c>
-      <c r="C167" s="106"/>
-      <c r="D167" s="106"/>
-      <c r="E167" s="106"/>
-      <c r="F167" s="106">
+      <c r="C167" s="57"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="63"/>
+      <c r="F167" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G167" s="66"/>
-      <c r="H167" s="66"/>
-      <c r="I167" s="66"/>
-      <c r="J167" s="66"/>
-      <c r="K167" s="48"/>
-      <c r="L167" s="48"/>
-      <c r="M167" s="48"/>
-      <c r="N167" s="48"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="13"/>
+      <c r="M167" s="13"/>
+      <c r="N167" s="13"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="90"/>
+      <c r="A168" s="65"/>
       <c r="B168" s="10">
         <v>41779</v>
       </c>
-      <c r="C168" s="106"/>
-      <c r="D168" s="106"/>
-      <c r="E168" s="106"/>
-      <c r="F168" s="106">
+      <c r="C168" s="57"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="63"/>
+      <c r="F168" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G168" s="66"/>
-      <c r="H168" s="66"/>
-      <c r="I168" s="66"/>
-      <c r="J168" s="66"/>
-      <c r="K168" s="48"/>
-      <c r="L168" s="48"/>
-      <c r="M168" s="48"/>
-      <c r="N168" s="48"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="90"/>
+      <c r="A169" s="65"/>
       <c r="B169" s="10">
         <v>41780</v>
       </c>
-      <c r="C169" s="106"/>
-      <c r="D169" s="106"/>
-      <c r="E169" s="106"/>
-      <c r="F169" s="106">
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="63"/>
+      <c r="F169" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="66"/>
-      <c r="K169" s="48"/>
-      <c r="L169" s="48"/>
-      <c r="M169" s="48"/>
-      <c r="N169" s="48"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="13"/>
+      <c r="M169" s="13"/>
+      <c r="N169" s="13"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="90"/>
+      <c r="A170" s="65"/>
       <c r="B170" s="10">
         <v>41781</v>
       </c>
-      <c r="C170" s="106"/>
-      <c r="D170" s="106"/>
-      <c r="E170" s="106"/>
-      <c r="F170" s="106">
+      <c r="C170" s="57"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G170" s="66"/>
-      <c r="H170" s="66"/>
-      <c r="I170" s="66"/>
-      <c r="J170" s="66"/>
-      <c r="K170" s="48"/>
-      <c r="L170" s="48"/>
-      <c r="M170" s="48"/>
-      <c r="N170" s="48"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="13"/>
+      <c r="M170" s="13"/>
+      <c r="N170" s="13"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="94"/>
+      <c r="A171" s="66"/>
       <c r="B171" s="10">
         <v>41782</v>
       </c>
-      <c r="C171" s="106"/>
-      <c r="D171" s="106"/>
-      <c r="E171" s="106"/>
-      <c r="F171" s="106">
+      <c r="C171" s="57"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="63"/>
+      <c r="F171" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G171" s="66"/>
-      <c r="H171" s="66"/>
-      <c r="I171" s="66"/>
-      <c r="J171" s="66"/>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
-      <c r="M171" s="48"/>
-      <c r="N171" s="48"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="13"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="108">
+      <c r="A172" s="70">
         <v>30</v>
       </c>
       <c r="B172" s="11">
         <v>41785</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72">
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G172" s="107"/>
-      <c r="H172" s="107"/>
-      <c r="I172" s="107"/>
-      <c r="J172" s="107"/>
-      <c r="K172" s="48"/>
-      <c r="L172" s="48"/>
-      <c r="M172" s="48"/>
-      <c r="N172" s="48"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="58"/>
+      <c r="J172" s="58"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="13"/>
+      <c r="M172" s="13"/>
+      <c r="N172" s="13"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="109"/>
+      <c r="A173" s="71"/>
       <c r="B173" s="11">
         <v>41786</v>
       </c>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
-      <c r="E173" s="72"/>
-      <c r="F173" s="72">
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G173" s="107"/>
-      <c r="H173" s="107"/>
-      <c r="I173" s="107"/>
-      <c r="J173" s="107"/>
-      <c r="K173" s="48"/>
-      <c r="L173" s="48"/>
-      <c r="M173" s="48"/>
-      <c r="N173" s="48"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="58"/>
+      <c r="J173" s="58"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="13"/>
+      <c r="M173" s="13"/>
+      <c r="N173" s="13"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="109"/>
+      <c r="A174" s="71"/>
       <c r="B174" s="11">
         <v>41787</v>
       </c>
-      <c r="C174" s="72"/>
-      <c r="D174" s="72"/>
-      <c r="E174" s="72"/>
-      <c r="F174" s="72">
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="34"/>
+      <c r="F174" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G174" s="107"/>
-      <c r="H174" s="107"/>
-      <c r="I174" s="107"/>
-      <c r="J174" s="107"/>
-      <c r="K174" s="48"/>
-      <c r="L174" s="48"/>
-      <c r="M174" s="48"/>
-      <c r="N174" s="48"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
+      <c r="J174" s="58"/>
+      <c r="K174" s="13"/>
+      <c r="L174" s="13"/>
+      <c r="M174" s="13"/>
+      <c r="N174" s="13"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="109"/>
+      <c r="A175" s="71"/>
       <c r="B175" s="11">
         <v>41788</v>
       </c>
-      <c r="C175" s="72"/>
-      <c r="D175" s="72"/>
-      <c r="E175" s="72"/>
-      <c r="F175" s="72">
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G175" s="107"/>
-      <c r="H175" s="107"/>
-      <c r="I175" s="107"/>
-      <c r="J175" s="107"/>
-      <c r="K175" s="48"/>
-      <c r="L175" s="48"/>
-      <c r="M175" s="48"/>
-      <c r="N175" s="48"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="58"/>
+      <c r="J175" s="58"/>
+      <c r="K175" s="13"/>
+      <c r="L175" s="13"/>
+      <c r="M175" s="13"/>
+      <c r="N175" s="13"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="110"/>
+      <c r="A176" s="72"/>
       <c r="B176" s="11">
         <v>41789</v>
       </c>
-      <c r="C176" s="72"/>
-      <c r="D176" s="72"/>
-      <c r="E176" s="72"/>
-      <c r="F176" s="72">
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G176" s="107"/>
-      <c r="H176" s="107"/>
-      <c r="I176" s="107"/>
-      <c r="J176" s="107"/>
-      <c r="K176" s="48"/>
-      <c r="L176" s="48"/>
-      <c r="M176" s="48"/>
-      <c r="N176" s="48"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="58"/>
+      <c r="J176" s="58"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
+      <c r="M176" s="13"/>
+      <c r="N176" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B32:B33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="F45:F48"/>
@@ -5815,17 +5824,22 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F29:F31"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A72:A76"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A10:A18"/>
@@ -5834,26 +5848,23 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="K6:N6"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A87:A91"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A34:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A77:A81"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="A167:A171"/>
     <mergeCell ref="A172:A176"/>
     <mergeCell ref="A132:A136"/>
@@ -5868,7 +5879,6 @@
     <mergeCell ref="A117:A121"/>
     <mergeCell ref="A122:A126"/>
     <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A19:A33"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="14" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>Week</t>
   </si>
@@ -163,19 +163,10 @@
     <t>Time for doing week 20</t>
   </si>
   <si>
-    <t>Time for doing week 21</t>
-  </si>
-  <si>
-    <t>Time for doing week 22</t>
-  </si>
-  <si>
     <t>Time for doing week 23</t>
   </si>
   <si>
     <t>Time for doing week 24</t>
-  </si>
-  <si>
-    <t>Time for doing week 25</t>
   </si>
   <si>
     <t>Time for doing week 26</t>
@@ -445,6 +436,50 @@
   </si>
   <si>
     <t>2:30PM</t>
+  </si>
+  <si>
+    <t>9:10AM</t>
+  </si>
+  <si>
+    <t>10:40AM</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Review List risk, measurement plan
+ - Review master plan, master design plan
+ - Review project plan
+ - Review sprint backlog template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Devide team work
+ - Update entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update timelog for team</t>
+  </si>
+  <si>
+    <t>6:-00PM</t>
+  </si>
+  <si>
+    <t>- Collection and update driver specification document
+   + Usecase diagram
+   + Quality Attribute
+- Pioritize risk
+- Update requirement plan - schedule</t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>Training spring core
++ MySQL
++ Insert/Update/Delete</t>
+  </si>
+  <si>
+    <t>Update 
+ + Use case "Danh muc"</t>
   </si>
 </sst>
 </file>
@@ -454,25 +489,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -485,7 +520,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -526,6 +561,18 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -735,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -896,24 +943,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,6 +997,87 @@
     <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,30 +1105,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,63 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,13 +1444,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1398,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1406,7 +1474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1414,7 +1482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1422,7 +1490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1430,7 +1498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1438,7 +1506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1446,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1454,7 +1522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1462,7 +1530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1470,7 +1538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1485,116 +1553,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="100" t="s">
+      <c r="A2" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="A3" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -1619,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>5</v>
@@ -1633,13 +1701,13 @@
       <c r="J6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="104">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1662,16 +1730,16 @@
         <v>10</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="113"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="21">
-        <f>SUM(M8:M59)</f>
+        <f>SUM(M8:M61)</f>
         <v>68.38</v>
       </c>
       <c r="N7" s="22" t="s">
@@ -1679,8 +1747,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="73">
+      <c r="A8" s="105"/>
+      <c r="B8" s="80">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1692,7 +1760,7 @@
       <c r="E8" s="17">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="84">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1700,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="27"/>
@@ -1717,8 +1785,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
@@ -1728,12 +1796,12 @@
       <c r="E9" s="17">
         <v>0.5</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="27"/>
@@ -1743,10 +1811,10 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="82">
         <v>2</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="86">
         <v>41589</v>
       </c>
       <c r="C10" s="28">
@@ -1766,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="58"/>
@@ -1784,8 +1852,8 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="28">
         <v>0.91666666666666663</v>
       </c>
@@ -1803,10 +1871,10 @@
         <v>30</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11" s="58"/>
       <c r="K11" s="24"/>
@@ -1816,7 +1884,7 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
@@ -1837,10 +1905,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="24"/>
@@ -1850,8 +1918,8 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="88">
+      <c r="A13" s="83"/>
+      <c r="B13" s="86">
         <v>41591</v>
       </c>
       <c r="C13" s="39">
@@ -1863,7 +1931,7 @@
       <c r="E13" s="40">
         <v>2</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="88">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1871,10 +1939,10 @@
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J13" s="58"/>
       <c r="K13" s="24"/>
@@ -1883,8 +1951,8 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="39">
         <v>0.91666666666666663</v>
       </c>
@@ -1894,15 +1962,15 @@
       <c r="E14" s="40">
         <v>1</v>
       </c>
-      <c r="F14" s="91"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="30" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="24" t="s">
@@ -1918,8 +1986,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="88">
+      <c r="A15" s="83"/>
+      <c r="B15" s="86">
         <v>41592</v>
       </c>
       <c r="C15" s="39">
@@ -1931,7 +1999,7 @@
       <c r="E15" s="40">
         <v>1</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="88">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -1939,10 +2007,10 @@
         <v>24</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J15" s="58"/>
       <c r="K15" s="24" t="s">
@@ -1958,8 +2026,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="39">
         <v>0.375</v>
       </c>
@@ -1969,15 +2037,15 @@
       <c r="E16" s="40">
         <v>1.25</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="24"/>
@@ -1986,8 +2054,8 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="88">
+      <c r="A17" s="83"/>
+      <c r="B17" s="86">
         <v>41593</v>
       </c>
       <c r="C17" s="39">
@@ -1999,7 +2067,7 @@
       <c r="E17" s="40">
         <v>1</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="88">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -2015,8 +2083,8 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="39">
         <v>0.83333333333333337</v>
       </c>
@@ -2026,15 +2094,15 @@
       <c r="E18" s="40">
         <v>1</v>
       </c>
-      <c r="F18" s="91"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="42" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="58"/>
       <c r="K18" s="24" t="s">
@@ -2050,10 +2118,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="A19" s="76">
         <v>3</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="80">
         <v>41596</v>
       </c>
       <c r="C19" s="45">
@@ -2065,7 +2133,7 @@
       <c r="E19" s="60">
         <v>1</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="84">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -2073,10 +2141,10 @@
         <v>24</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="24" t="s">
@@ -2084,7 +2152,7 @@
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="41">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N19" s="22" t="s">
@@ -2092,8 +2160,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="45">
         <v>0.83333333333333337</v>
       </c>
@@ -2103,12 +2171,12 @@
       <c r="E20" s="60">
         <v>2</v>
       </c>
-      <c r="F20" s="87"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="27" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -2118,8 +2186,8 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="73">
+      <c r="A21" s="71"/>
+      <c r="B21" s="80">
         <v>41597</v>
       </c>
       <c r="C21" s="45">
@@ -2131,7 +2199,7 @@
       <c r="E21" s="60">
         <v>1</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="84">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2146,7 +2214,7 @@
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="41">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N21" s="22" t="s">
@@ -2154,8 +2222,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="45">
         <v>0.875</v>
       </c>
@@ -2165,15 +2233,15 @@
       <c r="E22" s="60">
         <v>1.5</v>
       </c>
-      <c r="F22" s="87"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
@@ -2182,7 +2250,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="10">
         <v>41598</v>
       </c>
@@ -2203,7 +2271,7 @@
         <v>26</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2212,7 +2280,7 @@
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="41">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N23" s="22" t="s">
@@ -2220,8 +2288,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="73">
+      <c r="A24" s="71"/>
+      <c r="B24" s="80">
         <v>41599</v>
       </c>
       <c r="C24" s="45">
@@ -2233,7 +2301,7 @@
       <c r="E24" s="60">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="84">
         <f>SUM(E24:E28)</f>
         <v>7.65</v>
       </c>
@@ -2241,7 +2309,7 @@
         <v>25</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
@@ -2250,7 +2318,7 @@
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="41">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N24" s="22" t="s">
@@ -2258,8 +2326,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="45">
         <v>0.4236111111111111</v>
       </c>
@@ -2269,7 +2337,7 @@
       <c r="E25" s="60">
         <v>1.33</v>
       </c>
-      <c r="F25" s="96"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="27" t="s">
         <v>21</v>
       </c>
@@ -2282,8 +2350,8 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="45">
         <v>0.5625</v>
       </c>
@@ -2293,12 +2361,12 @@
       <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -2308,8 +2376,8 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="95"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="45">
         <v>0.625</v>
       </c>
@@ -2319,12 +2387,12 @@
       <c r="E27" s="60">
         <v>2.16</v>
       </c>
-      <c r="F27" s="96"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -2334,8 +2402,8 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="45">
         <v>0.875</v>
       </c>
@@ -2345,12 +2413,12 @@
       <c r="E28" s="60">
         <v>2</v>
       </c>
-      <c r="F28" s="87"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
@@ -2360,8 +2428,8 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="73">
+      <c r="A29" s="71"/>
+      <c r="B29" s="80">
         <v>41600</v>
       </c>
       <c r="C29" s="45">
@@ -2373,7 +2441,7 @@
       <c r="E29" s="60">
         <v>1.25</v>
       </c>
-      <c r="F29" s="86">
+      <c r="F29" s="84">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
@@ -2381,7 +2449,7 @@
         <v>21</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
@@ -2390,7 +2458,7 @@
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="41">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N29" s="22" t="s">
@@ -2398,8 +2466,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="95"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="45">
         <v>0.64583333333333337</v>
       </c>
@@ -2409,12 +2477,12 @@
       <c r="E30" s="60">
         <v>1</v>
       </c>
-      <c r="F30" s="96"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
@@ -2424,8 +2492,8 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="45">
         <v>0.83333333333333337</v>
       </c>
@@ -2435,12 +2503,12 @@
       <c r="E31" s="60">
         <v>3</v>
       </c>
-      <c r="F31" s="87"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
@@ -2450,8 +2518,8 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="73">
+      <c r="A32" s="71"/>
+      <c r="B32" s="80">
         <v>41601</v>
       </c>
       <c r="C32" s="45">
@@ -2463,7 +2531,7 @@
       <c r="E32" s="60">
         <v>0.25</v>
       </c>
-      <c r="F32" s="86">
+      <c r="F32" s="84">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
@@ -2471,7 +2539,7 @@
         <v>21</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
@@ -2481,8 +2549,8 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="74"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="45">
         <v>0.57291666666666663</v>
       </c>
@@ -2492,15 +2560,15 @@
       <c r="E33" s="60">
         <v>1</v>
       </c>
-      <c r="F33" s="96"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I33" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
@@ -2509,17 +2577,17 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+      <c r="A34" s="75">
         <v>4</v>
       </c>
       <c r="B34" s="11">
         <v>41603</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E34" s="40">
         <v>1</v>
@@ -2532,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
@@ -2541,7 +2609,7 @@
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="41">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N34" s="22" t="s">
@@ -2549,20 +2617,20 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="88">
+      <c r="A35" s="73"/>
+      <c r="B35" s="86">
         <v>41604</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E35" s="40">
         <v>1</v>
       </c>
-      <c r="F35" s="114">
+      <c r="F35" s="121">
         <f>SUM(E35:E38)</f>
         <v>6.5</v>
       </c>
@@ -2570,7 +2638,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
@@ -2580,23 +2648,23 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E36" s="40">
         <v>2.5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="52" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
@@ -2606,23 +2674,23 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E37" s="40">
         <v>1</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="52" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
@@ -2632,23 +2700,23 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E38" s="62">
         <v>2</v>
       </c>
-      <c r="F38" s="69"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="52" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
@@ -2658,20 +2726,20 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="88">
+      <c r="A39" s="73"/>
+      <c r="B39" s="86">
         <v>41605</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E39" s="62">
         <v>2.33</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="75">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2679,7 +2747,7 @@
         <v>21</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
@@ -2688,7 +2756,7 @@
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="41">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N39" s="22" t="s">
@@ -2696,23 +2764,23 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="89"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E40" s="62">
         <v>1</v>
       </c>
-      <c r="F40" s="69"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="52" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
@@ -2721,7 +2789,7 @@
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="41">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N40" s="22" t="s">
@@ -2729,20 +2797,20 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="88">
+      <c r="A41" s="73"/>
+      <c r="B41" s="86">
         <v>41606</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E41" s="62">
         <v>1.33</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="75">
         <f>SUM(E41:E43)</f>
         <v>5.83</v>
       </c>
@@ -2750,7 +2818,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
@@ -2759,24 +2827,24 @@
       <c r="M41" s="41"/>
       <c r="N41" s="22"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="115"/>
+    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E42" s="62">
         <v>1.75</v>
       </c>
-      <c r="F42" s="68"/>
+      <c r="F42" s="73"/>
       <c r="G42" s="52" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
@@ -2785,24 +2853,24 @@
       <c r="M42" s="41"/>
       <c r="N42" s="22"/>
     </row>
-    <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="89"/>
+    <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E43" s="62">
         <v>2.75</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="52" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
@@ -2811,7 +2879,7 @@
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="41">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N43" s="22" t="s">
@@ -2819,12 +2887,12 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="11">
         <v>41607</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" s="56">
         <v>0.70833333333333337</v>
@@ -2833,7 +2901,7 @@
         <v>3.5</v>
       </c>
       <c r="F44" s="50">
-        <f t="shared" ref="F44:F68" si="0">E44</f>
+        <f t="shared" ref="F44:F70" si="0">E44</f>
         <v>3.5</v>
       </c>
       <c r="G44" s="52" t="s">
@@ -2847,7 +2915,7 @@
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="41">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N44" s="22" t="s">
@@ -2855,20 +2923,22 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="73">
+      <c r="A45" s="71">
+        <v>5</v>
+      </c>
+      <c r="B45" s="80">
         <v>41611</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E45" s="60">
         <v>1.5</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="76">
         <f>SUM(E45:E48)</f>
         <v>6.5</v>
       </c>
@@ -2876,7 +2946,7 @@
         <v>27</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -2885,7 +2955,7 @@
       </c>
       <c r="L45" s="14"/>
       <c r="M45" s="41">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N45" s="22" t="s">
@@ -2893,23 +2963,23 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="95"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E46" s="60">
         <v>0.5</v>
       </c>
-      <c r="F46" s="65"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
@@ -2919,23 +2989,23 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="95"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E47" s="60">
         <v>3.5</v>
       </c>
-      <c r="F47" s="65"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="27" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
@@ -2945,23 +3015,23 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E48" s="60">
         <v>1</v>
       </c>
-      <c r="F48" s="66"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H48" s="47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
@@ -2971,15 +3041,15 @@
       <c r="N48" s="22"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="10">
         <v>41612</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" s="60">
         <v>4.5</v>
@@ -2989,7 +3059,7 @@
         <v>4.5</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -2999,7 +3069,7 @@
       </c>
       <c r="L49" s="14"/>
       <c r="M49" s="41">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N49" s="22" t="s">
@@ -3007,197 +3077,220 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="10">
         <v>41613</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="C50" s="45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="60">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F50" s="70">
+        <f>SUM(E50:E53)</f>
+        <v>4.82</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>130</v>
+      </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="K50" s="24"/>
       <c r="L50" s="14"/>
-      <c r="M50" s="41">
-        <f>SUM(E127:E131)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="22"/>
+    </row>
+    <row r="51" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="71"/>
       <c r="B51" s="10">
-        <v>41614</v>
-      </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+        <v>41613</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="71"/>
+      <c r="G51" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>128</v>
+      </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
-      <c r="K51" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="K51" s="24"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="41">
-        <f>SUM(E132:E136)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
+      <c r="M51" s="41"/>
+      <c r="N51" s="22"/>
+    </row>
+    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="71"/>
+      <c r="B52" s="10">
+        <v>41613</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="60">
+        <v>0.66</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="22"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="71"/>
+      <c r="B53" s="10">
+        <v>41613</v>
+      </c>
+      <c r="C53" s="45">
+        <v>0.6875</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="72"/>
+      <c r="G53" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="22"/>
+    </row>
+    <row r="54" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="73">
         <v>6</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B54" s="64">
         <v>41617</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="41">
-        <f>SUM(E137:E141)</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="11">
-        <v>41618</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="41">
-        <f>SUM(E142:E146)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="11">
-        <v>41619</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
+      <c r="C54" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="65">
+        <v>4.5</v>
+      </c>
+      <c r="F54" s="75">
+        <f>SUM(E54:E55)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G54" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="24" t="s">
-        <v>49</v>
-      </c>
+      <c r="K54" s="24"/>
       <c r="L54" s="14"/>
-      <c r="M54" s="41">
-        <f>SUM(E147:E151)</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="11">
-        <v>41620</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="22"/>
+    </row>
+    <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="64">
+        <v>41617</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="65">
+        <v>1</v>
+      </c>
+      <c r="F55" s="74"/>
+      <c r="G55" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>135</v>
+      </c>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="41">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="11">
-        <v>41621</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="41"/>
+    <row r="56" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="73"/>
+      <c r="B56" s="64">
+        <v>41618</v>
+      </c>
+      <c r="C56" s="68">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="65">
+        <v>2.5</v>
+      </c>
       <c r="F56" s="14">
-        <f>E56</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="69" t="s">
+        <v>134</v>
+      </c>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
       <c r="K56" s="24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="41">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N56" s="22" t="s">
@@ -3205,29 +3298,27 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="64">
-        <v>7</v>
-      </c>
-      <c r="B57" s="10">
-        <v>41624</v>
-      </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="57">
+      <c r="A57" s="73"/>
+      <c r="B57" s="11">
+        <v>41620</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="41">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E154:E158)</f>
         <v>0</v>
       </c>
       <c r="N57" s="22" t="s">
@@ -3235,27 +3326,27 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="10">
-        <v>41625</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="11">
+        <v>41621</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="14">
+        <f>E58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="41">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E159:E163)</f>
         <v>0</v>
       </c>
       <c r="N58" s="22" t="s">
@@ -3263,9 +3354,11 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
+      <c r="A59" s="76">
+        <v>7</v>
+      </c>
       <c r="B59" s="10">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="57"/>
@@ -3279,11 +3372,11 @@
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="41">
-        <f>SUM(E172:E176)</f>
+        <f>SUM(E164:E168)</f>
         <v>0</v>
       </c>
       <c r="N59" s="22" t="s">
@@ -3291,9 +3384,9 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="10">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C60" s="57"/>
       <c r="D60" s="57"/>
@@ -3306,15 +3399,22 @@
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
+      <c r="K60" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="14"/>
+      <c r="M60" s="41">
+        <f>SUM(E169:E173)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="10">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C61" s="57"/>
       <c r="D61" s="57"/>
@@ -3327,59 +3427,66 @@
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
+      <c r="K61" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="41">
+        <f>SUM(E174:E178)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
-        <v>8</v>
-      </c>
-      <c r="B62" s="11">
-        <v>41631</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="14">
+      <c r="A62" s="71"/>
+      <c r="B62" s="10">
+        <v>41627</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="11">
-        <v>41632</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="14">
+      <c r="A63" s="72"/>
+      <c r="B63" s="10">
+        <v>41628</v>
+      </c>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="75">
+        <v>8</v>
+      </c>
       <c r="B64" s="11">
-        <v>41633</v>
+        <v>41631</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -3398,9 +3505,9 @@
       <c r="N64" s="13"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="11">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -3419,9 +3526,9 @@
       <c r="N65" s="13"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="11">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3440,59 +3547,59 @@
       <c r="N66" s="13"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="64">
-        <v>9</v>
-      </c>
-      <c r="B67" s="10">
-        <v>41638</v>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="57">
+      <c r="A67" s="73"/>
+      <c r="B67" s="11">
+        <v>41634</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="10">
-        <v>41639</v>
-      </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="57">
+      <c r="A68" s="74"/>
+      <c r="B68" s="11">
+        <v>41635</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
+      <c r="A69" s="76">
+        <v>9</v>
+      </c>
       <c r="B69" s="10">
-        <v>41640</v>
+        <v>41638</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="57"/>
       <c r="E69" s="63"/>
       <c r="F69" s="57">
-        <f t="shared" ref="F69:F100" si="1">E69</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G69" s="27"/>
@@ -3505,15 +3612,15 @@
       <c r="N69" s="13"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="10">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C70" s="57"/>
       <c r="D70" s="57"/>
       <c r="E70" s="63"/>
       <c r="F70" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G70" s="27"/>
@@ -3526,15 +3633,15 @@
       <c r="N70" s="13"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="10">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C71" s="57"/>
       <c r="D71" s="57"/>
       <c r="E71" s="63"/>
       <c r="F71" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F71:F102" si="1">E71</f>
         <v>0</v>
       </c>
       <c r="G71" s="27"/>
@@ -3547,53 +3654,53 @@
       <c r="N71" s="13"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
-        <v>10</v>
-      </c>
-      <c r="B72" s="11">
-        <v>41645</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="14">
+      <c r="A72" s="71"/>
+      <c r="B72" s="10">
+        <v>41641</v>
+      </c>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="11">
-        <v>41646</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="14">
+      <c r="A73" s="72"/>
+      <c r="B73" s="10">
+        <v>41642</v>
+      </c>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
+      <c r="A74" s="75">
+        <v>10</v>
+      </c>
       <c r="B74" s="11">
-        <v>41647</v>
+        <v>41645</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -3612,9 +3719,9 @@
       <c r="N74" s="13"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="11">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -3633,9 +3740,9 @@
       <c r="N75" s="13"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="11">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -3654,53 +3761,53 @@
       <c r="N76" s="13"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="64">
-        <v>11</v>
-      </c>
-      <c r="B77" s="10">
-        <v>41652</v>
-      </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="57">
+      <c r="A77" s="73"/>
+      <c r="B77" s="11">
+        <v>41648</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="10">
-        <v>41653</v>
-      </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="57">
+      <c r="A78" s="74"/>
+      <c r="B78" s="11">
+        <v>41649</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
+      <c r="A79" s="76">
+        <v>11</v>
+      </c>
       <c r="B79" s="10">
-        <v>41654</v>
+        <v>41652</v>
       </c>
       <c r="C79" s="57"/>
       <c r="D79" s="57"/>
@@ -3719,9 +3826,9 @@
       <c r="N79" s="13"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="10">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C80" s="57"/>
       <c r="D80" s="57"/>
@@ -3740,9 +3847,9 @@
       <c r="N80" s="13"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="10">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C81" s="57"/>
       <c r="D81" s="57"/>
@@ -3761,53 +3868,53 @@
       <c r="N81" s="13"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
-        <v>12</v>
-      </c>
-      <c r="B82" s="11">
-        <v>41659</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="14">
+      <c r="A82" s="71"/>
+      <c r="B82" s="10">
+        <v>41655</v>
+      </c>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="11">
-        <v>41660</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="14">
+      <c r="A83" s="72"/>
+      <c r="B83" s="10">
+        <v>41656</v>
+      </c>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+      <c r="A84" s="75">
+        <v>12</v>
+      </c>
       <c r="B84" s="11">
-        <v>41661</v>
+        <v>41659</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -3826,9 +3933,9 @@
       <c r="N84" s="13"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="11">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -3847,9 +3954,9 @@
       <c r="N85" s="13"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="11">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -3868,57 +3975,53 @@
       <c r="N86" s="13"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="64">
-        <v>13</v>
-      </c>
-      <c r="B87" s="10">
-        <v>41666</v>
-      </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="57">
+      <c r="A87" s="73"/>
+      <c r="B87" s="11">
+        <v>41662</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="10">
-        <v>41667</v>
-      </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="57">
+      <c r="A88" s="74"/>
+      <c r="B88" s="11">
+        <v>41663</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
+      <c r="A89" s="76">
+        <v>13</v>
+      </c>
       <c r="B89" s="10">
-        <v>41668</v>
+        <v>41666</v>
       </c>
       <c r="C89" s="57"/>
       <c r="D89" s="57"/>
@@ -3939,9 +4042,9 @@
       <c r="N89" s="13"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="10">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C90" s="57"/>
       <c r="D90" s="57"/>
@@ -3962,9 +4065,9 @@
       <c r="N90" s="13"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
+      <c r="A91" s="71"/>
       <c r="B91" s="10">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C91" s="57"/>
       <c r="D91" s="57"/>
@@ -3985,57 +4088,57 @@
       <c r="N91" s="13"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
-        <v>14</v>
-      </c>
-      <c r="B92" s="11">
-        <v>41673</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="14">
+      <c r="A92" s="71"/>
+      <c r="B92" s="10">
+        <v>41669</v>
+      </c>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G92" s="58" t="s">
+      <c r="G92" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="11">
-        <v>41674</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="14">
+      <c r="A93" s="72"/>
+      <c r="B93" s="10">
+        <v>41670</v>
+      </c>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G93" s="58" t="s">
+      <c r="G93" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
+      <c r="A94" s="75">
+        <v>14</v>
+      </c>
       <c r="B94" s="11">
-        <v>41675</v>
+        <v>41673</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
@@ -4056,9 +4159,9 @@
       <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="11">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
@@ -4079,9 +4182,9 @@
       <c r="N95" s="13"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="11">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -4102,53 +4205,57 @@
       <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="64">
-        <v>15</v>
-      </c>
-      <c r="B97" s="10">
-        <v>41680</v>
-      </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="57">
+      <c r="A97" s="73"/>
+      <c r="B97" s="11">
+        <v>41676</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
+      <c r="G97" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="10">
-        <v>41681</v>
-      </c>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="57">
+      <c r="A98" s="74"/>
+      <c r="B98" s="11">
+        <v>41677</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
+      <c r="G98" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
+      <c r="A99" s="76">
+        <v>15</v>
+      </c>
       <c r="B99" s="10">
-        <v>41682</v>
+        <v>41680</v>
       </c>
       <c r="C99" s="57"/>
       <c r="D99" s="57"/>
@@ -4167,9 +4274,9 @@
       <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="65"/>
+      <c r="A100" s="71"/>
       <c r="B100" s="10">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C100" s="57"/>
       <c r="D100" s="57"/>
@@ -4188,15 +4295,15 @@
       <c r="N100" s="13"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="10">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C101" s="57"/>
       <c r="D101" s="57"/>
       <c r="E101" s="63"/>
       <c r="F101" s="57">
-        <f t="shared" ref="F101:F132" si="2">E101</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G101" s="27"/>
@@ -4209,53 +4316,53 @@
       <c r="N101" s="13"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
-        <v>16</v>
-      </c>
-      <c r="B102" s="11">
-        <v>41687</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
+      <c r="A102" s="71"/>
+      <c r="B102" s="10">
+        <v>41683</v>
+      </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
-      <c r="B103" s="11">
-        <v>41688</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="10">
+        <v>41684</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="57">
+        <f t="shared" ref="F103:F134" si="2">E103</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
+      <c r="A104" s="75">
+        <v>16</v>
+      </c>
       <c r="B104" s="11">
-        <v>41689</v>
+        <v>41687</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -4274,9 +4381,9 @@
       <c r="N104" s="13"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="11">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
@@ -4295,9 +4402,9 @@
       <c r="N105" s="13"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="11">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
@@ -4316,53 +4423,53 @@
       <c r="N106" s="13"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="64">
-        <v>17</v>
-      </c>
-      <c r="B107" s="10">
-        <v>41694</v>
-      </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="57">
+      <c r="A107" s="73"/>
+      <c r="B107" s="11">
+        <v>41690</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
-      <c r="B108" s="10">
-        <v>41695</v>
-      </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="57">
+      <c r="A108" s="74"/>
+      <c r="B108" s="11">
+        <v>41691</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
+      <c r="A109" s="76">
+        <v>17</v>
+      </c>
       <c r="B109" s="10">
-        <v>41696</v>
+        <v>41694</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4381,9 +4488,9 @@
       <c r="N109" s="13"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="10">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4402,9 +4509,9 @@
       <c r="N110" s="13"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="71"/>
       <c r="B111" s="10">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
@@ -4423,53 +4530,53 @@
       <c r="N111" s="13"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
-        <v>18</v>
-      </c>
-      <c r="B112" s="11">
-        <v>41701</v>
-      </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="14">
+      <c r="A112" s="71"/>
+      <c r="B112" s="10">
+        <v>41697</v>
+      </c>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
-      <c r="B113" s="11">
-        <v>41702</v>
-      </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="14">
+      <c r="A113" s="72"/>
+      <c r="B113" s="10">
+        <v>41698</v>
+      </c>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
+      <c r="A114" s="75">
+        <v>18</v>
+      </c>
       <c r="B114" s="11">
-        <v>41703</v>
+        <v>41701</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
@@ -4488,9 +4595,9 @@
       <c r="N114" s="13"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="11">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -4509,9 +4616,9 @@
       <c r="N115" s="13"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="11">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
@@ -4530,53 +4637,53 @@
       <c r="N116" s="13"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="64">
-        <v>19</v>
-      </c>
-      <c r="B117" s="10">
-        <v>41708</v>
-      </c>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="57">
+      <c r="A117" s="73"/>
+      <c r="B117" s="11">
+        <v>41704</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
+      <c r="I117" s="52"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="10">
-        <v>41709</v>
-      </c>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="57">
+      <c r="A118" s="74"/>
+      <c r="B118" s="11">
+        <v>41705</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
+      <c r="I118" s="52"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
+      <c r="A119" s="76">
+        <v>19</v>
+      </c>
       <c r="B119" s="10">
-        <v>41710</v>
+        <v>41708</v>
       </c>
       <c r="C119" s="57"/>
       <c r="D119" s="57"/>
@@ -4595,9 +4702,9 @@
       <c r="N119" s="13"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="10">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C120" s="57"/>
       <c r="D120" s="57"/>
@@ -4616,9 +4723,9 @@
       <c r="N120" s="13"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="10">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C121" s="57"/>
       <c r="D121" s="57"/>
@@ -4637,53 +4744,53 @@
       <c r="N121" s="13"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
-        <v>20</v>
-      </c>
-      <c r="B122" s="11">
-        <v>41715</v>
-      </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="14">
+      <c r="A122" s="71"/>
+      <c r="B122" s="10">
+        <v>41711</v>
+      </c>
+      <c r="C122" s="57"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="52"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
-      <c r="B123" s="11">
-        <v>41716</v>
-      </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="14">
+      <c r="A123" s="72"/>
+      <c r="B123" s="10">
+        <v>41712</v>
+      </c>
+      <c r="C123" s="57"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
+      <c r="A124" s="75">
+        <v>20</v>
+      </c>
       <c r="B124" s="11">
-        <v>41717</v>
+        <v>41715</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
@@ -4702,9 +4809,9 @@
       <c r="N124" s="13"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="11">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
@@ -4723,9 +4830,9 @@
       <c r="N125" s="13"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="11">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
@@ -4744,53 +4851,53 @@
       <c r="N126" s="13"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="64">
-        <v>21</v>
-      </c>
-      <c r="B127" s="10">
-        <v>41722</v>
-      </c>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="63"/>
-      <c r="F127" s="57">
+      <c r="A127" s="73"/>
+      <c r="B127" s="11">
+        <v>41718</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="13"/>
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="65"/>
-      <c r="B128" s="10">
-        <v>41723</v>
-      </c>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="57">
+      <c r="A128" s="74"/>
+      <c r="B128" s="11">
+        <v>41719</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="52"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="13"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
+      <c r="A129" s="76">
+        <v>21</v>
+      </c>
       <c r="B129" s="10">
-        <v>41724</v>
+        <v>41722</v>
       </c>
       <c r="C129" s="57"/>
       <c r="D129" s="57"/>
@@ -4809,9 +4916,9 @@
       <c r="N129" s="13"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="10">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C130" s="57"/>
       <c r="D130" s="57"/>
@@ -4830,9 +4937,9 @@
       <c r="N130" s="13"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="10">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C131" s="57"/>
       <c r="D131" s="57"/>
@@ -4851,59 +4958,59 @@
       <c r="N131" s="13"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
-        <v>22</v>
-      </c>
-      <c r="B132" s="11">
-        <v>41729</v>
-      </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="14">
+      <c r="A132" s="71"/>
+      <c r="B132" s="10">
+        <v>41725</v>
+      </c>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="52"/>
-      <c r="J132" s="52"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
-      <c r="B133" s="11">
-        <v>41730</v>
-      </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="14">
-        <f t="shared" ref="F133:F164" si="3">E133</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="52"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
-      <c r="J133" s="52"/>
+      <c r="A133" s="72"/>
+      <c r="B133" s="10">
+        <v>41726</v>
+      </c>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
+      <c r="A134" s="75">
+        <v>22</v>
+      </c>
       <c r="B134" s="11">
-        <v>41731</v>
+        <v>41729</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
       <c r="E134" s="41"/>
       <c r="F134" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G134" s="52"/>
@@ -4916,15 +5023,15 @@
       <c r="N134" s="13"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="11">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
       <c r="E135" s="41"/>
       <c r="F135" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F135:F166" si="3">E135</f>
         <v>0</v>
       </c>
       <c r="G135" s="52"/>
@@ -4937,9 +5044,9 @@
       <c r="N135" s="13"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="69"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="11">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -4958,53 +5065,53 @@
       <c r="N136" s="13"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="64">
-        <v>23</v>
-      </c>
-      <c r="B137" s="10">
-        <v>41736</v>
-      </c>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="57">
+      <c r="A137" s="73"/>
+      <c r="B137" s="11">
+        <v>41732</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
+      <c r="I137" s="52"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="65"/>
-      <c r="B138" s="10">
-        <v>41737</v>
-      </c>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="63"/>
-      <c r="F138" s="57">
+      <c r="A138" s="74"/>
+      <c r="B138" s="11">
+        <v>41733</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="52"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="65"/>
+      <c r="A139" s="76">
+        <v>23</v>
+      </c>
       <c r="B139" s="10">
-        <v>41738</v>
+        <v>41736</v>
       </c>
       <c r="C139" s="57"/>
       <c r="D139" s="57"/>
@@ -5023,9 +5130,9 @@
       <c r="N139" s="13"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="65"/>
+      <c r="A140" s="71"/>
       <c r="B140" s="10">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C140" s="57"/>
       <c r="D140" s="57"/>
@@ -5044,9 +5151,9 @@
       <c r="N140" s="13"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="66"/>
+      <c r="A141" s="71"/>
       <c r="B141" s="10">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C141" s="57"/>
       <c r="D141" s="57"/>
@@ -5065,53 +5172,53 @@
       <c r="N141" s="13"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="67">
-        <v>24</v>
-      </c>
-      <c r="B142" s="11">
-        <v>41743</v>
-      </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="14">
+      <c r="A142" s="71"/>
+      <c r="B142" s="10">
+        <v>41739</v>
+      </c>
+      <c r="C142" s="57"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="52"/>
-      <c r="J142" s="52"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="11">
-        <v>41744</v>
-      </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="14">
+      <c r="A143" s="72"/>
+      <c r="B143" s="10">
+        <v>41740</v>
+      </c>
+      <c r="C143" s="57"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="52"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
       <c r="K143" s="13"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
+      <c r="A144" s="75">
+        <v>24</v>
+      </c>
       <c r="B144" s="11">
-        <v>41745</v>
+        <v>41743</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
@@ -5130,9 +5237,9 @@
       <c r="N144" s="13"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
+      <c r="A145" s="73"/>
       <c r="B145" s="11">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
@@ -5151,9 +5258,9 @@
       <c r="N145" s="13"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
+      <c r="A146" s="73"/>
       <c r="B146" s="11">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -5172,53 +5279,53 @@
       <c r="N146" s="13"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="64">
-        <v>25</v>
-      </c>
-      <c r="B147" s="10">
-        <v>41750</v>
-      </c>
-      <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="57">
+      <c r="A147" s="73"/>
+      <c r="B147" s="11">
+        <v>41746</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="65"/>
-      <c r="B148" s="10">
-        <v>41751</v>
-      </c>
-      <c r="C148" s="57"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="57">
+      <c r="A148" s="74"/>
+      <c r="B148" s="11">
+        <v>41747</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="52"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="65"/>
+      <c r="A149" s="76">
+        <v>25</v>
+      </c>
       <c r="B149" s="10">
-        <v>41752</v>
+        <v>41750</v>
       </c>
       <c r="C149" s="57"/>
       <c r="D149" s="57"/>
@@ -5237,9 +5344,9 @@
       <c r="N149" s="13"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="65"/>
+      <c r="A150" s="71"/>
       <c r="B150" s="10">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C150" s="57"/>
       <c r="D150" s="57"/>
@@ -5258,9 +5365,9 @@
       <c r="N150" s="13"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="66"/>
+      <c r="A151" s="71"/>
       <c r="B151" s="10">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C151" s="57"/>
       <c r="D151" s="57"/>
@@ -5279,53 +5386,53 @@
       <c r="N151" s="13"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="67">
-        <v>26</v>
-      </c>
-      <c r="B152" s="11">
-        <v>41757</v>
-      </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="41"/>
-      <c r="F152" s="14">
+      <c r="A152" s="71"/>
+      <c r="B152" s="10">
+        <v>41753</v>
+      </c>
+      <c r="C152" s="57"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="52"/>
-      <c r="H152" s="52"/>
-      <c r="I152" s="52"/>
-      <c r="J152" s="52"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="68"/>
-      <c r="B153" s="11">
-        <v>41758</v>
-      </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="14">
+      <c r="A153" s="72"/>
+      <c r="B153" s="10">
+        <v>41754</v>
+      </c>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
+      <c r="A154" s="75">
+        <v>26</v>
+      </c>
       <c r="B154" s="11">
-        <v>41759</v>
+        <v>41757</v>
       </c>
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
@@ -5344,9 +5451,9 @@
       <c r="N154" s="13"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="11">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
@@ -5365,9 +5472,9 @@
       <c r="N155" s="13"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="69"/>
+      <c r="A156" s="73"/>
       <c r="B156" s="11">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
@@ -5386,53 +5493,53 @@
       <c r="N156" s="13"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="64">
-        <v>27</v>
-      </c>
-      <c r="B157" s="10">
-        <v>41764</v>
-      </c>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="57">
+      <c r="A157" s="73"/>
+      <c r="B157" s="11">
+        <v>41760</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="52"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="65"/>
-      <c r="B158" s="10">
-        <v>41765</v>
-      </c>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="57">
+      <c r="A158" s="74"/>
+      <c r="B158" s="11">
+        <v>41761</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="65"/>
+      <c r="A159" s="76">
+        <v>27</v>
+      </c>
       <c r="B159" s="10">
-        <v>41766</v>
+        <v>41764</v>
       </c>
       <c r="C159" s="57"/>
       <c r="D159" s="57"/>
@@ -5451,9 +5558,9 @@
       <c r="N159" s="13"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="65"/>
+      <c r="A160" s="71"/>
       <c r="B160" s="10">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C160" s="57"/>
       <c r="D160" s="57"/>
@@ -5472,9 +5579,9 @@
       <c r="N160" s="13"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="66"/>
+      <c r="A161" s="71"/>
       <c r="B161" s="10">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C161" s="57"/>
       <c r="D161" s="57"/>
@@ -5493,53 +5600,53 @@
       <c r="N161" s="13"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="67">
-        <v>28</v>
-      </c>
-      <c r="B162" s="11">
-        <v>41771</v>
-      </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="14">
+      <c r="A162" s="71"/>
+      <c r="B162" s="10">
+        <v>41767</v>
+      </c>
+      <c r="C162" s="57"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="63"/>
+      <c r="F162" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G162" s="52"/>
-      <c r="H162" s="52"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="52"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="68"/>
-      <c r="B163" s="11">
-        <v>41772</v>
-      </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="14">
+      <c r="A163" s="72"/>
+      <c r="B163" s="10">
+        <v>41768</v>
+      </c>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G163" s="52"/>
-      <c r="H163" s="52"/>
-      <c r="I163" s="52"/>
-      <c r="J163" s="52"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
+      <c r="A164" s="75">
+        <v>28</v>
+      </c>
       <c r="B164" s="11">
-        <v>41773</v>
+        <v>41771</v>
       </c>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
@@ -5558,15 +5665,15 @@
       <c r="N164" s="13"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
+      <c r="A165" s="73"/>
       <c r="B165" s="11">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="41"/>
       <c r="F165" s="14">
-        <f t="shared" ref="F165:F176" si="4">E165</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G165" s="52"/>
@@ -5579,15 +5686,15 @@
       <c r="N165" s="13"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="69"/>
+      <c r="A166" s="73"/>
       <c r="B166" s="11">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="41"/>
       <c r="F166" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G166" s="52"/>
@@ -5600,53 +5707,53 @@
       <c r="N166" s="13"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="64">
-        <v>29</v>
-      </c>
-      <c r="B167" s="10">
-        <v>41778</v>
-      </c>
-      <c r="C167" s="57"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="63"/>
-      <c r="F167" s="57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
+      <c r="A167" s="73"/>
+      <c r="B167" s="11">
+        <v>41774</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="41"/>
+      <c r="F167" s="14">
+        <f t="shared" ref="F167:F178" si="4">E167</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="52"/>
+      <c r="H167" s="52"/>
+      <c r="I167" s="52"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
       <c r="N167" s="13"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="65"/>
-      <c r="B168" s="10">
-        <v>41779</v>
-      </c>
-      <c r="C168" s="57"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="63"/>
-      <c r="F168" s="57">
+      <c r="A168" s="74"/>
+      <c r="B168" s="11">
+        <v>41775</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="52"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="65"/>
+      <c r="A169" s="76">
+        <v>29</v>
+      </c>
       <c r="B169" s="10">
-        <v>41780</v>
+        <v>41778</v>
       </c>
       <c r="C169" s="57"/>
       <c r="D169" s="57"/>
@@ -5665,9 +5772,9 @@
       <c r="N169" s="13"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="65"/>
+      <c r="A170" s="71"/>
       <c r="B170" s="10">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C170" s="57"/>
       <c r="D170" s="57"/>
@@ -5686,9 +5793,9 @@
       <c r="N170" s="13"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="66"/>
+      <c r="A171" s="71"/>
       <c r="B171" s="10">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C171" s="57"/>
       <c r="D171" s="57"/>
@@ -5707,53 +5814,53 @@
       <c r="N171" s="13"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="70">
-        <v>30</v>
-      </c>
-      <c r="B172" s="11">
-        <v>41785</v>
-      </c>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="33">
+      <c r="A172" s="71"/>
+      <c r="B172" s="10">
+        <v>41781</v>
+      </c>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27"/>
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
       <c r="N172" s="13"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="71"/>
-      <c r="B173" s="11">
-        <v>41786</v>
-      </c>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="33">
+      <c r="A173" s="72"/>
+      <c r="B173" s="10">
+        <v>41782</v>
+      </c>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G173" s="58"/>
-      <c r="H173" s="58"/>
-      <c r="I173" s="58"/>
-      <c r="J173" s="58"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
       <c r="K173" s="13"/>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
       <c r="N173" s="13"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="71"/>
+      <c r="A174" s="77">
+        <v>30</v>
+      </c>
       <c r="B174" s="11">
-        <v>41787</v>
+        <v>41785</v>
       </c>
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
@@ -5772,9 +5879,9 @@
       <c r="N174" s="13"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="71"/>
+      <c r="A175" s="78"/>
       <c r="B175" s="11">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C175" s="33"/>
       <c r="D175" s="33"/>
@@ -5793,9 +5900,9 @@
       <c r="N175" s="13"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="72"/>
+      <c r="A176" s="78"/>
       <c r="B176" s="11">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
@@ -5813,8 +5920,50 @@
       <c r="M176" s="13"/>
       <c r="N176" s="13"/>
     </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="78"/>
+      <c r="B177" s="11">
+        <v>41788</v>
+      </c>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="34"/>
+      <c r="F177" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="79"/>
+      <c r="B178" s="11">
+        <v>41789</v>
+      </c>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="13"/>
+      <c r="M178" s="13"/>
+      <c r="N178" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="66">
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="F45:F48"/>
@@ -5829,6 +5978,9 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F15:F16"/>
@@ -5840,57 +5992,56 @@
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A5:E5"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A79:A83"/>
     <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -5904,7 +6055,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="51" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5923,7 +6074,7 @@
           <xm:sqref>M10:M12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="50" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5942,7 +6093,7 @@
           <xm:sqref>M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="49" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5961,7 +6112,7 @@
           <xm:sqref>M15:M17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="48" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5980,7 +6131,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="45" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5999,7 +6150,7 @@
           <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="44" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6018,7 +6169,7 @@
           <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="43" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6037,7 +6188,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="42" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6056,7 +6207,7 @@
           <xm:sqref>M24:M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="41" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6075,7 +6226,7 @@
           <xm:sqref>M29:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="40" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6094,7 +6245,7 @@
           <xm:sqref>M34:M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="39" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6113,7 +6264,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="38" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6132,7 +6283,7 @@
           <xm:sqref>M40:M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="37" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6151,7 +6302,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="36" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6170,7 +6321,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="33" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6186,105 +6337,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M49</xm:sqref>
+          <xm:sqref>M49:M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="30" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6303,7 +6359,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="29" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6322,7 +6378,7 @@
           <xm:sqref>M56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="27" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6341,7 +6397,7 @@
           <xm:sqref>M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="26" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6360,7 +6416,7 @@
           <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="25" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6379,7 +6435,45 @@
           <xm:sqref>M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="24" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6398,7 +6492,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
+          <x14:cfRule type="iconSet" priority="14" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6417,7 +6511,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{207F404F-5724-411F-826F-330204927AC3}">
+          <x14:cfRule type="iconSet" priority="9" id="{207F404F-5724-411F-826F-330204927AC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6436,7 +6530,7 @@
           <xm:sqref>F19 F21 F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
+          <x14:cfRule type="iconSet" priority="8" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6455,7 +6549,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
+          <x14:cfRule type="iconSet" priority="7" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6474,7 +6568,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
+          <x14:cfRule type="iconSet" priority="6" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6493,7 +6587,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
+          <x14:cfRule type="iconSet" priority="5" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6512,7 +6606,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
+          <x14:cfRule type="iconSet" priority="4" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6531,7 +6625,7 @@
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
+          <x14:cfRule type="iconSet" priority="3" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6550,7 +6644,7 @@
           <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="53" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6569,26 +6663,7 @@
           <xm:sqref>M45:M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F49:F176 F7:F8 F15 F13 F10:F11 F44:F46 F17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{AC159E3E-B0BA-401C-963A-83733E6BE004}">
+          <x14:cfRule type="iconSet" priority="2" id="{AC159E3E-B0BA-401C-963A-83733E6BE004}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6606,6 +6681,25 @@
           </x14:cfRule>
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="57" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F49:F50 F7:F8 F15 F13 F10:F11 F44:F46 F17 F56:F178 F54</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
   <si>
     <t>Week</t>
   </si>
@@ -489,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,18 +561,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -782,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -805,9 +793,6 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,9 +823,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -908,9 +890,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -943,182 +922,173 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,13 +1523,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O178"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1581,133 +1551,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="95" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="59" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="104">
+      <c r="A7" s="91">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1719,36 +1689,36 @@
       <c r="D7" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f>E7</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="108" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="108"/>
-      <c r="M7" s="21">
-        <f>SUM(M8:M61)</f>
+      <c r="L7" s="95"/>
+      <c r="M7" s="20">
+        <f>SUM(M8:M62)</f>
         <v>68.38</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="80">
+      <c r="A8" s="92"/>
+      <c r="B8" s="66">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1757,824 +1727,824 @@
       <c r="D8" s="8">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="64">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="24" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26">
+      <c r="L8" s="62"/>
+      <c r="M8" s="24">
         <f>SUM(E7:E9)</f>
         <v>2.82</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
       <c r="D9" s="8">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>0.5</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+      <c r="A10" s="111">
         <v>2</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="76">
         <v>41589</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>1.5</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <f>E10</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="24" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34">
+      <c r="L10" s="31"/>
+      <c r="M10" s="32">
         <f>SUM(E10:E18)</f>
         <v>12.5</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="28">
+      <c r="A11" s="112"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="26">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="27">
         <v>1.5</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <f>E11</f>
         <v>1.5</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="22"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>0.625</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <v>2.25</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <f>E12</f>
         <v>2.25</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="22"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="86">
+      <c r="A13" s="112"/>
+      <c r="B13" s="76">
         <v>41591</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>0.5625</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="109">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="22"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="39">
+      <c r="A14" s="112"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="37">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="110"/>
+      <c r="G14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="24" t="s">
+      <c r="J14" s="55"/>
+      <c r="K14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="41">
+      <c r="L14" s="13"/>
+      <c r="M14" s="39">
         <f>SUM(E19:E31)</f>
         <v>21.9</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86">
+      <c r="A15" s="112"/>
+      <c r="B15" s="76">
         <v>41592</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>0.375</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="109">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="55"/>
+      <c r="K15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="41">
+      <c r="L15" s="13"/>
+      <c r="M15" s="39">
         <f>SUM(E34:E44)</f>
         <v>20.16</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="39">
+      <c r="A16" s="112"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="37">
         <v>0.375</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>1.25</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="43" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="22"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="86">
+      <c r="A17" s="112"/>
+      <c r="B17" s="76">
         <v>41593</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="109">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="22"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="39">
+      <c r="A18" s="112"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="37">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>0.875</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="110"/>
+      <c r="G18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="24" t="s">
+      <c r="J18" s="55"/>
+      <c r="K18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="41">
+      <c r="L18" s="13"/>
+      <c r="M18" s="39">
         <f>SUM(E45:E49)</f>
         <v>11</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+      <c r="A19" s="69">
         <v>3</v>
       </c>
-      <c r="B19" s="80">
+      <c r="B19" s="66">
         <v>41596</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="43">
         <v>0.625</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="43">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="57">
         <v>1</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="64">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="41">
-        <f>SUM(E64:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22" t="s">
+      <c r="L19" s="13"/>
+      <c r="M19" s="39">
+        <f>SUM(E65:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="45">
+      <c r="A20" s="70"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="57">
         <v>2</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="108"/>
+      <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="22"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="80">
+      <c r="A21" s="70"/>
+      <c r="B21" s="66">
         <v>41597</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="43">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="43">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="57">
         <v>1</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="64">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="24" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="41">
-        <f>SUM(E69:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="22" t="s">
+      <c r="L21" s="13"/>
+      <c r="M21" s="39">
+        <f>SUM(E70:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="45">
+      <c r="A22" s="70"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="43">
         <v>0.875</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <v>0.9375</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="57">
         <v>1.5</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="108"/>
+      <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="22"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="10">
         <v>41598</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="43">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="43">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="57">
         <v>3.5</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f>E23</f>
         <v>3.5</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="24" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="41">
-        <f>SUM(E74:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="22" t="s">
+      <c r="L23" s="13"/>
+      <c r="M23" s="39">
+        <f>SUM(E75:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="80">
+      <c r="A24" s="70"/>
+      <c r="B24" s="66">
         <v>41599</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="43">
         <v>0.375</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="43">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="64">
         <f>SUM(E24:E28)</f>
         <v>7.65</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="24" t="s">
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="41">
-        <f>SUM(E79:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="22" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="39">
+        <f>SUM(E80:E84)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="45">
+      <c r="A25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="43">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="57">
         <v>1.33</v>
       </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="22"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="45">
+      <c r="A26" s="70"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="43">
         <v>0.5625</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="43">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="57">
         <v>1</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="65"/>
+      <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="22"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="45">
+      <c r="A27" s="70"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="43">
         <v>0.625</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="43">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="57">
         <v>2.16</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="27" t="s">
+      <c r="F27" s="65"/>
+      <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="22"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="45">
+      <c r="A28" s="70"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="43">
         <v>0.875</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="57">
         <v>2</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="27" t="s">
+      <c r="F28" s="108"/>
+      <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="22"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="80">
+      <c r="A29" s="70"/>
+      <c r="B29" s="66">
         <v>41600</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="43">
         <v>0.5625</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="43">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="57">
         <v>1.25</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="64">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="24" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="41">
-        <f>SUM(E84:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="22" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="39">
+        <f>SUM(E85:E89)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="45">
+      <c r="A30" s="70"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="43">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <v>0.6875</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="57">
         <v>1</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="27" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="45">
+      <c r="A31" s="70"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="43">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="57">
         <v>3</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="108"/>
+      <c r="G31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="22"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="80">
+      <c r="A32" s="70"/>
+      <c r="B32" s="66">
         <v>41601</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="43">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="43">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="57">
         <v>0.25</v>
       </c>
-      <c r="F32" s="84">
+      <c r="F32" s="64">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="22"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="45">
+      <c r="A33" s="71"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="43">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="43">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="57">
         <v>1</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="27" t="s">
+      <c r="F33" s="65"/>
+      <c r="G33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="22"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
@@ -2583,306 +2553,306 @@
       <c r="B34" s="11">
         <v>41603</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="61">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="24" t="s">
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="41">
-        <f>SUM(E89:E93)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="22" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="39">
+        <f>SUM(E90:E94)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
-      <c r="B35" s="86">
+      <c r="B35" s="76">
         <v>41604</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="121">
+      <c r="F35" s="72">
         <f>SUM(E35:E38)</f>
         <v>6.5</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="22"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="50" t="s">
+      <c r="B36" s="77"/>
+      <c r="C36" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="38">
         <v>2.5</v>
       </c>
       <c r="F36" s="73"/>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="22"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="50" t="s">
+      <c r="B37" s="77"/>
+      <c r="C37" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="38">
         <v>1</v>
       </c>
       <c r="F37" s="73"/>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="22"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="73"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="50" t="s">
+      <c r="B38" s="78"/>
+      <c r="C38" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="59">
         <v>2</v>
       </c>
       <c r="F38" s="74"/>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="22"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="73"/>
-      <c r="B39" s="86">
+      <c r="B39" s="76">
         <v>41605</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="59">
         <v>2.33</v>
       </c>
       <c r="F39" s="75">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="24" t="s">
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="41">
-        <f>SUM(E94:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="22" t="s">
+      <c r="L39" s="13"/>
+      <c r="M39" s="39">
+        <f>SUM(E95:E99)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="73"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="50" t="s">
+      <c r="B40" s="78"/>
+      <c r="C40" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="59">
         <v>1</v>
       </c>
       <c r="F40" s="74"/>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="24" t="s">
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="41">
-        <f>SUM(E99:E103)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="22" t="s">
+      <c r="L40" s="13"/>
+      <c r="M40" s="39">
+        <f>SUM(E100:E104)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="73"/>
-      <c r="B41" s="86">
+      <c r="B41" s="76">
         <v>41606</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="59">
         <v>1.33</v>
       </c>
       <c r="F41" s="75">
         <f>SUM(E41:E43)</f>
         <v>5.83</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="22"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="73"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="50" t="s">
+      <c r="B42" s="77"/>
+      <c r="C42" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="59">
         <v>1.75</v>
       </c>
       <c r="F42" s="73"/>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="22"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="21"/>
     </row>
     <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="73"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="59">
         <v>2.75</v>
       </c>
       <c r="F43" s="74"/>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="24" t="s">
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="41">
-        <f>SUM(E104:E108)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="22" t="s">
+      <c r="L43" s="13"/>
+      <c r="M43" s="39">
+        <f>SUM(E105:E109)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2891,3096 +2861,3138 @@
       <c r="B44" s="11">
         <v>41607</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="53">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="59">
         <v>3.5</v>
       </c>
-      <c r="F44" s="50">
-        <f t="shared" ref="F44:F70" si="0">E44</f>
+      <c r="F44" s="48">
+        <f t="shared" ref="F44:F71" si="0">E44</f>
         <v>3.5</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="24" t="s">
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="41">
-        <f>SUM(E109:E113)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="22" t="s">
+      <c r="L44" s="13"/>
+      <c r="M44" s="39">
+        <f>SUM(E110:E114)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="70">
         <v>5</v>
       </c>
-      <c r="B45" s="80">
+      <c r="B45" s="66">
         <v>41611</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="57">
         <v>1.5</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="69">
         <f>SUM(E45:E48)</f>
         <v>6.5</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="24" t="s">
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="41">
-        <f>SUM(E119:E123)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="22" t="s">
+      <c r="L45" s="13"/>
+      <c r="M45" s="39">
+        <f>SUM(E120:E124)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="46" t="s">
+      <c r="A46" s="70"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="57">
         <v>0.5</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="27" t="s">
+      <c r="F46" s="70"/>
+      <c r="G46" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="22"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="46" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="57">
         <v>3.5</v>
       </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="27" t="s">
+      <c r="F47" s="70"/>
+      <c r="G47" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="22"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="46" t="s">
+      <c r="A48" s="70"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="57">
         <v>1</v>
       </c>
-      <c r="F48" s="72"/>
-      <c r="G48" s="27" t="s">
+      <c r="F48" s="71"/>
+      <c r="G48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="47" t="s">
+      <c r="H48" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="22"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="10">
         <v>41612</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="57">
         <v>4.5</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="44">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="24" t="s">
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="41">
-        <f>SUM(E124:E128)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="22" t="s">
+      <c r="L49" s="13"/>
+      <c r="M49" s="39">
+        <f>SUM(E125:E129)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="10">
         <v>41613</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F50" s="70">
+      <c r="F50" s="116">
         <f>SUM(E50:E53)</f>
         <v>4.82</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="H50" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="22"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="21"/>
     </row>
     <row r="51" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="10">
         <v>41613</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="57">
         <v>1.5</v>
       </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="27" t="s">
+      <c r="F51" s="70"/>
+      <c r="G51" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="22"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="21"/>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="10">
         <v>41613</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="57">
         <v>0.66</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="27" t="s">
+      <c r="F52" s="70"/>
+      <c r="G52" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="22"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="10">
         <v>41613</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="43">
         <v>0.6875</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="57">
         <v>1.5</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="27" t="s">
+      <c r="F53" s="71"/>
+      <c r="G53" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="22"/>
-    </row>
-    <row r="54" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="21"/>
+    </row>
+    <row r="54" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A54" s="73">
         <v>6</v>
       </c>
-      <c r="B54" s="64">
+      <c r="B54" s="11">
         <v>41617</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="48">
         <v>4.5</v>
       </c>
       <c r="F54" s="75">
         <f>SUM(E54:E55)</f>
         <v>5.5</v>
       </c>
-      <c r="G54" s="66" t="s">
+      <c r="G54" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="67" t="s">
+      <c r="H54" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="22"/>
-    </row>
-    <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="21"/>
+    </row>
+    <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="73"/>
-      <c r="B55" s="64">
+      <c r="B55" s="11">
         <v>41617</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="48">
         <v>1</v>
       </c>
       <c r="F55" s="74"/>
-      <c r="G55" s="66" t="s">
+      <c r="G55" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="67" t="s">
+      <c r="H55" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="24" t="s">
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="41">
-        <f>SUM(E139:E143)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="22" t="s">
+      <c r="L55" s="13"/>
+      <c r="M55" s="39">
+        <f>SUM(E140:E144)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="73"/>
-      <c r="B56" s="64">
+      <c r="B56" s="11">
         <v>41618</v>
       </c>
-      <c r="C56" s="68">
+      <c r="C56" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="48">
         <v>2.5</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="13">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="69" t="s">
+      <c r="H56" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="24" t="s">
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="41">
-        <f>SUM(E144:E148)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="22" t="s">
+      <c r="L56" s="13"/>
+      <c r="M56" s="39">
+        <f>SUM(E145:E149)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="73"/>
-      <c r="B57" s="11">
+      <c r="B57" s="76">
         <v>41620</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="14">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="75">
+        <f>E58</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="51"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="21"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="39">
+        <f>SUM(E155:E159)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="74"/>
+      <c r="B59" s="11">
+        <v>41621</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="13">
+        <f>E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="39">
+        <f>SUM(E160:E164)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="69">
+        <v>7</v>
+      </c>
+      <c r="B60" s="10">
+        <v>41624</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="41">
-        <f>SUM(E154:E158)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="22" t="s">
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L60" s="13"/>
+      <c r="M60" s="39">
+        <f>SUM(E165:E169)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
-      <c r="B58" s="11">
-        <v>41621</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="14">
-        <f>E58</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="41">
-        <f>SUM(E159:E163)</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="22" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
+      <c r="B61" s="10">
+        <v>41625</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="13"/>
+      <c r="M61" s="39">
+        <f>SUM(E170:E174)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="76">
-        <v>7</v>
-      </c>
-      <c r="B59" s="10">
-        <v>41624</v>
-      </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="57">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
+      <c r="B62" s="10">
+        <v>41626</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="41">
-        <f>SUM(E164:E168)</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="22" t="s">
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L62" s="13"/>
+      <c r="M62" s="39">
+        <f>SUM(E175:E179)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="10">
-        <v>41625</v>
-      </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="57">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
+      <c r="B63" s="10">
+        <v>41627</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="41">
-        <f>SUM(E169:E173)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="10">
-        <v>41626</v>
-      </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="57">
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="71"/>
+      <c r="B64" s="10">
+        <v>41628</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="41">
-        <f>SUM(E174:E178)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="10">
-        <v>41627</v>
-      </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="57">
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="75">
+        <v>8</v>
+      </c>
+      <c r="B65" s="11">
+        <v>41631</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="10">
-        <v>41628</v>
-      </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="75">
-        <v>8</v>
-      </c>
-      <c r="B64" s="11">
-        <v>41631</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="11">
-        <v>41632</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="73"/>
       <c r="B66" s="11">
-        <v>41633</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="14">
+        <v>41632</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="73"/>
       <c r="B67" s="11">
+        <v>41633</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="11">
         <v>41634</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="14">
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
-      <c r="B68" s="11">
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="74"/>
+      <c r="B69" s="11">
         <v>41635</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="14">
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="76">
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="69">
         <v>9</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B70" s="10">
         <v>41638</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="57">
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="10">
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
+      <c r="B71" s="10">
         <v>41639</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="57">
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="10">
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
+      <c r="B72" s="10">
         <v>41640</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="57">
-        <f t="shared" ref="F71:F102" si="1">E71</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="10">
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="54">
+        <f t="shared" ref="F72:F103" si="1">E72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
+      <c r="B73" s="10">
         <v>41641</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="57">
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="10">
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="71"/>
+      <c r="B74" s="10">
         <v>41642</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="57">
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="75">
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="75">
         <v>10</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B75" s="11">
         <v>41645</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="14">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="11">
-        <v>41646</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="73"/>
       <c r="B76" s="11">
-        <v>41647</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="14">
+        <v>41646</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="73"/>
       <c r="B77" s="11">
+        <v>41647</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="11">
         <v>41648</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="14">
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
-      <c r="B78" s="11">
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="74"/>
+      <c r="B79" s="11">
         <v>41649</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="14">
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="76">
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="69">
         <v>11</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B80" s="10">
         <v>41652</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="57">
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="10">
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="70"/>
+      <c r="B81" s="10">
         <v>41653</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="57">
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="10">
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
+      <c r="B82" s="10">
         <v>41654</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="57">
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="10">
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
+      <c r="B83" s="10">
         <v>41655</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="57">
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
-      <c r="B83" s="10">
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="71"/>
+      <c r="B84" s="10">
         <v>41656</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="57">
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="75">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="75">
         <v>12</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B85" s="11">
         <v>41659</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="14">
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
-      <c r="B85" s="11">
-        <v>41660</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="73"/>
       <c r="B86" s="11">
-        <v>41661</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="14">
+        <v>41660</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="73"/>
       <c r="B87" s="11">
+        <v>41661</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="11">
         <v>41662</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="14">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
-      <c r="B88" s="11">
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="74"/>
+      <c r="B89" s="11">
         <v>41663</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="14">
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="76">
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="69">
         <v>13</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B90" s="10">
         <v>41666</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="57">
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="27" t="s">
+      <c r="G90" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="10">
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
+      <c r="B91" s="10">
         <v>41667</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="57">
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G91" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="10">
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
+      <c r="B92" s="10">
         <v>41668</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="57">
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G92" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="10">
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
+      <c r="B93" s="10">
         <v>41669</v>
       </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="57">
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G93" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="72"/>
-      <c r="B93" s="10">
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="71"/>
+      <c r="B94" s="10">
         <v>41670</v>
       </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="57">
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G94" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="75">
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="75">
         <v>14</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B95" s="11">
         <v>41673</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="14">
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G94" s="58" t="s">
+      <c r="G95" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="73"/>
-      <c r="B95" s="11">
-        <v>41674</v>
-      </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="73"/>
       <c r="B96" s="11">
-        <v>41675</v>
-      </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="14">
+        <v>41674</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G96" s="58" t="s">
+      <c r="G96" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="73"/>
       <c r="B97" s="11">
+        <v>41675</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="11">
         <v>41676</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="14">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G97" s="58" t="s">
+      <c r="G98" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="11">
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="74"/>
+      <c r="B99" s="11">
         <v>41677</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="14">
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G98" s="58" t="s">
+      <c r="G99" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="76">
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="69">
         <v>15</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B100" s="10">
         <v>41680</v>
       </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="57">
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="10">
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="70"/>
+      <c r="B101" s="10">
         <v>41681</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="57">
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="10">
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="70"/>
+      <c r="B102" s="10">
         <v>41682</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="57">
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
-      <c r="B102" s="10">
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="70"/>
+      <c r="B103" s="10">
         <v>41683</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="57">
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="72"/>
-      <c r="B103" s="10">
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="71"/>
+      <c r="B104" s="10">
         <v>41684</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="57">
-        <f t="shared" ref="F103:F134" si="2">E103</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="75">
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="54">
+        <f t="shared" ref="F104:F135" si="2">E104</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="75">
         <v>16</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B105" s="11">
         <v>41687</v>
       </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="14">
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="73"/>
-      <c r="B105" s="11">
-        <v>41688</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="73"/>
       <c r="B106" s="11">
-        <v>41689</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="14">
+        <v>41688</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="73"/>
       <c r="B107" s="11">
+        <v>41689</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="B108" s="11">
         <v>41690</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="14">
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="74"/>
-      <c r="B108" s="11">
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="74"/>
+      <c r="B109" s="11">
         <v>41691</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="14">
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="76">
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="69">
         <v>17</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B110" s="10">
         <v>41694</v>
       </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="57">
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
-      <c r="B110" s="10">
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="70"/>
+      <c r="B111" s="10">
         <v>41695</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="57">
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
-      <c r="B111" s="10">
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="70"/>
+      <c r="B112" s="10">
         <v>41696</v>
       </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="57">
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="71"/>
-      <c r="B112" s="10">
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="70"/>
+      <c r="B113" s="10">
         <v>41697</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="63"/>
-      <c r="F112" s="57">
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="72"/>
-      <c r="B113" s="10">
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="71"/>
+      <c r="B114" s="10">
         <v>41698</v>
       </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="57">
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="75">
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="75">
         <v>18</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B115" s="11">
         <v>41701</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="14">
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="11">
-        <v>41702</v>
-      </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="73"/>
       <c r="B116" s="11">
-        <v>41703</v>
-      </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="14">
+        <v>41702</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="52"/>
-      <c r="J116" s="52"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="73"/>
       <c r="B117" s="11">
+        <v>41703</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="73"/>
+      <c r="B118" s="11">
         <v>41704</v>
       </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="14">
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="52"/>
-      <c r="J117" s="52"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="74"/>
-      <c r="B118" s="11">
+      <c r="G118" s="49"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="74"/>
+      <c r="B119" s="11">
         <v>41705</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="14">
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="76">
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="69">
         <v>19</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B120" s="10">
         <v>41708</v>
       </c>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="63"/>
-      <c r="F119" s="57">
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
-      <c r="B120" s="10">
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="70"/>
+      <c r="B121" s="10">
         <v>41709</v>
       </c>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="63"/>
-      <c r="F120" s="57">
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="71"/>
-      <c r="B121" s="10">
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="70"/>
+      <c r="B122" s="10">
         <v>41710</v>
       </c>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="63"/>
-      <c r="F121" s="57">
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="71"/>
-      <c r="B122" s="10">
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="70"/>
+      <c r="B123" s="10">
         <v>41711</v>
       </c>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="57">
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="72"/>
-      <c r="B123" s="10">
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="71"/>
+      <c r="B124" s="10">
         <v>41712</v>
       </c>
-      <c r="C123" s="57"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="63"/>
-      <c r="F123" s="57">
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="75">
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="75">
         <v>20</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B125" s="11">
         <v>41715</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="14">
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="73"/>
-      <c r="B125" s="11">
-        <v>41716</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="52"/>
-      <c r="H125" s="52"/>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="73"/>
       <c r="B126" s="11">
-        <v>41717</v>
-      </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="14">
+        <v>41716</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="52"/>
-      <c r="J126" s="52"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="49"/>
+      <c r="I126" s="49"/>
+      <c r="J126" s="49"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="73"/>
       <c r="B127" s="11">
+        <v>41717</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="49"/>
+      <c r="H127" s="49"/>
+      <c r="I127" s="49"/>
+      <c r="J127" s="49"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="73"/>
+      <c r="B128" s="11">
         <v>41718</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="14">
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="74"/>
-      <c r="B128" s="11">
+      <c r="G128" s="49"/>
+      <c r="H128" s="49"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="74"/>
+      <c r="B129" s="11">
         <v>41719</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="14">
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="52"/>
-      <c r="J128" s="52"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="76">
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="49"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="69">
         <v>21</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B130" s="10">
         <v>41722</v>
       </c>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="63"/>
-      <c r="F129" s="57">
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="71"/>
-      <c r="B130" s="10">
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="70"/>
+      <c r="B131" s="10">
         <v>41723</v>
       </c>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="63"/>
-      <c r="F130" s="57">
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
-      <c r="M130" s="13"/>
-      <c r="N130" s="13"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="71"/>
-      <c r="B131" s="10">
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="70"/>
+      <c r="B132" s="10">
         <v>41724</v>
       </c>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="57">
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
-      <c r="M131" s="13"/>
-      <c r="N131" s="13"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="71"/>
-      <c r="B132" s="10">
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="70"/>
+      <c r="B133" s="10">
         <v>41725</v>
       </c>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="63"/>
-      <c r="F132" s="57">
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="72"/>
-      <c r="B133" s="10">
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="71"/>
+      <c r="B134" s="10">
         <v>41726</v>
       </c>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="63"/>
-      <c r="F133" s="57">
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="75">
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="75">
         <v>22</v>
       </c>
-      <c r="B134" s="11">
+      <c r="B135" s="11">
         <v>41729</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="14">
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="52"/>
-      <c r="J134" s="52"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="73"/>
-      <c r="B135" s="11">
-        <v>41730</v>
-      </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="14">
-        <f t="shared" ref="F135:F166" si="3">E135</f>
-        <v>0</v>
-      </c>
-      <c r="G135" s="52"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
-      <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="73"/>
       <c r="B136" s="11">
-        <v>41731</v>
-      </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="52"/>
-      <c r="H136" s="52"/>
-      <c r="I136" s="52"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
+        <v>41730</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="13">
+        <f t="shared" ref="F136:F167" si="3">E136</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="49"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="73"/>
       <c r="B137" s="11">
+        <v>41731</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="49"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="73"/>
+      <c r="B138" s="11">
         <v>41732</v>
       </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="14">
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="52"/>
-      <c r="H137" s="52"/>
-      <c r="I137" s="52"/>
-      <c r="J137" s="52"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="74"/>
-      <c r="B138" s="11">
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="49"/>
+      <c r="J138" s="49"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="74"/>
+      <c r="B139" s="11">
         <v>41733</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="14">
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="52"/>
-      <c r="H138" s="52"/>
-      <c r="I138" s="52"/>
-      <c r="J138" s="52"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="76">
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="49"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="69">
         <v>23</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B140" s="10">
         <v>41736</v>
       </c>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="63"/>
-      <c r="F139" s="57">
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="13"/>
-      <c r="M139" s="13"/>
-      <c r="N139" s="13"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="71"/>
-      <c r="B140" s="10">
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="70"/>
+      <c r="B141" s="10">
         <v>41737</v>
       </c>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="57">
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="13"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="71"/>
-      <c r="B141" s="10">
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="70"/>
+      <c r="B142" s="10">
         <v>41738</v>
       </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="57">
+      <c r="C142" s="54"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
-      <c r="N141" s="13"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="71"/>
-      <c r="B142" s="10">
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="70"/>
+      <c r="B143" s="10">
         <v>41739</v>
       </c>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="57">
+      <c r="C143" s="54"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="72"/>
-      <c r="B143" s="10">
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="71"/>
+      <c r="B144" s="10">
         <v>41740</v>
       </c>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="57">
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
-      <c r="M143" s="13"/>
-      <c r="N143" s="13"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="75">
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="75">
         <v>24</v>
       </c>
-      <c r="B144" s="11">
+      <c r="B145" s="11">
         <v>41743</v>
       </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="41"/>
-      <c r="F144" s="14">
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="52"/>
-      <c r="H144" s="52"/>
-      <c r="I144" s="52"/>
-      <c r="J144" s="52"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
-      <c r="M144" s="13"/>
-      <c r="N144" s="13"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="73"/>
-      <c r="B145" s="11">
-        <v>41744</v>
-      </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="41"/>
-      <c r="F145" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="52"/>
-      <c r="H145" s="52"/>
-      <c r="I145" s="52"/>
-      <c r="J145" s="52"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="49"/>
+      <c r="I145" s="49"/>
+      <c r="J145" s="49"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="73"/>
       <c r="B146" s="11">
-        <v>41745</v>
-      </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="14">
+        <v>41744</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="52"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="52"/>
-      <c r="J146" s="52"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="49"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="49"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="73"/>
       <c r="B147" s="11">
+        <v>41745</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="49"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="73"/>
+      <c r="B148" s="11">
         <v>41746</v>
       </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="14">
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="52"/>
-      <c r="J147" s="52"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="74"/>
-      <c r="B148" s="11">
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="74"/>
+      <c r="B149" s="11">
         <v>41747</v>
       </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="41"/>
-      <c r="F148" s="14">
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="52"/>
-      <c r="H148" s="52"/>
-      <c r="I148" s="52"/>
-      <c r="J148" s="52"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="76">
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="69">
         <v>25</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B150" s="10">
         <v>41750</v>
       </c>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="57">
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="13"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
-      <c r="B150" s="10">
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="70"/>
+      <c r="B151" s="10">
         <v>41751</v>
       </c>
-      <c r="C150" s="57"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="63"/>
-      <c r="F150" s="57">
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="71"/>
-      <c r="B151" s="10">
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="70"/>
+      <c r="B152" s="10">
         <v>41752</v>
       </c>
-      <c r="C151" s="57"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="63"/>
-      <c r="F151" s="57">
+      <c r="C152" s="54"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="71"/>
-      <c r="B152" s="10">
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="70"/>
+      <c r="B153" s="10">
         <v>41753</v>
       </c>
-      <c r="C152" s="57"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="57">
+      <c r="C153" s="54"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="72"/>
-      <c r="B153" s="10">
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="71"/>
+      <c r="B154" s="10">
         <v>41754</v>
       </c>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="63"/>
-      <c r="F153" s="57">
+      <c r="C154" s="54"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
-      <c r="N153" s="13"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="75">
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="75">
         <v>26</v>
       </c>
-      <c r="B154" s="11">
+      <c r="B155" s="11">
         <v>41757</v>
       </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="14">
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="52"/>
-      <c r="H154" s="52"/>
-      <c r="I154" s="52"/>
-      <c r="J154" s="52"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="73"/>
-      <c r="B155" s="11">
-        <v>41758</v>
-      </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="52"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="13"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="49"/>
+      <c r="I155" s="49"/>
+      <c r="J155" s="49"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="73"/>
       <c r="B156" s="11">
-        <v>41759</v>
-      </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="14">
+        <v>41758</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G156" s="52"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="52"/>
-      <c r="J156" s="52"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="49"/>
+      <c r="I156" s="49"/>
+      <c r="J156" s="49"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="73"/>
       <c r="B157" s="11">
+        <v>41759</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="49"/>
+      <c r="H157" s="49"/>
+      <c r="I157" s="49"/>
+      <c r="J157" s="49"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="73"/>
+      <c r="B158" s="11">
         <v>41760</v>
       </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="14">
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G157" s="52"/>
-      <c r="H157" s="52"/>
-      <c r="I157" s="52"/>
-      <c r="J157" s="52"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="13"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="74"/>
-      <c r="B158" s="11">
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+      <c r="I158" s="49"/>
+      <c r="J158" s="49"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="74"/>
+      <c r="B159" s="11">
         <v>41761</v>
       </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="14">
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="39"/>
+      <c r="F159" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G158" s="52"/>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="52"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="76">
+      <c r="G159" s="49"/>
+      <c r="H159" s="49"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="49"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="69">
         <v>27</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B160" s="10">
         <v>41764</v>
       </c>
-      <c r="C159" s="57"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="63"/>
-      <c r="F159" s="57">
+      <c r="C160" s="54"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="13"/>
-      <c r="N159" s="13"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="71"/>
-      <c r="B160" s="10">
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="70"/>
+      <c r="B161" s="10">
         <v>41765</v>
       </c>
-      <c r="C160" s="57"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="57">
+      <c r="C161" s="54"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="71"/>
-      <c r="B161" s="10">
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="70"/>
+      <c r="B162" s="10">
         <v>41766</v>
       </c>
-      <c r="C161" s="57"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="63"/>
-      <c r="F161" s="57">
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="13"/>
-      <c r="L161" s="13"/>
-      <c r="M161" s="13"/>
-      <c r="N161" s="13"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="71"/>
-      <c r="B162" s="10">
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="70"/>
+      <c r="B163" s="10">
         <v>41767</v>
       </c>
-      <c r="C162" s="57"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="63"/>
-      <c r="F162" s="57">
+      <c r="C163" s="54"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="13"/>
-      <c r="L162" s="13"/>
-      <c r="M162" s="13"/>
-      <c r="N162" s="13"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="72"/>
-      <c r="B163" s="10">
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="71"/>
+      <c r="B164" s="10">
         <v>41768</v>
       </c>
-      <c r="C163" s="57"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="63"/>
-      <c r="F163" s="57">
+      <c r="C164" s="54"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="13"/>
-      <c r="M163" s="13"/>
-      <c r="N163" s="13"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="75">
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="75">
         <v>28</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B165" s="11">
         <v>41771</v>
       </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="41"/>
-      <c r="F164" s="14">
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G164" s="52"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="52"/>
-      <c r="J164" s="52"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="13"/>
-      <c r="M164" s="13"/>
-      <c r="N164" s="13"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="73"/>
-      <c r="B165" s="11">
-        <v>41772</v>
-      </c>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="41"/>
-      <c r="F165" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="52"/>
-      <c r="H165" s="52"/>
-      <c r="I165" s="52"/>
-      <c r="J165" s="52"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="13"/>
-      <c r="M165" s="13"/>
-      <c r="N165" s="13"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
+      <c r="I165" s="49"/>
+      <c r="J165" s="49"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="73"/>
       <c r="B166" s="11">
-        <v>41773</v>
-      </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="14">
+        <v>41772</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G166" s="52"/>
-      <c r="H166" s="52"/>
-      <c r="I166" s="52"/>
-      <c r="J166" s="52"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="13"/>
-      <c r="M166" s="13"/>
-      <c r="N166" s="13"/>
+      <c r="G166" s="49"/>
+      <c r="H166" s="49"/>
+      <c r="I166" s="49"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="73"/>
       <c r="B167" s="11">
+        <v>41773</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="49"/>
+      <c r="H167" s="49"/>
+      <c r="I167" s="49"/>
+      <c r="J167" s="49"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="73"/>
+      <c r="B168" s="11">
         <v>41774</v>
       </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="14">
-        <f t="shared" ref="F167:F178" si="4">E167</f>
-        <v>0</v>
-      </c>
-      <c r="G167" s="52"/>
-      <c r="H167" s="52"/>
-      <c r="I167" s="52"/>
-      <c r="J167" s="52"/>
-      <c r="K167" s="13"/>
-      <c r="L167" s="13"/>
-      <c r="M167" s="13"/>
-      <c r="N167" s="13"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="74"/>
-      <c r="B168" s="11">
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="13">
+        <f t="shared" ref="F168:F179" si="4">E168</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="49"/>
+      <c r="H168" s="49"/>
+      <c r="I168" s="49"/>
+      <c r="J168" s="49"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="74"/>
+      <c r="B169" s="11">
         <v>41775</v>
       </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="14">
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G168" s="52"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="52"/>
-      <c r="J168" s="52"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="13"/>
-      <c r="M168" s="13"/>
-      <c r="N168" s="13"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="76">
+      <c r="G169" s="49"/>
+      <c r="H169" s="49"/>
+      <c r="I169" s="49"/>
+      <c r="J169" s="49"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="69">
         <v>29</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B170" s="10">
         <v>41778</v>
       </c>
-      <c r="C169" s="57"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="63"/>
-      <c r="F169" s="57">
+      <c r="C170" s="54"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="13"/>
-      <c r="L169" s="13"/>
-      <c r="M169" s="13"/>
-      <c r="N169" s="13"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="71"/>
-      <c r="B170" s="10">
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="70"/>
+      <c r="B171" s="10">
         <v>41779</v>
       </c>
-      <c r="C170" s="57"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="57">
+      <c r="C171" s="54"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="13"/>
-      <c r="M170" s="13"/>
-      <c r="N170" s="13"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="71"/>
-      <c r="B171" s="10">
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="70"/>
+      <c r="B172" s="10">
         <v>41780</v>
       </c>
-      <c r="C171" s="57"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="63"/>
-      <c r="F171" s="57">
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="27"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="13"/>
-      <c r="M171" s="13"/>
-      <c r="N171" s="13"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="71"/>
-      <c r="B172" s="10">
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="70"/>
+      <c r="B173" s="10">
         <v>41781</v>
       </c>
-      <c r="C172" s="57"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="57">
+      <c r="C173" s="54"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="13"/>
-      <c r="L172" s="13"/>
-      <c r="M172" s="13"/>
-      <c r="N172" s="13"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="72"/>
-      <c r="B173" s="10">
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="71"/>
+      <c r="B174" s="10">
         <v>41782</v>
       </c>
-      <c r="C173" s="57"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="63"/>
-      <c r="F173" s="57">
+      <c r="C174" s="54"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="60"/>
+      <c r="F174" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="13"/>
-      <c r="L173" s="13"/>
-      <c r="M173" s="13"/>
-      <c r="N173" s="13"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="77">
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="25"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="113">
         <v>30</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B175" s="11">
         <v>41785</v>
       </c>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="33">
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="13"/>
-      <c r="L174" s="13"/>
-      <c r="M174" s="13"/>
-      <c r="N174" s="13"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="78"/>
-      <c r="B175" s="11">
+      <c r="G175" s="55"/>
+      <c r="H175" s="55"/>
+      <c r="I175" s="55"/>
+      <c r="J175" s="55"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="114"/>
+      <c r="B176" s="11">
         <v>41786</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="33">
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G175" s="58"/>
-      <c r="H175" s="58"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="58"/>
-      <c r="K175" s="13"/>
-      <c r="L175" s="13"/>
-      <c r="M175" s="13"/>
-      <c r="N175" s="13"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="78"/>
-      <c r="B176" s="11">
+      <c r="G176" s="55"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+      <c r="J176" s="55"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="114"/>
+      <c r="B177" s="11">
         <v>41787</v>
       </c>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="33">
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="13"/>
-      <c r="L176" s="13"/>
-      <c r="M176" s="13"/>
-      <c r="N176" s="13"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="78"/>
-      <c r="B177" s="11">
+      <c r="G177" s="55"/>
+      <c r="H177" s="55"/>
+      <c r="I177" s="55"/>
+      <c r="J177" s="55"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="114"/>
+      <c r="B178" s="11">
         <v>41788</v>
       </c>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="34"/>
-      <c r="F177" s="33">
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="13"/>
-      <c r="L177" s="13"/>
-      <c r="M177" s="13"/>
-      <c r="N177" s="13"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="79"/>
-      <c r="B178" s="11">
+      <c r="G178" s="55"/>
+      <c r="H178" s="55"/>
+      <c r="I178" s="55"/>
+      <c r="J178" s="55"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="115"/>
+      <c r="B179" s="11">
         <v>41789</v>
       </c>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="33">
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="13"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+      <c r="J179" s="55"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A5:E5"/>
+  <mergeCells count="68">
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F15:F16"/>
@@ -5992,44 +6004,24 @@
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
@@ -6375,29 +6367,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M56</xm:sqref>
+          <xm:sqref>M56:M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="27" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6416,7 +6389,7 @@
           <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="26" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6435,7 +6408,7 @@
           <xm:sqref>M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="25" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6454,7 +6427,7 @@
           <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="24" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6471,6 +6444,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="22" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6682,7 +6674,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="58" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6698,7 +6690,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F49:F50 F7:F8 F15 F13 F10:F11 F44:F46 F17 F56:F178 F54</xm:sqref>
+          <xm:sqref>F49:F50 F7:F8 F15 F13 F10:F11 F44:F46 F17 F54 F59:F179 F56:F57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
   <si>
     <t>Week</t>
   </si>
@@ -480,6 +480,13 @@
   <si>
     <t>Update 
  + Use case "Danh muc"</t>
+  </si>
+  <si>
+    <t>2:00PM</t>
+  </si>
+  <si>
+    <t>Update use case diagram "Danh muc" module
+Draw interface "Danh muc" module</t>
   </si>
 </sst>
 </file>
@@ -922,173 +929,173 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,7 +1536,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1551,82 +1558,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="63"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="12"/>
       <c r="H5" s="56" t="s">
         <v>60</v>
@@ -1671,13 +1678,13 @@
       <c r="J6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="98">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1704,10 +1711,10 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="95"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="20">
         <f>SUM(M8:M62)</f>
         <v>68.38</v>
@@ -1717,8 +1724,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="66">
+      <c r="A8" s="99"/>
+      <c r="B8" s="76">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1730,7 +1737,7 @@
       <c r="E8" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="80">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1745,7 +1752,7 @@
       <c r="K8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="62"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="24">
         <f>SUM(E7:E9)</f>
         <v>2.82</v>
@@ -1755,8 +1762,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
@@ -1766,7 +1773,7 @@
       <c r="E9" s="16">
         <v>0.5</v>
       </c>
-      <c r="F9" s="108"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1781,10 +1788,10 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="111">
+      <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="71">
         <v>41589</v>
       </c>
       <c r="C10" s="26">
@@ -1822,8 +1829,8 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -1854,7 +1861,7 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
@@ -1888,8 +1895,8 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="76">
+      <c r="A13" s="79"/>
+      <c r="B13" s="71">
         <v>41591</v>
       </c>
       <c r="C13" s="37">
@@ -1901,7 +1908,7 @@
       <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="109">
+      <c r="F13" s="82">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -1921,8 +1928,8 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="37">
         <v>0.91666666666666663</v>
       </c>
@@ -1932,7 +1939,7 @@
       <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="110"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="28" t="s">
         <v>24</v>
       </c>
@@ -1956,8 +1963,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="76">
+      <c r="A15" s="79"/>
+      <c r="B15" s="71">
         <v>41592</v>
       </c>
       <c r="C15" s="37">
@@ -1969,7 +1976,7 @@
       <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="82">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -1996,8 +2003,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="37">
         <v>0.375</v>
       </c>
@@ -2007,7 +2014,7 @@
       <c r="E16" s="38">
         <v>1.25</v>
       </c>
-      <c r="F16" s="110"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="41" t="s">
         <v>25</v>
       </c>
@@ -2024,8 +2031,8 @@
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="76">
+      <c r="A17" s="79"/>
+      <c r="B17" s="71">
         <v>41593</v>
       </c>
       <c r="C17" s="37">
@@ -2037,7 +2044,7 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="82">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -2053,8 +2060,8 @@
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="37">
         <v>0.83333333333333337</v>
       </c>
@@ -2064,7 +2071,7 @@
       <c r="E18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="110"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="40" t="s">
         <v>24</v>
       </c>
@@ -2088,10 +2095,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="70">
         <v>3</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="76">
         <v>41596</v>
       </c>
       <c r="C19" s="43">
@@ -2103,7 +2110,7 @@
       <c r="E19" s="57">
         <v>1</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="80">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -2130,8 +2137,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2141,7 +2148,7 @@
       <c r="E20" s="57">
         <v>2</v>
       </c>
-      <c r="F20" s="108"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="25" t="s">
         <v>30</v>
       </c>
@@ -2156,8 +2163,8 @@
       <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="66">
+      <c r="A21" s="65"/>
+      <c r="B21" s="76">
         <v>41597</v>
       </c>
       <c r="C21" s="43">
@@ -2169,7 +2176,7 @@
       <c r="E21" s="57">
         <v>1</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="80">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2192,8 +2199,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="43">
         <v>0.875</v>
       </c>
@@ -2203,7 +2210,7 @@
       <c r="E22" s="57">
         <v>1.5</v>
       </c>
-      <c r="F22" s="108"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="25" t="s">
         <v>24</v>
       </c>
@@ -2220,7 +2227,7 @@
       <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="10">
         <v>41598</v>
       </c>
@@ -2258,8 +2265,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="66">
+      <c r="A24" s="65"/>
+      <c r="B24" s="76">
         <v>41599</v>
       </c>
       <c r="C24" s="43">
@@ -2271,7 +2278,7 @@
       <c r="E24" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="80">
         <f>SUM(E24:E28)</f>
         <v>7.65</v>
       </c>
@@ -2296,8 +2303,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="43">
         <v>0.4236111111111111</v>
       </c>
@@ -2307,7 +2314,7 @@
       <c r="E25" s="57">
         <v>1.33</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2320,8 +2327,8 @@
       <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="43">
         <v>0.5625</v>
       </c>
@@ -2331,7 +2338,7 @@
       <c r="E26" s="57">
         <v>1</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2346,8 +2353,8 @@
       <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="43">
         <v>0.625</v>
       </c>
@@ -2357,7 +2364,7 @@
       <c r="E27" s="57">
         <v>2.16</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="25" t="s">
         <v>21</v>
       </c>
@@ -2372,8 +2379,8 @@
       <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="43">
         <v>0.875</v>
       </c>
@@ -2383,7 +2390,7 @@
       <c r="E28" s="57">
         <v>2</v>
       </c>
-      <c r="F28" s="108"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="25" t="s">
         <v>24</v>
       </c>
@@ -2398,8 +2405,8 @@
       <c r="N28" s="21"/>
     </row>
     <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="66">
+      <c r="A29" s="65"/>
+      <c r="B29" s="76">
         <v>41600</v>
       </c>
       <c r="C29" s="43">
@@ -2411,7 +2418,7 @@
       <c r="E29" s="57">
         <v>1.25</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="80">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
@@ -2436,8 +2443,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="43">
         <v>0.64583333333333337</v>
       </c>
@@ -2447,7 +2454,7 @@
       <c r="E30" s="57">
         <v>1</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="25" t="s">
         <v>26</v>
       </c>
@@ -2462,8 +2469,8 @@
       <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2473,7 +2480,7 @@
       <c r="E31" s="57">
         <v>3</v>
       </c>
-      <c r="F31" s="108"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="25" t="s">
         <v>24</v>
       </c>
@@ -2488,8 +2495,8 @@
       <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="66">
+      <c r="A32" s="65"/>
+      <c r="B32" s="76">
         <v>41601</v>
       </c>
       <c r="C32" s="43">
@@ -2501,7 +2508,7 @@
       <c r="E32" s="57">
         <v>0.25</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="80">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
@@ -2519,8 +2526,8 @@
       <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="43">
         <v>0.57291666666666663</v>
       </c>
@@ -2530,7 +2537,7 @@
       <c r="E33" s="57">
         <v>1</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="25" t="s">
         <v>26</v>
       </c>
@@ -2547,7 +2554,7 @@
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75">
+      <c r="A34" s="69">
         <v>4</v>
       </c>
       <c r="B34" s="11">
@@ -2562,7 +2569,7 @@
       <c r="E34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="63">
         <f>E34</f>
         <v>1</v>
       </c>
@@ -2587,8 +2594,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="76">
+      <c r="A35" s="67"/>
+      <c r="B35" s="71">
         <v>41604</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -2600,7 +2607,7 @@
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="115">
         <f>SUM(E35:E38)</f>
         <v>6.5</v>
       </c>
@@ -2618,8 +2625,8 @@
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="48" t="s">
         <v>88</v>
       </c>
@@ -2629,7 +2636,7 @@
       <c r="E36" s="38">
         <v>2.5</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="49" t="s">
         <v>25</v>
       </c>
@@ -2644,8 +2651,8 @@
       <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="48" t="s">
         <v>90</v>
       </c>
@@ -2655,7 +2662,7 @@
       <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="73"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="49" t="s">
         <v>21</v>
       </c>
@@ -2670,8 +2677,8 @@
       <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="48" t="s">
         <v>91</v>
       </c>
@@ -2681,7 +2688,7 @@
       <c r="E38" s="59">
         <v>2</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="49" t="s">
         <v>24</v>
       </c>
@@ -2696,8 +2703,8 @@
       <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="76">
+      <c r="A39" s="67"/>
+      <c r="B39" s="71">
         <v>41605</v>
       </c>
       <c r="C39" s="48" t="s">
@@ -2709,7 +2716,7 @@
       <c r="E39" s="59">
         <v>2.33</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="69">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2734,8 +2741,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="48" t="s">
         <v>89</v>
       </c>
@@ -2745,7 +2752,7 @@
       <c r="E40" s="59">
         <v>1</v>
       </c>
-      <c r="F40" s="74"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="49" t="s">
         <v>24</v>
       </c>
@@ -2767,8 +2774,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="76">
+      <c r="A41" s="67"/>
+      <c r="B41" s="71">
         <v>41606</v>
       </c>
       <c r="C41" s="48" t="s">
@@ -2780,7 +2787,7 @@
       <c r="E41" s="59">
         <v>1.33</v>
       </c>
-      <c r="F41" s="75">
+      <c r="F41" s="69">
         <f>SUM(E41:E43)</f>
         <v>5.83</v>
       </c>
@@ -2798,8 +2805,8 @@
       <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="48" t="s">
         <v>97</v>
       </c>
@@ -2809,7 +2816,7 @@
       <c r="E42" s="59">
         <v>1.75</v>
       </c>
-      <c r="F42" s="73"/>
+      <c r="F42" s="67"/>
       <c r="G42" s="49" t="s">
         <v>27</v>
       </c>
@@ -2824,8 +2831,8 @@
       <c r="N42" s="21"/>
     </row>
     <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="48" t="s">
         <v>94</v>
       </c>
@@ -2835,7 +2842,7 @@
       <c r="E43" s="59">
         <v>2.75</v>
       </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="49" t="s">
         <v>21</v>
       </c>
@@ -2857,7 +2864,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="11">
         <v>41607</v>
       </c>
@@ -2893,10 +2900,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="65">
         <v>5</v>
       </c>
-      <c r="B45" s="66">
+      <c r="B45" s="76">
         <v>41611</v>
       </c>
       <c r="C45" s="44" t="s">
@@ -2908,7 +2915,7 @@
       <c r="E45" s="57">
         <v>1.5</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="70">
         <f>SUM(E45:E48)</f>
         <v>6.5</v>
       </c>
@@ -2933,8 +2940,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="44" t="s">
         <v>118</v>
       </c>
@@ -2944,7 +2951,7 @@
       <c r="E46" s="57">
         <v>0.5</v>
       </c>
-      <c r="F46" s="70"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="25" t="s">
         <v>119</v>
       </c>
@@ -2959,8 +2966,8 @@
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="44" t="s">
         <v>94</v>
       </c>
@@ -2970,7 +2977,7 @@
       <c r="E47" s="57">
         <v>3.5</v>
       </c>
-      <c r="F47" s="70"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="25" t="s">
         <v>29</v>
       </c>
@@ -2985,8 +2992,8 @@
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="68"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="44" t="s">
         <v>113</v>
       </c>
@@ -2996,7 +3003,7 @@
       <c r="E48" s="57">
         <v>1</v>
       </c>
-      <c r="F48" s="71"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="25" t="s">
         <v>24</v>
       </c>
@@ -3011,7 +3018,7 @@
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="10">
         <v>41612</v>
       </c>
@@ -3047,7 +3054,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="10">
         <v>41613</v>
       </c>
@@ -3060,7 +3067,7 @@
       <c r="E50" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F50" s="116">
+      <c r="F50" s="64">
         <f>SUM(E50:E53)</f>
         <v>4.82</v>
       </c>
@@ -3078,7 +3085,7 @@
       <c r="N50" s="21"/>
     </row>
     <row r="51" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="10">
         <v>41613</v>
       </c>
@@ -3091,7 +3098,7 @@
       <c r="E51" s="57">
         <v>1.5</v>
       </c>
-      <c r="F51" s="70"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="25" t="s">
         <v>25</v>
       </c>
@@ -3106,7 +3113,7 @@
       <c r="N51" s="21"/>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="10">
         <v>41613</v>
       </c>
@@ -3119,7 +3126,7 @@
       <c r="E52" s="57">
         <v>0.66</v>
       </c>
-      <c r="F52" s="70"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="25" t="s">
         <v>21</v>
       </c>
@@ -3134,7 +3141,7 @@
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="10">
         <v>41613</v>
       </c>
@@ -3147,7 +3154,7 @@
       <c r="E53" s="57">
         <v>1.5</v>
       </c>
-      <c r="F53" s="71"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="25" t="s">
         <v>26</v>
       </c>
@@ -3162,7 +3169,7 @@
       <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="73">
+      <c r="A54" s="67">
         <v>6</v>
       </c>
       <c r="B54" s="11">
@@ -3177,7 +3184,7 @@
       <c r="E54" s="48">
         <v>4.5</v>
       </c>
-      <c r="F54" s="75">
+      <c r="F54" s="69">
         <f>SUM(E54:E55)</f>
         <v>5.5</v>
       </c>
@@ -3195,7 +3202,7 @@
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="11">
         <v>41617</v>
       </c>
@@ -3208,7 +3215,7 @@
       <c r="E55" s="48">
         <v>1</v>
       </c>
-      <c r="F55" s="74"/>
+      <c r="F55" s="68"/>
       <c r="G55" s="49" t="s">
         <v>24</v>
       </c>
@@ -3230,7 +3237,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="11">
         <v>41618</v>
       </c>
@@ -3268,14 +3275,14 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="76">
+      <c r="A57" s="67"/>
+      <c r="B57" s="71">
         <v>41620</v>
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
       <c r="E57" s="48"/>
-      <c r="F57" s="75">
+      <c r="F57" s="69">
         <f>E58</f>
         <v>0</v>
       </c>
@@ -3291,12 +3298,12 @@
       <c r="N57" s="21"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="39"/>
-      <c r="F58" s="74"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="49" t="s">
         <v>27</v>
       </c>
@@ -3315,20 +3322,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="74"/>
+    <row r="59" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="68"/>
       <c r="B59" s="11">
         <v>41621</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="13">
-        <f>E59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
+      <c r="C59" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="48">
+        <v>3</v>
+      </c>
+      <c r="F59" s="48">
+        <f t="shared" ref="F59" si="1">E59</f>
+        <v>3</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>137</v>
+      </c>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
       <c r="K59" s="23" t="s">
@@ -3344,7 +3361,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+      <c r="A60" s="70">
         <v>7</v>
       </c>
       <c r="B60" s="10">
@@ -3374,7 +3391,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="10">
         <v>41625</v>
       </c>
@@ -3402,7 +3419,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="10">
         <v>41626</v>
       </c>
@@ -3430,7 +3447,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="10">
         <v>41627</v>
       </c>
@@ -3451,7 +3468,7 @@
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="10">
         <v>41628</v>
       </c>
@@ -3472,7 +3489,7 @@
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="75">
+      <c r="A65" s="69">
         <v>8</v>
       </c>
       <c r="B65" s="11">
@@ -3495,7 +3512,7 @@
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="11">
         <v>41632</v>
       </c>
@@ -3516,7 +3533,7 @@
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="11">
         <v>41633</v>
       </c>
@@ -3537,7 +3554,7 @@
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="11">
         <v>41634</v>
       </c>
@@ -3558,7 +3575,7 @@
       <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="74"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="11">
         <v>41635</v>
       </c>
@@ -3579,7 +3596,7 @@
       <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
+      <c r="A70" s="70">
         <v>9</v>
       </c>
       <c r="B70" s="10">
@@ -3602,7 +3619,7 @@
       <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="10">
         <v>41639</v>
       </c>
@@ -3623,7 +3640,7 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="10">
         <v>41640</v>
       </c>
@@ -3631,7 +3648,7 @@
       <c r="D72" s="54"/>
       <c r="E72" s="60"/>
       <c r="F72" s="54">
-        <f t="shared" ref="F72:F103" si="1">E72</f>
+        <f t="shared" ref="F72:F103" si="2">E72</f>
         <v>0</v>
       </c>
       <c r="G72" s="25"/>
@@ -3644,7 +3661,7 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="10">
         <v>41641</v>
       </c>
@@ -3652,7 +3669,7 @@
       <c r="D73" s="54"/>
       <c r="E73" s="60"/>
       <c r="F73" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="25"/>
@@ -3665,7 +3682,7 @@
       <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="10">
         <v>41642</v>
       </c>
@@ -3673,7 +3690,7 @@
       <c r="D74" s="54"/>
       <c r="E74" s="60"/>
       <c r="F74" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="25"/>
@@ -3686,7 +3703,7 @@
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="75">
+      <c r="A75" s="69">
         <v>10</v>
       </c>
       <c r="B75" s="11">
@@ -3696,7 +3713,7 @@
       <c r="D75" s="13"/>
       <c r="E75" s="39"/>
       <c r="F75" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="49"/>
@@ -3709,7 +3726,7 @@
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="11">
         <v>41646</v>
       </c>
@@ -3717,7 +3734,7 @@
       <c r="D76" s="13"/>
       <c r="E76" s="39"/>
       <c r="F76" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="49"/>
@@ -3730,7 +3747,7 @@
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="11">
         <v>41647</v>
       </c>
@@ -3738,7 +3755,7 @@
       <c r="D77" s="13"/>
       <c r="E77" s="39"/>
       <c r="F77" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="49"/>
@@ -3751,7 +3768,7 @@
       <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
+      <c r="A78" s="67"/>
       <c r="B78" s="11">
         <v>41648</v>
       </c>
@@ -3759,7 +3776,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="39"/>
       <c r="F78" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="49"/>
@@ -3772,7 +3789,7 @@
       <c r="N78" s="12"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="74"/>
+      <c r="A79" s="68"/>
       <c r="B79" s="11">
         <v>41649</v>
       </c>
@@ -3780,7 +3797,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="39"/>
       <c r="F79" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="49"/>
@@ -3793,7 +3810,7 @@
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="69">
+      <c r="A80" s="70">
         <v>11</v>
       </c>
       <c r="B80" s="10">
@@ -3803,7 +3820,7 @@
       <c r="D80" s="54"/>
       <c r="E80" s="60"/>
       <c r="F80" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="25"/>
@@ -3816,7 +3833,7 @@
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="10">
         <v>41653</v>
       </c>
@@ -3824,7 +3841,7 @@
       <c r="D81" s="54"/>
       <c r="E81" s="60"/>
       <c r="F81" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="25"/>
@@ -3837,7 +3854,7 @@
       <c r="N81" s="12"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="10">
         <v>41654</v>
       </c>
@@ -3845,7 +3862,7 @@
       <c r="D82" s="54"/>
       <c r="E82" s="60"/>
       <c r="F82" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="25"/>
@@ -3858,7 +3875,7 @@
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="10">
         <v>41655</v>
       </c>
@@ -3866,7 +3883,7 @@
       <c r="D83" s="54"/>
       <c r="E83" s="60"/>
       <c r="F83" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="25"/>
@@ -3879,7 +3896,7 @@
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="10">
         <v>41656</v>
       </c>
@@ -3887,7 +3904,7 @@
       <c r="D84" s="54"/>
       <c r="E84" s="60"/>
       <c r="F84" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="25"/>
@@ -3900,7 +3917,7 @@
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="75">
+      <c r="A85" s="69">
         <v>12</v>
       </c>
       <c r="B85" s="11">
@@ -3910,7 +3927,7 @@
       <c r="D85" s="13"/>
       <c r="E85" s="39"/>
       <c r="F85" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="49"/>
@@ -3923,7 +3940,7 @@
       <c r="N85" s="12"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
+      <c r="A86" s="67"/>
       <c r="B86" s="11">
         <v>41660</v>
       </c>
@@ -3931,7 +3948,7 @@
       <c r="D86" s="13"/>
       <c r="E86" s="39"/>
       <c r="F86" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="49"/>
@@ -3944,7 +3961,7 @@
       <c r="N86" s="12"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="11">
         <v>41661</v>
       </c>
@@ -3952,7 +3969,7 @@
       <c r="D87" s="13"/>
       <c r="E87" s="39"/>
       <c r="F87" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="49"/>
@@ -3965,7 +3982,7 @@
       <c r="N87" s="12"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="11">
         <v>41662</v>
       </c>
@@ -3973,7 +3990,7 @@
       <c r="D88" s="13"/>
       <c r="E88" s="39"/>
       <c r="F88" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="49"/>
@@ -3986,7 +4003,7 @@
       <c r="N88" s="12"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="74"/>
+      <c r="A89" s="68"/>
       <c r="B89" s="11">
         <v>41663</v>
       </c>
@@ -3994,7 +4011,7 @@
       <c r="D89" s="13"/>
       <c r="E89" s="39"/>
       <c r="F89" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="49"/>
@@ -4007,7 +4024,7 @@
       <c r="N89" s="12"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="69">
+      <c r="A90" s="70">
         <v>13</v>
       </c>
       <c r="B90" s="10">
@@ -4017,7 +4034,7 @@
       <c r="D90" s="54"/>
       <c r="E90" s="60"/>
       <c r="F90" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="25" t="s">
@@ -4032,7 +4049,7 @@
       <c r="N90" s="12"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="10">
         <v>41667</v>
       </c>
@@ -4040,7 +4057,7 @@
       <c r="D91" s="54"/>
       <c r="E91" s="60"/>
       <c r="F91" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="25" t="s">
@@ -4055,7 +4072,7 @@
       <c r="N91" s="12"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="10">
         <v>41668</v>
       </c>
@@ -4063,7 +4080,7 @@
       <c r="D92" s="54"/>
       <c r="E92" s="60"/>
       <c r="F92" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="25" t="s">
@@ -4078,7 +4095,7 @@
       <c r="N92" s="12"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="10">
         <v>41669</v>
       </c>
@@ -4086,7 +4103,7 @@
       <c r="D93" s="54"/>
       <c r="E93" s="60"/>
       <c r="F93" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="25" t="s">
@@ -4101,7 +4118,7 @@
       <c r="N93" s="12"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="10">
         <v>41670</v>
       </c>
@@ -4109,7 +4126,7 @@
       <c r="D94" s="54"/>
       <c r="E94" s="60"/>
       <c r="F94" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="25" t="s">
@@ -4124,7 +4141,7 @@
       <c r="N94" s="12"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="75">
+      <c r="A95" s="69">
         <v>14</v>
       </c>
       <c r="B95" s="11">
@@ -4134,7 +4151,7 @@
       <c r="D95" s="13"/>
       <c r="E95" s="39"/>
       <c r="F95" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="55" t="s">
@@ -4149,7 +4166,7 @@
       <c r="N95" s="12"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="73"/>
+      <c r="A96" s="67"/>
       <c r="B96" s="11">
         <v>41674</v>
       </c>
@@ -4157,7 +4174,7 @@
       <c r="D96" s="13"/>
       <c r="E96" s="39"/>
       <c r="F96" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="55" t="s">
@@ -4172,7 +4189,7 @@
       <c r="N96" s="12"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
+      <c r="A97" s="67"/>
       <c r="B97" s="11">
         <v>41675</v>
       </c>
@@ -4180,7 +4197,7 @@
       <c r="D97" s="13"/>
       <c r="E97" s="39"/>
       <c r="F97" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="55" t="s">
@@ -4195,7 +4212,7 @@
       <c r="N97" s="12"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="73"/>
+      <c r="A98" s="67"/>
       <c r="B98" s="11">
         <v>41676</v>
       </c>
@@ -4203,7 +4220,7 @@
       <c r="D98" s="13"/>
       <c r="E98" s="39"/>
       <c r="F98" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="55" t="s">
@@ -4218,7 +4235,7 @@
       <c r="N98" s="12"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
+      <c r="A99" s="68"/>
       <c r="B99" s="11">
         <v>41677</v>
       </c>
@@ -4226,7 +4243,7 @@
       <c r="D99" s="13"/>
       <c r="E99" s="39"/>
       <c r="F99" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="55" t="s">
@@ -4241,7 +4258,7 @@
       <c r="N99" s="12"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
+      <c r="A100" s="70">
         <v>15</v>
       </c>
       <c r="B100" s="10">
@@ -4251,7 +4268,7 @@
       <c r="D100" s="54"/>
       <c r="E100" s="60"/>
       <c r="F100" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="25"/>
@@ -4264,7 +4281,7 @@
       <c r="N100" s="12"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="10">
         <v>41681</v>
       </c>
@@ -4272,7 +4289,7 @@
       <c r="D101" s="54"/>
       <c r="E101" s="60"/>
       <c r="F101" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="25"/>
@@ -4285,7 +4302,7 @@
       <c r="N101" s="12"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="10">
         <v>41682</v>
       </c>
@@ -4293,7 +4310,7 @@
       <c r="D102" s="54"/>
       <c r="E102" s="60"/>
       <c r="F102" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="25"/>
@@ -4306,7 +4323,7 @@
       <c r="N102" s="12"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="10">
         <v>41683</v>
       </c>
@@ -4314,7 +4331,7 @@
       <c r="D103" s="54"/>
       <c r="E103" s="60"/>
       <c r="F103" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G103" s="25"/>
@@ -4327,7 +4344,7 @@
       <c r="N103" s="12"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="71"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="10">
         <v>41684</v>
       </c>
@@ -4335,7 +4352,7 @@
       <c r="D104" s="54"/>
       <c r="E104" s="60"/>
       <c r="F104" s="54">
-        <f t="shared" ref="F104:F135" si="2">E104</f>
+        <f t="shared" ref="F104:F135" si="3">E104</f>
         <v>0</v>
       </c>
       <c r="G104" s="25"/>
@@ -4348,7 +4365,7 @@
       <c r="N104" s="12"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="75">
+      <c r="A105" s="69">
         <v>16</v>
       </c>
       <c r="B105" s="11">
@@ -4358,7 +4375,7 @@
       <c r="D105" s="13"/>
       <c r="E105" s="39"/>
       <c r="F105" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="49"/>
@@ -4371,7 +4388,7 @@
       <c r="N105" s="12"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
+      <c r="A106" s="67"/>
       <c r="B106" s="11">
         <v>41688</v>
       </c>
@@ -4379,7 +4396,7 @@
       <c r="D106" s="13"/>
       <c r="E106" s="39"/>
       <c r="F106" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="49"/>
@@ -4392,7 +4409,7 @@
       <c r="N106" s="12"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="11">
         <v>41689</v>
       </c>
@@ -4400,7 +4417,7 @@
       <c r="D107" s="13"/>
       <c r="E107" s="39"/>
       <c r="F107" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G107" s="49"/>
@@ -4413,7 +4430,7 @@
       <c r="N107" s="12"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
+      <c r="A108" s="67"/>
       <c r="B108" s="11">
         <v>41690</v>
       </c>
@@ -4421,7 +4438,7 @@
       <c r="D108" s="13"/>
       <c r="E108" s="39"/>
       <c r="F108" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G108" s="49"/>
@@ -4434,7 +4451,7 @@
       <c r="N108" s="12"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="74"/>
+      <c r="A109" s="68"/>
       <c r="B109" s="11">
         <v>41691</v>
       </c>
@@ -4442,7 +4459,7 @@
       <c r="D109" s="13"/>
       <c r="E109" s="39"/>
       <c r="F109" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G109" s="49"/>
@@ -4455,7 +4472,7 @@
       <c r="N109" s="12"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="69">
+      <c r="A110" s="70">
         <v>17</v>
       </c>
       <c r="B110" s="10">
@@ -4465,7 +4482,7 @@
       <c r="D110" s="54"/>
       <c r="E110" s="60"/>
       <c r="F110" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G110" s="25"/>
@@ -4478,7 +4495,7 @@
       <c r="N110" s="12"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
+      <c r="A111" s="65"/>
       <c r="B111" s="10">
         <v>41695</v>
       </c>
@@ -4486,7 +4503,7 @@
       <c r="D111" s="54"/>
       <c r="E111" s="60"/>
       <c r="F111" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G111" s="25"/>
@@ -4499,7 +4516,7 @@
       <c r="N111" s="12"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="10">
         <v>41696</v>
       </c>
@@ -4507,7 +4524,7 @@
       <c r="D112" s="54"/>
       <c r="E112" s="60"/>
       <c r="F112" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G112" s="25"/>
@@ -4520,7 +4537,7 @@
       <c r="N112" s="12"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="70"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="10">
         <v>41697</v>
       </c>
@@ -4528,7 +4545,7 @@
       <c r="D113" s="54"/>
       <c r="E113" s="60"/>
       <c r="F113" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G113" s="25"/>
@@ -4541,7 +4558,7 @@
       <c r="N113" s="12"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="71"/>
+      <c r="A114" s="66"/>
       <c r="B114" s="10">
         <v>41698</v>
       </c>
@@ -4549,7 +4566,7 @@
       <c r="D114" s="54"/>
       <c r="E114" s="60"/>
       <c r="F114" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G114" s="25"/>
@@ -4562,7 +4579,7 @@
       <c r="N114" s="12"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="75">
+      <c r="A115" s="69">
         <v>18</v>
       </c>
       <c r="B115" s="11">
@@ -4572,7 +4589,7 @@
       <c r="D115" s="13"/>
       <c r="E115" s="39"/>
       <c r="F115" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G115" s="49"/>
@@ -4585,7 +4602,7 @@
       <c r="N115" s="12"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="73"/>
+      <c r="A116" s="67"/>
       <c r="B116" s="11">
         <v>41702</v>
       </c>
@@ -4593,7 +4610,7 @@
       <c r="D116" s="13"/>
       <c r="E116" s="39"/>
       <c r="F116" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G116" s="49"/>
@@ -4606,7 +4623,7 @@
       <c r="N116" s="12"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="73"/>
+      <c r="A117" s="67"/>
       <c r="B117" s="11">
         <v>41703</v>
       </c>
@@ -4614,7 +4631,7 @@
       <c r="D117" s="13"/>
       <c r="E117" s="39"/>
       <c r="F117" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G117" s="49"/>
@@ -4627,7 +4644,7 @@
       <c r="N117" s="12"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="73"/>
+      <c r="A118" s="67"/>
       <c r="B118" s="11">
         <v>41704</v>
       </c>
@@ -4635,7 +4652,7 @@
       <c r="D118" s="13"/>
       <c r="E118" s="39"/>
       <c r="F118" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G118" s="49"/>
@@ -4648,7 +4665,7 @@
       <c r="N118" s="12"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="74"/>
+      <c r="A119" s="68"/>
       <c r="B119" s="11">
         <v>41705</v>
       </c>
@@ -4656,7 +4673,7 @@
       <c r="D119" s="13"/>
       <c r="E119" s="39"/>
       <c r="F119" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G119" s="49"/>
@@ -4669,7 +4686,7 @@
       <c r="N119" s="12"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="69">
+      <c r="A120" s="70">
         <v>19</v>
       </c>
       <c r="B120" s="10">
@@ -4679,7 +4696,7 @@
       <c r="D120" s="54"/>
       <c r="E120" s="60"/>
       <c r="F120" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G120" s="25"/>
@@ -4692,7 +4709,7 @@
       <c r="N120" s="12"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
+      <c r="A121" s="65"/>
       <c r="B121" s="10">
         <v>41709</v>
       </c>
@@ -4700,7 +4717,7 @@
       <c r="D121" s="54"/>
       <c r="E121" s="60"/>
       <c r="F121" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G121" s="25"/>
@@ -4713,7 +4730,7 @@
       <c r="N121" s="12"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="70"/>
+      <c r="A122" s="65"/>
       <c r="B122" s="10">
         <v>41710</v>
       </c>
@@ -4721,7 +4738,7 @@
       <c r="D122" s="54"/>
       <c r="E122" s="60"/>
       <c r="F122" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G122" s="25"/>
@@ -4734,7 +4751,7 @@
       <c r="N122" s="12"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="70"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="10">
         <v>41711</v>
       </c>
@@ -4742,7 +4759,7 @@
       <c r="D123" s="54"/>
       <c r="E123" s="60"/>
       <c r="F123" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G123" s="25"/>
@@ -4755,7 +4772,7 @@
       <c r="N123" s="12"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="71"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="10">
         <v>41712</v>
       </c>
@@ -4763,7 +4780,7 @@
       <c r="D124" s="54"/>
       <c r="E124" s="60"/>
       <c r="F124" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G124" s="25"/>
@@ -4776,7 +4793,7 @@
       <c r="N124" s="12"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="75">
+      <c r="A125" s="69">
         <v>20</v>
       </c>
       <c r="B125" s="11">
@@ -4786,7 +4803,7 @@
       <c r="D125" s="13"/>
       <c r="E125" s="39"/>
       <c r="F125" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G125" s="49"/>
@@ -4799,7 +4816,7 @@
       <c r="N125" s="12"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="73"/>
+      <c r="A126" s="67"/>
       <c r="B126" s="11">
         <v>41716</v>
       </c>
@@ -4807,7 +4824,7 @@
       <c r="D126" s="13"/>
       <c r="E126" s="39"/>
       <c r="F126" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G126" s="49"/>
@@ -4820,7 +4837,7 @@
       <c r="N126" s="12"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="73"/>
+      <c r="A127" s="67"/>
       <c r="B127" s="11">
         <v>41717</v>
       </c>
@@ -4828,7 +4845,7 @@
       <c r="D127" s="13"/>
       <c r="E127" s="39"/>
       <c r="F127" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G127" s="49"/>
@@ -4841,7 +4858,7 @@
       <c r="N127" s="12"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="73"/>
+      <c r="A128" s="67"/>
       <c r="B128" s="11">
         <v>41718</v>
       </c>
@@ -4849,7 +4866,7 @@
       <c r="D128" s="13"/>
       <c r="E128" s="39"/>
       <c r="F128" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G128" s="49"/>
@@ -4862,7 +4879,7 @@
       <c r="N128" s="12"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="74"/>
+      <c r="A129" s="68"/>
       <c r="B129" s="11">
         <v>41719</v>
       </c>
@@ -4870,7 +4887,7 @@
       <c r="D129" s="13"/>
       <c r="E129" s="39"/>
       <c r="F129" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G129" s="49"/>
@@ -4883,7 +4900,7 @@
       <c r="N129" s="12"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="69">
+      <c r="A130" s="70">
         <v>21</v>
       </c>
       <c r="B130" s="10">
@@ -4893,7 +4910,7 @@
       <c r="D130" s="54"/>
       <c r="E130" s="60"/>
       <c r="F130" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G130" s="25"/>
@@ -4906,7 +4923,7 @@
       <c r="N130" s="12"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="70"/>
+      <c r="A131" s="65"/>
       <c r="B131" s="10">
         <v>41723</v>
       </c>
@@ -4914,7 +4931,7 @@
       <c r="D131" s="54"/>
       <c r="E131" s="60"/>
       <c r="F131" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G131" s="25"/>
@@ -4927,7 +4944,7 @@
       <c r="N131" s="12"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="70"/>
+      <c r="A132" s="65"/>
       <c r="B132" s="10">
         <v>41724</v>
       </c>
@@ -4935,7 +4952,7 @@
       <c r="D132" s="54"/>
       <c r="E132" s="60"/>
       <c r="F132" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G132" s="25"/>
@@ -4948,7 +4965,7 @@
       <c r="N132" s="12"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="10">
         <v>41725</v>
       </c>
@@ -4956,7 +4973,7 @@
       <c r="D133" s="54"/>
       <c r="E133" s="60"/>
       <c r="F133" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G133" s="25"/>
@@ -4969,7 +4986,7 @@
       <c r="N133" s="12"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="71"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="10">
         <v>41726</v>
       </c>
@@ -4977,7 +4994,7 @@
       <c r="D134" s="54"/>
       <c r="E134" s="60"/>
       <c r="F134" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G134" s="25"/>
@@ -4990,7 +5007,7 @@
       <c r="N134" s="12"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="75">
+      <c r="A135" s="69">
         <v>22</v>
       </c>
       <c r="B135" s="11">
@@ -5000,7 +5017,7 @@
       <c r="D135" s="13"/>
       <c r="E135" s="39"/>
       <c r="F135" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G135" s="49"/>
@@ -5013,7 +5030,7 @@
       <c r="N135" s="12"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="73"/>
+      <c r="A136" s="67"/>
       <c r="B136" s="11">
         <v>41730</v>
       </c>
@@ -5021,7 +5038,7 @@
       <c r="D136" s="13"/>
       <c r="E136" s="39"/>
       <c r="F136" s="13">
-        <f t="shared" ref="F136:F167" si="3">E136</f>
+        <f t="shared" ref="F136:F167" si="4">E136</f>
         <v>0</v>
       </c>
       <c r="G136" s="49"/>
@@ -5034,7 +5051,7 @@
       <c r="N136" s="12"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="73"/>
+      <c r="A137" s="67"/>
       <c r="B137" s="11">
         <v>41731</v>
       </c>
@@ -5042,7 +5059,7 @@
       <c r="D137" s="13"/>
       <c r="E137" s="39"/>
       <c r="F137" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G137" s="49"/>
@@ -5055,7 +5072,7 @@
       <c r="N137" s="12"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="73"/>
+      <c r="A138" s="67"/>
       <c r="B138" s="11">
         <v>41732</v>
       </c>
@@ -5063,7 +5080,7 @@
       <c r="D138" s="13"/>
       <c r="E138" s="39"/>
       <c r="F138" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G138" s="49"/>
@@ -5076,7 +5093,7 @@
       <c r="N138" s="12"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="74"/>
+      <c r="A139" s="68"/>
       <c r="B139" s="11">
         <v>41733</v>
       </c>
@@ -5084,7 +5101,7 @@
       <c r="D139" s="13"/>
       <c r="E139" s="39"/>
       <c r="F139" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G139" s="49"/>
@@ -5097,7 +5114,7 @@
       <c r="N139" s="12"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="69">
+      <c r="A140" s="70">
         <v>23</v>
       </c>
       <c r="B140" s="10">
@@ -5107,7 +5124,7 @@
       <c r="D140" s="54"/>
       <c r="E140" s="60"/>
       <c r="F140" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G140" s="25"/>
@@ -5120,7 +5137,7 @@
       <c r="N140" s="12"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="70"/>
+      <c r="A141" s="65"/>
       <c r="B141" s="10">
         <v>41737</v>
       </c>
@@ -5128,7 +5145,7 @@
       <c r="D141" s="54"/>
       <c r="E141" s="60"/>
       <c r="F141" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G141" s="25"/>
@@ -5141,7 +5158,7 @@
       <c r="N141" s="12"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
+      <c r="A142" s="65"/>
       <c r="B142" s="10">
         <v>41738</v>
       </c>
@@ -5149,7 +5166,7 @@
       <c r="D142" s="54"/>
       <c r="E142" s="60"/>
       <c r="F142" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G142" s="25"/>
@@ -5162,7 +5179,7 @@
       <c r="N142" s="12"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="70"/>
+      <c r="A143" s="65"/>
       <c r="B143" s="10">
         <v>41739</v>
       </c>
@@ -5170,7 +5187,7 @@
       <c r="D143" s="54"/>
       <c r="E143" s="60"/>
       <c r="F143" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G143" s="25"/>
@@ -5183,7 +5200,7 @@
       <c r="N143" s="12"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="71"/>
+      <c r="A144" s="66"/>
       <c r="B144" s="10">
         <v>41740</v>
       </c>
@@ -5191,7 +5208,7 @@
       <c r="D144" s="54"/>
       <c r="E144" s="60"/>
       <c r="F144" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G144" s="25"/>
@@ -5204,7 +5221,7 @@
       <c r="N144" s="12"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="75">
+      <c r="A145" s="69">
         <v>24</v>
       </c>
       <c r="B145" s="11">
@@ -5214,7 +5231,7 @@
       <c r="D145" s="13"/>
       <c r="E145" s="39"/>
       <c r="F145" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G145" s="49"/>
@@ -5227,7 +5244,7 @@
       <c r="N145" s="12"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="73"/>
+      <c r="A146" s="67"/>
       <c r="B146" s="11">
         <v>41744</v>
       </c>
@@ -5235,7 +5252,7 @@
       <c r="D146" s="13"/>
       <c r="E146" s="39"/>
       <c r="F146" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G146" s="49"/>
@@ -5248,7 +5265,7 @@
       <c r="N146" s="12"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="73"/>
+      <c r="A147" s="67"/>
       <c r="B147" s="11">
         <v>41745</v>
       </c>
@@ -5256,7 +5273,7 @@
       <c r="D147" s="13"/>
       <c r="E147" s="39"/>
       <c r="F147" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G147" s="49"/>
@@ -5269,7 +5286,7 @@
       <c r="N147" s="12"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="73"/>
+      <c r="A148" s="67"/>
       <c r="B148" s="11">
         <v>41746</v>
       </c>
@@ -5277,7 +5294,7 @@
       <c r="D148" s="13"/>
       <c r="E148" s="39"/>
       <c r="F148" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G148" s="49"/>
@@ -5290,7 +5307,7 @@
       <c r="N148" s="12"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="74"/>
+      <c r="A149" s="68"/>
       <c r="B149" s="11">
         <v>41747</v>
       </c>
@@ -5298,7 +5315,7 @@
       <c r="D149" s="13"/>
       <c r="E149" s="39"/>
       <c r="F149" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G149" s="49"/>
@@ -5311,7 +5328,7 @@
       <c r="N149" s="12"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="69">
+      <c r="A150" s="70">
         <v>25</v>
       </c>
       <c r="B150" s="10">
@@ -5321,7 +5338,7 @@
       <c r="D150" s="54"/>
       <c r="E150" s="60"/>
       <c r="F150" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G150" s="25"/>
@@ -5334,7 +5351,7 @@
       <c r="N150" s="12"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="70"/>
+      <c r="A151" s="65"/>
       <c r="B151" s="10">
         <v>41751</v>
       </c>
@@ -5342,7 +5359,7 @@
       <c r="D151" s="54"/>
       <c r="E151" s="60"/>
       <c r="F151" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G151" s="25"/>
@@ -5355,7 +5372,7 @@
       <c r="N151" s="12"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="70"/>
+      <c r="A152" s="65"/>
       <c r="B152" s="10">
         <v>41752</v>
       </c>
@@ -5363,7 +5380,7 @@
       <c r="D152" s="54"/>
       <c r="E152" s="60"/>
       <c r="F152" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G152" s="25"/>
@@ -5376,7 +5393,7 @@
       <c r="N152" s="12"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="70"/>
+      <c r="A153" s="65"/>
       <c r="B153" s="10">
         <v>41753</v>
       </c>
@@ -5384,7 +5401,7 @@
       <c r="D153" s="54"/>
       <c r="E153" s="60"/>
       <c r="F153" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G153" s="25"/>
@@ -5397,7 +5414,7 @@
       <c r="N153" s="12"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="71"/>
+      <c r="A154" s="66"/>
       <c r="B154" s="10">
         <v>41754</v>
       </c>
@@ -5405,7 +5422,7 @@
       <c r="D154" s="54"/>
       <c r="E154" s="60"/>
       <c r="F154" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G154" s="25"/>
@@ -5418,7 +5435,7 @@
       <c r="N154" s="12"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="75">
+      <c r="A155" s="69">
         <v>26</v>
       </c>
       <c r="B155" s="11">
@@ -5428,7 +5445,7 @@
       <c r="D155" s="13"/>
       <c r="E155" s="39"/>
       <c r="F155" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G155" s="49"/>
@@ -5441,7 +5458,7 @@
       <c r="N155" s="12"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="73"/>
+      <c r="A156" s="67"/>
       <c r="B156" s="11">
         <v>41758</v>
       </c>
@@ -5449,7 +5466,7 @@
       <c r="D156" s="13"/>
       <c r="E156" s="39"/>
       <c r="F156" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G156" s="49"/>
@@ -5462,7 +5479,7 @@
       <c r="N156" s="12"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="73"/>
+      <c r="A157" s="67"/>
       <c r="B157" s="11">
         <v>41759</v>
       </c>
@@ -5470,7 +5487,7 @@
       <c r="D157" s="13"/>
       <c r="E157" s="39"/>
       <c r="F157" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G157" s="49"/>
@@ -5483,7 +5500,7 @@
       <c r="N157" s="12"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="73"/>
+      <c r="A158" s="67"/>
       <c r="B158" s="11">
         <v>41760</v>
       </c>
@@ -5491,7 +5508,7 @@
       <c r="D158" s="13"/>
       <c r="E158" s="39"/>
       <c r="F158" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G158" s="49"/>
@@ -5504,7 +5521,7 @@
       <c r="N158" s="12"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="74"/>
+      <c r="A159" s="68"/>
       <c r="B159" s="11">
         <v>41761</v>
       </c>
@@ -5512,7 +5529,7 @@
       <c r="D159" s="13"/>
       <c r="E159" s="39"/>
       <c r="F159" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G159" s="49"/>
@@ -5525,7 +5542,7 @@
       <c r="N159" s="12"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="69">
+      <c r="A160" s="70">
         <v>27</v>
       </c>
       <c r="B160" s="10">
@@ -5535,7 +5552,7 @@
       <c r="D160" s="54"/>
       <c r="E160" s="60"/>
       <c r="F160" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G160" s="25"/>
@@ -5548,7 +5565,7 @@
       <c r="N160" s="12"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="70"/>
+      <c r="A161" s="65"/>
       <c r="B161" s="10">
         <v>41765</v>
       </c>
@@ -5556,7 +5573,7 @@
       <c r="D161" s="54"/>
       <c r="E161" s="60"/>
       <c r="F161" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G161" s="25"/>
@@ -5569,7 +5586,7 @@
       <c r="N161" s="12"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="70"/>
+      <c r="A162" s="65"/>
       <c r="B162" s="10">
         <v>41766</v>
       </c>
@@ -5577,7 +5594,7 @@
       <c r="D162" s="54"/>
       <c r="E162" s="60"/>
       <c r="F162" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G162" s="25"/>
@@ -5590,7 +5607,7 @@
       <c r="N162" s="12"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="70"/>
+      <c r="A163" s="65"/>
       <c r="B163" s="10">
         <v>41767</v>
       </c>
@@ -5598,7 +5615,7 @@
       <c r="D163" s="54"/>
       <c r="E163" s="60"/>
       <c r="F163" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G163" s="25"/>
@@ -5611,7 +5628,7 @@
       <c r="N163" s="12"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="71"/>
+      <c r="A164" s="66"/>
       <c r="B164" s="10">
         <v>41768</v>
       </c>
@@ -5619,7 +5636,7 @@
       <c r="D164" s="54"/>
       <c r="E164" s="60"/>
       <c r="F164" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G164" s="25"/>
@@ -5632,7 +5649,7 @@
       <c r="N164" s="12"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="75">
+      <c r="A165" s="69">
         <v>28</v>
       </c>
       <c r="B165" s="11">
@@ -5642,7 +5659,7 @@
       <c r="D165" s="13"/>
       <c r="E165" s="39"/>
       <c r="F165" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G165" s="49"/>
@@ -5655,7 +5672,7 @@
       <c r="N165" s="12"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="73"/>
+      <c r="A166" s="67"/>
       <c r="B166" s="11">
         <v>41772</v>
       </c>
@@ -5663,7 +5680,7 @@
       <c r="D166" s="13"/>
       <c r="E166" s="39"/>
       <c r="F166" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G166" s="49"/>
@@ -5676,7 +5693,7 @@
       <c r="N166" s="12"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="73"/>
+      <c r="A167" s="67"/>
       <c r="B167" s="11">
         <v>41773</v>
       </c>
@@ -5684,7 +5701,7 @@
       <c r="D167" s="13"/>
       <c r="E167" s="39"/>
       <c r="F167" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G167" s="49"/>
@@ -5697,7 +5714,7 @@
       <c r="N167" s="12"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="73"/>
+      <c r="A168" s="67"/>
       <c r="B168" s="11">
         <v>41774</v>
       </c>
@@ -5705,7 +5722,7 @@
       <c r="D168" s="13"/>
       <c r="E168" s="39"/>
       <c r="F168" s="13">
-        <f t="shared" ref="F168:F179" si="4">E168</f>
+        <f t="shared" ref="F168:F179" si="5">E168</f>
         <v>0</v>
       </c>
       <c r="G168" s="49"/>
@@ -5718,7 +5735,7 @@
       <c r="N168" s="12"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="74"/>
+      <c r="A169" s="68"/>
       <c r="B169" s="11">
         <v>41775</v>
       </c>
@@ -5726,7 +5743,7 @@
       <c r="D169" s="13"/>
       <c r="E169" s="39"/>
       <c r="F169" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G169" s="49"/>
@@ -5739,7 +5756,7 @@
       <c r="N169" s="12"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="69">
+      <c r="A170" s="70">
         <v>29</v>
       </c>
       <c r="B170" s="10">
@@ -5749,7 +5766,7 @@
       <c r="D170" s="54"/>
       <c r="E170" s="60"/>
       <c r="F170" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G170" s="25"/>
@@ -5762,7 +5779,7 @@
       <c r="N170" s="12"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="70"/>
+      <c r="A171" s="65"/>
       <c r="B171" s="10">
         <v>41779</v>
       </c>
@@ -5770,7 +5787,7 @@
       <c r="D171" s="54"/>
       <c r="E171" s="60"/>
       <c r="F171" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G171" s="25"/>
@@ -5783,7 +5800,7 @@
       <c r="N171" s="12"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="70"/>
+      <c r="A172" s="65"/>
       <c r="B172" s="10">
         <v>41780</v>
       </c>
@@ -5791,7 +5808,7 @@
       <c r="D172" s="54"/>
       <c r="E172" s="60"/>
       <c r="F172" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G172" s="25"/>
@@ -5804,7 +5821,7 @@
       <c r="N172" s="12"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="70"/>
+      <c r="A173" s="65"/>
       <c r="B173" s="10">
         <v>41781</v>
       </c>
@@ -5812,7 +5829,7 @@
       <c r="D173" s="54"/>
       <c r="E173" s="60"/>
       <c r="F173" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G173" s="25"/>
@@ -5825,7 +5842,7 @@
       <c r="N173" s="12"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="71"/>
+      <c r="A174" s="66"/>
       <c r="B174" s="10">
         <v>41782</v>
       </c>
@@ -5833,7 +5850,7 @@
       <c r="D174" s="54"/>
       <c r="E174" s="60"/>
       <c r="F174" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G174" s="25"/>
@@ -5846,7 +5863,7 @@
       <c r="N174" s="12"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="113">
+      <c r="A175" s="73">
         <v>30</v>
       </c>
       <c r="B175" s="11">
@@ -5856,7 +5873,7 @@
       <c r="D175" s="31"/>
       <c r="E175" s="32"/>
       <c r="F175" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G175" s="55"/>
@@ -5869,7 +5886,7 @@
       <c r="N175" s="12"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="114"/>
+      <c r="A176" s="74"/>
       <c r="B176" s="11">
         <v>41786</v>
       </c>
@@ -5877,7 +5894,7 @@
       <c r="D176" s="31"/>
       <c r="E176" s="32"/>
       <c r="F176" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G176" s="55"/>
@@ -5890,7 +5907,7 @@
       <c r="N176" s="12"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="114"/>
+      <c r="A177" s="74"/>
       <c r="B177" s="11">
         <v>41787</v>
       </c>
@@ -5898,7 +5915,7 @@
       <c r="D177" s="31"/>
       <c r="E177" s="32"/>
       <c r="F177" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G177" s="55"/>
@@ -5911,7 +5928,7 @@
       <c r="N177" s="12"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="114"/>
+      <c r="A178" s="74"/>
       <c r="B178" s="11">
         <v>41788</v>
       </c>
@@ -5919,7 +5936,7 @@
       <c r="D178" s="31"/>
       <c r="E178" s="32"/>
       <c r="F178" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G178" s="55"/>
@@ -5932,7 +5949,7 @@
       <c r="N178" s="12"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="115"/>
+      <c r="A179" s="75"/>
       <c r="B179" s="11">
         <v>41789</v>
       </c>
@@ -5940,7 +5957,7 @@
       <c r="D179" s="31"/>
       <c r="E179" s="32"/>
       <c r="F179" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G179" s="55"/>
@@ -5954,45 +5971,23 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A175:A179"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F15:F16"/>
@@ -6005,35 +6000,57 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -6047,7 +6064,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="52" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6066,7 +6083,7 @@
           <xm:sqref>M10:M12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="51" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6085,7 +6102,7 @@
           <xm:sqref>M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="50" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6104,7 +6121,7 @@
           <xm:sqref>M15:M17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="49" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6123,7 +6140,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="46" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6142,7 +6159,7 @@
           <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="45" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6161,7 +6178,7 @@
           <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="44" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6180,7 +6197,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="43" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6199,7 +6216,7 @@
           <xm:sqref>M24:M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="42" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6218,7 +6235,7 @@
           <xm:sqref>M29:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="41" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6237,7 +6254,7 @@
           <xm:sqref>M34:M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="40" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6256,7 +6273,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="39" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6275,7 +6292,7 @@
           <xm:sqref>M40:M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="38" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6294,7 +6311,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="37" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6313,7 +6330,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="34" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6332,7 +6349,7 @@
           <xm:sqref>M49:M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="31" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6351,7 +6368,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="30" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6370,7 +6387,7 @@
           <xm:sqref>M56:M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="28" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6389,7 +6406,7 @@
           <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="27" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6408,7 +6425,7 @@
           <xm:sqref>M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="26" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6427,7 +6444,7 @@
           <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="25" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6446,7 +6463,7 @@
           <xm:sqref>M61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="24" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6465,7 +6482,7 @@
           <xm:sqref>M62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="23" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6484,7 +6501,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
+          <x14:cfRule type="iconSet" priority="15" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6503,7 +6520,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{207F404F-5724-411F-826F-330204927AC3}">
+          <x14:cfRule type="iconSet" priority="10" id="{207F404F-5724-411F-826F-330204927AC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6522,7 +6539,7 @@
           <xm:sqref>F19 F21 F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
+          <x14:cfRule type="iconSet" priority="9" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6541,7 +6558,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
+          <x14:cfRule type="iconSet" priority="8" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6560,7 +6577,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
+          <x14:cfRule type="iconSet" priority="7" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6579,7 +6596,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
+          <x14:cfRule type="iconSet" priority="6" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6598,7 +6615,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
+          <x14:cfRule type="iconSet" priority="5" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6617,7 +6634,7 @@
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
+          <x14:cfRule type="iconSet" priority="4" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6636,7 +6653,7 @@
           <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="54" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6655,7 +6672,7 @@
           <xm:sqref>M45:M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{AC159E3E-B0BA-401C-963A-83733E6BE004}">
+          <x14:cfRule type="iconSet" priority="3" id="{AC159E3E-B0BA-401C-963A-83733E6BE004}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6674,7 +6691,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="59" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6690,7 +6707,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F49:F50 F7:F8 F15 F13 F10:F11 F44:F46 F17 F54 F59:F179 F56:F57</xm:sqref>
+          <xm:sqref>F49:F50 F7:F8 F15 F13 F10:F11 F44:F46 F17 F54 F60:F179 F56:F57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{7B421C1E-AC06-4437-8AD1-5DD8C97B8A4F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F59</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
   <si>
     <t>Week</t>
   </si>
@@ -487,6 +487,30 @@
   <si>
     <t>Update use case diagram "Danh muc" module
 Draw interface "Danh muc" module</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Research Java with team</t>
+  </si>
+  <si>
+    <t>10:00AM</t>
+  </si>
+  <si>
+    <t>3:30PM</t>
+  </si>
+  <si>
+    <t>Training validation with spring in Java</t>
+  </si>
+  <si>
+    <t>12:00PM</t>
+  </si>
+  <si>
+    <t>Meeting about internal way of works</t>
+  </si>
+  <si>
+    <t>Review architecturals drivers specification</t>
   </si>
 </sst>
 </file>
@@ -777,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -929,173 +953,221 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,13 +1602,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:P179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1545,109 +1617,114 @@
     <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="7.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="97"/>
-    </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="56" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="102"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="105"/>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="J5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
@@ -1667,24 +1744,27 @@
         <v>59</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-    </row>
-    <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+    </row>
+    <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="106">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1703,29 +1783,30 @@
         <f>E7</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="102" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="20">
-        <f>SUM(M8:M62)</f>
+      <c r="M7" s="110"/>
+      <c r="N7" s="20">
+        <f>SUM(N8:N62)</f>
         <v>68.38</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="O7" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="76">
+    <row r="8" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="81">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1737,33 +1818,34 @@
       <c r="E8" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="79">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="24">
+      <c r="M8" s="73"/>
+      <c r="N8" s="24">
         <f>SUM(E7:E9)</f>
         <v>2.82</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="77"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="108"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
@@ -1773,25 +1855,26 @@
       <c r="E9" s="16">
         <v>0.5</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="12"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="126">
         <v>2</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="91">
         <v>41589</v>
       </c>
       <c r="C10" s="26">
@@ -1807,30 +1890,31 @@
         <f>E10</f>
         <v>1.5</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="I10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32">
+      <c r="M10" s="31"/>
+      <c r="N10" s="32">
         <f>SUM(E10:E18)</f>
         <v>12.5</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="72"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -1844,24 +1928,25 @@
         <f>E11</f>
         <v>1.5</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="27"/>
+      <c r="H11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="J11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
@@ -1878,25 +1963,26 @@
         <f>E12</f>
         <v>2.25</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="I12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="J12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="71">
+      <c r="K12" s="55"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="127"/>
+      <c r="B13" s="91">
         <v>41591</v>
       </c>
       <c r="C13" s="37">
@@ -1908,28 +1994,29 @@
       <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="124">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="70"/>
+      <c r="H13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="J13" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="72"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="37">
         <v>0.91666666666666663</v>
       </c>
@@ -1939,32 +2026,33 @@
       <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="125"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="I14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="J14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="39">
+      <c r="M14" s="13"/>
+      <c r="N14" s="39">
         <f>SUM(E19:E31)</f>
         <v>21.9</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="71">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
+      <c r="B15" s="91">
         <v>41592</v>
       </c>
       <c r="C15" s="37">
@@ -1976,35 +2064,36 @@
       <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="124">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="70"/>
+      <c r="H15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="I15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="J15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="39">
+      <c r="M15" s="13"/>
+      <c r="N15" s="39">
         <f>SUM(E34:E44)</f>
         <v>20.16</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="O15" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="72"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="37">
         <v>0.375</v>
       </c>
@@ -2014,25 +2103,26 @@
       <c r="E16" s="38">
         <v>1.25</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="125"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="I16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="J16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="71">
+      <c r="K16" s="55"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
+      <c r="B17" s="91">
         <v>41593</v>
       </c>
       <c r="C17" s="37">
@@ -2044,24 +2134,25 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="124">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="70"/>
+      <c r="H17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="72"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="37">
         <v>0.83333333333333337</v>
       </c>
@@ -2071,34 +2162,35 @@
       <c r="E18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="40" t="s">
+      <c r="F18" s="125"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="55"/>
+      <c r="L18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="39">
+      <c r="M18" s="13"/>
+      <c r="N18" s="39">
         <f>SUM(E45:E49)</f>
         <v>11</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="O18" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
         <v>3</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="81">
         <v>41596</v>
       </c>
       <c r="C19" s="43">
@@ -2110,35 +2202,36 @@
       <c r="E19" s="57">
         <v>1</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="79">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="68"/>
+      <c r="H19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="J19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="39">
+      <c r="M19" s="13"/>
+      <c r="N19" s="39">
         <f>SUM(E65:E69)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="O19" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="77"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="85"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2148,23 +2241,24 @@
       <c r="E20" s="57">
         <v>2</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="123"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="I20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="76">
+      <c r="K20" s="25"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="81">
         <v>41597</v>
       </c>
       <c r="C21" s="43">
@@ -2176,31 +2270,32 @@
       <c r="E21" s="57">
         <v>1</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="79">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="68"/>
+      <c r="H21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="25"/>
+      <c r="L21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="39">
+      <c r="M21" s="13"/>
+      <c r="N21" s="39">
         <f>SUM(E70:E74)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="O21" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="77"/>
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="43">
         <v>0.875</v>
       </c>
@@ -2210,24 +2305,25 @@
       <c r="E22" s="57">
         <v>1.5</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="I22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="J22" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="21"/>
-    </row>
-    <row r="23" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="85"/>
       <c r="B23" s="10">
         <v>41598</v>
       </c>
@@ -2244,29 +2340,30 @@
         <f>E23</f>
         <v>3.5</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="I23" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="39">
+      <c r="M23" s="13"/>
+      <c r="N23" s="39">
         <f>SUM(E75:E79)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="O23" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="76">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="81">
         <v>41599</v>
       </c>
       <c r="C24" s="43">
@@ -2278,33 +2375,34 @@
       <c r="E24" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="79">
         <f>SUM(E24:E28)</f>
         <v>7.65</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="68"/>
+      <c r="H24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="I24" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="39">
+      <c r="M24" s="13"/>
+      <c r="N24" s="39">
         <f>SUM(E80:E84)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="O24" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="84"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="43">
         <v>0.4236111111111111</v>
       </c>
@@ -2314,21 +2412,22 @@
       <c r="E25" s="57">
         <v>1.33</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="80"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="21"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="84"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="85"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="43">
         <v>0.5625</v>
       </c>
@@ -2338,23 +2437,24 @@
       <c r="E26" s="57">
         <v>1</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="80"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="I26" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="21"/>
-    </row>
-    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="84"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="85"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="43">
         <v>0.625</v>
       </c>
@@ -2364,23 +2464,24 @@
       <c r="E27" s="57">
         <v>2.16</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="80"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="I27" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="21"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="77"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="85"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="43">
         <v>0.875</v>
       </c>
@@ -2390,23 +2491,24 @@
       <c r="E28" s="57">
         <v>2</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="123"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="I28" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="21"/>
-    </row>
-    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="76">
+      <c r="K28" s="25"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="85"/>
+      <c r="B29" s="81">
         <v>41600</v>
       </c>
       <c r="C29" s="43">
@@ -2418,33 +2520,34 @@
       <c r="E29" s="57">
         <v>1.25</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="79">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="68"/>
+      <c r="H29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="I29" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="39">
+      <c r="M29" s="13"/>
+      <c r="N29" s="39">
         <f>SUM(E85:E89)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="O29" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="84"/>
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="43">
         <v>0.64583333333333337</v>
       </c>
@@ -2454,23 +2557,24 @@
       <c r="E30" s="57">
         <v>1</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="80"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="I30" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="21"/>
-    </row>
-    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="77"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="85"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2480,23 +2584,24 @@
       <c r="E31" s="57">
         <v>3</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="123"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="I31" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="76">
+      <c r="K31" s="25"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
+      <c r="B32" s="81">
         <v>41601</v>
       </c>
       <c r="C32" s="43">
@@ -2508,26 +2613,27 @@
       <c r="E32" s="57">
         <v>0.25</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="79">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="68"/>
+      <c r="H32" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="I32" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="21"/>
-    </row>
-    <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="77"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="43">
         <v>0.57291666666666663</v>
       </c>
@@ -2537,24 +2643,25 @@
       <c r="E33" s="57">
         <v>1</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="25" t="s">
+      <c r="F33" s="80"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="I33" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="J33" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+      <c r="K33" s="25"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="90">
         <v>4</v>
       </c>
       <c r="B34" s="11">
@@ -2569,33 +2676,34 @@
       <c r="E34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="70">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="70"/>
+      <c r="H34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="I34" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="49"/>
       <c r="J34" s="49"/>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="49"/>
+      <c r="L34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="39">
+      <c r="M34" s="13"/>
+      <c r="N34" s="39">
         <f>SUM(E90:E94)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="O34" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="71">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="88"/>
+      <c r="B35" s="91">
         <v>41604</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -2607,26 +2715,27 @@
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="115">
+      <c r="F35" s="87">
         <f>SUM(E35:E38)</f>
         <v>6.5</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="78"/>
+      <c r="H35" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="I35" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="49"/>
       <c r="J35" s="49"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="21"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="116"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="88"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="48" t="s">
         <v>88</v>
       </c>
@@ -2636,23 +2745,24 @@
       <c r="E36" s="38">
         <v>2.5</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="49" t="s">
+      <c r="F36" s="88"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="I36" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="49"/>
       <c r="J36" s="49"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="21"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="116"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="88"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="48" t="s">
         <v>90</v>
       </c>
@@ -2662,23 +2772,24 @@
       <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="49" t="s">
+      <c r="F37" s="88"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="I37" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="49"/>
       <c r="J37" s="49"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="21"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="72"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="88"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="48" t="s">
         <v>91</v>
       </c>
@@ -2688,23 +2799,24 @@
       <c r="E38" s="59">
         <v>2</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="49" t="s">
+      <c r="F38" s="89"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="I38" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="49"/>
       <c r="J38" s="49"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="21"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="71">
+      <c r="K38" s="49"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="88"/>
+      <c r="B39" s="91">
         <v>41605</v>
       </c>
       <c r="C39" s="48" t="s">
@@ -2716,33 +2828,34 @@
       <c r="E39" s="59">
         <v>2.33</v>
       </c>
-      <c r="F39" s="69">
+      <c r="F39" s="90">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="66"/>
+      <c r="H39" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="I39" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="49"/>
       <c r="J39" s="49"/>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="49"/>
+      <c r="L39" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="39">
+      <c r="M39" s="13"/>
+      <c r="N39" s="39">
         <f>SUM(E95:E99)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="O39" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="72"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="88"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="48" t="s">
         <v>89</v>
       </c>
@@ -2752,30 +2865,31 @@
       <c r="E40" s="59">
         <v>1</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="49" t="s">
+      <c r="F40" s="89"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="I40" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="49"/>
       <c r="J40" s="49"/>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="49"/>
+      <c r="L40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="39">
+      <c r="M40" s="13"/>
+      <c r="N40" s="39">
         <f>SUM(E100:E104)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="O40" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="71">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="88"/>
+      <c r="B41" s="91">
         <v>41606</v>
       </c>
       <c r="C41" s="48" t="s">
@@ -2787,26 +2901,27 @@
       <c r="E41" s="59">
         <v>1.33</v>
       </c>
-      <c r="F41" s="69">
+      <c r="F41" s="90">
         <f>SUM(E41:E43)</f>
         <v>5.83</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="66"/>
+      <c r="H41" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="I41" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I41" s="49"/>
       <c r="J41" s="49"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="21"/>
-    </row>
-    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="116"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="88"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="48" t="s">
         <v>97</v>
       </c>
@@ -2816,23 +2931,24 @@
       <c r="E42" s="59">
         <v>1.75</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="49" t="s">
+      <c r="F42" s="88"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="I42" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="49"/>
       <c r="J42" s="49"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="21"/>
-    </row>
-    <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="72"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="88"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="48" t="s">
         <v>94</v>
       </c>
@@ -2842,29 +2958,30 @@
       <c r="E43" s="59">
         <v>2.75</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="49" t="s">
+      <c r="F43" s="89"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="51" t="s">
+      <c r="I43" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I43" s="49"/>
       <c r="J43" s="49"/>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="49"/>
+      <c r="L43" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="39">
+      <c r="M43" s="13"/>
+      <c r="N43" s="39">
         <f>SUM(E105:E109)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="O43" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="89"/>
       <c r="B44" s="11">
         <v>41607</v>
       </c>
@@ -2881,29 +2998,30 @@
         <f t="shared" ref="F44:F71" si="0">E44</f>
         <v>3.5</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="48"/>
+      <c r="H44" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="49"/>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
-      <c r="K44" s="23" t="s">
+      <c r="K44" s="49"/>
+      <c r="L44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="39">
+      <c r="M44" s="13"/>
+      <c r="N44" s="39">
         <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="O44" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
+    <row r="45" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="85">
         <v>5</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="81">
         <v>41611</v>
       </c>
       <c r="C45" s="44" t="s">
@@ -2915,33 +3033,34 @@
       <c r="E45" s="57">
         <v>1.5</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="84">
         <f>SUM(E45:E48)</f>
         <v>6.5</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="67"/>
+      <c r="H45" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="45" t="s">
+      <c r="I45" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="23" t="s">
+      <c r="K45" s="25"/>
+      <c r="L45" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="39">
+      <c r="M45" s="13"/>
+      <c r="N45" s="39">
         <f>SUM(E120:E124)</f>
         <v>0</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="O45" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="84"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="85"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="44" t="s">
         <v>118</v>
       </c>
@@ -2951,23 +3070,24 @@
       <c r="E46" s="57">
         <v>0.5</v>
       </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="25" t="s">
+      <c r="F46" s="85"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="46" t="s">
+      <c r="I46" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="21"/>
-    </row>
-    <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="84"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="85"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="44" t="s">
         <v>94</v>
       </c>
@@ -2977,23 +3097,24 @@
       <c r="E47" s="57">
         <v>3.5</v>
       </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="25" t="s">
+      <c r="F47" s="85"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="45" t="s">
+      <c r="I47" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="21"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="77"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="85"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="44" t="s">
         <v>113</v>
       </c>
@@ -3003,22 +3124,23 @@
       <c r="E48" s="57">
         <v>1</v>
       </c>
-      <c r="F48" s="66"/>
-      <c r="G48" s="25" t="s">
+      <c r="F48" s="86"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="I48" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="21"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="85"/>
       <c r="B49" s="10">
         <v>41612</v>
       </c>
@@ -3035,26 +3157,27 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="23" t="s">
+      <c r="K49" s="25"/>
+      <c r="L49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="39">
+      <c r="M49" s="13"/>
+      <c r="N49" s="39">
         <f>SUM(E125:E129)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="21" t="s">
+      <c r="O49" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="85"/>
       <c r="B50" s="10">
         <v>41613</v>
       </c>
@@ -3067,25 +3190,26 @@
       <c r="E50" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="131">
         <f>SUM(E50:E53)</f>
         <v>4.82</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="61"/>
+      <c r="H50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="46" t="s">
+      <c r="I50" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="21"/>
-    </row>
-    <row r="51" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="85"/>
       <c r="B51" s="10">
         <v>41613</v>
       </c>
@@ -3098,22 +3222,23 @@
       <c r="E51" s="57">
         <v>1.5</v>
       </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="25" t="s">
+      <c r="F51" s="85"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="I51" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="21"/>
-    </row>
-    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="85"/>
       <c r="B52" s="10">
         <v>41613</v>
       </c>
@@ -3126,22 +3251,23 @@
       <c r="E52" s="57">
         <v>0.66</v>
       </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="25" t="s">
+      <c r="F52" s="85"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="I52" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="85"/>
       <c r="B53" s="10">
         <v>41613</v>
       </c>
@@ -3154,22 +3280,23 @@
       <c r="E53" s="57">
         <v>1.5</v>
       </c>
-      <c r="F53" s="66"/>
-      <c r="G53" s="25" t="s">
+      <c r="F53" s="86"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="I53" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="21"/>
-    </row>
-    <row r="54" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="67">
+      <c r="K53" s="25"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="88">
         <v>6</v>
       </c>
       <c r="B54" s="11">
@@ -3184,25 +3311,26 @@
       <c r="E54" s="48">
         <v>4.5</v>
       </c>
-      <c r="F54" s="69">
+      <c r="F54" s="90">
         <f>SUM(E54:E55)</f>
         <v>5.5</v>
       </c>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="66"/>
+      <c r="H54" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="50" t="s">
+      <c r="I54" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="I54" s="49"/>
       <c r="J54" s="49"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="21"/>
-    </row>
-    <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="88"/>
       <c r="B55" s="11">
         <v>41617</v>
       </c>
@@ -3215,29 +3343,30 @@
       <c r="E55" s="48">
         <v>1</v>
       </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="49" t="s">
+      <c r="F55" s="89"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="50" t="s">
+      <c r="I55" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="I55" s="49"/>
       <c r="J55" s="49"/>
-      <c r="K55" s="23" t="s">
+      <c r="K55" s="49"/>
+      <c r="L55" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="39">
+      <c r="M55" s="13"/>
+      <c r="N55" s="39">
         <f>SUM(E140:E144)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="21" t="s">
+      <c r="O55" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="88"/>
       <c r="B56" s="11">
         <v>41618</v>
       </c>
@@ -3254,76 +3383,95 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="13"/>
+      <c r="H56" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="51" t="s">
+      <c r="I56" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="I56" s="49"/>
       <c r="J56" s="49"/>
-      <c r="K56" s="23" t="s">
+      <c r="K56" s="49"/>
+      <c r="L56" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="39">
+      <c r="M56" s="13"/>
+      <c r="N56" s="39">
         <f>SUM(E145:E149)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="21" t="s">
+      <c r="O56" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="71">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="88"/>
+      <c r="B57" s="91">
         <v>41620</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="69">
-        <f>E58</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="49"/>
+      <c r="C57" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="48">
+        <v>1</v>
+      </c>
+      <c r="F57" s="90">
+        <f>SUM(E57,E58)</f>
+        <v>4</v>
+      </c>
+      <c r="G57" s="90"/>
+      <c r="H57" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="51" t="s">
+        <v>144</v>
+      </c>
       <c r="J57" s="49"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="21"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="49" t="s">
+      <c r="K57" s="49"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="88"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="48">
+        <v>3</v>
+      </c>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
+      <c r="I58" s="49" t="s">
+        <v>145</v>
+      </c>
       <c r="J58" s="49"/>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="49"/>
+      <c r="L58" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="39">
+      <c r="M58" s="13"/>
+      <c r="N58" s="39">
         <f>SUM(E155:E159)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="21" t="s">
+      <c r="O58" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
+    <row r="59" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="89"/>
       <c r="B59" s="11">
         <v>41621</v>
       </c>
@@ -3337,117 +3485,148 @@
         <v>3</v>
       </c>
       <c r="F59" s="48">
-        <f t="shared" ref="F59" si="1">E59</f>
+        <f t="shared" ref="F59:F62" si="1">E59</f>
         <v>3</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="48"/>
+      <c r="H59" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="51" t="s">
+      <c r="I59" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="I59" s="49"/>
       <c r="J59" s="49"/>
-      <c r="K59" s="23" t="s">
+      <c r="K59" s="49"/>
+      <c r="L59" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="39">
+      <c r="M59" s="13"/>
+      <c r="N59" s="39">
         <f>SUM(E160:E164)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="21" t="s">
+      <c r="O59" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="84">
         <v>7</v>
       </c>
       <c r="B60" s="10">
         <v>41624</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="C60" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="44">
+        <v>3</v>
+      </c>
+      <c r="F60" s="44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="54">
+        <v>5</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="J60" s="25"/>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="25"/>
+      <c r="L60" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="39">
+      <c r="M60" s="13"/>
+      <c r="N60" s="39">
         <f>SUM(E165:E169)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="21" t="s">
+      <c r="O60" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="10">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="85"/>
+      <c r="B61" s="81">
         <v>41625</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="C61" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="44">
+        <v>2</v>
+      </c>
+      <c r="F61" s="84">
+        <f>SUM(E61,E62)</f>
+        <v>4</v>
+      </c>
+      <c r="G61" s="84">
+        <v>5</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="23" t="s">
+      <c r="K61" s="25"/>
+      <c r="L61" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L61" s="13"/>
-      <c r="M61" s="39">
+      <c r="M61" s="13"/>
+      <c r="N61" s="39">
         <f>SUM(E170:E174)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="21" t="s">
+      <c r="O61" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="10">
-        <v>41626</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="85"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="44">
+        <v>2</v>
+      </c>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>142</v>
+      </c>
       <c r="J62" s="25"/>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="25"/>
+      <c r="L62" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="39">
+      <c r="M62" s="13"/>
+      <c r="N62" s="39">
         <f>SUM(E175:E179)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="21" t="s">
+      <c r="O62" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="85"/>
       <c r="B63" s="10">
         <v>41627</v>
       </c>
@@ -3458,17 +3637,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="25"/>
+      <c r="G63" s="54">
+        <v>5</v>
+      </c>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
-      <c r="K63" s="12"/>
+      <c r="K63" s="25"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="66"/>
+      <c r="O63" s="12"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="86"/>
       <c r="B64" s="10">
         <v>41628</v>
       </c>
@@ -3479,17 +3661,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="25"/>
+      <c r="G64" s="54">
+        <v>5</v>
+      </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="12"/>
+      <c r="K64" s="25"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="69">
+      <c r="O64" s="12"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="90">
         <v>8</v>
       </c>
       <c r="B65" s="11">
@@ -3502,17 +3687,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="49"/>
+      <c r="G65" s="13">
+        <v>5</v>
+      </c>
       <c r="H65" s="49"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
-      <c r="K65" s="12"/>
+      <c r="K65" s="49"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
+      <c r="O65" s="12"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="88"/>
       <c r="B66" s="11">
         <v>41632</v>
       </c>
@@ -3523,17 +3711,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="49"/>
+      <c r="G66" s="13">
+        <v>5</v>
+      </c>
       <c r="H66" s="49"/>
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
-      <c r="K66" s="12"/>
+      <c r="K66" s="49"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
+      <c r="O66" s="12"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="88"/>
       <c r="B67" s="11">
         <v>41633</v>
       </c>
@@ -3544,17 +3735,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="49"/>
+      <c r="G67" s="13">
+        <v>5</v>
+      </c>
       <c r="H67" s="49"/>
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
-      <c r="K67" s="12"/>
+      <c r="K67" s="49"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
+      <c r="O67" s="12"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="88"/>
       <c r="B68" s="11">
         <v>41634</v>
       </c>
@@ -3565,17 +3759,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="49"/>
+      <c r="G68" s="13">
+        <v>5</v>
+      </c>
       <c r="H68" s="49"/>
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
-      <c r="K68" s="12"/>
+      <c r="K68" s="49"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
+      <c r="O68" s="12"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="89"/>
       <c r="B69" s="11">
         <v>41635</v>
       </c>
@@ -3586,17 +3783,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G69" s="49"/>
+      <c r="G69" s="13">
+        <v>5</v>
+      </c>
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
-      <c r="K69" s="12"/>
+      <c r="K69" s="49"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="70">
+      <c r="O69" s="12"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="84">
         <v>9</v>
       </c>
       <c r="B70" s="10">
@@ -3609,17 +3809,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G70" s="25"/>
+      <c r="G70" s="54">
+        <v>5</v>
+      </c>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="12"/>
+      <c r="K70" s="25"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
+      <c r="O70" s="12"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="85"/>
       <c r="B71" s="10">
         <v>41639</v>
       </c>
@@ -3630,17 +3833,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G71" s="25"/>
+      <c r="G71" s="54">
+        <v>5</v>
+      </c>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="12"/>
+      <c r="K71" s="25"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
+      <c r="O71" s="12"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="85"/>
       <c r="B72" s="10">
         <v>41640</v>
       </c>
@@ -3651,17 +3857,20 @@
         <f t="shared" ref="F72:F103" si="2">E72</f>
         <v>0</v>
       </c>
-      <c r="G72" s="25"/>
+      <c r="G72" s="54">
+        <v>5</v>
+      </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="12"/>
+      <c r="K72" s="25"/>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
+      <c r="O72" s="12"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="85"/>
       <c r="B73" s="10">
         <v>41641</v>
       </c>
@@ -3672,17 +3881,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G73" s="25"/>
+      <c r="G73" s="54">
+        <v>5</v>
+      </c>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
-      <c r="K73" s="12"/>
+      <c r="K73" s="25"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
+      <c r="O73" s="12"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="86"/>
       <c r="B74" s="10">
         <v>41642</v>
       </c>
@@ -3693,17 +3905,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G74" s="25"/>
+      <c r="G74" s="54">
+        <v>5</v>
+      </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="12"/>
+      <c r="K74" s="25"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="69">
+      <c r="O74" s="12"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="90">
         <v>10</v>
       </c>
       <c r="B75" s="11">
@@ -3716,17 +3931,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="49"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="49"/>
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
-      <c r="K75" s="12"/>
+      <c r="K75" s="49"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="O75" s="12"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="88"/>
       <c r="B76" s="11">
         <v>41646</v>
       </c>
@@ -3737,17 +3953,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="49"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="49"/>
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
-      <c r="K76" s="12"/>
+      <c r="K76" s="49"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="88"/>
       <c r="B77" s="11">
         <v>41647</v>
       </c>
@@ -3758,17 +3975,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="49"/>
+      <c r="G77" s="13"/>
       <c r="H77" s="49"/>
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
-      <c r="K77" s="12"/>
+      <c r="K77" s="49"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
+      <c r="O77" s="12"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="88"/>
       <c r="B78" s="11">
         <v>41648</v>
       </c>
@@ -3779,17 +3997,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="49"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="49"/>
       <c r="I78" s="49"/>
       <c r="J78" s="49"/>
-      <c r="K78" s="12"/>
+      <c r="K78" s="49"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
+      <c r="O78" s="12"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="89"/>
       <c r="B79" s="11">
         <v>41649</v>
       </c>
@@ -3800,17 +4019,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79" s="49"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="49"/>
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
-      <c r="K79" s="12"/>
+      <c r="K79" s="49"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="70">
+      <c r="O79" s="12"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="84">
         <v>11</v>
       </c>
       <c r="B80" s="10">
@@ -3823,17 +4043,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="25"/>
+      <c r="G80" s="54"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
-      <c r="K80" s="12"/>
+      <c r="K80" s="25"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
+      <c r="O80" s="12"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="85"/>
       <c r="B81" s="10">
         <v>41653</v>
       </c>
@@ -3844,17 +4065,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="25"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
-      <c r="K81" s="12"/>
+      <c r="K81" s="25"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
+      <c r="O81" s="12"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="85"/>
       <c r="B82" s="10">
         <v>41654</v>
       </c>
@@ -3865,17 +4087,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="25"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
-      <c r="K82" s="12"/>
+      <c r="K82" s="25"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="85"/>
       <c r="B83" s="10">
         <v>41655</v>
       </c>
@@ -3886,17 +4109,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="25"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="12"/>
+      <c r="K83" s="25"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
+      <c r="O83" s="12"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="86"/>
       <c r="B84" s="10">
         <v>41656</v>
       </c>
@@ -3907,17 +4131,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="25"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="12"/>
+      <c r="K84" s="25"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="69">
+      <c r="O84" s="12"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="90">
         <v>12</v>
       </c>
       <c r="B85" s="11">
@@ -3930,17 +4155,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="49"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="49"/>
       <c r="I85" s="49"/>
       <c r="J85" s="49"/>
-      <c r="K85" s="12"/>
+      <c r="K85" s="49"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="O85" s="12"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="88"/>
       <c r="B86" s="11">
         <v>41660</v>
       </c>
@@ -3951,17 +4177,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="49"/>
+      <c r="G86" s="13"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
-      <c r="K86" s="12"/>
+      <c r="K86" s="49"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
+      <c r="O86" s="12"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="88"/>
       <c r="B87" s="11">
         <v>41661</v>
       </c>
@@ -3972,17 +4199,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="49"/>
+      <c r="G87" s="13"/>
       <c r="H87" s="49"/>
       <c r="I87" s="49"/>
       <c r="J87" s="49"/>
-      <c r="K87" s="12"/>
+      <c r="K87" s="49"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
+      <c r="O87" s="12"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="88"/>
       <c r="B88" s="11">
         <v>41662</v>
       </c>
@@ -3993,17 +4221,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="49"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="49"/>
       <c r="I88" s="49"/>
       <c r="J88" s="49"/>
-      <c r="K88" s="12"/>
+      <c r="K88" s="49"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
+      <c r="O88" s="12"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="89"/>
       <c r="B89" s="11">
         <v>41663</v>
       </c>
@@ -4014,17 +4243,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="49"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="49"/>
       <c r="I89" s="49"/>
       <c r="J89" s="49"/>
-      <c r="K89" s="12"/>
+      <c r="K89" s="49"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="70">
+      <c r="O89" s="12"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="84">
         <v>13</v>
       </c>
       <c r="B90" s="10">
@@ -4037,19 +4267,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="54"/>
+      <c r="H90" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
-      <c r="K90" s="12"/>
+      <c r="K90" s="25"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
+      <c r="O90" s="12"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="85"/>
       <c r="B91" s="10">
         <v>41667</v>
       </c>
@@ -4060,19 +4291,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="25" t="s">
+      <c r="G91" s="54"/>
+      <c r="H91" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
-      <c r="K91" s="12"/>
+      <c r="K91" s="25"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
+      <c r="O91" s="12"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="85"/>
       <c r="B92" s="10">
         <v>41668</v>
       </c>
@@ -4083,19 +4315,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="54"/>
+      <c r="H92" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
-      <c r="K92" s="12"/>
+      <c r="K92" s="25"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
+      <c r="O92" s="12"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="85"/>
       <c r="B93" s="10">
         <v>41669</v>
       </c>
@@ -4106,19 +4339,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="G93" s="54"/>
+      <c r="H93" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
-      <c r="K93" s="12"/>
+      <c r="K93" s="25"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
+      <c r="O93" s="12"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="86"/>
       <c r="B94" s="10">
         <v>41670</v>
       </c>
@@ -4129,19 +4363,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="25" t="s">
+      <c r="G94" s="54"/>
+      <c r="H94" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="25"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
-      <c r="K94" s="12"/>
+      <c r="K94" s="25"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="69">
+      <c r="O94" s="12"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="90">
         <v>14</v>
       </c>
       <c r="B95" s="11">
@@ -4154,19 +4389,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="13"/>
+      <c r="H95" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="49"/>
       <c r="I95" s="49"/>
       <c r="J95" s="49"/>
-      <c r="K95" s="12"/>
+      <c r="K95" s="49"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="O95" s="12"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="88"/>
       <c r="B96" s="11">
         <v>41674</v>
       </c>
@@ -4177,19 +4413,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="13"/>
+      <c r="H96" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H96" s="49"/>
       <c r="I96" s="49"/>
       <c r="J96" s="49"/>
-      <c r="K96" s="12"/>
+      <c r="K96" s="49"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
+      <c r="O96" s="12"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="88"/>
       <c r="B97" s="11">
         <v>41675</v>
       </c>
@@ -4200,19 +4437,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G97" s="13"/>
+      <c r="H97" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="49"/>
       <c r="I97" s="49"/>
       <c r="J97" s="49"/>
-      <c r="K97" s="12"/>
+      <c r="K97" s="49"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
+      <c r="O97" s="12"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="88"/>
       <c r="B98" s="11">
         <v>41676</v>
       </c>
@@ -4223,19 +4461,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="55" t="s">
+      <c r="G98" s="13"/>
+      <c r="H98" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="49"/>
       <c r="I98" s="49"/>
       <c r="J98" s="49"/>
-      <c r="K98" s="12"/>
+      <c r="K98" s="49"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
+      <c r="O98" s="12"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="89"/>
       <c r="B99" s="11">
         <v>41677</v>
       </c>
@@ -4246,19 +4485,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="13"/>
+      <c r="H99" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H99" s="49"/>
       <c r="I99" s="49"/>
       <c r="J99" s="49"/>
-      <c r="K99" s="12"/>
+      <c r="K99" s="49"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="70">
+      <c r="O99" s="12"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="84">
         <v>15</v>
       </c>
       <c r="B100" s="10">
@@ -4271,17 +4511,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="25"/>
+      <c r="G100" s="54"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
-      <c r="K100" s="12"/>
+      <c r="K100" s="25"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
+      <c r="O100" s="12"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="85"/>
       <c r="B101" s="10">
         <v>41681</v>
       </c>
@@ -4292,17 +4533,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="25"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
-      <c r="K101" s="12"/>
+      <c r="K101" s="25"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
+      <c r="O101" s="12"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="85"/>
       <c r="B102" s="10">
         <v>41682</v>
       </c>
@@ -4313,17 +4555,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="25"/>
+      <c r="G102" s="54"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
-      <c r="K102" s="12"/>
+      <c r="K102" s="25"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
+      <c r="O102" s="12"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="85"/>
       <c r="B103" s="10">
         <v>41683</v>
       </c>
@@ -4334,17 +4577,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="25"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
-      <c r="K103" s="12"/>
+      <c r="K103" s="25"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="66"/>
+      <c r="O103" s="12"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="86"/>
       <c r="B104" s="10">
         <v>41684</v>
       </c>
@@ -4355,17 +4599,18 @@
         <f t="shared" ref="F104:F135" si="3">E104</f>
         <v>0</v>
       </c>
-      <c r="G104" s="25"/>
+      <c r="G104" s="54"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
-      <c r="K104" s="12"/>
+      <c r="K104" s="25"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="69">
+      <c r="O104" s="12"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="90">
         <v>16</v>
       </c>
       <c r="B105" s="11">
@@ -4378,17 +4623,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G105" s="49"/>
+      <c r="G105" s="13"/>
       <c r="H105" s="49"/>
       <c r="I105" s="49"/>
       <c r="J105" s="49"/>
-      <c r="K105" s="12"/>
+      <c r="K105" s="49"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="O105" s="12"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="88"/>
       <c r="B106" s="11">
         <v>41688</v>
       </c>
@@ -4399,17 +4645,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G106" s="49"/>
+      <c r="G106" s="13"/>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
-      <c r="K106" s="12"/>
+      <c r="K106" s="49"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="O106" s="12"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="88"/>
       <c r="B107" s="11">
         <v>41689</v>
       </c>
@@ -4420,17 +4667,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G107" s="49"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="49"/>
       <c r="I107" s="49"/>
       <c r="J107" s="49"/>
-      <c r="K107" s="12"/>
+      <c r="K107" s="49"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="O107" s="12"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="88"/>
       <c r="B108" s="11">
         <v>41690</v>
       </c>
@@ -4441,17 +4689,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G108" s="49"/>
+      <c r="G108" s="13"/>
       <c r="H108" s="49"/>
       <c r="I108" s="49"/>
       <c r="J108" s="49"/>
-      <c r="K108" s="12"/>
+      <c r="K108" s="49"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
       <c r="N108" s="12"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
+      <c r="O108" s="12"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="89"/>
       <c r="B109" s="11">
         <v>41691</v>
       </c>
@@ -4462,17 +4711,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G109" s="49"/>
+      <c r="G109" s="13"/>
       <c r="H109" s="49"/>
       <c r="I109" s="49"/>
       <c r="J109" s="49"/>
-      <c r="K109" s="12"/>
+      <c r="K109" s="49"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="70">
+      <c r="O109" s="12"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="84">
         <v>17</v>
       </c>
       <c r="B110" s="10">
@@ -4485,17 +4735,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G110" s="25"/>
+      <c r="G110" s="54"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
-      <c r="K110" s="12"/>
+      <c r="K110" s="25"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
+      <c r="O110" s="12"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="85"/>
       <c r="B111" s="10">
         <v>41695</v>
       </c>
@@ -4506,17 +4757,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G111" s="25"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
-      <c r="K111" s="12"/>
+      <c r="K111" s="25"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
+      <c r="O111" s="12"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="85"/>
       <c r="B112" s="10">
         <v>41696</v>
       </c>
@@ -4527,17 +4779,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G112" s="25"/>
+      <c r="G112" s="54"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
-      <c r="K112" s="12"/>
+      <c r="K112" s="25"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
+      <c r="O112" s="12"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="85"/>
       <c r="B113" s="10">
         <v>41697</v>
       </c>
@@ -4548,17 +4801,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G113" s="25"/>
+      <c r="G113" s="54"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
-      <c r="K113" s="12"/>
+      <c r="K113" s="25"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="66"/>
+      <c r="O113" s="12"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="86"/>
       <c r="B114" s="10">
         <v>41698</v>
       </c>
@@ -4569,17 +4823,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G114" s="25"/>
+      <c r="G114" s="54"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
-      <c r="K114" s="12"/>
+      <c r="K114" s="25"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
       <c r="N114" s="12"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="69">
+      <c r="O114" s="12"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="90">
         <v>18</v>
       </c>
       <c r="B115" s="11">
@@ -4592,17 +4847,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G115" s="49"/>
+      <c r="G115" s="13"/>
       <c r="H115" s="49"/>
       <c r="I115" s="49"/>
       <c r="J115" s="49"/>
-      <c r="K115" s="12"/>
+      <c r="K115" s="49"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="12"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="O115" s="12"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="88"/>
       <c r="B116" s="11">
         <v>41702</v>
       </c>
@@ -4613,17 +4869,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G116" s="49"/>
+      <c r="G116" s="13"/>
       <c r="H116" s="49"/>
       <c r="I116" s="49"/>
       <c r="J116" s="49"/>
-      <c r="K116" s="12"/>
+      <c r="K116" s="49"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="12"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="O116" s="12"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="88"/>
       <c r="B117" s="11">
         <v>41703</v>
       </c>
@@ -4634,17 +4891,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G117" s="49"/>
+      <c r="G117" s="13"/>
       <c r="H117" s="49"/>
       <c r="I117" s="49"/>
       <c r="J117" s="49"/>
-      <c r="K117" s="12"/>
+      <c r="K117" s="49"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="O117" s="12"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="88"/>
       <c r="B118" s="11">
         <v>41704</v>
       </c>
@@ -4655,17 +4913,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="49"/>
+      <c r="G118" s="13"/>
       <c r="H118" s="49"/>
       <c r="I118" s="49"/>
       <c r="J118" s="49"/>
-      <c r="K118" s="12"/>
+      <c r="K118" s="49"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
       <c r="N118" s="12"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="68"/>
+      <c r="O118" s="12"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="89"/>
       <c r="B119" s="11">
         <v>41705</v>
       </c>
@@ -4676,17 +4935,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G119" s="49"/>
+      <c r="G119" s="13"/>
       <c r="H119" s="49"/>
       <c r="I119" s="49"/>
       <c r="J119" s="49"/>
-      <c r="K119" s="12"/>
+      <c r="K119" s="49"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="70">
+      <c r="O119" s="12"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="84">
         <v>19</v>
       </c>
       <c r="B120" s="10">
@@ -4699,17 +4959,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G120" s="25"/>
+      <c r="G120" s="54"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
-      <c r="K120" s="12"/>
+      <c r="K120" s="25"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="65"/>
+      <c r="O120" s="12"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="85"/>
       <c r="B121" s="10">
         <v>41709</v>
       </c>
@@ -4720,17 +4981,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G121" s="25"/>
+      <c r="G121" s="54"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
-      <c r="K121" s="12"/>
+      <c r="K121" s="25"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="65"/>
+      <c r="O121" s="12"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="85"/>
       <c r="B122" s="10">
         <v>41710</v>
       </c>
@@ -4741,17 +5003,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="25"/>
+      <c r="G122" s="54"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
-      <c r="K122" s="12"/>
+      <c r="K122" s="25"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="65"/>
+      <c r="O122" s="12"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="85"/>
       <c r="B123" s="10">
         <v>41711</v>
       </c>
@@ -4762,17 +5025,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="25"/>
+      <c r="G123" s="54"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
-      <c r="K123" s="12"/>
+      <c r="K123" s="25"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="66"/>
+      <c r="O123" s="12"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="86"/>
       <c r="B124" s="10">
         <v>41712</v>
       </c>
@@ -4783,17 +5047,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G124" s="25"/>
+      <c r="G124" s="54"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
-      <c r="K124" s="12"/>
+      <c r="K124" s="25"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="69">
+      <c r="O124" s="12"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="90">
         <v>20</v>
       </c>
       <c r="B125" s="11">
@@ -4806,17 +5071,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="49"/>
+      <c r="G125" s="13"/>
       <c r="H125" s="49"/>
       <c r="I125" s="49"/>
       <c r="J125" s="49"/>
-      <c r="K125" s="12"/>
+      <c r="K125" s="49"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
       <c r="N125" s="12"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="O125" s="12"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="88"/>
       <c r="B126" s="11">
         <v>41716</v>
       </c>
@@ -4827,17 +5093,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="49"/>
+      <c r="G126" s="13"/>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
-      <c r="K126" s="12"/>
+      <c r="K126" s="49"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="O126" s="12"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="88"/>
       <c r="B127" s="11">
         <v>41717</v>
       </c>
@@ -4848,17 +5115,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="49"/>
+      <c r="G127" s="13"/>
       <c r="H127" s="49"/>
       <c r="I127" s="49"/>
       <c r="J127" s="49"/>
-      <c r="K127" s="12"/>
+      <c r="K127" s="49"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="O127" s="12"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="88"/>
       <c r="B128" s="11">
         <v>41718</v>
       </c>
@@ -4869,17 +5137,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="49"/>
+      <c r="G128" s="13"/>
       <c r="H128" s="49"/>
       <c r="I128" s="49"/>
       <c r="J128" s="49"/>
-      <c r="K128" s="12"/>
+      <c r="K128" s="49"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
       <c r="N128" s="12"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="68"/>
+      <c r="O128" s="12"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="89"/>
       <c r="B129" s="11">
         <v>41719</v>
       </c>
@@ -4890,17 +5159,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="49"/>
+      <c r="G129" s="13"/>
       <c r="H129" s="49"/>
       <c r="I129" s="49"/>
       <c r="J129" s="49"/>
-      <c r="K129" s="12"/>
+      <c r="K129" s="49"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="70">
+      <c r="O129" s="12"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="84">
         <v>21</v>
       </c>
       <c r="B130" s="10">
@@ -4913,17 +5183,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G130" s="25"/>
+      <c r="G130" s="54"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
-      <c r="K130" s="12"/>
+      <c r="K130" s="25"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
       <c r="N130" s="12"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
+      <c r="O130" s="12"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="85"/>
       <c r="B131" s="10">
         <v>41723</v>
       </c>
@@ -4934,17 +5205,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G131" s="25"/>
+      <c r="G131" s="54"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
-      <c r="K131" s="12"/>
+      <c r="K131" s="25"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
       <c r="N131" s="12"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
+      <c r="O131" s="12"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="85"/>
       <c r="B132" s="10">
         <v>41724</v>
       </c>
@@ -4955,17 +5227,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="25"/>
+      <c r="G132" s="54"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
-      <c r="K132" s="12"/>
+      <c r="K132" s="25"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
       <c r="N132" s="12"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
+      <c r="O132" s="12"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="85"/>
       <c r="B133" s="10">
         <v>41725</v>
       </c>
@@ -4976,17 +5249,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="25"/>
+      <c r="G133" s="54"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
-      <c r="K133" s="12"/>
+      <c r="K133" s="25"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
       <c r="N133" s="12"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="66"/>
+      <c r="O133" s="12"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="86"/>
       <c r="B134" s="10">
         <v>41726</v>
       </c>
@@ -4997,17 +5271,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="25"/>
+      <c r="G134" s="54"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
-      <c r="K134" s="12"/>
+      <c r="K134" s="25"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="69">
+      <c r="O134" s="12"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="90">
         <v>22</v>
       </c>
       <c r="B135" s="11">
@@ -5020,17 +5295,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="49"/>
+      <c r="G135" s="13"/>
       <c r="H135" s="49"/>
       <c r="I135" s="49"/>
       <c r="J135" s="49"/>
-      <c r="K135" s="12"/>
+      <c r="K135" s="49"/>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
       <c r="N135" s="12"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="O135" s="12"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="88"/>
       <c r="B136" s="11">
         <v>41730</v>
       </c>
@@ -5041,17 +5317,18 @@
         <f t="shared" ref="F136:F167" si="4">E136</f>
         <v>0</v>
       </c>
-      <c r="G136" s="49"/>
+      <c r="G136" s="13"/>
       <c r="H136" s="49"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
-      <c r="K136" s="12"/>
+      <c r="K136" s="49"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="O136" s="12"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="88"/>
       <c r="B137" s="11">
         <v>41731</v>
       </c>
@@ -5062,17 +5339,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G137" s="49"/>
+      <c r="G137" s="13"/>
       <c r="H137" s="49"/>
       <c r="I137" s="49"/>
       <c r="J137" s="49"/>
-      <c r="K137" s="12"/>
+      <c r="K137" s="49"/>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
       <c r="N137" s="12"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="O137" s="12"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="88"/>
       <c r="B138" s="11">
         <v>41732</v>
       </c>
@@ -5083,17 +5361,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G138" s="49"/>
+      <c r="G138" s="13"/>
       <c r="H138" s="49"/>
       <c r="I138" s="49"/>
       <c r="J138" s="49"/>
-      <c r="K138" s="12"/>
+      <c r="K138" s="49"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
       <c r="N138" s="12"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="68"/>
+      <c r="O138" s="12"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="89"/>
       <c r="B139" s="11">
         <v>41733</v>
       </c>
@@ -5104,17 +5383,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G139" s="49"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="49"/>
       <c r="I139" s="49"/>
       <c r="J139" s="49"/>
-      <c r="K139" s="12"/>
+      <c r="K139" s="49"/>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
       <c r="N139" s="12"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="70">
+      <c r="O139" s="12"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="84">
         <v>23</v>
       </c>
       <c r="B140" s="10">
@@ -5127,17 +5407,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G140" s="25"/>
+      <c r="G140" s="54"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
-      <c r="K140" s="12"/>
+      <c r="K140" s="25"/>
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
       <c r="N140" s="12"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="65"/>
+      <c r="O140" s="12"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="85"/>
       <c r="B141" s="10">
         <v>41737</v>
       </c>
@@ -5148,17 +5429,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G141" s="25"/>
+      <c r="G141" s="54"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
-      <c r="K141" s="12"/>
+      <c r="K141" s="25"/>
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
       <c r="N141" s="12"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="65"/>
+      <c r="O141" s="12"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="85"/>
       <c r="B142" s="10">
         <v>41738</v>
       </c>
@@ -5169,17 +5451,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G142" s="25"/>
+      <c r="G142" s="54"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
-      <c r="K142" s="12"/>
+      <c r="K142" s="25"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="12"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="65"/>
+      <c r="O142" s="12"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="85"/>
       <c r="B143" s="10">
         <v>41739</v>
       </c>
@@ -5190,17 +5473,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G143" s="25"/>
+      <c r="G143" s="54"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
-      <c r="K143" s="12"/>
+      <c r="K143" s="25"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
       <c r="N143" s="12"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="66"/>
+      <c r="O143" s="12"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="86"/>
       <c r="B144" s="10">
         <v>41740</v>
       </c>
@@ -5211,17 +5495,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G144" s="25"/>
+      <c r="G144" s="54"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
-      <c r="K144" s="12"/>
+      <c r="K144" s="25"/>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
       <c r="N144" s="12"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="69">
+      <c r="O144" s="12"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="90">
         <v>24</v>
       </c>
       <c r="B145" s="11">
@@ -5234,17 +5519,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G145" s="49"/>
+      <c r="G145" s="13"/>
       <c r="H145" s="49"/>
       <c r="I145" s="49"/>
       <c r="J145" s="49"/>
-      <c r="K145" s="12"/>
+      <c r="K145" s="49"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
       <c r="N145" s="12"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
+      <c r="O145" s="12"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="88"/>
       <c r="B146" s="11">
         <v>41744</v>
       </c>
@@ -5255,17 +5541,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G146" s="49"/>
+      <c r="G146" s="13"/>
       <c r="H146" s="49"/>
       <c r="I146" s="49"/>
       <c r="J146" s="49"/>
-      <c r="K146" s="12"/>
+      <c r="K146" s="49"/>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
       <c r="N146" s="12"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="O146" s="12"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="88"/>
       <c r="B147" s="11">
         <v>41745</v>
       </c>
@@ -5276,17 +5563,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G147" s="49"/>
+      <c r="G147" s="13"/>
       <c r="H147" s="49"/>
       <c r="I147" s="49"/>
       <c r="J147" s="49"/>
-      <c r="K147" s="12"/>
+      <c r="K147" s="49"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
       <c r="N147" s="12"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
+      <c r="O147" s="12"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="88"/>
       <c r="B148" s="11">
         <v>41746</v>
       </c>
@@ -5297,17 +5585,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="49"/>
+      <c r="G148" s="13"/>
       <c r="H148" s="49"/>
       <c r="I148" s="49"/>
       <c r="J148" s="49"/>
-      <c r="K148" s="12"/>
+      <c r="K148" s="49"/>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
       <c r="N148" s="12"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="68"/>
+      <c r="O148" s="12"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="89"/>
       <c r="B149" s="11">
         <v>41747</v>
       </c>
@@ -5318,17 +5607,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G149" s="49"/>
+      <c r="G149" s="13"/>
       <c r="H149" s="49"/>
       <c r="I149" s="49"/>
       <c r="J149" s="49"/>
-      <c r="K149" s="12"/>
+      <c r="K149" s="49"/>
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="70">
+      <c r="O149" s="12"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="84">
         <v>25</v>
       </c>
       <c r="B150" s="10">
@@ -5341,17 +5631,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G150" s="25"/>
+      <c r="G150" s="54"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
-      <c r="K150" s="12"/>
+      <c r="K150" s="25"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
       <c r="N150" s="12"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="65"/>
+      <c r="O150" s="12"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="85"/>
       <c r="B151" s="10">
         <v>41751</v>
       </c>
@@ -5362,17 +5653,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G151" s="25"/>
+      <c r="G151" s="54"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
-      <c r="K151" s="12"/>
+      <c r="K151" s="25"/>
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
       <c r="N151" s="12"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="65"/>
+      <c r="O151" s="12"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="85"/>
       <c r="B152" s="10">
         <v>41752</v>
       </c>
@@ -5383,17 +5675,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G152" s="25"/>
+      <c r="G152" s="54"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
-      <c r="K152" s="12"/>
+      <c r="K152" s="25"/>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
       <c r="N152" s="12"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="65"/>
+      <c r="O152" s="12"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="85"/>
       <c r="B153" s="10">
         <v>41753</v>
       </c>
@@ -5404,17 +5697,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G153" s="25"/>
+      <c r="G153" s="54"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
-      <c r="K153" s="12"/>
+      <c r="K153" s="25"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="66"/>
+      <c r="O153" s="12"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="86"/>
       <c r="B154" s="10">
         <v>41754</v>
       </c>
@@ -5425,17 +5719,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G154" s="25"/>
+      <c r="G154" s="54"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
-      <c r="K154" s="12"/>
+      <c r="K154" s="25"/>
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
       <c r="N154" s="12"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="69">
+      <c r="O154" s="12"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="90">
         <v>26</v>
       </c>
       <c r="B155" s="11">
@@ -5448,17 +5743,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G155" s="49"/>
+      <c r="G155" s="13"/>
       <c r="H155" s="49"/>
       <c r="I155" s="49"/>
       <c r="J155" s="49"/>
-      <c r="K155" s="12"/>
+      <c r="K155" s="49"/>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
       <c r="N155" s="12"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="O155" s="12"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="88"/>
       <c r="B156" s="11">
         <v>41758</v>
       </c>
@@ -5469,17 +5765,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G156" s="49"/>
+      <c r="G156" s="13"/>
       <c r="H156" s="49"/>
       <c r="I156" s="49"/>
       <c r="J156" s="49"/>
-      <c r="K156" s="12"/>
+      <c r="K156" s="49"/>
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
       <c r="N156" s="12"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
+      <c r="O156" s="12"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="88"/>
       <c r="B157" s="11">
         <v>41759</v>
       </c>
@@ -5490,17 +5787,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="49"/>
+      <c r="G157" s="13"/>
       <c r="H157" s="49"/>
       <c r="I157" s="49"/>
       <c r="J157" s="49"/>
-      <c r="K157" s="12"/>
+      <c r="K157" s="49"/>
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
       <c r="N157" s="12"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
+      <c r="O157" s="12"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="88"/>
       <c r="B158" s="11">
         <v>41760</v>
       </c>
@@ -5511,17 +5809,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="49"/>
+      <c r="G158" s="13"/>
       <c r="H158" s="49"/>
       <c r="I158" s="49"/>
       <c r="J158" s="49"/>
-      <c r="K158" s="12"/>
+      <c r="K158" s="49"/>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="68"/>
+      <c r="O158" s="12"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="89"/>
       <c r="B159" s="11">
         <v>41761</v>
       </c>
@@ -5532,17 +5831,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G159" s="49"/>
+      <c r="G159" s="13"/>
       <c r="H159" s="49"/>
       <c r="I159" s="49"/>
       <c r="J159" s="49"/>
-      <c r="K159" s="12"/>
+      <c r="K159" s="49"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
       <c r="N159" s="12"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="70">
+      <c r="O159" s="12"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="84">
         <v>27</v>
       </c>
       <c r="B160" s="10">
@@ -5555,17 +5855,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="25"/>
+      <c r="G160" s="54"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
-      <c r="K160" s="12"/>
+      <c r="K160" s="25"/>
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
       <c r="N160" s="12"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="65"/>
+      <c r="O160" s="12"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="85"/>
       <c r="B161" s="10">
         <v>41765</v>
       </c>
@@ -5576,17 +5877,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="25"/>
+      <c r="G161" s="54"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
-      <c r="K161" s="12"/>
+      <c r="K161" s="25"/>
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
       <c r="N161" s="12"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="65"/>
+      <c r="O161" s="12"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" s="85"/>
       <c r="B162" s="10">
         <v>41766</v>
       </c>
@@ -5597,17 +5899,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G162" s="25"/>
+      <c r="G162" s="54"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
-      <c r="K162" s="12"/>
+      <c r="K162" s="25"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
       <c r="N162" s="12"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="65"/>
+      <c r="O162" s="12"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="85"/>
       <c r="B163" s="10">
         <v>41767</v>
       </c>
@@ -5618,17 +5921,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="25"/>
+      <c r="G163" s="54"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
-      <c r="K163" s="12"/>
+      <c r="K163" s="25"/>
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
       <c r="N163" s="12"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="66"/>
+      <c r="O163" s="12"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="86"/>
       <c r="B164" s="10">
         <v>41768</v>
       </c>
@@ -5639,17 +5943,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G164" s="25"/>
+      <c r="G164" s="54"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
-      <c r="K164" s="12"/>
+      <c r="K164" s="25"/>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="69">
+      <c r="O164" s="12"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" s="90">
         <v>28</v>
       </c>
       <c r="B165" s="11">
@@ -5662,17 +5967,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G165" s="49"/>
+      <c r="G165" s="13"/>
       <c r="H165" s="49"/>
       <c r="I165" s="49"/>
       <c r="J165" s="49"/>
-      <c r="K165" s="12"/>
+      <c r="K165" s="49"/>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
       <c r="N165" s="12"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="67"/>
+      <c r="O165" s="12"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" s="88"/>
       <c r="B166" s="11">
         <v>41772</v>
       </c>
@@ -5683,17 +5989,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G166" s="49"/>
+      <c r="G166" s="13"/>
       <c r="H166" s="49"/>
       <c r="I166" s="49"/>
       <c r="J166" s="49"/>
-      <c r="K166" s="12"/>
+      <c r="K166" s="49"/>
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
       <c r="N166" s="12"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="67"/>
+      <c r="O166" s="12"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" s="88"/>
       <c r="B167" s="11">
         <v>41773</v>
       </c>
@@ -5704,17 +6011,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G167" s="49"/>
+      <c r="G167" s="13"/>
       <c r="H167" s="49"/>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
-      <c r="K167" s="12"/>
+      <c r="K167" s="49"/>
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
       <c r="N167" s="12"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="67"/>
+      <c r="O167" s="12"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" s="88"/>
       <c r="B168" s="11">
         <v>41774</v>
       </c>
@@ -5725,17 +6033,18 @@
         <f t="shared" ref="F168:F179" si="5">E168</f>
         <v>0</v>
       </c>
-      <c r="G168" s="49"/>
+      <c r="G168" s="13"/>
       <c r="H168" s="49"/>
       <c r="I168" s="49"/>
       <c r="J168" s="49"/>
-      <c r="K168" s="12"/>
+      <c r="K168" s="49"/>
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="68"/>
+      <c r="O168" s="12"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" s="89"/>
       <c r="B169" s="11">
         <v>41775</v>
       </c>
@@ -5746,17 +6055,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G169" s="49"/>
+      <c r="G169" s="13"/>
       <c r="H169" s="49"/>
       <c r="I169" s="49"/>
       <c r="J169" s="49"/>
-      <c r="K169" s="12"/>
+      <c r="K169" s="49"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="70">
+      <c r="O169" s="12"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" s="84">
         <v>29</v>
       </c>
       <c r="B170" s="10">
@@ -5769,17 +6079,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G170" s="25"/>
+      <c r="G170" s="54"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
-      <c r="K170" s="12"/>
+      <c r="K170" s="25"/>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="65"/>
+      <c r="O170" s="12"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" s="85"/>
       <c r="B171" s="10">
         <v>41779</v>
       </c>
@@ -5790,17 +6101,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G171" s="25"/>
+      <c r="G171" s="54"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
-      <c r="K171" s="12"/>
+      <c r="K171" s="25"/>
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="65"/>
+      <c r="O171" s="12"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" s="85"/>
       <c r="B172" s="10">
         <v>41780</v>
       </c>
@@ -5811,17 +6123,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G172" s="25"/>
+      <c r="G172" s="54"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
-      <c r="K172" s="12"/>
+      <c r="K172" s="25"/>
       <c r="L172" s="12"/>
       <c r="M172" s="12"/>
       <c r="N172" s="12"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="65"/>
+      <c r="O172" s="12"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" s="85"/>
       <c r="B173" s="10">
         <v>41781</v>
       </c>
@@ -5832,17 +6145,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G173" s="25"/>
+      <c r="G173" s="54"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
-      <c r="K173" s="12"/>
+      <c r="K173" s="25"/>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
       <c r="N173" s="12"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="66"/>
+      <c r="O173" s="12"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" s="86"/>
       <c r="B174" s="10">
         <v>41782</v>
       </c>
@@ -5853,17 +6167,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G174" s="25"/>
+      <c r="G174" s="54"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
-      <c r="K174" s="12"/>
+      <c r="K174" s="25"/>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
       <c r="N174" s="12"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="73">
+      <c r="O174" s="12"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="128">
         <v>30</v>
       </c>
       <c r="B175" s="11">
@@ -5876,17 +6191,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G175" s="55"/>
+      <c r="G175" s="31"/>
       <c r="H175" s="55"/>
       <c r="I175" s="55"/>
       <c r="J175" s="55"/>
-      <c r="K175" s="12"/>
+      <c r="K175" s="55"/>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
       <c r="N175" s="12"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="74"/>
+      <c r="O175" s="12"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" s="129"/>
       <c r="B176" s="11">
         <v>41786</v>
       </c>
@@ -5897,17 +6213,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G176" s="55"/>
+      <c r="G176" s="31"/>
       <c r="H176" s="55"/>
       <c r="I176" s="55"/>
       <c r="J176" s="55"/>
-      <c r="K176" s="12"/>
+      <c r="K176" s="55"/>
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
       <c r="N176" s="12"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="74"/>
+      <c r="O176" s="12"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" s="129"/>
       <c r="B177" s="11">
         <v>41787</v>
       </c>
@@ -5918,17 +6235,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G177" s="55"/>
+      <c r="G177" s="31"/>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
       <c r="J177" s="55"/>
-      <c r="K177" s="12"/>
+      <c r="K177" s="55"/>
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
       <c r="N177" s="12"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="74"/>
+      <c r="O177" s="12"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" s="129"/>
       <c r="B178" s="11">
         <v>41788</v>
       </c>
@@ -5939,17 +6257,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G178" s="55"/>
+      <c r="G178" s="31"/>
       <c r="H178" s="55"/>
       <c r="I178" s="55"/>
       <c r="J178" s="55"/>
-      <c r="K178" s="12"/>
+      <c r="K178" s="55"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
       <c r="N178" s="12"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="75"/>
+      <c r="O178" s="12"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="130"/>
       <c r="B179" s="11">
         <v>41789</v>
       </c>
@@ -5960,34 +6279,61 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G179" s="55"/>
+      <c r="G179" s="31"/>
       <c r="H179" s="55"/>
       <c r="I179" s="55"/>
       <c r="J179" s="55"/>
-      <c r="K179" s="12"/>
+      <c r="K179" s="55"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
       <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A5:E5"/>
+  <mergeCells count="72">
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F15:F16"/>
@@ -6000,57 +6346,35 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A175:A179"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H2:O4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -6058,13 +6382,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M13:M15 F13 F8 F15 F17 F19 F21 F24 F35 F39 F41 F45 M8 M10" formulaRange="1"/>
+    <ignoredError sqref="N13:N15 F13 F8 F15 F17 F19 F21 F24 F35 F39 F41 F45 N8 N10" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="58" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6080,10 +6404,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M10:M12</xm:sqref>
+          <xm:sqref>N10:N12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="57" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6099,10 +6423,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M14</xm:sqref>
+          <xm:sqref>N14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="56" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6118,10 +6442,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M15:M17</xm:sqref>
+          <xm:sqref>N15:N17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="55" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6137,10 +6461,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M18</xm:sqref>
+          <xm:sqref>N18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="52" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6156,10 +6480,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M19:M20</xm:sqref>
+          <xm:sqref>N19:N20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="51" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6175,10 +6499,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M21:M22</xm:sqref>
+          <xm:sqref>N21:N22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="50" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6194,10 +6518,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M23</xm:sqref>
+          <xm:sqref>N23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="49" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6213,10 +6537,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M24:M28</xm:sqref>
+          <xm:sqref>N24:N28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="48" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6232,10 +6556,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M29:M33</xm:sqref>
+          <xm:sqref>N29:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="47" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6251,10 +6575,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M34:M38</xm:sqref>
+          <xm:sqref>N34:N38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="46" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6270,10 +6594,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M39</xm:sqref>
+          <xm:sqref>N39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="45" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6289,10 +6613,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M40:M42</xm:sqref>
+          <xm:sqref>N40:N42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="44" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6308,10 +6632,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M43</xm:sqref>
+          <xm:sqref>N43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="43" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6327,10 +6651,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M44</xm:sqref>
+          <xm:sqref>N44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="40" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6346,10 +6670,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M49:M54</xm:sqref>
+          <xm:sqref>N49:N54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="37" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6365,10 +6689,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M55</xm:sqref>
+          <xm:sqref>N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="36" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6384,10 +6708,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M56:M57</xm:sqref>
+          <xm:sqref>N56:N57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="34" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6403,10 +6727,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M58</xm:sqref>
+          <xm:sqref>N58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="33" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6422,10 +6746,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M59</xm:sqref>
+          <xm:sqref>N59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="32" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6441,10 +6765,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M60</xm:sqref>
+          <xm:sqref>N60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="31" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6460,10 +6784,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M61</xm:sqref>
+          <xm:sqref>N61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="30" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6479,10 +6803,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M62</xm:sqref>
+          <xm:sqref>N62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="29" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6498,10 +6822,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M8</xm:sqref>
+          <xm:sqref>N8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
+          <x14:cfRule type="iconSet" priority="21" id="{C0FD6EE6-1B4D-48FC-9332-FA4111BA1546}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6517,10 +6841,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F12</xm:sqref>
+          <xm:sqref>F12:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{207F404F-5724-411F-826F-330204927AC3}">
+          <x14:cfRule type="iconSet" priority="16" id="{207F404F-5724-411F-826F-330204927AC3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6536,10 +6860,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F21 F24</xm:sqref>
+          <xm:sqref>F19:G19 F21:G21 F24:G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
+          <x14:cfRule type="iconSet" priority="15" id="{17437C75-3328-483E-A9FE-1DDF10B4B6E3}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6555,10 +6879,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F29</xm:sqref>
+          <xm:sqref>F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
+          <x14:cfRule type="iconSet" priority="14" id="{ADFFEC65-DEC2-4A9F-A304-22F458F7DBD4}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6574,10 +6898,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F23</xm:sqref>
+          <xm:sqref>F23:G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
+          <x14:cfRule type="iconSet" priority="13" id="{2727A48B-2FCF-4D18-8F3F-A557E21AE668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6593,10 +6917,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F34</xm:sqref>
+          <xm:sqref>F34:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
+          <x14:cfRule type="iconSet" priority="12" id="{6ED35B7B-96E8-4674-AB69-D9CFA3C5D103}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6612,10 +6936,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F35</xm:sqref>
+          <xm:sqref>F35:G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
+          <x14:cfRule type="iconSet" priority="11" id="{3F813BA1-70AA-4390-A685-4B8CB2E54B79}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6631,10 +6955,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F39</xm:sqref>
+          <xm:sqref>F39:G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
+          <x14:cfRule type="iconSet" priority="10" id="{F549FD72-7595-4211-AA11-ECF94DAE1C03}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6650,10 +6974,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F41</xm:sqref>
+          <xm:sqref>F41:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="60" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6669,10 +6993,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M45:M48</xm:sqref>
+          <xm:sqref>N45:N48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{AC159E3E-B0BA-401C-963A-83733E6BE004}">
+          <x14:cfRule type="iconSet" priority="9" id="{AC159E3E-B0BA-401C-963A-83733E6BE004}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6688,10 +7012,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F32</xm:sqref>
+          <xm:sqref>F32:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="59" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="65" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6707,10 +7031,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F49:F50 F7:F8 F15 F13 F10:F11 F44:F46 F17 F54 F60:F179 F56:F57</xm:sqref>
+          <xm:sqref>F49:G50 F15:G15 F13:G13 F10:G11 F44:G46 F17:G17 F54:G54 F63:G179 F56:G57 F7:G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{7B421C1E-AC06-4437-8AD1-5DD8C97B8A4F}">
+          <x14:cfRule type="iconSet" priority="7" id="{7B421C1E-AC06-4437-8AD1-5DD8C97B8A4F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6726,7 +7050,83 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F59</xm:sqref>
+          <xm:sqref>F59:G59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{D3DD4BDE-F10C-4B53-B168-C902F8D4AADE}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{AFFC4DFB-8870-48E7-8E2E-1B6EDFA51B86}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{E9D008B3-D2E4-4239-A5DC-282B176501AA}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A05F69FE-C4B2-4B6C-A111-BA0A8F86C1C2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -801,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -953,26 +953,110 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -986,188 +1070,110 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,10 +1611,10 @@
   <dimension ref="A1:P179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1630,87 +1636,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="96"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="97" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="107"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="102"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="105"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="132"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="12"/>
       <c r="I5" s="56" t="s">
         <v>60</v>
@@ -1758,13 +1764,13 @@
       <c r="K6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="A7" s="114">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1792,10 +1798,10 @@
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="110"/>
+      <c r="L7" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="118"/>
       <c r="N7" s="20">
         <f>SUM(N8:N62)</f>
         <v>68.38</v>
@@ -1805,8 +1811,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="81">
+      <c r="A8" s="115"/>
+      <c r="B8" s="89">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1818,11 +1824,11 @@
       <c r="E8" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="96">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="17" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1840,7 @@
       <c r="L8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="73"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="24">
         <f>SUM(E7:E9)</f>
         <v>2.82</v>
@@ -1844,8 +1850,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
@@ -1855,8 +1861,8 @@
       <c r="E9" s="16">
         <v>0.5</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="69"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1871,10 +1877,10 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="126">
+      <c r="A10" s="94">
         <v>2</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="87">
         <v>41589</v>
       </c>
       <c r="C10" s="26">
@@ -1913,8 +1919,8 @@
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -1946,7 +1952,7 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
@@ -1981,8 +1987,8 @@
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
-      <c r="B13" s="91">
+      <c r="A13" s="95"/>
+      <c r="B13" s="87">
         <v>41591</v>
       </c>
       <c r="C13" s="37">
@@ -1994,11 +2000,11 @@
       <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="98">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="28" t="s">
         <v>21</v>
       </c>
@@ -2015,8 +2021,8 @@
       <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="37">
         <v>0.91666666666666663</v>
       </c>
@@ -2026,8 +2032,8 @@
       <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="71"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="28" t="s">
         <v>24</v>
       </c>
@@ -2051,8 +2057,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="91">
+      <c r="A15" s="95"/>
+      <c r="B15" s="87">
         <v>41592</v>
       </c>
       <c r="C15" s="37">
@@ -2064,11 +2070,11 @@
       <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="98">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
-      <c r="G15" s="70"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="40" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2098,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="37">
         <v>0.375</v>
       </c>
@@ -2103,8 +2109,8 @@
       <c r="E16" s="38">
         <v>1.25</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="41" t="s">
         <v>25</v>
       </c>
@@ -2121,8 +2127,8 @@
       <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="91">
+      <c r="A17" s="95"/>
+      <c r="B17" s="87">
         <v>41593</v>
       </c>
       <c r="C17" s="37">
@@ -2134,11 +2140,11 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="98">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="76"/>
       <c r="H17" s="28" t="s">
         <v>21</v>
       </c>
@@ -2151,8 +2157,8 @@
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="37">
         <v>0.83333333333333337</v>
       </c>
@@ -2162,8 +2168,8 @@
       <c r="E18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="71"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="40" t="s">
         <v>24</v>
       </c>
@@ -2187,10 +2193,10 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="80">
         <v>3</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="89">
         <v>41596</v>
       </c>
       <c r="C19" s="43">
@@ -2202,11 +2208,11 @@
       <c r="E19" s="57">
         <v>1</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="96">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="25" t="s">
         <v>24</v>
       </c>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="85"/>
-      <c r="B20" s="83"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2241,8 +2247,8 @@
       <c r="E20" s="57">
         <v>2</v>
       </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="69"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="25" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
-      <c r="B21" s="81">
+      <c r="B21" s="89">
         <v>41597</v>
       </c>
       <c r="C21" s="43">
@@ -2270,11 +2276,11 @@
       <c r="E21" s="57">
         <v>1</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="96">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="25" t="s">
         <v>21</v>
       </c>
@@ -2295,7 +2301,7 @@
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
-      <c r="B22" s="83"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="43">
         <v>0.875</v>
       </c>
@@ -2305,8 +2311,8 @@
       <c r="E22" s="57">
         <v>1.5</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="69"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="25" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
-      <c r="B24" s="81">
+      <c r="B24" s="89">
         <v>41599</v>
       </c>
       <c r="C24" s="43">
@@ -2375,11 +2381,11 @@
       <c r="E24" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="96">
         <f>SUM(E24:E28)</f>
         <v>7.65</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="25" t="s">
         <v>25</v>
       </c>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
-      <c r="B25" s="82"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="43">
         <v>0.4236111111111111</v>
       </c>
@@ -2412,8 +2418,8 @@
       <c r="E25" s="57">
         <v>1.33</v>
       </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="25" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="85"/>
-      <c r="B26" s="82"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="43">
         <v>0.5625</v>
       </c>
@@ -2437,8 +2443,8 @@
       <c r="E26" s="57">
         <v>1</v>
       </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="72"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="25" t="s">
         <v>24</v>
       </c>
@@ -2454,7 +2460,7 @@
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="85"/>
-      <c r="B27" s="82"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="43">
         <v>0.625</v>
       </c>
@@ -2464,8 +2470,8 @@
       <c r="E27" s="57">
         <v>2.16</v>
       </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="25" t="s">
         <v>21</v>
       </c>
@@ -2481,7 +2487,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="85"/>
-      <c r="B28" s="83"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="43">
         <v>0.875</v>
       </c>
@@ -2491,8 +2497,8 @@
       <c r="E28" s="57">
         <v>2</v>
       </c>
-      <c r="F28" s="123"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="25" t="s">
         <v>24</v>
       </c>
@@ -2508,7 +2514,7 @@
     </row>
     <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
-      <c r="B29" s="81">
+      <c r="B29" s="89">
         <v>41600</v>
       </c>
       <c r="C29" s="43">
@@ -2520,11 +2526,11 @@
       <c r="E29" s="57">
         <v>1.25</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="96">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="25" t="s">
         <v>21</v>
       </c>
@@ -2547,7 +2553,7 @@
     </row>
     <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="85"/>
-      <c r="B30" s="82"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="43">
         <v>0.64583333333333337</v>
       </c>
@@ -2557,8 +2563,8 @@
       <c r="E30" s="57">
         <v>1</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="72"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="25" t="s">
         <v>26</v>
       </c>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="85"/>
-      <c r="B31" s="83"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2584,8 +2590,8 @@
       <c r="E31" s="57">
         <v>3</v>
       </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="69"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="25" t="s">
         <v>24</v>
       </c>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="85"/>
-      <c r="B32" s="81">
+      <c r="B32" s="89">
         <v>41601</v>
       </c>
       <c r="C32" s="43">
@@ -2613,11 +2619,11 @@
       <c r="E32" s="57">
         <v>0.25</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="96">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="25" t="s">
         <v>21</v>
       </c>
@@ -2632,8 +2638,8 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="43">
         <v>0.57291666666666663</v>
       </c>
@@ -2643,8 +2649,8 @@
       <c r="E33" s="57">
         <v>1</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="72"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="25" t="s">
         <v>26</v>
       </c>
@@ -2661,7 +2667,7 @@
       <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90">
+      <c r="A34" s="82">
         <v>4</v>
       </c>
       <c r="B34" s="11">
@@ -2676,11 +2682,11 @@
       <c r="E34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="76">
         <f>E34</f>
         <v>1</v>
       </c>
-      <c r="G34" s="70"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="49" t="s">
         <v>24</v>
       </c>
@@ -2702,8 +2708,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="91">
+      <c r="A35" s="86"/>
+      <c r="B35" s="87">
         <v>41604</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -2715,11 +2721,11 @@
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F35" s="131">
         <f>SUM(E35:E38)</f>
         <v>6.5</v>
       </c>
-      <c r="G35" s="78"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="49" t="s">
         <v>24</v>
       </c>
@@ -2734,8 +2740,8 @@
       <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="48" t="s">
         <v>88</v>
       </c>
@@ -2745,8 +2751,8 @@
       <c r="E36" s="38">
         <v>2.5</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="64"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="49" t="s">
         <v>25</v>
       </c>
@@ -2761,8 +2767,8 @@
       <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="48" t="s">
         <v>90</v>
       </c>
@@ -2772,8 +2778,8 @@
       <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="64"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="72"/>
       <c r="H37" s="49" t="s">
         <v>21</v>
       </c>
@@ -2788,8 +2794,8 @@
       <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="48" t="s">
         <v>91</v>
       </c>
@@ -2799,8 +2805,8 @@
       <c r="E38" s="59">
         <v>2</v>
       </c>
-      <c r="F38" s="89"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="49" t="s">
         <v>24</v>
       </c>
@@ -2815,8 +2821,8 @@
       <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="91">
+      <c r="A39" s="86"/>
+      <c r="B39" s="87">
         <v>41605</v>
       </c>
       <c r="C39" s="48" t="s">
@@ -2828,11 +2834,11 @@
       <c r="E39" s="59">
         <v>2.33</v>
       </c>
-      <c r="F39" s="90">
+      <c r="F39" s="82">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
-      <c r="G39" s="66"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="49" t="s">
         <v>21</v>
       </c>
@@ -2854,8 +2860,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="48" t="s">
         <v>89</v>
       </c>
@@ -2865,8 +2871,8 @@
       <c r="E40" s="59">
         <v>1</v>
       </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="65"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="49" t="s">
         <v>24</v>
       </c>
@@ -2888,8 +2894,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="91">
+      <c r="A41" s="86"/>
+      <c r="B41" s="87">
         <v>41606</v>
       </c>
       <c r="C41" s="48" t="s">
@@ -2901,11 +2907,11 @@
       <c r="E41" s="59">
         <v>1.33</v>
       </c>
-      <c r="F41" s="90">
+      <c r="F41" s="82">
         <f>SUM(E41:E43)</f>
         <v>5.83</v>
       </c>
-      <c r="G41" s="66"/>
+      <c r="G41" s="74"/>
       <c r="H41" s="49" t="s">
         <v>24</v>
       </c>
@@ -2920,8 +2926,8 @@
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="48" t="s">
         <v>97</v>
       </c>
@@ -2931,8 +2937,8 @@
       <c r="E42" s="59">
         <v>1.75</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="64"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="49" t="s">
         <v>27</v>
       </c>
@@ -2947,8 +2953,8 @@
       <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="48" t="s">
         <v>94</v>
       </c>
@@ -2958,8 +2964,8 @@
       <c r="E43" s="59">
         <v>2.75</v>
       </c>
-      <c r="F43" s="89"/>
-      <c r="G43" s="65"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="49" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +2987,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="11">
         <v>41607</v>
       </c>
@@ -3021,7 +3027,7 @@
       <c r="A45" s="85">
         <v>5</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="89">
         <v>41611</v>
       </c>
       <c r="C45" s="44" t="s">
@@ -3033,11 +3039,11 @@
       <c r="E45" s="57">
         <v>1.5</v>
       </c>
-      <c r="F45" s="84">
+      <c r="F45" s="80">
         <f>SUM(E45:E48)</f>
         <v>6.5</v>
       </c>
-      <c r="G45" s="67"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="25" t="s">
         <v>27</v>
       </c>
@@ -3060,7 +3066,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="85"/>
-      <c r="B46" s="82"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="44" t="s">
         <v>118</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>0.5</v>
       </c>
       <c r="F46" s="85"/>
-      <c r="G46" s="62"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="25" t="s">
         <v>119</v>
       </c>
@@ -3087,7 +3093,7 @@
     </row>
     <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="85"/>
-      <c r="B47" s="82"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="44" t="s">
         <v>94</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>3.5</v>
       </c>
       <c r="F47" s="85"/>
-      <c r="G47" s="62"/>
+      <c r="G47" s="69"/>
       <c r="H47" s="25" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +3120,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="85"/>
-      <c r="B48" s="83"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="44" t="s">
         <v>113</v>
       </c>
@@ -3124,8 +3130,8 @@
       <c r="E48" s="57">
         <v>1</v>
       </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="63"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="25" t="s">
         <v>24</v>
       </c>
@@ -3190,11 +3196,11 @@
       <c r="E50" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F50" s="131">
+      <c r="F50" s="84">
         <f>SUM(E50:E53)</f>
         <v>4.82</v>
       </c>
-      <c r="G50" s="61"/>
+      <c r="G50" s="78"/>
       <c r="H50" s="25" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>1.5</v>
       </c>
       <c r="F51" s="85"/>
-      <c r="G51" s="62"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="25" t="s">
         <v>25</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>0.66</v>
       </c>
       <c r="F52" s="85"/>
-      <c r="G52" s="62"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="25" t="s">
         <v>21</v>
       </c>
@@ -3280,8 +3286,8 @@
       <c r="E53" s="57">
         <v>1.5</v>
       </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="25" t="s">
         <v>26</v>
       </c>
@@ -3296,7 +3302,7 @@
       <c r="O53" s="21"/>
     </row>
     <row r="54" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="88">
+      <c r="A54" s="86">
         <v>6</v>
       </c>
       <c r="B54" s="11">
@@ -3311,11 +3317,11 @@
       <c r="E54" s="48">
         <v>4.5</v>
       </c>
-      <c r="F54" s="90">
+      <c r="F54" s="133">
         <f>SUM(E54:E55)</f>
         <v>5.5</v>
       </c>
-      <c r="G54" s="66"/>
+      <c r="G54" s="82"/>
       <c r="H54" s="49" t="s">
         <v>21</v>
       </c>
@@ -3330,7 +3336,7 @@
       <c r="O54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="11">
         <v>41617</v>
       </c>
@@ -3343,8 +3349,8 @@
       <c r="E55" s="48">
         <v>1</v>
       </c>
-      <c r="F55" s="89"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="49" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +3372,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="11">
         <v>41618</v>
       </c>
@@ -3379,11 +3385,11 @@
       <c r="E56" s="48">
         <v>2.5</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="48">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="G56" s="48"/>
       <c r="H56" s="49" t="s">
         <v>29</v>
       </c>
@@ -3405,8 +3411,8 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="88"/>
-      <c r="B57" s="91">
+      <c r="A57" s="86"/>
+      <c r="B57" s="87">
         <v>41620</v>
       </c>
       <c r="C57" s="52" t="s">
@@ -3418,11 +3424,11 @@
       <c r="E57" s="48">
         <v>1</v>
       </c>
-      <c r="F57" s="90">
+      <c r="F57" s="82">
         <f>SUM(E57,E58)</f>
         <v>4</v>
       </c>
-      <c r="G57" s="90"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="49" t="s">
         <v>21</v>
       </c>
@@ -3437,8 +3443,8 @@
       <c r="O57" s="21"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="88"/>
-      <c r="B58" s="93"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="48" t="s">
         <v>136</v>
       </c>
@@ -3448,8 +3454,8 @@
       <c r="E58" s="48">
         <v>3</v>
       </c>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="49" t="s">
         <v>27</v>
       </c>
@@ -3471,7 +3477,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="11">
         <v>41621</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="48">
-        <f t="shared" ref="F59:F62" si="1">E59</f>
+        <f t="shared" ref="F59:F60" si="1">E59</f>
         <v>3</v>
       </c>
       <c r="G59" s="48"/>
@@ -3510,7 +3516,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="84">
+      <c r="A60" s="80">
         <v>7</v>
       </c>
       <c r="B60" s="10">
@@ -3529,7 +3535,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G60" s="54">
+      <c r="G60" s="44">
         <v>5</v>
       </c>
       <c r="H60" s="25" t="s">
@@ -3554,7 +3560,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="85"/>
-      <c r="B61" s="81">
+      <c r="B61" s="89">
         <v>41625</v>
       </c>
       <c r="C61" s="44" t="s">
@@ -3566,11 +3572,11 @@
       <c r="E61" s="44">
         <v>2</v>
       </c>
-      <c r="F61" s="84">
+      <c r="F61" s="80">
         <f>SUM(E61,E62)</f>
         <v>4</v>
       </c>
-      <c r="G61" s="84">
+      <c r="G61" s="80">
         <v>5</v>
       </c>
       <c r="H61" s="25" t="s">
@@ -3593,7 +3599,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="85"/>
-      <c r="B62" s="83"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="44" t="s">
         <v>94</v>
       </c>
@@ -3603,8 +3609,8 @@
       <c r="E62" s="44">
         <v>2</v>
       </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
       <c r="H62" s="25" t="s">
         <v>29</v>
       </c>
@@ -3633,11 +3639,11 @@
       <c r="C63" s="54"/>
       <c r="D63" s="54"/>
       <c r="E63" s="60"/>
-      <c r="F63" s="54">
+      <c r="F63" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="54">
+      <c r="G63" s="44">
         <v>5</v>
       </c>
       <c r="H63" s="25"/>
@@ -3650,18 +3656,18 @@
       <c r="O63" s="12"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="81"/>
       <c r="B64" s="10">
         <v>41628</v>
       </c>
       <c r="C64" s="54"/>
       <c r="D64" s="54"/>
       <c r="E64" s="60"/>
-      <c r="F64" s="54">
+      <c r="F64" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="54">
+      <c r="G64" s="44">
         <v>5</v>
       </c>
       <c r="H64" s="25"/>
@@ -3674,7 +3680,7 @@
       <c r="O64" s="12"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
+      <c r="A65" s="82">
         <v>8</v>
       </c>
       <c r="B65" s="11">
@@ -3683,11 +3689,11 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="39"/>
-      <c r="F65" s="13">
+      <c r="F65" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="48">
         <v>5</v>
       </c>
       <c r="H65" s="49"/>
@@ -3700,18 +3706,18 @@
       <c r="O65" s="12"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="88"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="11">
         <v>41632</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="39"/>
-      <c r="F66" s="13">
+      <c r="F66" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="48">
         <v>5</v>
       </c>
       <c r="H66" s="49"/>
@@ -3724,18 +3730,18 @@
       <c r="O66" s="12"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="88"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="11">
         <v>41633</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="39"/>
-      <c r="F67" s="13">
+      <c r="F67" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="48">
         <v>5</v>
       </c>
       <c r="H67" s="49"/>
@@ -3748,18 +3754,18 @@
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="88"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="11">
         <v>41634</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="39"/>
-      <c r="F68" s="13">
+      <c r="F68" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="48">
         <v>5</v>
       </c>
       <c r="H68" s="49"/>
@@ -3772,19 +3778,19 @@
       <c r="O68" s="12"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="11">
         <v>41635</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="39"/>
-      <c r="F69" s="13">
+      <c r="F69" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G69" s="13">
-        <v>5</v>
+      <c r="G69" s="48">
+        <v>3</v>
       </c>
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
@@ -3796,7 +3802,7 @@
       <c r="O69" s="12"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="84">
+      <c r="A70" s="80">
         <v>9</v>
       </c>
       <c r="B70" s="10">
@@ -3805,11 +3811,11 @@
       <c r="C70" s="54"/>
       <c r="D70" s="54"/>
       <c r="E70" s="60"/>
-      <c r="F70" s="54">
+      <c r="F70" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G70" s="54">
+      <c r="G70" s="44">
         <v>5</v>
       </c>
       <c r="H70" s="25"/>
@@ -3829,11 +3835,11 @@
       <c r="C71" s="54"/>
       <c r="D71" s="54"/>
       <c r="E71" s="60"/>
-      <c r="F71" s="54">
+      <c r="F71" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G71" s="54">
+      <c r="G71" s="44">
         <v>5</v>
       </c>
       <c r="H71" s="25"/>
@@ -3853,11 +3859,11 @@
       <c r="C72" s="54"/>
       <c r="D72" s="54"/>
       <c r="E72" s="60"/>
-      <c r="F72" s="54">
+      <c r="F72" s="44">
         <f t="shared" ref="F72:F103" si="2">E72</f>
         <v>0</v>
       </c>
-      <c r="G72" s="54">
+      <c r="G72" s="44">
         <v>5</v>
       </c>
       <c r="H72" s="25"/>
@@ -3877,11 +3883,11 @@
       <c r="C73" s="54"/>
       <c r="D73" s="54"/>
       <c r="E73" s="60"/>
-      <c r="F73" s="54">
+      <c r="F73" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G73" s="54">
+      <c r="G73" s="44">
         <v>5</v>
       </c>
       <c r="H73" s="25"/>
@@ -3894,18 +3900,18 @@
       <c r="O73" s="12"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
+      <c r="A74" s="81"/>
       <c r="B74" s="10">
         <v>41642</v>
       </c>
       <c r="C74" s="54"/>
       <c r="D74" s="54"/>
       <c r="E74" s="60"/>
-      <c r="F74" s="54">
+      <c r="F74" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G74" s="54">
+      <c r="G74" s="44">
         <v>5</v>
       </c>
       <c r="H74" s="25"/>
@@ -3918,7 +3924,7 @@
       <c r="O74" s="12"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="90">
+      <c r="A75" s="82">
         <v>10</v>
       </c>
       <c r="B75" s="11">
@@ -3927,11 +3933,13 @@
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="39"/>
-      <c r="F75" s="13">
+      <c r="F75" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="13"/>
+      <c r="G75" s="48">
+        <v>5</v>
+      </c>
       <c r="H75" s="49"/>
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
@@ -3942,18 +3950,20 @@
       <c r="O75" s="12"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="88"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="11">
         <v>41646</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="39"/>
-      <c r="F76" s="13">
+      <c r="F76" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76" s="13"/>
+      <c r="G76" s="48">
+        <v>3</v>
+      </c>
       <c r="H76" s="49"/>
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
@@ -3964,18 +3974,20 @@
       <c r="O76" s="12"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="88"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="11">
         <v>41647</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="39"/>
-      <c r="F77" s="13">
+      <c r="F77" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="13"/>
+      <c r="G77" s="48">
+        <v>3</v>
+      </c>
       <c r="H77" s="49"/>
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
@@ -3986,18 +3998,20 @@
       <c r="O77" s="12"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="88"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="11">
         <v>41648</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="39"/>
-      <c r="F78" s="13">
+      <c r="F78" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="13"/>
+      <c r="G78" s="48">
+        <v>5</v>
+      </c>
       <c r="H78" s="49"/>
       <c r="I78" s="49"/>
       <c r="J78" s="49"/>
@@ -4008,18 +4022,20 @@
       <c r="O78" s="12"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="11">
         <v>41649</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="39"/>
-      <c r="F79" s="13">
+      <c r="F79" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79" s="13"/>
+      <c r="G79" s="48">
+        <v>5</v>
+      </c>
       <c r="H79" s="49"/>
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
@@ -4030,7 +4046,7 @@
       <c r="O79" s="12"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="84">
+      <c r="A80" s="80">
         <v>11</v>
       </c>
       <c r="B80" s="10">
@@ -4039,11 +4055,13 @@
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
       <c r="E80" s="60"/>
-      <c r="F80" s="54">
+      <c r="F80" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="54"/>
+      <c r="G80" s="44">
+        <v>8</v>
+      </c>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
@@ -4061,11 +4079,13 @@
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
       <c r="E81" s="60"/>
-      <c r="F81" s="54">
+      <c r="F81" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="54"/>
+      <c r="G81" s="44">
+        <v>8</v>
+      </c>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
@@ -4083,11 +4103,13 @@
       <c r="C82" s="54"/>
       <c r="D82" s="54"/>
       <c r="E82" s="60"/>
-      <c r="F82" s="54">
+      <c r="F82" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="54"/>
+      <c r="G82" s="44">
+        <v>8</v>
+      </c>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
@@ -4105,11 +4127,13 @@
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
       <c r="E83" s="60"/>
-      <c r="F83" s="54">
+      <c r="F83" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="54"/>
+      <c r="G83" s="44">
+        <v>8</v>
+      </c>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
@@ -4120,18 +4144,20 @@
       <c r="O83" s="12"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="81"/>
       <c r="B84" s="10">
         <v>41656</v>
       </c>
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
       <c r="E84" s="60"/>
-      <c r="F84" s="54">
+      <c r="F84" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="54"/>
+      <c r="G84" s="44">
+        <v>8</v>
+      </c>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
@@ -4142,7 +4168,7 @@
       <c r="O84" s="12"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="90">
+      <c r="A85" s="82">
         <v>12</v>
       </c>
       <c r="B85" s="11">
@@ -4151,11 +4177,13 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="39"/>
-      <c r="F85" s="13">
+      <c r="F85" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="13"/>
+      <c r="G85" s="48">
+        <v>8</v>
+      </c>
       <c r="H85" s="49"/>
       <c r="I85" s="49"/>
       <c r="J85" s="49"/>
@@ -4166,18 +4194,20 @@
       <c r="O85" s="12"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="88"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="11">
         <v>41660</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="39"/>
-      <c r="F86" s="13">
+      <c r="F86" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="13"/>
+      <c r="G86" s="48">
+        <v>8</v>
+      </c>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
@@ -4188,18 +4218,20 @@
       <c r="O86" s="12"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="88"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="11">
         <v>41661</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="39"/>
-      <c r="F87" s="13">
+      <c r="F87" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="13"/>
+      <c r="G87" s="48">
+        <v>8</v>
+      </c>
       <c r="H87" s="49"/>
       <c r="I87" s="49"/>
       <c r="J87" s="49"/>
@@ -4210,18 +4242,20 @@
       <c r="O87" s="12"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="88"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="11">
         <v>41662</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="39"/>
-      <c r="F88" s="13">
+      <c r="F88" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="13"/>
+      <c r="G88" s="48">
+        <v>8</v>
+      </c>
       <c r="H88" s="49"/>
       <c r="I88" s="49"/>
       <c r="J88" s="49"/>
@@ -4232,18 +4266,20 @@
       <c r="O88" s="12"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
+      <c r="A89" s="83"/>
       <c r="B89" s="11">
         <v>41663</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="39"/>
-      <c r="F89" s="13">
+      <c r="F89" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="13"/>
+      <c r="G89" s="48">
+        <v>8</v>
+      </c>
       <c r="H89" s="49"/>
       <c r="I89" s="49"/>
       <c r="J89" s="49"/>
@@ -4254,7 +4290,7 @@
       <c r="O89" s="12"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="84">
+      <c r="A90" s="80">
         <v>13</v>
       </c>
       <c r="B90" s="10">
@@ -4263,11 +4299,11 @@
       <c r="C90" s="54"/>
       <c r="D90" s="54"/>
       <c r="E90" s="60"/>
-      <c r="F90" s="54">
+      <c r="F90" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="54"/>
+      <c r="G90" s="44"/>
       <c r="H90" s="25" t="s">
         <v>35</v>
       </c>
@@ -4287,11 +4323,11 @@
       <c r="C91" s="54"/>
       <c r="D91" s="54"/>
       <c r="E91" s="60"/>
-      <c r="F91" s="54">
+      <c r="F91" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="54"/>
+      <c r="G91" s="44"/>
       <c r="H91" s="25" t="s">
         <v>35</v>
       </c>
@@ -4311,11 +4347,11 @@
       <c r="C92" s="54"/>
       <c r="D92" s="54"/>
       <c r="E92" s="60"/>
-      <c r="F92" s="54">
+      <c r="F92" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="54"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="25" t="s">
         <v>35</v>
       </c>
@@ -4335,11 +4371,11 @@
       <c r="C93" s="54"/>
       <c r="D93" s="54"/>
       <c r="E93" s="60"/>
-      <c r="F93" s="54">
+      <c r="F93" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="54"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="25" t="s">
         <v>35</v>
       </c>
@@ -4352,18 +4388,18 @@
       <c r="O93" s="12"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="10">
         <v>41670</v>
       </c>
       <c r="C94" s="54"/>
       <c r="D94" s="54"/>
       <c r="E94" s="60"/>
-      <c r="F94" s="54">
+      <c r="F94" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="54"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="25" t="s">
         <v>35</v>
       </c>
@@ -4376,7 +4412,7 @@
       <c r="O94" s="12"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+      <c r="A95" s="82">
         <v>14</v>
       </c>
       <c r="B95" s="11">
@@ -4385,11 +4421,11 @@
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="39"/>
-      <c r="F95" s="13">
+      <c r="F95" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="13"/>
+      <c r="G95" s="48"/>
       <c r="H95" s="55" t="s">
         <v>35</v>
       </c>
@@ -4402,18 +4438,18 @@
       <c r="O95" s="12"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="88"/>
+      <c r="A96" s="86"/>
       <c r="B96" s="11">
         <v>41674</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="39"/>
-      <c r="F96" s="13">
+      <c r="F96" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="13"/>
+      <c r="G96" s="48"/>
       <c r="H96" s="55" t="s">
         <v>35</v>
       </c>
@@ -4426,18 +4462,18 @@
       <c r="O96" s="12"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="88"/>
+      <c r="A97" s="86"/>
       <c r="B97" s="11">
         <v>41675</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="39"/>
-      <c r="F97" s="13">
+      <c r="F97" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="13"/>
+      <c r="G97" s="48"/>
       <c r="H97" s="55" t="s">
         <v>35</v>
       </c>
@@ -4450,18 +4486,18 @@
       <c r="O97" s="12"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="88"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="11">
         <v>41676</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="39"/>
-      <c r="F98" s="13">
+      <c r="F98" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="13"/>
+      <c r="G98" s="48"/>
       <c r="H98" s="55" t="s">
         <v>35</v>
       </c>
@@ -4474,18 +4510,18 @@
       <c r="O98" s="12"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="89"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="11">
         <v>41677</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="39"/>
-      <c r="F99" s="13">
+      <c r="F99" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="13"/>
+      <c r="G99" s="48"/>
       <c r="H99" s="55" t="s">
         <v>35</v>
       </c>
@@ -4498,7 +4534,7 @@
       <c r="O99" s="12"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="84">
+      <c r="A100" s="80">
         <v>15</v>
       </c>
       <c r="B100" s="10">
@@ -4507,11 +4543,13 @@
       <c r="C100" s="54"/>
       <c r="D100" s="54"/>
       <c r="E100" s="60"/>
-      <c r="F100" s="54">
+      <c r="F100" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="54"/>
+      <c r="G100" s="44">
+        <v>8</v>
+      </c>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
@@ -4529,11 +4567,13 @@
       <c r="C101" s="54"/>
       <c r="D101" s="54"/>
       <c r="E101" s="60"/>
-      <c r="F101" s="54">
+      <c r="F101" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="54"/>
+      <c r="G101" s="44">
+        <v>8</v>
+      </c>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
@@ -4551,11 +4591,13 @@
       <c r="C102" s="54"/>
       <c r="D102" s="54"/>
       <c r="E102" s="60"/>
-      <c r="F102" s="54">
+      <c r="F102" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="54"/>
+      <c r="G102" s="44">
+        <v>8</v>
+      </c>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
@@ -4573,11 +4615,13 @@
       <c r="C103" s="54"/>
       <c r="D103" s="54"/>
       <c r="E103" s="60"/>
-      <c r="F103" s="54">
+      <c r="F103" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="54"/>
+      <c r="G103" s="44">
+        <v>8</v>
+      </c>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
@@ -4588,18 +4632,20 @@
       <c r="O103" s="12"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
+      <c r="A104" s="81"/>
       <c r="B104" s="10">
         <v>41684</v>
       </c>
       <c r="C104" s="54"/>
       <c r="D104" s="54"/>
       <c r="E104" s="60"/>
-      <c r="F104" s="54">
+      <c r="F104" s="44">
         <f t="shared" ref="F104:F135" si="3">E104</f>
         <v>0</v>
       </c>
-      <c r="G104" s="54"/>
+      <c r="G104" s="44">
+        <v>8</v>
+      </c>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
@@ -4610,7 +4656,7 @@
       <c r="O104" s="12"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="90">
+      <c r="A105" s="82">
         <v>16</v>
       </c>
       <c r="B105" s="11">
@@ -4619,11 +4665,13 @@
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="39"/>
-      <c r="F105" s="13">
+      <c r="F105" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G105" s="13"/>
+      <c r="G105" s="48">
+        <v>8</v>
+      </c>
       <c r="H105" s="49"/>
       <c r="I105" s="49"/>
       <c r="J105" s="49"/>
@@ -4634,18 +4682,20 @@
       <c r="O105" s="12"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="88"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="11">
         <v>41688</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="39"/>
-      <c r="F106" s="13">
+      <c r="F106" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G106" s="13"/>
+      <c r="G106" s="48">
+        <v>8</v>
+      </c>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -4656,18 +4706,20 @@
       <c r="O106" s="12"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="88"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="11">
         <v>41689</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="39"/>
-      <c r="F107" s="13">
+      <c r="F107" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G107" s="13"/>
+      <c r="G107" s="48">
+        <v>8</v>
+      </c>
       <c r="H107" s="49"/>
       <c r="I107" s="49"/>
       <c r="J107" s="49"/>
@@ -4678,18 +4730,20 @@
       <c r="O107" s="12"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="88"/>
+      <c r="A108" s="86"/>
       <c r="B108" s="11">
         <v>41690</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="39"/>
-      <c r="F108" s="13">
+      <c r="F108" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G108" s="13"/>
+      <c r="G108" s="48">
+        <v>8</v>
+      </c>
       <c r="H108" s="49"/>
       <c r="I108" s="49"/>
       <c r="J108" s="49"/>
@@ -4700,18 +4754,20 @@
       <c r="O108" s="12"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="89"/>
+      <c r="A109" s="83"/>
       <c r="B109" s="11">
         <v>41691</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="39"/>
-      <c r="F109" s="13">
+      <c r="F109" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G109" s="13"/>
+      <c r="G109" s="48">
+        <v>8</v>
+      </c>
       <c r="H109" s="49"/>
       <c r="I109" s="49"/>
       <c r="J109" s="49"/>
@@ -4722,7 +4778,7 @@
       <c r="O109" s="12"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="84">
+      <c r="A110" s="80">
         <v>17</v>
       </c>
       <c r="B110" s="10">
@@ -4731,11 +4787,13 @@
       <c r="C110" s="54"/>
       <c r="D110" s="54"/>
       <c r="E110" s="60"/>
-      <c r="F110" s="54">
+      <c r="F110" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G110" s="54"/>
+      <c r="G110" s="44">
+        <v>8</v>
+      </c>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
@@ -4753,11 +4811,13 @@
       <c r="C111" s="54"/>
       <c r="D111" s="54"/>
       <c r="E111" s="60"/>
-      <c r="F111" s="54">
+      <c r="F111" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G111" s="54"/>
+      <c r="G111" s="44">
+        <v>8</v>
+      </c>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
@@ -4775,11 +4835,13 @@
       <c r="C112" s="54"/>
       <c r="D112" s="54"/>
       <c r="E112" s="60"/>
-      <c r="F112" s="54">
+      <c r="F112" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G112" s="54"/>
+      <c r="G112" s="44">
+        <v>8</v>
+      </c>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
@@ -4797,11 +4859,13 @@
       <c r="C113" s="54"/>
       <c r="D113" s="54"/>
       <c r="E113" s="60"/>
-      <c r="F113" s="54">
+      <c r="F113" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G113" s="54"/>
+      <c r="G113" s="44">
+        <v>8</v>
+      </c>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
@@ -4812,18 +4876,20 @@
       <c r="O113" s="12"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
+      <c r="A114" s="81"/>
       <c r="B114" s="10">
         <v>41698</v>
       </c>
       <c r="C114" s="54"/>
       <c r="D114" s="54"/>
       <c r="E114" s="60"/>
-      <c r="F114" s="54">
+      <c r="F114" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G114" s="54"/>
+      <c r="G114" s="44">
+        <v>8</v>
+      </c>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
@@ -4834,7 +4900,7 @@
       <c r="O114" s="12"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="90">
+      <c r="A115" s="82">
         <v>18</v>
       </c>
       <c r="B115" s="11">
@@ -4843,11 +4909,13 @@
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="39"/>
-      <c r="F115" s="13">
+      <c r="F115" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G115" s="13"/>
+      <c r="G115" s="48">
+        <v>8</v>
+      </c>
       <c r="H115" s="49"/>
       <c r="I115" s="49"/>
       <c r="J115" s="49"/>
@@ -4858,18 +4926,20 @@
       <c r="O115" s="12"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="88"/>
+      <c r="A116" s="86"/>
       <c r="B116" s="11">
         <v>41702</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="39"/>
-      <c r="F116" s="13">
+      <c r="F116" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G116" s="13"/>
+      <c r="G116" s="48">
+        <v>8</v>
+      </c>
       <c r="H116" s="49"/>
       <c r="I116" s="49"/>
       <c r="J116" s="49"/>
@@ -4880,18 +4950,20 @@
       <c r="O116" s="12"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="88"/>
+      <c r="A117" s="86"/>
       <c r="B117" s="11">
         <v>41703</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="39"/>
-      <c r="F117" s="13">
+      <c r="F117" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G117" s="13"/>
+      <c r="G117" s="48">
+        <v>8</v>
+      </c>
       <c r="H117" s="49"/>
       <c r="I117" s="49"/>
       <c r="J117" s="49"/>
@@ -4902,18 +4974,20 @@
       <c r="O117" s="12"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="88"/>
+      <c r="A118" s="86"/>
       <c r="B118" s="11">
         <v>41704</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="39"/>
-      <c r="F118" s="13">
+      <c r="F118" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G118" s="13"/>
+      <c r="G118" s="48">
+        <v>8</v>
+      </c>
       <c r="H118" s="49"/>
       <c r="I118" s="49"/>
       <c r="J118" s="49"/>
@@ -4924,18 +4998,20 @@
       <c r="O118" s="12"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="89"/>
+      <c r="A119" s="83"/>
       <c r="B119" s="11">
         <v>41705</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="39"/>
-      <c r="F119" s="13">
+      <c r="F119" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G119" s="13"/>
+      <c r="G119" s="48">
+        <v>8</v>
+      </c>
       <c r="H119" s="49"/>
       <c r="I119" s="49"/>
       <c r="J119" s="49"/>
@@ -4946,7 +5022,7 @@
       <c r="O119" s="12"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="84">
+      <c r="A120" s="80">
         <v>19</v>
       </c>
       <c r="B120" s="10">
@@ -4955,11 +5031,13 @@
       <c r="C120" s="54"/>
       <c r="D120" s="54"/>
       <c r="E120" s="60"/>
-      <c r="F120" s="54">
+      <c r="F120" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G120" s="54"/>
+      <c r="G120" s="44">
+        <v>8</v>
+      </c>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
@@ -4977,11 +5055,13 @@
       <c r="C121" s="54"/>
       <c r="D121" s="54"/>
       <c r="E121" s="60"/>
-      <c r="F121" s="54">
+      <c r="F121" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G121" s="54"/>
+      <c r="G121" s="44">
+        <v>8</v>
+      </c>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
@@ -4999,11 +5079,13 @@
       <c r="C122" s="54"/>
       <c r="D122" s="54"/>
       <c r="E122" s="60"/>
-      <c r="F122" s="54">
+      <c r="F122" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="54"/>
+      <c r="G122" s="44">
+        <v>8</v>
+      </c>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
@@ -5021,11 +5103,13 @@
       <c r="C123" s="54"/>
       <c r="D123" s="54"/>
       <c r="E123" s="60"/>
-      <c r="F123" s="54">
+      <c r="F123" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="54"/>
+      <c r="G123" s="44">
+        <v>8</v>
+      </c>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
@@ -5036,18 +5120,20 @@
       <c r="O123" s="12"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
+      <c r="A124" s="81"/>
       <c r="B124" s="10">
         <v>41712</v>
       </c>
       <c r="C124" s="54"/>
       <c r="D124" s="54"/>
       <c r="E124" s="60"/>
-      <c r="F124" s="54">
+      <c r="F124" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G124" s="54"/>
+      <c r="G124" s="44">
+        <v>8</v>
+      </c>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
@@ -5058,7 +5144,7 @@
       <c r="O124" s="12"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="90">
+      <c r="A125" s="82">
         <v>20</v>
       </c>
       <c r="B125" s="11">
@@ -5067,11 +5153,13 @@
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="39"/>
-      <c r="F125" s="13">
+      <c r="F125" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="13"/>
+      <c r="G125" s="48">
+        <v>8</v>
+      </c>
       <c r="H125" s="49"/>
       <c r="I125" s="49"/>
       <c r="J125" s="49"/>
@@ -5082,18 +5170,20 @@
       <c r="O125" s="12"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="88"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="11">
         <v>41716</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="39"/>
-      <c r="F126" s="13">
+      <c r="F126" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="13"/>
+      <c r="G126" s="48">
+        <v>8</v>
+      </c>
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
@@ -5104,18 +5194,20 @@
       <c r="O126" s="12"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="88"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="11">
         <v>41717</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="39"/>
-      <c r="F127" s="13">
+      <c r="F127" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="13"/>
+      <c r="G127" s="48">
+        <v>8</v>
+      </c>
       <c r="H127" s="49"/>
       <c r="I127" s="49"/>
       <c r="J127" s="49"/>
@@ -5126,18 +5218,20 @@
       <c r="O127" s="12"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="88"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="11">
         <v>41718</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="39"/>
-      <c r="F128" s="13">
+      <c r="F128" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="13"/>
+      <c r="G128" s="48">
+        <v>8</v>
+      </c>
       <c r="H128" s="49"/>
       <c r="I128" s="49"/>
       <c r="J128" s="49"/>
@@ -5148,18 +5242,20 @@
       <c r="O128" s="12"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="89"/>
+      <c r="A129" s="83"/>
       <c r="B129" s="11">
         <v>41719</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="39"/>
-      <c r="F129" s="13">
+      <c r="F129" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="13"/>
+      <c r="G129" s="48">
+        <v>8</v>
+      </c>
       <c r="H129" s="49"/>
       <c r="I129" s="49"/>
       <c r="J129" s="49"/>
@@ -5170,7 +5266,7 @@
       <c r="O129" s="12"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="84">
+      <c r="A130" s="80">
         <v>21</v>
       </c>
       <c r="B130" s="10">
@@ -5179,11 +5275,13 @@
       <c r="C130" s="54"/>
       <c r="D130" s="54"/>
       <c r="E130" s="60"/>
-      <c r="F130" s="54">
+      <c r="F130" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G130" s="54"/>
+      <c r="G130" s="44">
+        <v>8</v>
+      </c>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
@@ -5201,11 +5299,13 @@
       <c r="C131" s="54"/>
       <c r="D131" s="54"/>
       <c r="E131" s="60"/>
-      <c r="F131" s="54">
+      <c r="F131" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G131" s="54"/>
+      <c r="G131" s="44">
+        <v>8</v>
+      </c>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
@@ -5223,11 +5323,13 @@
       <c r="C132" s="54"/>
       <c r="D132" s="54"/>
       <c r="E132" s="60"/>
-      <c r="F132" s="54">
+      <c r="F132" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="54"/>
+      <c r="G132" s="44">
+        <v>8</v>
+      </c>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
@@ -5245,11 +5347,13 @@
       <c r="C133" s="54"/>
       <c r="D133" s="54"/>
       <c r="E133" s="60"/>
-      <c r="F133" s="54">
+      <c r="F133" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="54"/>
+      <c r="G133" s="44">
+        <v>8</v>
+      </c>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
@@ -5260,18 +5364,20 @@
       <c r="O133" s="12"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="86"/>
+      <c r="A134" s="81"/>
       <c r="B134" s="10">
         <v>41726</v>
       </c>
       <c r="C134" s="54"/>
       <c r="D134" s="54"/>
       <c r="E134" s="60"/>
-      <c r="F134" s="54">
+      <c r="F134" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="54"/>
+      <c r="G134" s="44">
+        <v>8</v>
+      </c>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
@@ -5282,7 +5388,7 @@
       <c r="O134" s="12"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="90">
+      <c r="A135" s="82">
         <v>22</v>
       </c>
       <c r="B135" s="11">
@@ -5291,11 +5397,13 @@
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="39"/>
-      <c r="F135" s="13">
+      <c r="F135" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="13"/>
+      <c r="G135" s="48">
+        <v>8</v>
+      </c>
       <c r="H135" s="49"/>
       <c r="I135" s="49"/>
       <c r="J135" s="49"/>
@@ -5306,18 +5414,20 @@
       <c r="O135" s="12"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="88"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="11">
         <v>41730</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="39"/>
-      <c r="F136" s="13">
+      <c r="F136" s="48">
         <f t="shared" ref="F136:F167" si="4">E136</f>
         <v>0</v>
       </c>
-      <c r="G136" s="13"/>
+      <c r="G136" s="48">
+        <v>8</v>
+      </c>
       <c r="H136" s="49"/>
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
@@ -5328,18 +5438,20 @@
       <c r="O136" s="12"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="88"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="11">
         <v>41731</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="39"/>
-      <c r="F137" s="13">
+      <c r="F137" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G137" s="13"/>
+      <c r="G137" s="48">
+        <v>8</v>
+      </c>
       <c r="H137" s="49"/>
       <c r="I137" s="49"/>
       <c r="J137" s="49"/>
@@ -5350,18 +5462,20 @@
       <c r="O137" s="12"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="88"/>
+      <c r="A138" s="86"/>
       <c r="B138" s="11">
         <v>41732</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="39"/>
-      <c r="F138" s="13">
+      <c r="F138" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G138" s="13"/>
+      <c r="G138" s="48">
+        <v>8</v>
+      </c>
       <c r="H138" s="49"/>
       <c r="I138" s="49"/>
       <c r="J138" s="49"/>
@@ -5372,18 +5486,20 @@
       <c r="O138" s="12"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="89"/>
+      <c r="A139" s="83"/>
       <c r="B139" s="11">
         <v>41733</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="39"/>
-      <c r="F139" s="13">
+      <c r="F139" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G139" s="13"/>
+      <c r="G139" s="48">
+        <v>8</v>
+      </c>
       <c r="H139" s="49"/>
       <c r="I139" s="49"/>
       <c r="J139" s="49"/>
@@ -5394,7 +5510,7 @@
       <c r="O139" s="12"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="84">
+      <c r="A140" s="80">
         <v>23</v>
       </c>
       <c r="B140" s="10">
@@ -5403,11 +5519,13 @@
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
       <c r="E140" s="60"/>
-      <c r="F140" s="54">
+      <c r="F140" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G140" s="54"/>
+      <c r="G140" s="44">
+        <v>8</v>
+      </c>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
@@ -5425,11 +5543,13 @@
       <c r="C141" s="54"/>
       <c r="D141" s="54"/>
       <c r="E141" s="60"/>
-      <c r="F141" s="54">
+      <c r="F141" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G141" s="54"/>
+      <c r="G141" s="44">
+        <v>8</v>
+      </c>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
@@ -5447,11 +5567,13 @@
       <c r="C142" s="54"/>
       <c r="D142" s="54"/>
       <c r="E142" s="60"/>
-      <c r="F142" s="54">
+      <c r="F142" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G142" s="54"/>
+      <c r="G142" s="44">
+        <v>8</v>
+      </c>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
@@ -5469,11 +5591,13 @@
       <c r="C143" s="54"/>
       <c r="D143" s="54"/>
       <c r="E143" s="60"/>
-      <c r="F143" s="54">
+      <c r="F143" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G143" s="54"/>
+      <c r="G143" s="44">
+        <v>8</v>
+      </c>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
@@ -5484,18 +5608,20 @@
       <c r="O143" s="12"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="86"/>
+      <c r="A144" s="81"/>
       <c r="B144" s="10">
         <v>41740</v>
       </c>
       <c r="C144" s="54"/>
       <c r="D144" s="54"/>
       <c r="E144" s="60"/>
-      <c r="F144" s="54">
+      <c r="F144" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G144" s="54"/>
+      <c r="G144" s="44">
+        <v>8</v>
+      </c>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
@@ -5506,7 +5632,7 @@
       <c r="O144" s="12"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="90">
+      <c r="A145" s="82">
         <v>24</v>
       </c>
       <c r="B145" s="11">
@@ -5515,11 +5641,13 @@
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="39"/>
-      <c r="F145" s="13">
+      <c r="F145" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G145" s="13"/>
+      <c r="G145" s="48">
+        <v>8</v>
+      </c>
       <c r="H145" s="49"/>
       <c r="I145" s="49"/>
       <c r="J145" s="49"/>
@@ -5530,18 +5658,20 @@
       <c r="O145" s="12"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="88"/>
+      <c r="A146" s="86"/>
       <c r="B146" s="11">
         <v>41744</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="39"/>
-      <c r="F146" s="13">
+      <c r="F146" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G146" s="13"/>
+      <c r="G146" s="48">
+        <v>8</v>
+      </c>
       <c r="H146" s="49"/>
       <c r="I146" s="49"/>
       <c r="J146" s="49"/>
@@ -5552,18 +5682,20 @@
       <c r="O146" s="12"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="88"/>
+      <c r="A147" s="86"/>
       <c r="B147" s="11">
         <v>41745</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="39"/>
-      <c r="F147" s="13">
+      <c r="F147" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G147" s="13"/>
+      <c r="G147" s="48">
+        <v>8</v>
+      </c>
       <c r="H147" s="49"/>
       <c r="I147" s="49"/>
       <c r="J147" s="49"/>
@@ -5574,18 +5706,20 @@
       <c r="O147" s="12"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="88"/>
+      <c r="A148" s="86"/>
       <c r="B148" s="11">
         <v>41746</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="39"/>
-      <c r="F148" s="13">
+      <c r="F148" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G148" s="13"/>
+      <c r="G148" s="48">
+        <v>8</v>
+      </c>
       <c r="H148" s="49"/>
       <c r="I148" s="49"/>
       <c r="J148" s="49"/>
@@ -5596,18 +5730,20 @@
       <c r="O148" s="12"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="89"/>
+      <c r="A149" s="83"/>
       <c r="B149" s="11">
         <v>41747</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="39"/>
-      <c r="F149" s="13">
+      <c r="F149" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G149" s="13"/>
+      <c r="G149" s="48">
+        <v>8</v>
+      </c>
       <c r="H149" s="49"/>
       <c r="I149" s="49"/>
       <c r="J149" s="49"/>
@@ -5618,7 +5754,7 @@
       <c r="O149" s="12"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="84">
+      <c r="A150" s="80">
         <v>25</v>
       </c>
       <c r="B150" s="10">
@@ -5627,11 +5763,13 @@
       <c r="C150" s="54"/>
       <c r="D150" s="54"/>
       <c r="E150" s="60"/>
-      <c r="F150" s="54">
+      <c r="F150" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G150" s="54"/>
+      <c r="G150" s="44">
+        <v>8</v>
+      </c>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -5649,11 +5787,13 @@
       <c r="C151" s="54"/>
       <c r="D151" s="54"/>
       <c r="E151" s="60"/>
-      <c r="F151" s="54">
+      <c r="F151" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G151" s="54"/>
+      <c r="G151" s="44">
+        <v>8</v>
+      </c>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
@@ -5671,11 +5811,13 @@
       <c r="C152" s="54"/>
       <c r="D152" s="54"/>
       <c r="E152" s="60"/>
-      <c r="F152" s="54">
+      <c r="F152" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G152" s="54"/>
+      <c r="G152" s="44">
+        <v>8</v>
+      </c>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -5693,11 +5835,13 @@
       <c r="C153" s="54"/>
       <c r="D153" s="54"/>
       <c r="E153" s="60"/>
-      <c r="F153" s="54">
+      <c r="F153" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G153" s="54"/>
+      <c r="G153" s="44">
+        <v>8</v>
+      </c>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
@@ -5708,18 +5852,20 @@
       <c r="O153" s="12"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="86"/>
+      <c r="A154" s="81"/>
       <c r="B154" s="10">
         <v>41754</v>
       </c>
       <c r="C154" s="54"/>
       <c r="D154" s="54"/>
       <c r="E154" s="60"/>
-      <c r="F154" s="54">
+      <c r="F154" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G154" s="54"/>
+      <c r="G154" s="44">
+        <v>8</v>
+      </c>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
@@ -5730,7 +5876,7 @@
       <c r="O154" s="12"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="90">
+      <c r="A155" s="82">
         <v>26</v>
       </c>
       <c r="B155" s="11">
@@ -5739,11 +5885,13 @@
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="39"/>
-      <c r="F155" s="13">
+      <c r="F155" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G155" s="13"/>
+      <c r="G155" s="48">
+        <v>8</v>
+      </c>
       <c r="H155" s="49"/>
       <c r="I155" s="49"/>
       <c r="J155" s="49"/>
@@ -5754,18 +5902,20 @@
       <c r="O155" s="12"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="88"/>
+      <c r="A156" s="86"/>
       <c r="B156" s="11">
         <v>41758</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="39"/>
-      <c r="F156" s="13">
+      <c r="F156" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G156" s="13"/>
+      <c r="G156" s="48">
+        <v>8</v>
+      </c>
       <c r="H156" s="49"/>
       <c r="I156" s="49"/>
       <c r="J156" s="49"/>
@@ -5776,18 +5926,20 @@
       <c r="O156" s="12"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="88"/>
+      <c r="A157" s="86"/>
       <c r="B157" s="11">
         <v>41759</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="39"/>
-      <c r="F157" s="13">
+      <c r="F157" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="13"/>
+      <c r="G157" s="48">
+        <v>8</v>
+      </c>
       <c r="H157" s="49"/>
       <c r="I157" s="49"/>
       <c r="J157" s="49"/>
@@ -5798,18 +5950,20 @@
       <c r="O157" s="12"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="88"/>
+      <c r="A158" s="86"/>
       <c r="B158" s="11">
         <v>41760</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="39"/>
-      <c r="F158" s="13">
+      <c r="F158" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="13"/>
+      <c r="G158" s="48">
+        <v>8</v>
+      </c>
       <c r="H158" s="49"/>
       <c r="I158" s="49"/>
       <c r="J158" s="49"/>
@@ -5820,18 +5974,20 @@
       <c r="O158" s="12"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" s="89"/>
+      <c r="A159" s="83"/>
       <c r="B159" s="11">
         <v>41761</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="39"/>
-      <c r="F159" s="13">
+      <c r="F159" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G159" s="13"/>
+      <c r="G159" s="48">
+        <v>8</v>
+      </c>
       <c r="H159" s="49"/>
       <c r="I159" s="49"/>
       <c r="J159" s="49"/>
@@ -5842,7 +5998,7 @@
       <c r="O159" s="12"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" s="84">
+      <c r="A160" s="80">
         <v>27</v>
       </c>
       <c r="B160" s="10">
@@ -5851,11 +6007,13 @@
       <c r="C160" s="54"/>
       <c r="D160" s="54"/>
       <c r="E160" s="60"/>
-      <c r="F160" s="54">
+      <c r="F160" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="54"/>
+      <c r="G160" s="44">
+        <v>8</v>
+      </c>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
@@ -5873,11 +6031,13 @@
       <c r="C161" s="54"/>
       <c r="D161" s="54"/>
       <c r="E161" s="60"/>
-      <c r="F161" s="54">
+      <c r="F161" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="54"/>
+      <c r="G161" s="44">
+        <v>8</v>
+      </c>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
@@ -5895,11 +6055,13 @@
       <c r="C162" s="54"/>
       <c r="D162" s="54"/>
       <c r="E162" s="60"/>
-      <c r="F162" s="54">
+      <c r="F162" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G162" s="54"/>
+      <c r="G162" s="44">
+        <v>8</v>
+      </c>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
@@ -5917,11 +6079,13 @@
       <c r="C163" s="54"/>
       <c r="D163" s="54"/>
       <c r="E163" s="60"/>
-      <c r="F163" s="54">
+      <c r="F163" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="54"/>
+      <c r="G163" s="44">
+        <v>8</v>
+      </c>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
@@ -5932,18 +6096,20 @@
       <c r="O163" s="12"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="86"/>
+      <c r="A164" s="81"/>
       <c r="B164" s="10">
         <v>41768</v>
       </c>
       <c r="C164" s="54"/>
       <c r="D164" s="54"/>
       <c r="E164" s="60"/>
-      <c r="F164" s="54">
+      <c r="F164" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G164" s="54"/>
+      <c r="G164" s="44">
+        <v>8</v>
+      </c>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
@@ -5954,7 +6120,7 @@
       <c r="O164" s="12"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" s="90">
+      <c r="A165" s="82">
         <v>28</v>
       </c>
       <c r="B165" s="11">
@@ -5963,11 +6129,13 @@
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="39"/>
-      <c r="F165" s="13">
+      <c r="F165" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G165" s="13"/>
+      <c r="G165" s="48">
+        <v>8</v>
+      </c>
       <c r="H165" s="49"/>
       <c r="I165" s="49"/>
       <c r="J165" s="49"/>
@@ -5978,18 +6146,20 @@
       <c r="O165" s="12"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" s="88"/>
+      <c r="A166" s="86"/>
       <c r="B166" s="11">
         <v>41772</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="39"/>
-      <c r="F166" s="13">
+      <c r="F166" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G166" s="13"/>
+      <c r="G166" s="48">
+        <v>8</v>
+      </c>
       <c r="H166" s="49"/>
       <c r="I166" s="49"/>
       <c r="J166" s="49"/>
@@ -6000,18 +6170,20 @@
       <c r="O166" s="12"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="88"/>
+      <c r="A167" s="86"/>
       <c r="B167" s="11">
         <v>41773</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="39"/>
-      <c r="F167" s="13">
+      <c r="F167" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G167" s="13"/>
+      <c r="G167" s="48">
+        <v>8</v>
+      </c>
       <c r="H167" s="49"/>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -6022,18 +6194,20 @@
       <c r="O167" s="12"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="88"/>
+      <c r="A168" s="86"/>
       <c r="B168" s="11">
         <v>41774</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="39"/>
-      <c r="F168" s="13">
+      <c r="F168" s="48">
         <f t="shared" ref="F168:F179" si="5">E168</f>
         <v>0</v>
       </c>
-      <c r="G168" s="13"/>
+      <c r="G168" s="48">
+        <v>8</v>
+      </c>
       <c r="H168" s="49"/>
       <c r="I168" s="49"/>
       <c r="J168" s="49"/>
@@ -6044,18 +6218,20 @@
       <c r="O168" s="12"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="89"/>
+      <c r="A169" s="83"/>
       <c r="B169" s="11">
         <v>41775</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="39"/>
-      <c r="F169" s="13">
+      <c r="F169" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G169" s="13"/>
+      <c r="G169" s="48">
+        <v>8</v>
+      </c>
       <c r="H169" s="49"/>
       <c r="I169" s="49"/>
       <c r="J169" s="49"/>
@@ -6066,7 +6242,7 @@
       <c r="O169" s="12"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="84">
+      <c r="A170" s="80">
         <v>29</v>
       </c>
       <c r="B170" s="10">
@@ -6075,11 +6251,13 @@
       <c r="C170" s="54"/>
       <c r="D170" s="54"/>
       <c r="E170" s="60"/>
-      <c r="F170" s="54">
+      <c r="F170" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G170" s="54"/>
+      <c r="G170" s="44">
+        <v>8</v>
+      </c>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
@@ -6097,11 +6275,13 @@
       <c r="C171" s="54"/>
       <c r="D171" s="54"/>
       <c r="E171" s="60"/>
-      <c r="F171" s="54">
+      <c r="F171" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G171" s="54"/>
+      <c r="G171" s="44">
+        <v>8</v>
+      </c>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
@@ -6119,11 +6299,13 @@
       <c r="C172" s="54"/>
       <c r="D172" s="54"/>
       <c r="E172" s="60"/>
-      <c r="F172" s="54">
+      <c r="F172" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G172" s="54"/>
+      <c r="G172" s="44">
+        <v>8</v>
+      </c>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
@@ -6141,11 +6323,13 @@
       <c r="C173" s="54"/>
       <c r="D173" s="54"/>
       <c r="E173" s="60"/>
-      <c r="F173" s="54">
+      <c r="F173" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G173" s="54"/>
+      <c r="G173" s="44">
+        <v>8</v>
+      </c>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
@@ -6156,18 +6340,20 @@
       <c r="O173" s="12"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="86"/>
+      <c r="A174" s="81"/>
       <c r="B174" s="10">
         <v>41782</v>
       </c>
       <c r="C174" s="54"/>
       <c r="D174" s="54"/>
       <c r="E174" s="60"/>
-      <c r="F174" s="54">
+      <c r="F174" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G174" s="54"/>
+      <c r="G174" s="44">
+        <v>8</v>
+      </c>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
@@ -6178,7 +6364,7 @@
       <c r="O174" s="12"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="128">
+      <c r="A175" s="91">
         <v>30</v>
       </c>
       <c r="B175" s="11">
@@ -6187,11 +6373,13 @@
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
       <c r="E175" s="32"/>
-      <c r="F175" s="31">
+      <c r="F175" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G175" s="31"/>
+      <c r="G175" s="134">
+        <v>8</v>
+      </c>
       <c r="H175" s="55"/>
       <c r="I175" s="55"/>
       <c r="J175" s="55"/>
@@ -6202,18 +6390,20 @@
       <c r="O175" s="12"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="129"/>
+      <c r="A176" s="92"/>
       <c r="B176" s="11">
         <v>41786</v>
       </c>
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
       <c r="E176" s="32"/>
-      <c r="F176" s="31">
+      <c r="F176" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G176" s="31"/>
+      <c r="G176" s="134">
+        <v>8</v>
+      </c>
       <c r="H176" s="55"/>
       <c r="I176" s="55"/>
       <c r="J176" s="55"/>
@@ -6224,18 +6414,20 @@
       <c r="O176" s="12"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="129"/>
+      <c r="A177" s="92"/>
       <c r="B177" s="11">
         <v>41787</v>
       </c>
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
       <c r="E177" s="32"/>
-      <c r="F177" s="31">
+      <c r="F177" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G177" s="31"/>
+      <c r="G177" s="134">
+        <v>8</v>
+      </c>
       <c r="H177" s="55"/>
       <c r="I177" s="55"/>
       <c r="J177" s="55"/>
@@ -6246,18 +6438,20 @@
       <c r="O177" s="12"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="129"/>
+      <c r="A178" s="92"/>
       <c r="B178" s="11">
         <v>41788</v>
       </c>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
       <c r="E178" s="32"/>
-      <c r="F178" s="31">
+      <c r="F178" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G178" s="31"/>
+      <c r="G178" s="134">
+        <v>8</v>
+      </c>
       <c r="H178" s="55"/>
       <c r="I178" s="55"/>
       <c r="J178" s="55"/>
@@ -6268,18 +6462,20 @@
       <c r="O178" s="12"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="130"/>
+      <c r="A179" s="93"/>
       <c r="B179" s="11">
         <v>41789</v>
       </c>
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
       <c r="E179" s="32"/>
-      <c r="F179" s="31">
+      <c r="F179" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G179" s="31"/>
+      <c r="G179" s="134">
+        <v>8</v>
+      </c>
       <c r="H179" s="55"/>
       <c r="I179" s="55"/>
       <c r="J179" s="55"/>
@@ -6290,50 +6486,24 @@
       <c r="O179" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A175:A179"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
+  <mergeCells count="73">
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H2:O4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F15:F16"/>
@@ -6346,23 +6516,50 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="H2:O4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F45:F48"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G54:G55"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
     <cfRule type="cellIs" dxfId="3" priority="22" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_DaoKhau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="146">
   <si>
     <t>Week</t>
   </si>
@@ -801,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1010,170 +1010,185 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,13 +1623,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P179"/>
+  <dimension ref="A1:P225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H169" sqref="H169"/>
+      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,85 +1651,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="62"/>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="63"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="64"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="113"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="130"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
       <c r="F5" s="65"/>
       <c r="G5" s="79"/>
       <c r="H5" s="12"/>
@@ -1764,13 +1779,13 @@
       <c r="K6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="114">
+      <c r="A7" s="108">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1798,10 +1813,10 @@
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="118"/>
+      <c r="L7" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="112"/>
       <c r="N7" s="20">
         <f>SUM(N8:N62)</f>
         <v>68.38</v>
@@ -1811,8 +1826,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="89">
+      <c r="A8" s="109"/>
+      <c r="B8" s="83">
         <v>41586</v>
       </c>
       <c r="C8" s="8">
@@ -1824,7 +1839,7 @@
       <c r="E8" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="81">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1850,8 +1865,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="8">
         <v>0.63194444444444442</v>
       </c>
@@ -1861,7 +1876,7 @@
       <c r="E9" s="16">
         <v>0.5</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="75"/>
       <c r="H9" s="25" t="s">
         <v>25</v>
@@ -1877,10 +1892,10 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="94">
+      <c r="A10" s="128">
         <v>2</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="93">
         <v>41589</v>
       </c>
       <c r="C10" s="26">
@@ -1919,8 +1934,8 @@
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="26">
         <v>0.91666666666666663</v>
       </c>
@@ -1952,7 +1967,7 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="11">
         <v>41590</v>
       </c>
@@ -1987,8 +2002,8 @@
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="87">
+      <c r="A13" s="129"/>
+      <c r="B13" s="93">
         <v>41591</v>
       </c>
       <c r="C13" s="37">
@@ -2000,7 +2015,7 @@
       <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="126">
         <f>SUM(E13:E14)</f>
         <v>3</v>
       </c>
@@ -2021,8 +2036,8 @@
       <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="37">
         <v>0.91666666666666663</v>
       </c>
@@ -2032,7 +2047,7 @@
       <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="127"/>
       <c r="G14" s="77"/>
       <c r="H14" s="28" t="s">
         <v>24</v>
@@ -2057,8 +2072,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="87">
+      <c r="A15" s="129"/>
+      <c r="B15" s="93">
         <v>41592</v>
       </c>
       <c r="C15" s="37">
@@ -2070,7 +2085,7 @@
       <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="126">
         <f>SUM(E15:E16)</f>
         <v>2.25</v>
       </c>
@@ -2098,8 +2113,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="37">
         <v>0.375</v>
       </c>
@@ -2109,7 +2124,7 @@
       <c r="E16" s="38">
         <v>1.25</v>
       </c>
-      <c r="F16" s="99"/>
+      <c r="F16" s="127"/>
       <c r="G16" s="77"/>
       <c r="H16" s="41" t="s">
         <v>25</v>
@@ -2127,8 +2142,8 @@
       <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="87">
+      <c r="A17" s="129"/>
+      <c r="B17" s="93">
         <v>41593</v>
       </c>
       <c r="C17" s="37">
@@ -2140,7 +2155,7 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="126">
         <f>SUM(E17:E18)</f>
         <v>2</v>
       </c>
@@ -2157,8 +2172,8 @@
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="37">
         <v>0.83333333333333337</v>
       </c>
@@ -2168,7 +2183,7 @@
       <c r="E18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="77"/>
       <c r="H18" s="40" t="s">
         <v>24</v>
@@ -2193,10 +2208,10 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="80">
+      <c r="A19" s="86">
         <v>3</v>
       </c>
-      <c r="B19" s="89">
+      <c r="B19" s="83">
         <v>41596</v>
       </c>
       <c r="C19" s="43">
@@ -2208,7 +2223,7 @@
       <c r="E19" s="57">
         <v>1</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="81">
         <f>SUM(E19:E20)</f>
         <v>3</v>
       </c>
@@ -2228,7 +2243,7 @@
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="39">
-        <f>SUM(E65:E69)</f>
+        <f>SUM(E65:E71)</f>
         <v>0</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -2236,8 +2251,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2247,7 +2262,7 @@
       <c r="E20" s="57">
         <v>2</v>
       </c>
-      <c r="F20" s="97"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="75"/>
       <c r="H20" s="25" t="s">
         <v>30</v>
@@ -2263,8 +2278,8 @@
       <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="89">
+      <c r="A21" s="87"/>
+      <c r="B21" s="83">
         <v>41597</v>
       </c>
       <c r="C21" s="43">
@@ -2276,7 +2291,7 @@
       <c r="E21" s="57">
         <v>1</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="81">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2292,7 +2307,7 @@
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="39">
-        <f>SUM(E70:E74)</f>
+        <f>SUM(E72:E78)</f>
         <v>0</v>
       </c>
       <c r="O21" s="21" t="s">
@@ -2300,8 +2315,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="43">
         <v>0.875</v>
       </c>
@@ -2311,7 +2326,7 @@
       <c r="E22" s="57">
         <v>1.5</v>
       </c>
-      <c r="F22" s="97"/>
+      <c r="F22" s="125"/>
       <c r="G22" s="75"/>
       <c r="H22" s="25" t="s">
         <v>24</v>
@@ -2329,7 +2344,7 @@
       <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="10">
         <v>41598</v>
       </c>
@@ -2360,7 +2375,7 @@
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="39">
-        <f>SUM(E75:E79)</f>
+        <f>SUM(E79:E85)</f>
         <v>0</v>
       </c>
       <c r="O23" s="21" t="s">
@@ -2368,8 +2383,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="89">
+      <c r="A24" s="87"/>
+      <c r="B24" s="83">
         <v>41599</v>
       </c>
       <c r="C24" s="43">
@@ -2381,7 +2396,7 @@
       <c r="E24" s="57">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="81">
         <f>SUM(E24:E28)</f>
         <v>7.65</v>
       </c>
@@ -2399,7 +2414,7 @@
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="39">
-        <f>SUM(E80:E84)</f>
+        <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
       <c r="O24" s="21" t="s">
@@ -2407,8 +2422,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="43">
         <v>0.4236111111111111</v>
       </c>
@@ -2418,7 +2433,7 @@
       <c r="E25" s="57">
         <v>1.33</v>
       </c>
-      <c r="F25" s="101"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="67"/>
       <c r="H25" s="25" t="s">
         <v>21</v>
@@ -2432,8 +2447,8 @@
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="43">
         <v>0.5625</v>
       </c>
@@ -2443,7 +2458,7 @@
       <c r="E26" s="57">
         <v>1</v>
       </c>
-      <c r="F26" s="101"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="67"/>
       <c r="H26" s="25" t="s">
         <v>24</v>
@@ -2459,8 +2474,8 @@
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="43">
         <v>0.625</v>
       </c>
@@ -2470,7 +2485,7 @@
       <c r="E27" s="57">
         <v>2.16</v>
       </c>
-      <c r="F27" s="101"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="67"/>
       <c r="H27" s="25" t="s">
         <v>21</v>
@@ -2486,8 +2501,8 @@
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="43">
         <v>0.875</v>
       </c>
@@ -2497,7 +2512,7 @@
       <c r="E28" s="57">
         <v>2</v>
       </c>
-      <c r="F28" s="97"/>
+      <c r="F28" s="125"/>
       <c r="G28" s="75"/>
       <c r="H28" s="25" t="s">
         <v>24</v>
@@ -2513,8 +2528,8 @@
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="89">
+      <c r="A29" s="87"/>
+      <c r="B29" s="83">
         <v>41600</v>
       </c>
       <c r="C29" s="43">
@@ -2526,7 +2541,7 @@
       <c r="E29" s="57">
         <v>1.25</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="81">
         <f>SUM(E29:E31)</f>
         <v>5.25</v>
       </c>
@@ -2544,7 +2559,7 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="39">
-        <f>SUM(E85:E89)</f>
+        <f>SUM(E93:E99)</f>
         <v>0</v>
       </c>
       <c r="O29" s="21" t="s">
@@ -2552,8 +2567,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="43">
         <v>0.64583333333333337</v>
       </c>
@@ -2563,7 +2578,7 @@
       <c r="E30" s="57">
         <v>1</v>
       </c>
-      <c r="F30" s="101"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="67"/>
       <c r="H30" s="25" t="s">
         <v>26</v>
@@ -2579,8 +2594,8 @@
       <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="43">
         <v>0.83333333333333337</v>
       </c>
@@ -2590,7 +2605,7 @@
       <c r="E31" s="57">
         <v>3</v>
       </c>
-      <c r="F31" s="97"/>
+      <c r="F31" s="125"/>
       <c r="G31" s="75"/>
       <c r="H31" s="25" t="s">
         <v>24</v>
@@ -2606,70 +2621,70 @@
       <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="89">
+      <c r="A32" s="92">
+        <v>4</v>
+      </c>
+      <c r="B32" s="93">
         <v>41601</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="37">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="37">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="38">
         <v>0.25</v>
       </c>
-      <c r="F32" s="96">
+      <c r="F32" s="136">
         <f>SUM(E32:E33)</f>
         <v>1.25</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="25" t="s">
+      <c r="G32" s="137"/>
+      <c r="H32" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="23"/>
       <c r="M32" s="13"/>
       <c r="N32" s="39"/>
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="43">
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="37">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="37">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="38">
         <v>1</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="25" t="s">
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="23"/>
       <c r="M33" s="13"/>
       <c r="N33" s="39"/>
       <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82">
-        <v>4</v>
-      </c>
+      <c r="A34" s="90"/>
       <c r="B34" s="11">
         <v>41603</v>
       </c>
@@ -2700,7 +2715,7 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="39">
-        <f>SUM(E90:E94)</f>
+        <f>SUM(E100:E106)</f>
         <v>0</v>
       </c>
       <c r="O34" s="21" t="s">
@@ -2708,8 +2723,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87">
+      <c r="A35" s="90"/>
+      <c r="B35" s="93">
         <v>41604</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -2721,7 +2736,7 @@
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="131">
+      <c r="F35" s="89">
         <f>SUM(E35:E38)</f>
         <v>6.5</v>
       </c>
@@ -2740,8 +2755,8 @@
       <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="48" t="s">
         <v>88</v>
       </c>
@@ -2751,7 +2766,7 @@
       <c r="E36" s="38">
         <v>2.5</v>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="72"/>
       <c r="H36" s="49" t="s">
         <v>25</v>
@@ -2767,8 +2782,8 @@
       <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="48" t="s">
         <v>90</v>
       </c>
@@ -2778,7 +2793,7 @@
       <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="86"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="72"/>
       <c r="H37" s="49" t="s">
         <v>21</v>
@@ -2794,8 +2809,8 @@
       <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="88"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="48" t="s">
         <v>91</v>
       </c>
@@ -2805,7 +2820,7 @@
       <c r="E38" s="59">
         <v>2</v>
       </c>
-      <c r="F38" s="83"/>
+      <c r="F38" s="91"/>
       <c r="G38" s="73"/>
       <c r="H38" s="49" t="s">
         <v>24</v>
@@ -2821,8 +2836,8 @@
       <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="87">
+      <c r="A39" s="90"/>
+      <c r="B39" s="93">
         <v>41605</v>
       </c>
       <c r="C39" s="48" t="s">
@@ -2834,7 +2849,7 @@
       <c r="E39" s="59">
         <v>2.33</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="92">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2852,7 +2867,7 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="39">
-        <f>SUM(E95:E99)</f>
+        <f>SUM(E107:E113)</f>
         <v>0</v>
       </c>
       <c r="O39" s="21" t="s">
@@ -2860,8 +2875,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="88"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="48" t="s">
         <v>89</v>
       </c>
@@ -2871,7 +2886,7 